--- a/QuantLibXL/Data2/XLS/GBP_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_Market.xlsx
@@ -3571,148 +3571,154 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
         <stp/>
-        <stp>{6D41FEDC-F00A-4F82-869D-A676A9B19AFB}</stp>
+        <stp>{2B196DCD-8DF5-4FD8-9D50-4F5E7725CA70}</stp>
+        <tr r="K6" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 18:10:27</v>
+        <stp/>
+        <stp>{F4EEC3A9-50D8-4D78-85CC-3C52A5EBF407}</stp>
+        <tr r="D3" s="44"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 18:10:27</v>
+        <stp/>
+        <stp>{AEDF2A06-7570-4868-B8A3-1919154562C1}</stp>
+        <tr r="F4" s="61"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 18:10:27</v>
+        <stp/>
+        <stp>{06A3003E-E6CD-4BBF-BCEB-7B22E3155305}</stp>
+        <tr r="M4" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 18:10:27</v>
+        <stp/>
+        <stp>{02B0F079-9AB6-42F3-99C5-01C7F06F3CAC}</stp>
+        <tr r="D3" s="43"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 18:10:27</v>
+        <stp/>
+        <stp>{100BF9C8-B9B4-4467-A175-D7CF4D8F2766}</stp>
+        <tr r="S4" s="11"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 18:10:27</v>
+        <stp/>
+        <stp>{DECAB5B5-4644-4885-985D-105CE0453AA9}</stp>
+        <tr r="F4" s="60"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 18:10:27</v>
+        <stp/>
+        <stp>{660A16B7-1412-4ACB-8831-302D0F0F5FF2}</stp>
+        <tr r="O6" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 18:10:27</v>
+        <stp/>
+        <stp>{52FAA316-15D2-4C70-965F-D5A83A1FC9D4}</stp>
+        <tr r="O4" s="22"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 18:10:27</v>
+        <stp/>
+        <stp>{9BD66377-E8E3-4B60-89C9-7B69570216DB}</stp>
+        <tr r="O4" s="20"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rdatartdserver">
+      <tp t="s">
+        <v>Paused at 18:10:27</v>
+        <stp/>
+        <stp>{64444957-29DD-405D-A05C-FCB04D735A08}</stp>
+        <tr r="S4" s="24"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 18:10:27</v>
+        <stp/>
+        <stp>{9A1FCF3B-D422-4D0A-9D08-E943B12C2277}</stp>
+        <tr r="S4" s="10"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 18:10:27</v>
+        <stp/>
+        <stp>{DD76AFC5-EE5D-4F74-9B25-8C45B68A397F}</stp>
+        <tr r="S4" s="23"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 18:10:27</v>
+        <stp/>
+        <stp>{136F900F-D309-45F1-A191-71CCDC9CCDDD}</stp>
+        <tr r="O7" s="17"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 18:10:27</v>
+        <stp/>
+        <stp>{D354EE82-2C12-480E-BE4A-6B7A54F7F1E9}</stp>
         <tr r="D3" s="39"/>
       </tp>
       <tp t="s">
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
         <stp/>
-        <stp>{532EB58B-56E3-4285-B4CB-C48C43E36049}</stp>
+        <stp>{6AF01B9B-C838-452B-863E-58E20A9F46ED}</stp>
         <tr r="D3" s="40"/>
       </tp>
       <tp t="s">
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
         <stp/>
-        <stp>{71E0EBD3-2D12-4391-934F-A4E89E3D8EB7}</stp>
-        <tr r="F4" s="61"/>
+        <stp>{1165A302-B1AB-466E-B3E1-EF36C8425D93}</stp>
+        <tr r="O6" s="16"/>
       </tp>
       <tp t="s">
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
         <stp/>
-        <stp>{161BF903-D499-4E5B-87CF-3B1F78563FD1}</stp>
-        <tr r="D3" s="44"/>
+        <stp>{F2636708-5ECC-4077-A84F-EA07A94E838D}</stp>
+        <tr r="J4" s="13"/>
       </tp>
       <tp t="s">
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
         <stp/>
-        <stp>{72A538FB-3337-4FA1-83C6-F2001979A153}</stp>
-        <tr r="S4" s="10"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:48:31</v>
-        <stp/>
-        <stp>{A16832AD-5E05-4A0C-81DE-76458AE58665}</stp>
+        <stp>{5BB22F85-765B-48BC-9DEC-ADC45836EE85}</stp>
         <tr r="S4" s="64"/>
       </tp>
       <tp t="s">
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
         <stp/>
-        <stp>{1A110490-A79F-4070-8A30-0D8B1DCDBEE6}</stp>
+        <stp>{9CB1C6C0-D6D0-499F-825A-451F37F0F8E5}</stp>
+        <tr r="O4" s="21"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rdatartdserver">
+      <tp t="s">
+        <v>Paused at 18:10:27</v>
+        <stp/>
+        <stp>{C8864378-8033-48FB-8F3B-F3D0974C83CA}</stp>
+        <tr r="O3" s="15"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rdatartdserver">
+      <tp t="s">
+        <v>Paused at 18:10:27</v>
+        <stp/>
+        <stp>{E17D9951-AFEA-4A75-9821-EAC2CDB0579F}</stp>
         <tr r="J2" s="65"/>
       </tp>
       <tp t="s">
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
         <stp/>
-        <stp>{3F821604-DAC2-4032-B8F2-1B19F433B6E2}</stp>
-        <tr r="O6" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:48:31</v>
-        <stp/>
-        <stp>{06946E9E-4B67-4D14-8A13-E51C898475EC}</stp>
-        <tr r="O4" s="21"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:48:31</v>
-        <stp/>
-        <stp>{65D87F9E-37AC-4DED-8C02-112C8D5411E8}</stp>
-        <tr r="J4" s="13"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:48:31</v>
-        <stp/>
-        <stp>{7CD6DF5E-3DC4-4E6C-8EEB-8A9B92F43421}</stp>
-        <tr r="K6" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:48:31</v>
-        <stp/>
-        <stp>{BF4E9D5D-C332-42C9-B03D-B5AB4C94FD42}</stp>
-        <tr r="O4" s="22"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:48:31</v>
-        <stp/>
-        <stp>{F6119BE1-FDA4-4827-A745-B0457FC4924D}</stp>
-        <tr r="O6" s="16"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:48:31</v>
-        <stp/>
-        <stp>{F4E29466-568B-454D-922A-AE9AEEB50587}</stp>
-        <tr r="S4" s="24"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:48:31</v>
-        <stp/>
-        <stp>{FBA9A9CB-CDF6-4A0D-BB62-3FAD603890BF}</stp>
-        <tr r="O4" s="20"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:48:31</v>
-        <stp/>
-        <stp>{27A9A2BA-2F0C-4F84-878B-00C8B1DC28D9}</stp>
-        <tr r="S4" s="11"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:48:31</v>
-        <stp/>
-        <stp>{6909028A-784C-465A-AEAF-63694BFADEC5}</stp>
+        <stp>{AB3EA2C4-0F4C-4889-8EF8-206CA97AD6BA}</stp>
         <tr r="S4" s="9"/>
       </tp>
       <tp t="s">
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
         <stp/>
-        <stp>{225A0239-B5C2-47D7-A5AB-10DABBB6865D}</stp>
+        <stp>{24EBCCE4-EA41-446E-A209-2A406F9C7A8C}</stp>
         <tr r="H4" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:48:31</v>
-        <stp/>
-        <stp>{4B242023-4A3A-4A80-83D1-BBCC030B98B8}</stp>
-        <tr r="O3" s="15"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:48:31</v>
-        <stp/>
-        <stp>{8A9F3731-9E00-4AFF-9057-88ABF1779AB8}</stp>
-        <tr r="F4" s="60"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:48:31</v>
-        <stp/>
-        <stp>{DBDE1C68-FB27-4113-9C2A-3F3D6875FF8D}</stp>
-        <tr r="O7" s="17"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:48:31</v>
-        <stp/>
-        <stp>{A2853F0B-6C3A-4CB7-8D23-07974C8E7E3F}</stp>
-        <tr r="M4" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:48:31</v>
-        <stp/>
-        <stp>{38751F63-C171-4DAF-AEE5-E19DA52E2EEC}</stp>
-        <tr r="D3" s="43"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:48:31</v>
-        <stp/>
-        <stp>{CE8CC951-7502-4B01-82E6-6A7E001A8BA2}</stp>
-        <tr r="S4" s="23"/>
       </tp>
     </main>
   </volType>
@@ -4069,7 +4075,7 @@
         <v>89</v>
       </c>
       <c r="I4" s="11">
-        <v>41907.63009259259</v>
+        <v>41907.730219907404</v>
       </c>
       <c r="J4" s="10"/>
     </row>
@@ -4098,7 +4104,7 @@
       </c>
       <c r="D6" s="447">
         <f>_xll.ohTrigger(Deposits!P3,FRA!W3,Futures3M!Z5,FuturesHWConvAdj!Q3,Swaps1M!Y3,Swap3MAnnual!AC3,SwapsIMMDated!Y3,Swap6M!AC3,BasisSwap1MxM!AC3,BasisSwap3M6M!AC3,OIS!Y3)</f>
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="E6" s="437"/>
       <c r="G6" s="12"/>
@@ -4117,7 +4123,7 @@
       </c>
       <c r="D7" s="447">
         <f>_xll.ohTrigger(Libor!O7:O13)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="437"/>
       <c r="G7" s="12"/>
@@ -4590,7 +4596,7 @@
       <c r="Y5" s="165"/>
       <c r="Z5" s="361">
         <f>_xll.ohTrigger(Z7:Z48)</f>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AA5" s="360"/>
       <c r="AF5" s="318"/>
@@ -4642,7 +4648,7 @@
       </c>
       <c r="O6" s="367" t="str">
         <f>_xll.RData(O7:O48,P6:T6,"RTFEED:IDN",ReutersRtMode,,P7)</f>
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
       </c>
       <c r="P6" s="364" t="s">
         <v>258</v>
@@ -4806,7 +4812,7 @@
       </c>
       <c r="AM7" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL7,IborIndex,AK7,F7,Volatility,MeanReversion,Permanent,OR(ISERROR(Z7),ISERROR(FuturesHWConvAdj!Q5:Q6)),ObjectOverwrite)</f>
-        <v>GBPFUT3MV4ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MV4ConvAdj_Quote#0007</v>
       </c>
       <c r="AN7" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM7)</f>
@@ -4909,7 +4915,7 @@
       </c>
       <c r="AM8" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL8,IborIndex,AK8,F8,Volatility,MeanReversion,Permanent,OR(ISERROR(Z8),ISERROR(FuturesHWConvAdj!Q6:Q7)),ObjectOverwrite)</f>
-        <v>GBPFUT3MX4ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MX4ConvAdj_Quote#0007</v>
       </c>
       <c r="AN8" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM8)</f>
@@ -5012,7 +5018,7 @@
       </c>
       <c r="AM9" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL9,IborIndex,AK9,F9,Volatility,MeanReversion,Permanent,OR(ISERROR(Z9),ISERROR(FuturesHWConvAdj!Q7:Q8)),ObjectOverwrite)</f>
-        <v>GBPFUT3MZ4ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MZ4ConvAdj_Quote#0007</v>
       </c>
       <c r="AN9" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM9)</f>
@@ -5113,7 +5119,7 @@
       </c>
       <c r="AM10" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL10,IborIndex,AK10,F10,Volatility,MeanReversion,Permanent,OR(ISERROR(Z10),ISERROR(FuturesHWConvAdj!Q8:Q9)),ObjectOverwrite)</f>
-        <v>GBPFUT3MF5ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MF5ConvAdj_Quote#0007</v>
       </c>
       <c r="AN10" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM10)</f>
@@ -5216,7 +5222,7 @@
       </c>
       <c r="AM11" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL11,IborIndex,AK11,F11,Volatility,MeanReversion,Permanent,OR(ISERROR(Z11),ISERROR(FuturesHWConvAdj!Q9:Q10)),ObjectOverwrite)</f>
-        <v>GBPFUT3MG5ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MG5ConvAdj_Quote#0007</v>
       </c>
       <c r="AN11" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM11)</f>
@@ -5268,20 +5274,20 @@
         <v>42081</v>
       </c>
       <c r="Q12" s="332">
-        <v>99.15</v>
+        <v>99.16</v>
       </c>
       <c r="R12" s="332">
+        <v>99.17</v>
+      </c>
+      <c r="S12" s="332">
         <v>99.16</v>
-      </c>
-      <c r="S12" s="332">
-        <v>99.15</v>
       </c>
       <c r="T12" s="332">
         <v>99.15</v>
       </c>
       <c r="U12" s="331">
         <f>_xll.qlMidSafe($Q12,$R12)</f>
-        <v>99.155000000000001</v>
+        <v>99.164999999999992</v>
       </c>
       <c r="V12" s="325"/>
       <c r="W12" s="334">
@@ -5289,7 +5295,7 @@
       </c>
       <c r="X12" s="325"/>
       <c r="Y12" s="333">
-        <v>99.155000000000001</v>
+        <v>99.164999999999992</v>
       </c>
       <c r="Z12" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F12,Y12,Trigger)</f>
@@ -5313,7 +5319,7 @@
       </c>
       <c r="AM12" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL12,IborIndex,AK12,F12,Volatility,MeanReversion,Permanent,OR(ISERROR(Z12),ISERROR(FuturesHWConvAdj!Q10:Q11)),ObjectOverwrite)</f>
-        <v>GBPFUT3MH5ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MH5ConvAdj_Quote#0007</v>
       </c>
       <c r="AN12" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM12)</f>
@@ -5410,7 +5416,7 @@
       </c>
       <c r="AM13" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL13,IborIndex,AK13,F13,Volatility,MeanReversion,Permanent,OR(ISERROR(Z13),ISERROR(FuturesHWConvAdj!Q11:Q12)),ObjectOverwrite)</f>
-        <v>GBPFUT3MJ5ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MJ5ConvAdj_Quote#0007</v>
       </c>
       <c r="AN13" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM13)</f>
@@ -5507,7 +5513,7 @@
       </c>
       <c r="AM14" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL14,IborIndex,AK14,F14,Volatility,MeanReversion,Permanent,OR(ISERROR(Z14),ISERROR(FuturesHWConvAdj!Q12:Q13)),ObjectOverwrite)</f>
-        <v>GBPFUT3MK5ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MK5ConvAdj_Quote#0007</v>
       </c>
       <c r="AN14" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM14)</f>
@@ -5559,20 +5565,20 @@
         <v>42172</v>
       </c>
       <c r="Q15" s="332">
-        <v>98.95</v>
+        <v>98.96</v>
       </c>
       <c r="R15" s="332">
-        <v>98.96</v>
+        <v>98.97</v>
       </c>
       <c r="S15" s="332">
-        <v>98.95</v>
+        <v>98.97</v>
       </c>
       <c r="T15" s="332">
         <v>98.95</v>
       </c>
       <c r="U15" s="331">
         <f>_xll.qlMidSafe($Q15,$R15)</f>
-        <v>98.954999999999998</v>
+        <v>98.965000000000003</v>
       </c>
       <c r="V15" s="325"/>
       <c r="W15" s="334">
@@ -5580,7 +5586,7 @@
       </c>
       <c r="X15" s="325"/>
       <c r="Y15" s="333">
-        <v>98.954999999999998</v>
+        <v>98.965000000000003</v>
       </c>
       <c r="Z15" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F15,Y15,Trigger)</f>
@@ -5604,7 +5610,7 @@
       </c>
       <c r="AM15" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL15,IborIndex,AK15,F15,Volatility,MeanReversion,Permanent,OR(ISERROR(Z15),ISERROR(FuturesHWConvAdj!Q13:Q14)),ObjectOverwrite)</f>
-        <v>GBPFUT3MM5ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MM5ConvAdj_Quote#0007</v>
       </c>
       <c r="AN15" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM15)</f>
@@ -5701,7 +5707,7 @@
       </c>
       <c r="AM16" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL16,IborIndex,AK16,F16,Volatility,MeanReversion,Permanent,OR(ISERROR(Z16),ISERROR(FuturesHWConvAdj!Q14:Q15)),ObjectOverwrite)</f>
-        <v>GBPFUT3MN5ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MN5ConvAdj_Quote#0007</v>
       </c>
       <c r="AN16" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM16)</f>
@@ -5798,7 +5804,7 @@
       </c>
       <c r="AM17" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL17,IborIndex,AK17,F17,Volatility,MeanReversion,Permanent,OR(ISERROR(Z17),ISERROR(FuturesHWConvAdj!Q15:Q16)),ObjectOverwrite)</f>
-        <v>GBPFUT3MQ5ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MQ5ConvAdj_Quote#0007</v>
       </c>
       <c r="AN17" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM17)</f>
@@ -5850,20 +5856,20 @@
         <v>42263</v>
       </c>
       <c r="Q18" s="332">
-        <v>98.74</v>
+        <v>98.76</v>
       </c>
       <c r="R18" s="332">
-        <v>98.75</v>
+        <v>98.77</v>
       </c>
       <c r="S18" s="332">
-        <v>98.74</v>
+        <v>98.76</v>
       </c>
       <c r="T18" s="332">
         <v>98.74</v>
       </c>
       <c r="U18" s="331">
         <f>_xll.qlMidSafe($Q18,$R18)</f>
-        <v>98.745000000000005</v>
+        <v>98.765000000000001</v>
       </c>
       <c r="V18" s="325"/>
       <c r="W18" s="334">
@@ -5871,11 +5877,11 @@
       </c>
       <c r="X18" s="325"/>
       <c r="Y18" s="333">
-        <v>98.745000000000005</v>
+        <v>98.765000000000001</v>
       </c>
       <c r="Z18" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F18,Y18,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000005116E-2</v>
       </c>
       <c r="AA18" s="90"/>
       <c r="AF18" s="321"/>
@@ -5895,7 +5901,7 @@
       </c>
       <c r="AM18" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL18,IborIndex,AK18,F18,Volatility,MeanReversion,Permanent,OR(ISERROR(Z18),ISERROR(FuturesHWConvAdj!Q16:Q17)),ObjectOverwrite)</f>
-        <v>GBPFUT3MU5ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MU5ConvAdj_Quote#0007</v>
       </c>
       <c r="AN18" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM18)</f>
@@ -5947,20 +5953,20 @@
         <v>42354</v>
       </c>
       <c r="Q19" s="332">
-        <v>98.53</v>
+        <v>98.54</v>
       </c>
       <c r="R19" s="332">
-        <v>98.54</v>
+        <v>98.55</v>
       </c>
       <c r="S19" s="332">
-        <v>98.53</v>
+        <v>98.55</v>
       </c>
       <c r="T19" s="332">
         <v>98.525000000000006</v>
       </c>
       <c r="U19" s="331">
         <f>_xll.qlMidSafe($Q19,$R19)</f>
-        <v>98.534999999999997</v>
+        <v>98.545000000000002</v>
       </c>
       <c r="V19" s="325"/>
       <c r="W19" s="334">
@@ -5968,7 +5974,7 @@
       </c>
       <c r="X19" s="325"/>
       <c r="Y19" s="333">
-        <v>98.534999999999997</v>
+        <v>98.545000000000002</v>
       </c>
       <c r="Z19" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F19,Y19,Trigger)</f>
@@ -5992,7 +5998,7 @@
       </c>
       <c r="AM19" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL19,IborIndex,AK19,F19,Volatility,MeanReversion,Permanent,OR(ISERROR(Z19),ISERROR(FuturesHWConvAdj!Q17:Q18)),ObjectOverwrite)</f>
-        <v>GBPFUT3MZ5ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MZ5ConvAdj_Quote#0007</v>
       </c>
       <c r="AN19" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM19)</f>
@@ -6044,20 +6050,20 @@
         <v>42445</v>
       </c>
       <c r="Q20" s="332">
-        <v>98.33</v>
+        <v>98.35</v>
       </c>
       <c r="R20" s="332">
-        <v>98.34</v>
+        <v>98.36</v>
       </c>
       <c r="S20" s="332">
-        <v>98.34</v>
+        <v>98.35</v>
       </c>
       <c r="T20" s="332">
         <v>98.33</v>
       </c>
       <c r="U20" s="331">
         <f>_xll.qlMidSafe($Q20,$R20)</f>
-        <v>98.335000000000008</v>
+        <v>98.35499999999999</v>
       </c>
       <c r="V20" s="325"/>
       <c r="W20" s="334">
@@ -6065,7 +6071,7 @@
       </c>
       <c r="X20" s="325"/>
       <c r="Y20" s="333">
-        <v>98.335000000000008</v>
+        <v>98.35499999999999</v>
       </c>
       <c r="Z20" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F20,Y20,Trigger)</f>
@@ -6089,7 +6095,7 @@
       </c>
       <c r="AM20" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL20,IborIndex,AK20,F20,Volatility,MeanReversion,Permanent,OR(ISERROR(Z20),ISERROR(FuturesHWConvAdj!Q18:Q19)),ObjectOverwrite)</f>
-        <v>GBPFUT3MH6ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MH6ConvAdj_Quote#0007</v>
       </c>
       <c r="AN20" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM20)</f>
@@ -6141,20 +6147,20 @@
         <v>42536</v>
       </c>
       <c r="Q21" s="332">
-        <v>98.15</v>
+        <v>98.17</v>
       </c>
       <c r="R21" s="332">
-        <v>98.16</v>
+        <v>98.18</v>
       </c>
       <c r="S21" s="332">
-        <v>98.15</v>
+        <v>98.17</v>
       </c>
       <c r="T21" s="332">
         <v>98.144999999999996</v>
       </c>
       <c r="U21" s="331">
         <f>_xll.qlMidSafe($Q21,$R21)</f>
-        <v>98.155000000000001</v>
+        <v>98.175000000000011</v>
       </c>
       <c r="V21" s="325"/>
       <c r="W21" s="334">
@@ -6162,11 +6168,11 @@
       </c>
       <c r="X21" s="325"/>
       <c r="Y21" s="333">
-        <v>98.155000000000001</v>
+        <v>98.175000000000011</v>
       </c>
       <c r="Z21" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F21,Y21,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000019327E-2</v>
       </c>
       <c r="AA21" s="90"/>
       <c r="AF21" s="321"/>
@@ -6186,7 +6192,7 @@
       </c>
       <c r="AM21" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL21,IborIndex,AK21,F21,Volatility,MeanReversion,Permanent,OR(ISERROR(Z21),ISERROR(FuturesHWConvAdj!Q19:Q20)),ObjectOverwrite)</f>
-        <v>GBPFUT3MM6ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MM6ConvAdj_Quote#0007</v>
       </c>
       <c r="AN21" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM21)</f>
@@ -6238,20 +6244,20 @@
         <v>42634</v>
       </c>
       <c r="Q22" s="332">
-        <v>97.97</v>
+        <v>97.99</v>
       </c>
       <c r="R22" s="332">
-        <v>97.98</v>
+        <v>98</v>
       </c>
       <c r="S22" s="332">
-        <v>97.98</v>
+        <v>97.99</v>
       </c>
       <c r="T22" s="332">
         <v>97.965000000000003</v>
       </c>
       <c r="U22" s="331">
         <f>_xll.qlMidSafe($Q22,$R22)</f>
-        <v>97.974999999999994</v>
+        <v>97.995000000000005</v>
       </c>
       <c r="V22" s="325"/>
       <c r="W22" s="334">
@@ -6259,7 +6265,7 @@
       </c>
       <c r="X22" s="325"/>
       <c r="Y22" s="333">
-        <v>97.974999999999994</v>
+        <v>97.995000000000005</v>
       </c>
       <c r="Z22" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F22,Y22,Trigger)</f>
@@ -6283,7 +6289,7 @@
       </c>
       <c r="AM22" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL22,IborIndex,AK22,F22,Volatility,MeanReversion,Permanent,OR(ISERROR(Z22),ISERROR(FuturesHWConvAdj!Q20:Q21)),ObjectOverwrite)</f>
-        <v>GBPFUT3MU6ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MU6ConvAdj_Quote#0007</v>
       </c>
       <c r="AN22" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM22)</f>
@@ -6335,20 +6341,20 @@
         <v>42725</v>
       </c>
       <c r="Q23" s="332">
-        <v>97.82</v>
+        <v>97.84</v>
       </c>
       <c r="R23" s="332">
-        <v>97.83</v>
+        <v>97.85</v>
       </c>
       <c r="S23" s="332">
-        <v>97.82</v>
+        <v>97.84</v>
       </c>
       <c r="T23" s="332">
         <v>97.81</v>
       </c>
       <c r="U23" s="331">
         <f>_xll.qlMidSafe($Q23,$R23)</f>
-        <v>97.824999999999989</v>
+        <v>97.844999999999999</v>
       </c>
       <c r="V23" s="325"/>
       <c r="W23" s="334">
@@ -6356,7 +6362,7 @@
       </c>
       <c r="X23" s="325"/>
       <c r="Y23" s="333">
-        <v>97.824999999999989</v>
+        <v>97.844999999999999</v>
       </c>
       <c r="Z23" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F23,Y23,Trigger)</f>
@@ -6380,7 +6386,7 @@
       </c>
       <c r="AM23" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL23,IborIndex,AK23,F23,Volatility,MeanReversion,Permanent,OR(ISERROR(Z23),ISERROR(FuturesHWConvAdj!Q21:Q22)),ObjectOverwrite)</f>
-        <v>GBPFUT3MZ6ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MZ6ConvAdj_Quote#0007</v>
       </c>
       <c r="AN23" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM23)</f>
@@ -6432,20 +6438,20 @@
         <v>42809</v>
       </c>
       <c r="Q24" s="332">
-        <v>97.71</v>
+        <v>97.73</v>
       </c>
       <c r="R24" s="332">
-        <v>97.72</v>
+        <v>97.74</v>
       </c>
       <c r="S24" s="332">
-        <v>97.71</v>
+        <v>97.73</v>
       </c>
       <c r="T24" s="332">
         <v>97.69</v>
       </c>
       <c r="U24" s="331">
         <f>_xll.qlMidSafe($Q24,$R24)</f>
-        <v>97.715000000000003</v>
+        <v>97.734999999999999</v>
       </c>
       <c r="V24" s="325"/>
       <c r="W24" s="334">
@@ -6453,11 +6459,11 @@
       </c>
       <c r="X24" s="325"/>
       <c r="Y24" s="333">
-        <v>97.715000000000003</v>
+        <v>97.734999999999999</v>
       </c>
       <c r="Z24" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F24,Y24,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000005116E-2</v>
       </c>
       <c r="AA24" s="90"/>
       <c r="AF24" s="321"/>
@@ -6477,7 +6483,7 @@
       </c>
       <c r="AM24" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL24,IborIndex,AK24,F24,Volatility,MeanReversion,Permanent,OR(ISERROR(Z24),ISERROR(FuturesHWConvAdj!Q22:Q23)),ObjectOverwrite)</f>
-        <v>GBPFUT3MH7ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MH7ConvAdj_Quote#0007</v>
       </c>
       <c r="AN24" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM24)</f>
@@ -6529,20 +6535,20 @@
         <v>42907</v>
       </c>
       <c r="Q25" s="332">
-        <v>97.61</v>
+        <v>97.63</v>
       </c>
       <c r="R25" s="332">
-        <v>97.62</v>
+        <v>97.64</v>
       </c>
       <c r="S25" s="332">
-        <v>97.61</v>
+        <v>97.63</v>
       </c>
       <c r="T25" s="332">
         <v>97.58</v>
       </c>
       <c r="U25" s="331">
         <f>_xll.qlMidSafe($Q25,$R25)</f>
-        <v>97.615000000000009</v>
+        <v>97.634999999999991</v>
       </c>
       <c r="V25" s="325"/>
       <c r="W25" s="334">
@@ -6550,11 +6556,11 @@
       </c>
       <c r="X25" s="325"/>
       <c r="Y25" s="333">
-        <v>97.615000000000009</v>
+        <v>97.634999999999991</v>
       </c>
       <c r="Z25" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F25,Y25,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999909051E-3</v>
       </c>
       <c r="AA25" s="90"/>
       <c r="AF25" s="321"/>
@@ -6574,7 +6580,7 @@
       </c>
       <c r="AM25" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL25,IborIndex,AK25,F25,Volatility,MeanReversion,Permanent,OR(ISERROR(Z25),ISERROR(FuturesHWConvAdj!Q23:Q24)),ObjectOverwrite)</f>
-        <v>GBPFUT3MM7ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MM7ConvAdj_Quote#0007</v>
       </c>
       <c r="AN25" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM25)</f>
@@ -6626,20 +6632,20 @@
         <v>42998</v>
       </c>
       <c r="Q26" s="332">
-        <v>97.53</v>
+        <v>97.55</v>
       </c>
       <c r="R26" s="332">
-        <v>97.54</v>
+        <v>97.56</v>
       </c>
       <c r="S26" s="332">
-        <v>97.53</v>
+        <v>97.55</v>
       </c>
       <c r="T26" s="332">
         <v>97.5</v>
       </c>
       <c r="U26" s="331">
         <f>_xll.qlMidSafe($Q26,$R26)</f>
-        <v>97.534999999999997</v>
+        <v>97.555000000000007</v>
       </c>
       <c r="V26" s="325"/>
       <c r="W26" s="334">
@@ -6647,11 +6653,11 @@
       </c>
       <c r="X26" s="325"/>
       <c r="Y26" s="333">
-        <v>97.534999999999997</v>
+        <v>97.555000000000007</v>
       </c>
       <c r="Z26" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F26,Y26,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000005116E-2</v>
       </c>
       <c r="AA26" s="90"/>
       <c r="AF26" s="321"/>
@@ -6671,7 +6677,7 @@
       </c>
       <c r="AM26" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL26,IborIndex,AK26,F26,Volatility,MeanReversion,Permanent,OR(ISERROR(Z26),ISERROR(FuturesHWConvAdj!Q24:Q25)),ObjectOverwrite)</f>
-        <v>GBPFUT3MU7ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MU7ConvAdj_Quote#0007</v>
       </c>
       <c r="AN26" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM26)</f>
@@ -6723,20 +6729,20 @@
         <v>43089</v>
       </c>
       <c r="Q27" s="332">
-        <v>97.45</v>
+        <v>97.47</v>
       </c>
       <c r="R27" s="332">
-        <v>97.46</v>
+        <v>97.48</v>
       </c>
       <c r="S27" s="332">
-        <v>97.45</v>
+        <v>97.47</v>
       </c>
       <c r="T27" s="332">
         <v>97.42</v>
       </c>
       <c r="U27" s="331">
         <f>_xll.qlMidSafe($Q27,$R27)</f>
-        <v>97.454999999999998</v>
+        <v>97.474999999999994</v>
       </c>
       <c r="V27" s="325"/>
       <c r="W27" s="334">
@@ -6744,7 +6750,7 @@
       </c>
       <c r="X27" s="325"/>
       <c r="Y27" s="333">
-        <v>97.454999999999998</v>
+        <v>97.474999999999994</v>
       </c>
       <c r="Z27" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F27,Y27,Trigger)</f>
@@ -6768,7 +6774,7 @@
       </c>
       <c r="AM27" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL27,IborIndex,AK27,F27,Volatility,MeanReversion,Permanent,OR(ISERROR(Z27),ISERROR(FuturesHWConvAdj!Q25:Q26)),ObjectOverwrite)</f>
-        <v>GBPFUT3MZ7ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MZ7ConvAdj_Quote#0007</v>
       </c>
       <c r="AN27" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM27)</f>
@@ -6820,20 +6826,20 @@
         <v>43180</v>
       </c>
       <c r="Q28" s="332">
-        <v>97.39</v>
+        <v>97.41</v>
       </c>
       <c r="R28" s="332">
+        <v>97.42</v>
+      </c>
+      <c r="S28" s="332">
         <v>97.41</v>
-      </c>
-      <c r="S28" s="332">
-        <v>97.39</v>
       </c>
       <c r="T28" s="332">
         <v>97.355000000000004</v>
       </c>
       <c r="U28" s="331">
         <f>_xll.qlMidSafe($Q28,$R28)</f>
-        <v>97.4</v>
+        <v>97.414999999999992</v>
       </c>
       <c r="V28" s="325"/>
       <c r="W28" s="334">
@@ -6841,11 +6847,11 @@
       </c>
       <c r="X28" s="325"/>
       <c r="Y28" s="333">
-        <v>97.4</v>
+        <v>97.414999999999992</v>
       </c>
       <c r="Z28" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F28,Y28,Trigger)</f>
-        <v>0</v>
+        <v>4.9999999999954525E-3</v>
       </c>
       <c r="AA28" s="90"/>
       <c r="AF28" s="321"/>
@@ -6865,7 +6871,7 @@
       </c>
       <c r="AM28" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL28,IborIndex,AK28,F28,Volatility,MeanReversion,Permanent,OR(ISERROR(Z28),ISERROR(FuturesHWConvAdj!Q26:Q27)),ObjectOverwrite)</f>
-        <v>GBPFUT3MH8ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MH8ConvAdj_Quote#0007</v>
       </c>
       <c r="AN28" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM28)</f>
@@ -6917,20 +6923,20 @@
         <v>43271</v>
       </c>
       <c r="Q29" s="332">
-        <v>97.34</v>
+        <v>97.36</v>
       </c>
       <c r="R29" s="332">
+        <v>97.37</v>
+      </c>
+      <c r="S29" s="332">
         <v>97.36</v>
-      </c>
-      <c r="S29" s="332">
-        <v>97.33</v>
       </c>
       <c r="T29" s="332">
         <v>97.3</v>
       </c>
       <c r="U29" s="331">
         <f>_xll.qlMidSafe($Q29,$R29)</f>
-        <v>97.35</v>
+        <v>97.365000000000009</v>
       </c>
       <c r="V29" s="325"/>
       <c r="W29" s="334">
@@ -6938,11 +6944,11 @@
       </c>
       <c r="X29" s="325"/>
       <c r="Y29" s="333">
-        <v>97.35</v>
+        <v>97.365000000000009</v>
       </c>
       <c r="Z29" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F29,Y29,Trigger)</f>
-        <v>0</v>
+        <v>5.0000000000096634E-3</v>
       </c>
       <c r="AA29" s="90"/>
       <c r="AF29" s="321"/>
@@ -6962,7 +6968,7 @@
       </c>
       <c r="AM29" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL29,IborIndex,AK29,F29,Volatility,MeanReversion,Permanent,OR(ISERROR(Z29),ISERROR(FuturesHWConvAdj!Q27:Q28)),ObjectOverwrite)</f>
-        <v>GBPFUT3MM8ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MM8ConvAdj_Quote#0007</v>
       </c>
       <c r="AN29" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM29)</f>
@@ -7014,20 +7020,20 @@
         <v>43362</v>
       </c>
       <c r="Q30" s="332">
-        <v>97.3</v>
+        <v>97.32</v>
       </c>
       <c r="R30" s="332">
-        <v>97.32</v>
+        <v>97.33</v>
       </c>
       <c r="S30" s="332">
-        <v>97.28</v>
+        <v>97.31</v>
       </c>
       <c r="T30" s="332">
         <v>97.254999999999995</v>
       </c>
       <c r="U30" s="331">
         <f>_xll.qlMidSafe($Q30,$R30)</f>
-        <v>97.31</v>
+        <v>97.324999999999989</v>
       </c>
       <c r="V30" s="325"/>
       <c r="W30" s="334">
@@ -7035,7 +7041,7 @@
       </c>
       <c r="X30" s="325"/>
       <c r="Y30" s="333">
-        <v>97.31</v>
+        <v>97.324999999999989</v>
       </c>
       <c r="Z30" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F30,Y30,Trigger)</f>
@@ -7059,7 +7065,7 @@
       </c>
       <c r="AM30" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL30,IborIndex,AK30,F30,Volatility,MeanReversion,Permanent,OR(ISERROR(Z30),ISERROR(FuturesHWConvAdj!Q28:Q29)),ObjectOverwrite)</f>
-        <v>GBPFUT3MU8ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MU8ConvAdj_Quote#0007</v>
       </c>
       <c r="AN30" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM30)</f>
@@ -7111,10 +7117,10 @@
         <v>43453</v>
       </c>
       <c r="Q31" s="332">
-        <v>97.25</v>
+        <v>97.27</v>
       </c>
       <c r="R31" s="332">
-        <v>97.26</v>
+        <v>97.28</v>
       </c>
       <c r="S31" s="332">
         <v>0</v>
@@ -7124,7 +7130,7 @@
       </c>
       <c r="U31" s="331">
         <f>_xll.qlMidSafe($Q31,$R31)</f>
-        <v>97.254999999999995</v>
+        <v>97.275000000000006</v>
       </c>
       <c r="V31" s="325"/>
       <c r="W31" s="334">
@@ -7132,7 +7138,7 @@
       </c>
       <c r="X31" s="325"/>
       <c r="Y31" s="333">
-        <v>97.254999999999995</v>
+        <v>97.275000000000006</v>
       </c>
       <c r="Z31" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F31,Y31,Trigger)</f>
@@ -7156,7 +7162,7 @@
       </c>
       <c r="AM31" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL31,IborIndex,AK31,F31,Volatility,MeanReversion,Permanent,OR(ISERROR(Z31),ISERROR(FuturesHWConvAdj!Q29:Q30)),ObjectOverwrite)</f>
-        <v>GBPFUT3MZ8ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MZ8ConvAdj_Quote#0007</v>
       </c>
       <c r="AN31" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM31)</f>
@@ -7208,20 +7214,20 @@
         <v>43544</v>
       </c>
       <c r="Q32" s="332">
-        <v>97.19</v>
+        <v>97.23</v>
       </c>
       <c r="R32" s="332">
+        <v>97.24</v>
+      </c>
+      <c r="S32" s="332">
         <v>97.23</v>
-      </c>
-      <c r="S32" s="332">
-        <v>0</v>
       </c>
       <c r="T32" s="332">
         <v>97.165000000000006</v>
       </c>
       <c r="U32" s="331">
         <f>_xll.qlMidSafe($Q32,$R32)</f>
-        <v>97.210000000000008</v>
+        <v>97.234999999999999</v>
       </c>
       <c r="V32" s="325"/>
       <c r="W32" s="334">
@@ -7229,7 +7235,7 @@
       </c>
       <c r="X32" s="325"/>
       <c r="Y32" s="333">
-        <v>97.210000000000008</v>
+        <v>97.234999999999999</v>
       </c>
       <c r="Z32" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F32,Y32,Trigger)</f>
@@ -7253,7 +7259,7 @@
       </c>
       <c r="AM32" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL32,IborIndex,AK32,F32,Volatility,MeanReversion,Permanent,OR(ISERROR(Z32),ISERROR(FuturesHWConvAdj!Q30:Q31)),ObjectOverwrite)</f>
-        <v>GBPFUT3MH9ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MH9ConvAdj_Quote#0007</v>
       </c>
       <c r="AN32" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM32)</f>
@@ -7305,10 +7311,10 @@
         <v>43635</v>
       </c>
       <c r="Q33" s="332">
-        <v>97.12</v>
+        <v>97.18</v>
       </c>
       <c r="R33" s="332">
-        <v>0</v>
+        <v>97.24</v>
       </c>
       <c r="S33" s="332">
         <v>0</v>
@@ -7316,21 +7322,21 @@
       <c r="T33" s="332">
         <v>97.13</v>
       </c>
-      <c r="U33" s="331" t="e">
+      <c r="U33" s="331">
         <f>_xll.qlMidSafe($Q33,$R33)</f>
-        <v>#NUM!</v>
+        <v>97.210000000000008</v>
       </c>
       <c r="V33" s="325"/>
       <c r="W33" s="334">
         <v>97.07</v>
       </c>
       <c r="X33" s="325"/>
-      <c r="Y33" s="333" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Z33" s="331" t="e">
+      <c r="Y33" s="333">
+        <v>97.210000000000008</v>
+      </c>
+      <c r="Z33" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F33,Y33,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="90"/>
       <c r="AF33" s="321"/>
@@ -7350,7 +7356,7 @@
       </c>
       <c r="AM33" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL33,IborIndex,AK33,F33,Volatility,MeanReversion,Permanent,OR(ISERROR(Z33),ISERROR(FuturesHWConvAdj!Q31:Q32)),ObjectOverwrite)</f>
-        <v>GBPFUT3MM9ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MM9ConvAdj_Quote#0007</v>
       </c>
       <c r="AN33" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM33)</f>
@@ -7402,10 +7408,10 @@
         <v>43726</v>
       </c>
       <c r="Q34" s="332">
-        <v>97.08</v>
+        <v>97.14</v>
       </c>
       <c r="R34" s="332">
-        <v>0</v>
+        <v>97.2</v>
       </c>
       <c r="S34" s="332">
         <v>0</v>
@@ -7413,21 +7419,21 @@
       <c r="T34" s="332">
         <v>97.09</v>
       </c>
-      <c r="U34" s="331" t="e">
+      <c r="U34" s="331">
         <f>_xll.qlMidSafe($Q34,$R34)</f>
-        <v>#NUM!</v>
+        <v>97.17</v>
       </c>
       <c r="V34" s="325"/>
       <c r="W34" s="334">
         <v>97.03</v>
       </c>
       <c r="X34" s="325"/>
-      <c r="Y34" s="333" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Z34" s="331" t="e">
+      <c r="Y34" s="333">
+        <v>97.17</v>
+      </c>
+      <c r="Z34" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F34,Y34,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="90"/>
       <c r="AF34" s="321"/>
@@ -7447,7 +7453,7 @@
       </c>
       <c r="AM34" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL34,IborIndex,AK34,F34,Volatility,MeanReversion,Permanent,OR(ISERROR(Z34),ISERROR(FuturesHWConvAdj!Q32:Q33)),ObjectOverwrite)</f>
-        <v>GBPFUT3MU9ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MU9ConvAdj_Quote#0007</v>
       </c>
       <c r="AN34" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM34)</f>
@@ -7499,10 +7505,10 @@
         <v>43817</v>
       </c>
       <c r="Q35" s="332">
-        <v>0</v>
+        <v>97.08</v>
       </c>
       <c r="R35" s="332">
-        <v>0</v>
+        <v>97.19</v>
       </c>
       <c r="S35" s="332">
         <v>0</v>
@@ -7510,21 +7516,21 @@
       <c r="T35" s="332">
         <v>97.05</v>
       </c>
-      <c r="U35" s="331" t="e">
+      <c r="U35" s="331">
         <f>_xll.qlMidSafe($Q35,$R35)</f>
-        <v>#NUM!</v>
+        <v>97.134999999999991</v>
       </c>
       <c r="V35" s="325"/>
       <c r="W35" s="334">
         <v>97.004999999999995</v>
       </c>
       <c r="X35" s="325"/>
-      <c r="Y35" s="333" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Z35" s="331" t="e">
+      <c r="Y35" s="333">
+        <v>97.134999999999991</v>
+      </c>
+      <c r="Z35" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F35,Y35,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="90"/>
       <c r="AF35" s="321"/>
@@ -7544,7 +7550,7 @@
       </c>
       <c r="AM35" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL35,IborIndex,AK35,F35,Volatility,MeanReversion,Permanent,OR(ISERROR(Z35),ISERROR(FuturesHWConvAdj!Q33:Q34)),ObjectOverwrite)</f>
-        <v>GBPFUT3MZ9ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MZ9ConvAdj_Quote#0007</v>
       </c>
       <c r="AN35" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM35)</f>
@@ -7596,10 +7602,10 @@
         <v>43908</v>
       </c>
       <c r="Q36" s="332">
-        <v>0</v>
+        <v>97.05</v>
       </c>
       <c r="R36" s="332">
-        <v>0</v>
+        <v>97.16</v>
       </c>
       <c r="S36" s="332">
         <v>0</v>
@@ -7607,21 +7613,21 @@
       <c r="T36" s="332">
         <v>97.025000000000006</v>
       </c>
-      <c r="U36" s="331" t="e">
+      <c r="U36" s="331">
         <f>_xll.qlMidSafe($Q36,$R36)</f>
-        <v>#NUM!</v>
+        <v>97.10499999999999</v>
       </c>
       <c r="V36" s="325"/>
       <c r="W36" s="334">
         <v>96.97</v>
       </c>
       <c r="X36" s="325"/>
-      <c r="Y36" s="333" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Z36" s="331" t="e">
+      <c r="Y36" s="333">
+        <v>97.10499999999999</v>
+      </c>
+      <c r="Z36" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F36,Y36,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="90"/>
       <c r="AF36" s="321"/>
@@ -7641,7 +7647,7 @@
       </c>
       <c r="AM36" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL36,IborIndex,AK36,F36,Volatility,MeanReversion,Permanent,OR(ISERROR(Z36),ISERROR(FuturesHWConvAdj!Q34:Q35)),ObjectOverwrite)</f>
-        <v>GBPFUT3MH0ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MH0ConvAdj_Quote#0007</v>
       </c>
       <c r="AN36" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM36)</f>
@@ -7738,7 +7744,7 @@
       </c>
       <c r="AM37" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL37,IborIndex,AK37,F37,Volatility,MeanReversion,Permanent,OR(ISERROR(Z37),ISERROR(FuturesHWConvAdj!Q35:Q36)),ObjectOverwrite)</f>
-        <v>GBPFUT3MM0ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MM0ConvAdj_Quote#0007</v>
       </c>
       <c r="AN37" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM37)</f>
@@ -7835,7 +7841,7 @@
       </c>
       <c r="AM38" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL38,IborIndex,AK38,F38,Volatility,MeanReversion,Permanent,OR(ISERROR(Z38),ISERROR(FuturesHWConvAdj!Q36:Q37)),ObjectOverwrite)</f>
-        <v>GBPFUT3MU0ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MU0ConvAdj_Quote#0007</v>
       </c>
       <c r="AN38" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM38)</f>
@@ -7932,7 +7938,7 @@
       </c>
       <c r="AM39" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL39,IborIndex,AK39,F39,Volatility,MeanReversion,Permanent,OR(ISERROR(Z39),ISERROR(FuturesHWConvAdj!Q37:Q38)),ObjectOverwrite)</f>
-        <v>GBPFUT3MZ0ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MZ0ConvAdj_Quote#0007</v>
       </c>
       <c r="AN39" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM39)</f>
@@ -8029,7 +8035,7 @@
       </c>
       <c r="AM40" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL40,IborIndex,AK40,F40,Volatility,MeanReversion,Permanent,OR(ISERROR(Z40),ISERROR(FuturesHWConvAdj!Q38:Q39)),ObjectOverwrite)</f>
-        <v>GBPFUT3MH1ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MH1ConvAdj_Quote#0007</v>
       </c>
       <c r="AN40" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM40)</f>
@@ -8126,7 +8132,7 @@
       </c>
       <c r="AM41" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL41,IborIndex,AK41,F41,Volatility,MeanReversion,Permanent,OR(ISERROR(Z41),ISERROR(FuturesHWConvAdj!Q39:Q40)),ObjectOverwrite)</f>
-        <v>GBPFUT3MM1ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MM1ConvAdj_Quote#0007</v>
       </c>
       <c r="AN41" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM41)</f>
@@ -8223,7 +8229,7 @@
       </c>
       <c r="AM42" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL42,IborIndex,AK42,F42,Volatility,MeanReversion,Permanent,OR(ISERROR(Z42),ISERROR(FuturesHWConvAdj!Q40:Q41)),ObjectOverwrite)</f>
-        <v>GBPFUT3MU1ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MU1ConvAdj_Quote#0007</v>
       </c>
       <c r="AN42" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM42)</f>
@@ -8320,7 +8326,7 @@
       </c>
       <c r="AM43" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL43,IborIndex,AK43,F43,Volatility,MeanReversion,Permanent,OR(ISERROR(Z43),ISERROR(FuturesHWConvAdj!Q41:Q42)),ObjectOverwrite)</f>
-        <v>GBPFUT3MZ1ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MZ1ConvAdj_Quote#0007</v>
       </c>
       <c r="AN43" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM43)</f>
@@ -8417,7 +8423,7 @@
       </c>
       <c r="AM44" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL44,IborIndex,AK44,F44,Volatility,MeanReversion,Permanent,OR(ISERROR(Z44),ISERROR(FuturesHWConvAdj!Q42:Q43)),ObjectOverwrite)</f>
-        <v>GBPFUT3MH2ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MH2ConvAdj_Quote#0007</v>
       </c>
       <c r="AN44" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM44)</f>
@@ -8514,7 +8520,7 @@
       </c>
       <c r="AM45" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL45,IborIndex,AK45,F45,Volatility,MeanReversion,Permanent,OR(ISERROR(Z45),ISERROR(FuturesHWConvAdj!Q43:Q44)),ObjectOverwrite)</f>
-        <v>GBPFUT3MM2ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MM2ConvAdj_Quote#0007</v>
       </c>
       <c r="AN45" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM45)</f>
@@ -8611,7 +8617,7 @@
       </c>
       <c r="AM46" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL46,IborIndex,AK46,F46,Volatility,MeanReversion,Permanent,OR(ISERROR(Z46),ISERROR(FuturesHWConvAdj!Q44:Q45)),ObjectOverwrite)</f>
-        <v>GBPFUT3MU2ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MU2ConvAdj_Quote#0007</v>
       </c>
       <c r="AN46" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM46)</f>
@@ -8708,7 +8714,7 @@
       </c>
       <c r="AM47" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL47,IborIndex,AK47,F47,Volatility,MeanReversion,Permanent,OR(ISERROR(Z47),ISERROR(FuturesHWConvAdj!Q45:Q46)),ObjectOverwrite)</f>
-        <v>GBPFUT3MZ2ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MZ2ConvAdj_Quote#0007</v>
       </c>
       <c r="AN47" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM47)</f>
@@ -8804,7 +8810,7 @@
       </c>
       <c r="AM48" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL48,IborIndex,AK48,F48,Volatility,MeanReversion,Permanent,OR(ISERROR(Z48),ISERROR(FuturesHWConvAdj!Q46:Q47)),ObjectOverwrite)</f>
-        <v>GBPFUT3MH3ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MH3ConvAdj_Quote#0007</v>
       </c>
       <c r="AN48" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM48)</f>
@@ -9065,7 +9071,7 @@
       <c r="Y6" s="165"/>
       <c r="Z6" s="361">
         <f>_xll.ohTrigger(Z8:Z11)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA6" s="360"/>
     </row>
@@ -9108,7 +9114,7 @@
       </c>
       <c r="O7" s="367" t="str">
         <f>_xll.RData(O8:O11,P7:T7,"RTFEED:IDN",ReutersRtMode,,P8)</f>
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
       </c>
       <c r="P7" s="364" t="s">
         <v>258</v>
@@ -9188,10 +9194,10 @@
         <v>316</v>
       </c>
       <c r="Q8" s="345">
-        <v>0.81499999999999995</v>
+        <v>0.81</v>
       </c>
       <c r="R8" s="345">
-        <v>0.875</v>
+        <v>0.87</v>
       </c>
       <c r="S8" s="345">
         <v>0</v>
@@ -9201,7 +9207,7 @@
       </c>
       <c r="U8" s="344">
         <f>100-_xll.qlMidSafe($Q8,$R8)</f>
-        <v>99.155000000000001</v>
+        <v>99.16</v>
       </c>
       <c r="V8" s="325"/>
       <c r="W8" s="608">
@@ -9210,7 +9216,7 @@
       <c r="X8" s="325"/>
       <c r="Y8" s="346">
         <f t="array" ref="Y8:Y11">QuoteLive</f>
-        <v>99.155000000000001</v>
+        <v>99.16</v>
       </c>
       <c r="Z8" s="344">
         <f>_xll.qlSimpleQuoteSetValue(F6,Y8,Trigger)</f>
@@ -9262,10 +9268,10 @@
         <v>316</v>
       </c>
       <c r="Q9" s="332">
-        <v>1.0049999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="R9" s="332">
-        <v>1.0649999999999999</v>
+        <v>1.0549999999999999</v>
       </c>
       <c r="S9" s="332">
         <v>0</v>
@@ -9275,7 +9281,7 @@
       </c>
       <c r="U9" s="331">
         <f>100-_xll.qlMidSafe($Q9,$R9)</f>
-        <v>98.965000000000003</v>
+        <v>98.974999999999994</v>
       </c>
       <c r="V9" s="325"/>
       <c r="W9" s="609">
@@ -9283,7 +9289,7 @@
       </c>
       <c r="X9" s="325"/>
       <c r="Y9" s="333">
-        <v>98.965000000000003</v>
+        <v>98.974999999999994</v>
       </c>
       <c r="Z9" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F7,Y9,Trigger)</f>
@@ -9335,10 +9341,10 @@
         <v>316</v>
       </c>
       <c r="Q10" s="332">
-        <v>1.21</v>
+        <v>1.1950000000000001</v>
       </c>
       <c r="R10" s="332">
-        <v>1.27</v>
+        <v>1.2549999999999999</v>
       </c>
       <c r="S10" s="332">
         <v>0</v>
@@ -9348,7 +9354,7 @@
       </c>
       <c r="U10" s="331">
         <f>100-_xll.qlMidSafe($Q10,$R10)</f>
-        <v>98.76</v>
+        <v>98.775000000000006</v>
       </c>
       <c r="V10" s="325"/>
       <c r="W10" s="609">
@@ -9356,11 +9362,11 @@
       </c>
       <c r="X10" s="325"/>
       <c r="Y10" s="333">
-        <v>98.76</v>
+        <v>98.775000000000006</v>
       </c>
       <c r="Z10" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F8,Y10,Trigger)</f>
-        <v>0</v>
+        <v>5.0000000000096634E-3</v>
       </c>
       <c r="AA10" s="90"/>
     </row>
@@ -9408,10 +9414,10 @@
         <v>316</v>
       </c>
       <c r="Q11" s="323">
-        <v>1.42</v>
+        <v>1.405</v>
       </c>
       <c r="R11" s="323">
-        <v>1.48</v>
+        <v>1.4650000000000001</v>
       </c>
       <c r="S11" s="323">
         <v>0</v>
@@ -9421,7 +9427,7 @@
       </c>
       <c r="U11" s="322">
         <f>100-_xll.qlMidSafe($Q11,$R11)</f>
-        <v>98.55</v>
+        <v>98.564999999999998</v>
       </c>
       <c r="V11" s="325"/>
       <c r="W11" s="610">
@@ -9429,7 +9435,7 @@
       </c>
       <c r="X11" s="325"/>
       <c r="Y11" s="324">
-        <v>98.55</v>
+        <v>98.564999999999998</v>
       </c>
       <c r="Z11" s="322">
         <f>_xll.qlSimpleQuoteSetValue(F9,Y11,Trigger)</f>
@@ -12315,9 +12321,7 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12387,7 +12391,7 @@
       <c r="P3" s="165"/>
       <c r="Q3" s="361">
         <f>_xll.ohTrigger(Q5:Q9)</f>
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="R3" s="90"/>
       <c r="U3" s="18" t="s">
@@ -12412,7 +12416,7 @@
       <c r="G4" s="102"/>
       <c r="H4" s="379" t="str">
         <f>_xll.RData(H5,I4,"RTFEED:IDN",ReutersRtMode,,I5)</f>
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
       </c>
       <c r="I4" s="380" t="s">
         <v>254</v>
@@ -12456,15 +12460,15 @@
         <v>GB4Y3LATM=ICAP</v>
       </c>
       <c r="I5" s="612">
-        <v>41.54</v>
+        <v>41.48</v>
       </c>
       <c r="J5" s="375"/>
       <c r="K5" s="280" t="s">
         <v>270</v>
       </c>
       <c r="L5" s="615">
-        <f>I5/100*IF(ISNUMBER(Swap3M4Y),Swap3M4Y/100,Swap6M4Y/100)*0</f>
-        <v>0</v>
+        <f>I5/100*IF(ISNUMBER(Swap3M4Y),Swap3M4Y/100,Swap6M4Y/100)</f>
+        <v>7.6447639999999983E-3</v>
       </c>
       <c r="M5" s="375"/>
       <c r="N5" s="617">
@@ -12473,7 +12477,7 @@
       <c r="O5" s="374"/>
       <c r="P5" s="619">
         <f t="array" ref="P5:P6">QuoteLive</f>
-        <v>0</v>
+        <v>7.6447639999999983E-3</v>
       </c>
       <c r="Q5" s="615">
         <f>_xll.qlSimpleQuoteSetValue(C5,P5,Trigger)</f>
@@ -12720,7 +12724,7 @@
       <c r="X3" s="86"/>
       <c r="Y3" s="361">
         <f>_xll.ohTrigger(Y5:Y24)</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Z3" s="160"/>
     </row>
@@ -12750,7 +12754,7 @@
       <c r="N4" s="141"/>
       <c r="O4" s="288" t="str">
         <f>_xll.RData(O5:O40,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
       </c>
       <c r="P4" s="319" t="s">
         <v>254</v>
@@ -13025,10 +13029,10 @@
         <v>GBP1MOIS=ICAP</v>
       </c>
       <c r="P8" s="266">
-        <v>0.41125</v>
+        <v>0.41</v>
       </c>
       <c r="Q8" s="266">
-        <v>0.45124999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="R8" s="266">
         <v>0</v>
@@ -13038,7 +13042,7 @@
       </c>
       <c r="T8" s="266">
         <f>_xll.qlMidEquivalent($P8,$Q8,$R8,$S8)</f>
-        <v>0.43125000000000002</v>
+        <v>0.43</v>
       </c>
       <c r="U8" s="30"/>
       <c r="V8" s="651">
@@ -13046,7 +13050,7 @@
       </c>
       <c r="W8" s="30"/>
       <c r="X8" s="458">
-        <v>0.43125000000000002</v>
+        <v>0.43</v>
       </c>
       <c r="Y8" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E8,X8/100,ISERROR(F8))</f>
@@ -13093,10 +13097,10 @@
         <v>GBP2MOIS=ICAP</v>
       </c>
       <c r="P9" s="266">
-        <v>0.42249999999999999</v>
+        <v>0.42125000000000001</v>
       </c>
       <c r="Q9" s="266">
-        <v>0.46250000000000002</v>
+        <v>0.46124999999999999</v>
       </c>
       <c r="R9" s="266">
         <v>0</v>
@@ -13106,7 +13110,7 @@
       </c>
       <c r="T9" s="266">
         <f>_xll.qlMidEquivalent($P9,$Q9,$R9,$S9)</f>
-        <v>0.4425</v>
+        <v>0.44125000000000003</v>
       </c>
       <c r="U9" s="30"/>
       <c r="V9" s="651">
@@ -13114,7 +13118,7 @@
       </c>
       <c r="W9" s="30"/>
       <c r="X9" s="458">
-        <v>0.4425</v>
+        <v>0.44125000000000003</v>
       </c>
       <c r="Y9" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E9,X9/100,ISERROR(F9))</f>
@@ -13161,10 +13165,10 @@
         <v>GBP3MOIS=ICAP</v>
       </c>
       <c r="P10" s="266">
-        <v>0.435</v>
+        <v>0.43375000000000002</v>
       </c>
       <c r="Q10" s="266">
-        <v>0.47499999999999998</v>
+        <v>0.47375</v>
       </c>
       <c r="R10" s="266">
         <v>0</v>
@@ -13174,7 +13178,7 @@
       </c>
       <c r="T10" s="266">
         <f>_xll.qlMidEquivalent($P10,$Q10,$R10,$S10)</f>
-        <v>0.45499999999999996</v>
+        <v>0.45374999999999999</v>
       </c>
       <c r="U10" s="30"/>
       <c r="V10" s="651">
@@ -13182,7 +13186,7 @@
       </c>
       <c r="W10" s="30"/>
       <c r="X10" s="458">
-        <v>0.45499999999999996</v>
+        <v>0.45374999999999999</v>
       </c>
       <c r="Y10" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E10,X10/100,ISERROR(F10))</f>
@@ -13229,10 +13233,10 @@
         <v>GBP4MOIS=ICAP</v>
       </c>
       <c r="P11" s="266">
-        <v>0.44124999999999998</v>
+        <v>0.44</v>
       </c>
       <c r="Q11" s="266">
-        <v>0.48125000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="R11" s="266">
         <v>0</v>
@@ -13242,7 +13246,7 @@
       </c>
       <c r="T11" s="266">
         <f>_xll.qlMidEquivalent($P11,$Q11,$R11,$S11)</f>
-        <v>0.46124999999999999</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="U11" s="30"/>
       <c r="V11" s="651">
@@ -13250,7 +13254,7 @@
       </c>
       <c r="W11" s="30"/>
       <c r="X11" s="458">
-        <v>0.46124999999999999</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="Y11" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E11,X11/100,ISERROR(F11))</f>
@@ -13297,10 +13301,10 @@
         <v>GBP5MOIS=ICAP</v>
       </c>
       <c r="P12" s="266">
-        <v>0.46250000000000002</v>
+        <v>0.46124999999999999</v>
       </c>
       <c r="Q12" s="266">
-        <v>0.50249999999999995</v>
+        <v>0.50124999999999997</v>
       </c>
       <c r="R12" s="266">
         <v>0</v>
@@ -13310,7 +13314,7 @@
       </c>
       <c r="T12" s="266">
         <f>_xll.qlMidEquivalent($P12,$Q12,$R12,$S12)</f>
-        <v>0.48249999999999998</v>
+        <v>0.48124999999999996</v>
       </c>
       <c r="U12" s="30"/>
       <c r="V12" s="651">
@@ -13318,7 +13322,7 @@
       </c>
       <c r="W12" s="30"/>
       <c r="X12" s="458">
-        <v>0.48249999999999998</v>
+        <v>0.48124999999999996</v>
       </c>
       <c r="Y12" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E12,X12/100,ISERROR(F12))</f>
@@ -13365,10 +13369,10 @@
         <v>GBP6MOIS=ICAP</v>
       </c>
       <c r="P13" s="266">
-        <v>0.48499999999999999</v>
+        <v>0.48375000000000001</v>
       </c>
       <c r="Q13" s="266">
-        <v>0.52500000000000002</v>
+        <v>0.52375000000000005</v>
       </c>
       <c r="R13" s="266">
         <v>0</v>
@@ -13378,7 +13382,7 @@
       </c>
       <c r="T13" s="266">
         <f>_xll.qlMidEquivalent($P13,$Q13,$R13,$S13)</f>
-        <v>0.505</v>
+        <v>0.50375000000000003</v>
       </c>
       <c r="U13" s="30"/>
       <c r="V13" s="651">
@@ -13386,7 +13390,7 @@
       </c>
       <c r="W13" s="30"/>
       <c r="X13" s="458">
-        <v>0.505</v>
+        <v>0.50375000000000003</v>
       </c>
       <c r="Y13" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E13,X13/100,ISERROR(F13))</f>
@@ -13433,10 +13437,10 @@
         <v>GBP7MOIS=ICAP</v>
       </c>
       <c r="P14" s="266">
-        <v>0.50875000000000004</v>
+        <v>0.50624999999999998</v>
       </c>
       <c r="Q14" s="266">
-        <v>0.54874999999999996</v>
+        <v>0.54625000000000001</v>
       </c>
       <c r="R14" s="266">
         <v>0</v>
@@ -13446,7 +13450,7 @@
       </c>
       <c r="T14" s="266">
         <f>_xll.qlMidEquivalent($P14,$Q14,$R14,$S14)</f>
-        <v>0.52875000000000005</v>
+        <v>0.52625</v>
       </c>
       <c r="U14" s="30"/>
       <c r="V14" s="651">
@@ -13454,7 +13458,7 @@
       </c>
       <c r="W14" s="30"/>
       <c r="X14" s="458">
-        <v>0.52875000000000005</v>
+        <v>0.52625</v>
       </c>
       <c r="Y14" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E14,X14/100,ISERROR(F14))</f>
@@ -13501,10 +13505,10 @@
         <v>GBP8MOIS=ICAP</v>
       </c>
       <c r="P15" s="266">
-        <v>0.53249999999999997</v>
+        <v>0.52875000000000005</v>
       </c>
       <c r="Q15" s="266">
-        <v>0.57250000000000001</v>
+        <v>0.56874999999999998</v>
       </c>
       <c r="R15" s="266">
         <v>0</v>
@@ -13514,7 +13518,7 @@
       </c>
       <c r="T15" s="266">
         <f>_xll.qlMidEquivalent($P15,$Q15,$R15,$S15)</f>
-        <v>0.55249999999999999</v>
+        <v>0.54875000000000007</v>
       </c>
       <c r="U15" s="30"/>
       <c r="V15" s="651">
@@ -13522,7 +13526,7 @@
       </c>
       <c r="W15" s="30"/>
       <c r="X15" s="458">
-        <v>0.55249999999999999</v>
+        <v>0.54875000000000007</v>
       </c>
       <c r="Y15" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E15,X15/100,ISERROR(F15))</f>
@@ -13569,10 +13573,10 @@
         <v>GBP9MOIS=ICAP</v>
       </c>
       <c r="P16" s="266">
-        <v>0.5575</v>
+        <v>0.55249999999999999</v>
       </c>
       <c r="Q16" s="266">
-        <v>0.59750000000000003</v>
+        <v>0.59250000000000003</v>
       </c>
       <c r="R16" s="266">
         <v>0</v>
@@ -13582,7 +13586,7 @@
       </c>
       <c r="T16" s="266">
         <f>_xll.qlMidEquivalent($P16,$Q16,$R16,$S16)</f>
-        <v>0.57750000000000001</v>
+        <v>0.57250000000000001</v>
       </c>
       <c r="U16" s="30"/>
       <c r="V16" s="651">
@@ -13590,7 +13594,7 @@
       </c>
       <c r="W16" s="30"/>
       <c r="X16" s="458">
-        <v>0.57750000000000001</v>
+        <v>0.57250000000000001</v>
       </c>
       <c r="Y16" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E16,X16/100,ISERROR(F16))</f>
@@ -13637,10 +13641,10 @@
         <v>GBP10MOIS=ICAP</v>
       </c>
       <c r="P17" s="266">
-        <v>0.58250000000000002</v>
+        <v>0.57750000000000001</v>
       </c>
       <c r="Q17" s="266">
-        <v>0.62250000000000005</v>
+        <v>0.61750000000000005</v>
       </c>
       <c r="R17" s="266">
         <v>0</v>
@@ -13650,7 +13654,7 @@
       </c>
       <c r="T17" s="266">
         <f>_xll.qlMidEquivalent($P17,$Q17,$R17,$S17)</f>
-        <v>0.60250000000000004</v>
+        <v>0.59750000000000003</v>
       </c>
       <c r="U17" s="30"/>
       <c r="V17" s="651">
@@ -13658,7 +13662,7 @@
       </c>
       <c r="W17" s="30"/>
       <c r="X17" s="458">
-        <v>0.60250000000000004</v>
+        <v>0.59750000000000003</v>
       </c>
       <c r="Y17" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E17,X17/100,ISERROR(F17))</f>
@@ -13705,10 +13709,10 @@
         <v>GBP11MOIS=ICAP</v>
       </c>
       <c r="P18" s="266">
-        <v>0.61</v>
+        <v>0.60375000000000001</v>
       </c>
       <c r="Q18" s="266">
-        <v>0.65</v>
+        <v>0.64375000000000004</v>
       </c>
       <c r="R18" s="266">
         <v>0</v>
@@ -13718,7 +13722,7 @@
       </c>
       <c r="T18" s="266">
         <f>_xll.qlMidEquivalent($P18,$Q18,$R18,$S18)</f>
-        <v>0.63</v>
+        <v>0.62375000000000003</v>
       </c>
       <c r="U18" s="30"/>
       <c r="V18" s="651">
@@ -13726,7 +13730,7 @@
       </c>
       <c r="W18" s="30"/>
       <c r="X18" s="458">
-        <v>0.63</v>
+        <v>0.62375000000000003</v>
       </c>
       <c r="Y18" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E18,X18/100,ISERROR(F18))</f>
@@ -13773,10 +13777,10 @@
         <v>GBP1YOIS=ICAP</v>
       </c>
       <c r="P19" s="266">
-        <v>0.64</v>
+        <v>0.63375000000000004</v>
       </c>
       <c r="Q19" s="266">
-        <v>0.68</v>
+        <v>0.67374999999999996</v>
       </c>
       <c r="R19" s="266">
         <v>0</v>
@@ -13786,7 +13790,7 @@
       </c>
       <c r="T19" s="266">
         <f>_xll.qlMidEquivalent($P19,$Q19,$R19,$S19)</f>
-        <v>0.66</v>
+        <v>0.65375000000000005</v>
       </c>
       <c r="U19" s="30"/>
       <c r="V19" s="651">
@@ -13794,7 +13798,7 @@
       </c>
       <c r="W19" s="30"/>
       <c r="X19" s="458">
-        <v>0.66</v>
+        <v>0.65375000000000005</v>
       </c>
       <c r="Y19" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E19,X19/100,ISERROR(F19))</f>
@@ -13841,10 +13845,10 @@
         <v>GBP15MOIS=ICAP</v>
       </c>
       <c r="P20" s="266">
-        <v>0.73</v>
+        <v>0.72124999999999995</v>
       </c>
       <c r="Q20" s="266">
-        <v>0.77</v>
+        <v>0.76124999999999998</v>
       </c>
       <c r="R20" s="266">
         <v>0</v>
@@ -13854,7 +13858,7 @@
       </c>
       <c r="T20" s="266">
         <f>_xll.qlMidEquivalent($P20,$Q20,$R20,$S20)</f>
-        <v>0.75</v>
+        <v>0.74124999999999996</v>
       </c>
       <c r="U20" s="30"/>
       <c r="V20" s="651">
@@ -13862,7 +13866,7 @@
       </c>
       <c r="W20" s="30"/>
       <c r="X20" s="458">
-        <v>0.75</v>
+        <v>0.74124999999999996</v>
       </c>
       <c r="Y20" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E20,X20/100,ISERROR(F20))</f>
@@ -13909,10 +13913,10 @@
         <v>GBP18MOIS=ICAP</v>
       </c>
       <c r="P21" s="266">
-        <v>0.82750000000000001</v>
+        <v>0.81625000000000003</v>
       </c>
       <c r="Q21" s="266">
-        <v>0.85750000000000004</v>
+        <v>0.84624999999999995</v>
       </c>
       <c r="R21" s="266">
         <v>0</v>
@@ -13922,7 +13926,7 @@
       </c>
       <c r="T21" s="266">
         <f>_xll.qlMidEquivalent($P21,$Q21,$R21,$S21)</f>
-        <v>0.84250000000000003</v>
+        <v>0.83125000000000004</v>
       </c>
       <c r="U21" s="30"/>
       <c r="V21" s="651">
@@ -13930,7 +13934,7 @@
       </c>
       <c r="W21" s="30"/>
       <c r="X21" s="458">
-        <v>0.84250000000000003</v>
+        <v>0.83125000000000004</v>
       </c>
       <c r="Y21" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E21,X21/100,ISERROR(F21))</f>
@@ -14045,10 +14049,10 @@
         <v>GBP2YOIS=ICAP</v>
       </c>
       <c r="P23" s="266">
-        <v>1.0037499999999999</v>
+        <v>0.99250000000000005</v>
       </c>
       <c r="Q23" s="266">
-        <v>1.0337499999999999</v>
+        <v>1.0225</v>
       </c>
       <c r="R23" s="266">
         <v>0</v>
@@ -14058,7 +14062,7 @@
       </c>
       <c r="T23" s="266">
         <f>_xll.qlMidEquivalent($P23,$Q23,$R23,$S23)</f>
-        <v>1.0187499999999998</v>
+        <v>1.0075000000000001</v>
       </c>
       <c r="U23" s="30"/>
       <c r="V23" s="651">
@@ -14066,11 +14070,11 @@
       </c>
       <c r="W23" s="30"/>
       <c r="X23" s="458">
-        <v>1.0187499999999998</v>
+        <v>1.0075000000000001</v>
       </c>
       <c r="Y23" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E23,X23/100,ISERROR(F23))</f>
-        <v>0</v>
+        <v>1.2500000000000358E-5</v>
       </c>
       <c r="Z23" s="655"/>
     </row>
@@ -14113,10 +14117,10 @@
         <v>GBP3YOIS=ICAP</v>
       </c>
       <c r="P24" s="266">
-        <v>1.3187500000000001</v>
+        <v>1.30375</v>
       </c>
       <c r="Q24" s="266">
-        <v>1.3487499999999999</v>
+        <v>1.33375</v>
       </c>
       <c r="R24" s="266">
         <v>0</v>
@@ -14126,7 +14130,7 @@
       </c>
       <c r="T24" s="266">
         <f>_xll.qlMidEquivalent($P24,$Q24,$R24,$S24)</f>
-        <v>1.33375</v>
+        <v>1.3187500000000001</v>
       </c>
       <c r="U24" s="30"/>
       <c r="V24" s="651">
@@ -14134,7 +14138,7 @@
       </c>
       <c r="W24" s="30"/>
       <c r="X24" s="458">
-        <v>1.33375</v>
+        <v>1.3187500000000001</v>
       </c>
       <c r="Y24" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E24,X24/100,ISERROR(F24))</f>
@@ -14181,10 +14185,10 @@
         <v>GBP4YOIS=ICAP</v>
       </c>
       <c r="P25" s="266">
-        <v>1.5375000000000001</v>
+        <v>1.52125</v>
       </c>
       <c r="Q25" s="266">
-        <v>1.5874999999999999</v>
+        <v>1.57125</v>
       </c>
       <c r="R25" s="266">
         <v>0</v>
@@ -14194,7 +14198,7 @@
       </c>
       <c r="T25" s="266">
         <f>_xll.qlMidEquivalent($P25,$Q25,$R25,$S25)</f>
-        <v>1.5625</v>
+        <v>1.5462500000000001</v>
       </c>
       <c r="U25" s="30"/>
       <c r="V25" s="651">
@@ -14202,7 +14206,7 @@
       </c>
       <c r="W25" s="30"/>
       <c r="X25" s="458">
-        <v>1.5625</v>
+        <v>1.5462500000000001</v>
       </c>
       <c r="Y25" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E25,X25/100,ISERROR(F25))</f>
@@ -14249,10 +14253,10 @@
         <v>GBP5YOIS=ICAP</v>
       </c>
       <c r="P26" s="266">
-        <v>1.69875</v>
+        <v>1.6825000000000001</v>
       </c>
       <c r="Q26" s="266">
-        <v>1.74875</v>
+        <v>1.7324999999999999</v>
       </c>
       <c r="R26" s="266">
         <v>0</v>
@@ -14262,7 +14266,7 @@
       </c>
       <c r="T26" s="266">
         <f>_xll.qlMidEquivalent($P26,$Q26,$R26,$S26)</f>
-        <v>1.7237499999999999</v>
+        <v>1.7075</v>
       </c>
       <c r="U26" s="30"/>
       <c r="V26" s="651">
@@ -14270,7 +14274,7 @@
       </c>
       <c r="W26" s="30"/>
       <c r="X26" s="458">
-        <v>1.7237499999999999</v>
+        <v>1.7075</v>
       </c>
       <c r="Y26" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E26,X26/100,ISERROR(F26))</f>
@@ -14317,10 +14321,10 @@
         <v>GBP6YOIS=ICAP</v>
       </c>
       <c r="P27" s="266">
-        <v>1.8225</v>
+        <v>1.81</v>
       </c>
       <c r="Q27" s="266">
-        <v>1.8725000000000001</v>
+        <v>1.86</v>
       </c>
       <c r="R27" s="266">
         <v>0</v>
@@ -14330,7 +14334,7 @@
       </c>
       <c r="T27" s="266">
         <f>_xll.qlMidEquivalent($P27,$Q27,$R27,$S27)</f>
-        <v>1.8475000000000001</v>
+        <v>1.835</v>
       </c>
       <c r="U27" s="30"/>
       <c r="V27" s="651">
@@ -14338,11 +14342,11 @@
       </c>
       <c r="W27" s="30"/>
       <c r="X27" s="458">
-        <v>1.8475000000000001</v>
+        <v>1.835</v>
       </c>
       <c r="Y27" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E27,X27/100,ISERROR(F27))</f>
-        <v>-1.2499999999998623E-5</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="655"/>
     </row>
@@ -14385,10 +14389,10 @@
         <v>GBP7YOIS=ICAP</v>
       </c>
       <c r="P28" s="266">
-        <v>1.925</v>
+        <v>1.915</v>
       </c>
       <c r="Q28" s="266">
-        <v>1.9750000000000001</v>
+        <v>1.9650000000000001</v>
       </c>
       <c r="R28" s="266">
         <v>0</v>
@@ -14398,7 +14402,7 @@
       </c>
       <c r="T28" s="266">
         <f>_xll.qlMidEquivalent($P28,$Q28,$R28,$S28)</f>
-        <v>1.9500000000000002</v>
+        <v>1.94</v>
       </c>
       <c r="U28" s="30"/>
       <c r="V28" s="651">
@@ -14406,11 +14410,11 @@
       </c>
       <c r="W28" s="30"/>
       <c r="X28" s="458">
-        <v>1.9500000000000002</v>
+        <v>1.94</v>
       </c>
       <c r="Y28" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E28,X28/100,ISERROR(F28))</f>
-        <v>-1.2499999999995154E-5</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="655"/>
     </row>
@@ -14453,10 +14457,10 @@
         <v>GBP8YOIS=ICAP</v>
       </c>
       <c r="P29" s="266">
-        <v>2.0099999999999998</v>
+        <v>2.0024999999999999</v>
       </c>
       <c r="Q29" s="266">
-        <v>2.06</v>
+        <v>2.0525000000000002</v>
       </c>
       <c r="R29" s="266">
         <v>0</v>
@@ -14466,7 +14470,7 @@
       </c>
       <c r="T29" s="266">
         <f>_xll.qlMidEquivalent($P29,$Q29,$R29,$S29)</f>
-        <v>2.0350000000000001</v>
+        <v>2.0274999999999999</v>
       </c>
       <c r="U29" s="30"/>
       <c r="V29" s="651">
@@ -14474,11 +14478,11 @@
       </c>
       <c r="W29" s="30"/>
       <c r="X29" s="458">
-        <v>2.0350000000000001</v>
+        <v>2.0274999999999999</v>
       </c>
       <c r="Y29" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E29,X29/100,ISERROR(F29))</f>
-        <v>-1.2499999999998623E-5</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="655"/>
     </row>
@@ -14521,10 +14525,10 @@
         <v>GBP9YOIS=ICAP</v>
       </c>
       <c r="P30" s="266">
-        <v>2.085</v>
+        <v>2.0775000000000001</v>
       </c>
       <c r="Q30" s="266">
-        <v>2.1349999999999998</v>
+        <v>2.1274999999999999</v>
       </c>
       <c r="R30" s="266">
         <v>0</v>
@@ -14534,7 +14538,7 @@
       </c>
       <c r="T30" s="266">
         <f>_xll.qlMidEquivalent($P30,$Q30,$R30,$S30)</f>
-        <v>2.11</v>
+        <v>2.1025</v>
       </c>
       <c r="U30" s="30"/>
       <c r="V30" s="651">
@@ -14542,7 +14546,7 @@
       </c>
       <c r="W30" s="30"/>
       <c r="X30" s="458">
-        <v>2.11</v>
+        <v>2.1025</v>
       </c>
       <c r="Y30" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E30,X30/100,ISERROR(F30))</f>
@@ -14589,10 +14593,10 @@
         <v>GBP10YOIS=ICAP</v>
       </c>
       <c r="P31" s="266">
-        <v>2.1524999999999999</v>
+        <v>2.1462500000000002</v>
       </c>
       <c r="Q31" s="266">
-        <v>2.2025000000000001</v>
+        <v>2.19625</v>
       </c>
       <c r="R31" s="266">
         <v>0</v>
@@ -14602,7 +14606,7 @@
       </c>
       <c r="T31" s="266">
         <f>_xll.qlMidEquivalent($P31,$Q31,$R31,$S31)</f>
-        <v>2.1775000000000002</v>
+        <v>2.1712500000000001</v>
       </c>
       <c r="U31" s="30"/>
       <c r="V31" s="651">
@@ -14610,7 +14614,7 @@
       </c>
       <c r="W31" s="30"/>
       <c r="X31" s="458">
-        <v>2.1775000000000002</v>
+        <v>2.1712500000000001</v>
       </c>
       <c r="Y31" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E31,X31/100,ISERROR(F31))</f>
@@ -14725,10 +14729,10 @@
         <v>GBP12YOIS=ICAP</v>
       </c>
       <c r="P33" s="266">
-        <v>2.2749999999999999</v>
+        <v>2.2712500000000002</v>
       </c>
       <c r="Q33" s="266">
-        <v>2.3250000000000002</v>
+        <v>2.32125</v>
       </c>
       <c r="R33" s="266">
         <v>0</v>
@@ -14738,7 +14742,7 @@
       </c>
       <c r="T33" s="266">
         <f>_xll.qlMidEquivalent($P33,$Q33,$R33,$S33)</f>
-        <v>2.2999999999999998</v>
+        <v>2.2962500000000001</v>
       </c>
       <c r="U33" s="30"/>
       <c r="V33" s="651">
@@ -14746,11 +14750,11 @@
       </c>
       <c r="W33" s="30"/>
       <c r="X33" s="458">
-        <v>2.2999999999999998</v>
+        <v>2.2962500000000001</v>
       </c>
       <c r="Y33" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E33,X33/100,ISERROR(F33))</f>
-        <v>-1.2500000000002093E-5</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="655"/>
     </row>
@@ -14793,10 +14797,10 @@
         <v>GBP15YOIS=ICAP</v>
       </c>
       <c r="P34" s="266">
-        <v>2.4112499999999999</v>
+        <v>2.4087499999999999</v>
       </c>
       <c r="Q34" s="266">
-        <v>2.4612500000000002</v>
+        <v>2.4587500000000002</v>
       </c>
       <c r="R34" s="266">
         <v>0</v>
@@ -14806,7 +14810,7 @@
       </c>
       <c r="T34" s="266">
         <f>_xll.qlMidEquivalent($P34,$Q34,$R34,$S34)</f>
-        <v>2.4362500000000002</v>
+        <v>2.4337499999999999</v>
       </c>
       <c r="U34" s="30"/>
       <c r="V34" s="651">
@@ -14814,11 +14818,11 @@
       </c>
       <c r="W34" s="30"/>
       <c r="X34" s="458">
-        <v>2.4362500000000002</v>
+        <v>2.4337499999999999</v>
       </c>
       <c r="Y34" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E34,X34/100,ISERROR(F34))</f>
-        <v>-1.2499999999998623E-5</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="655"/>
     </row>
@@ -14886,7 +14890,7 @@
       </c>
       <c r="Y35" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E35,X35/100,ISERROR(F35))</f>
-        <v>-1.2500000000002093E-5</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="655"/>
     </row>
@@ -14929,10 +14933,10 @@
         <v>GBP25YOIS=ICAP</v>
       </c>
       <c r="P36" s="266">
-        <v>2.5975000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="Q36" s="266">
-        <v>2.6475</v>
+        <v>2.65</v>
       </c>
       <c r="R36" s="266">
         <v>0</v>
@@ -14942,7 +14946,7 @@
       </c>
       <c r="T36" s="266">
         <f>_xll.qlMidEquivalent($P36,$Q36,$R36,$S36)</f>
-        <v>2.6225000000000001</v>
+        <v>2.625</v>
       </c>
       <c r="U36" s="30"/>
       <c r="V36" s="651">
@@ -14950,7 +14954,7 @@
       </c>
       <c r="W36" s="30"/>
       <c r="X36" s="458">
-        <v>2.6225000000000001</v>
+        <v>2.625</v>
       </c>
       <c r="Y36" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E36,X36/100,ISERROR(F36))</f>
@@ -14997,10 +15001,10 @@
         <v>GBP30YOIS=ICAP</v>
       </c>
       <c r="P37" s="266">
-        <v>2.5787499999999999</v>
+        <v>2.585</v>
       </c>
       <c r="Q37" s="266">
-        <v>2.7087500000000002</v>
+        <v>2.7149999999999999</v>
       </c>
       <c r="R37" s="266">
         <v>0</v>
@@ -15010,7 +15014,7 @@
       </c>
       <c r="T37" s="266">
         <f>_xll.qlMidEquivalent($P37,$Q37,$R37,$S37)</f>
-        <v>2.6437499999999998</v>
+        <v>2.65</v>
       </c>
       <c r="U37" s="30"/>
       <c r="V37" s="651">
@@ -15018,11 +15022,11 @@
       </c>
       <c r="W37" s="30"/>
       <c r="X37" s="458">
-        <v>2.6437499999999998</v>
+        <v>2.65</v>
       </c>
       <c r="Y37" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E37,X37/100,ISERROR(F37))</f>
-        <v>-1.2500000000002093E-5</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="655"/>
     </row>
@@ -15062,10 +15066,10 @@
         <v>GBP40YOIS=ICAP</v>
       </c>
       <c r="P38" s="266">
-        <v>2.585</v>
+        <v>2.5924999999999998</v>
       </c>
       <c r="Q38" s="266">
-        <v>2.7149999999999999</v>
+        <v>2.7225000000000001</v>
       </c>
       <c r="R38" s="266">
         <v>0</v>
@@ -15075,7 +15079,7 @@
       </c>
       <c r="T38" s="266">
         <f>_xll.qlMidEquivalent($P38,$Q38,$R38,$S38)</f>
-        <v>2.65</v>
+        <v>2.6574999999999998</v>
       </c>
       <c r="U38" s="30"/>
       <c r="V38" s="651">
@@ -15083,7 +15087,7 @@
       </c>
       <c r="W38" s="30"/>
       <c r="X38" s="458">
-        <v>2.65</v>
+        <v>2.6574999999999998</v>
       </c>
       <c r="Y38" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E38,X38/100,ISERROR(F38))</f>
@@ -15127,10 +15131,10 @@
         <v>GBP50YOIS=ICAP</v>
       </c>
       <c r="P39" s="266">
-        <v>2.5975000000000001</v>
+        <v>2.6062500000000002</v>
       </c>
       <c r="Q39" s="266">
-        <v>2.7275</v>
+        <v>2.7362500000000001</v>
       </c>
       <c r="R39" s="266">
         <v>0</v>
@@ -15140,7 +15144,7 @@
       </c>
       <c r="T39" s="266">
         <f>_xll.qlMidEquivalent($P39,$Q39,$R39,$S39)</f>
-        <v>2.6625000000000001</v>
+        <v>2.6712500000000001</v>
       </c>
       <c r="U39" s="30"/>
       <c r="V39" s="651">
@@ -15148,11 +15152,11 @@
       </c>
       <c r="W39" s="30"/>
       <c r="X39" s="458">
-        <v>2.6625000000000001</v>
+        <v>2.6712500000000001</v>
       </c>
       <c r="Y39" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E39,X39/100,ISERROR(F39))</f>
-        <v>-1.2499999999998623E-5</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="655"/>
     </row>
@@ -15192,10 +15196,10 @@
         <v>GBP60YOIS=ICAP</v>
       </c>
       <c r="P40" s="266">
-        <v>2.6212499999999999</v>
+        <v>2.6287500000000001</v>
       </c>
       <c r="Q40" s="266">
-        <v>2.7512500000000002</v>
+        <v>2.75875</v>
       </c>
       <c r="R40" s="266">
         <v>0</v>
@@ -15205,7 +15209,7 @@
       </c>
       <c r="T40" s="266">
         <f>_xll.qlMidEquivalent($P40,$Q40,$R40,$S40)</f>
-        <v>2.6862500000000002</v>
+        <v>2.6937500000000001</v>
       </c>
       <c r="U40" s="30"/>
       <c r="V40" s="652">
@@ -15213,7 +15217,7 @@
       </c>
       <c r="W40" s="30"/>
       <c r="X40" s="459">
-        <v>2.6862500000000002</v>
+        <v>2.6937500000000001</v>
       </c>
       <c r="Y40" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E40,X40/100,ISERROR(F40))</f>
@@ -16280,7 +16284,7 @@
       <c r="X3" s="86"/>
       <c r="Y3" s="289">
         <f>_xll.ohTrigger(Y5:Y15)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Z3" s="160"/>
     </row>
@@ -16309,7 +16313,7 @@
       <c r="N4" s="141"/>
       <c r="O4" s="288" t="str">
         <f>_xll.RData(O5:O15,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
       </c>
       <c r="P4" s="319" t="s">
         <v>254</v>
@@ -16378,10 +16382,10 @@
         <v>GBP2X1S=ICAP</v>
       </c>
       <c r="P5" s="308">
-        <v>0.46</v>
+        <v>0.46124999999999999</v>
       </c>
       <c r="Q5" s="308">
-        <v>0.56000000000000005</v>
+        <v>0.56125000000000003</v>
       </c>
       <c r="R5" s="308">
         <v>0</v>
@@ -16391,7 +16395,7 @@
       </c>
       <c r="T5" s="384">
         <f>_xll.qlMidSafe($P5,$Q5)</f>
-        <v>0.51</v>
+        <v>0.51124999999999998</v>
       </c>
       <c r="U5" s="260"/>
       <c r="V5" s="267">
@@ -16400,7 +16404,7 @@
       <c r="W5" s="260"/>
       <c r="X5" s="458">
         <f t="array" ref="X5:X15">QuoteLive</f>
-        <v>0.51</v>
+        <v>0.51124999999999998</v>
       </c>
       <c r="Y5" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F5,X5/100,Trigger)</f>
@@ -16446,10 +16450,10 @@
         <v>GBP3X1S=ICAP</v>
       </c>
       <c r="P6" s="308">
-        <v>0.47125</v>
+        <v>0.47249999999999998</v>
       </c>
       <c r="Q6" s="308">
-        <v>0.57125000000000004</v>
+        <v>0.57250000000000001</v>
       </c>
       <c r="R6" s="308">
         <v>0</v>
@@ -16459,7 +16463,7 @@
       </c>
       <c r="T6" s="384">
         <f>_xll.qlMidSafe($P6,$Q6)</f>
-        <v>0.52124999999999999</v>
+        <v>0.52249999999999996</v>
       </c>
       <c r="U6" s="260"/>
       <c r="V6" s="267">
@@ -16467,7 +16471,7 @@
       </c>
       <c r="W6" s="260"/>
       <c r="X6" s="458">
-        <v>0.52124999999999999</v>
+        <v>0.52249999999999996</v>
       </c>
       <c r="Y6" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F6,X6/100,Trigger)</f>
@@ -16513,10 +16517,10 @@
         <v>GBP4X1S=ICAP</v>
       </c>
       <c r="P7" s="308">
-        <v>0.48499999999999999</v>
+        <v>0.48625000000000002</v>
       </c>
       <c r="Q7" s="308">
-        <v>0.58499999999999996</v>
+        <v>0.58625000000000005</v>
       </c>
       <c r="R7" s="308">
         <v>0</v>
@@ -16526,7 +16530,7 @@
       </c>
       <c r="T7" s="384">
         <f>_xll.qlMidSafe($P7,$Q7)</f>
-        <v>0.53499999999999992</v>
+        <v>0.53625</v>
       </c>
       <c r="U7" s="260"/>
       <c r="V7" s="267">
@@ -16534,7 +16538,7 @@
       </c>
       <c r="W7" s="260"/>
       <c r="X7" s="458">
-        <v>0.53499999999999992</v>
+        <v>0.53625</v>
       </c>
       <c r="Y7" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F7,X7/100,Trigger)</f>
@@ -16580,10 +16584,10 @@
         <v>GBP5X1S=ICAP</v>
       </c>
       <c r="P8" s="308">
-        <v>0.50624999999999998</v>
+        <v>0.50749999999999995</v>
       </c>
       <c r="Q8" s="308">
-        <v>0.60624999999999996</v>
+        <v>0.60750000000000004</v>
       </c>
       <c r="R8" s="308">
         <v>0</v>
@@ -16593,7 +16597,7 @@
       </c>
       <c r="T8" s="384">
         <f>_xll.qlMidSafe($P8,$Q8)</f>
-        <v>0.55624999999999991</v>
+        <v>0.5575</v>
       </c>
       <c r="U8" s="260"/>
       <c r="V8" s="267">
@@ -16601,7 +16605,7 @@
       </c>
       <c r="W8" s="260"/>
       <c r="X8" s="458">
-        <v>0.55624999999999991</v>
+        <v>0.5575</v>
       </c>
       <c r="Y8" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F8,X8/100,Trigger)</f>
@@ -16647,10 +16651,10 @@
         <v>GBP6X1S=ICAP</v>
       </c>
       <c r="P9" s="308">
-        <v>0.52625</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="Q9" s="308">
-        <v>0.62624999999999997</v>
+        <v>0.625</v>
       </c>
       <c r="R9" s="308">
         <v>0</v>
@@ -16660,7 +16664,7 @@
       </c>
       <c r="T9" s="384">
         <f>_xll.qlMidSafe($P9,$Q9)</f>
-        <v>0.57624999999999993</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="U9" s="260"/>
       <c r="V9" s="267">
@@ -16668,7 +16672,7 @@
       </c>
       <c r="W9" s="260"/>
       <c r="X9" s="458">
-        <v>0.57624999999999993</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="Y9" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F9,X9/100,Trigger)</f>
@@ -16714,10 +16718,10 @@
         <v>GBP7X1S=ICAP</v>
       </c>
       <c r="P10" s="308">
-        <v>0.55000000000000004</v>
+        <v>0.54874999999999996</v>
       </c>
       <c r="Q10" s="308">
-        <v>0.65</v>
+        <v>0.64875000000000005</v>
       </c>
       <c r="R10" s="308">
         <v>0</v>
@@ -16727,7 +16731,7 @@
       </c>
       <c r="T10" s="384">
         <f>_xll.qlMidSafe($P10,$Q10)</f>
-        <v>0.60000000000000009</v>
+        <v>0.59875</v>
       </c>
       <c r="U10" s="260"/>
       <c r="V10" s="267">
@@ -16735,7 +16739,7 @@
       </c>
       <c r="W10" s="260"/>
       <c r="X10" s="458">
-        <v>0.60000000000000009</v>
+        <v>0.59875</v>
       </c>
       <c r="Y10" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F10,X10/100,Trigger)</f>
@@ -16781,10 +16785,10 @@
         <v>GBP8X1S=ICAP</v>
       </c>
       <c r="P11" s="308">
-        <v>0.57250000000000001</v>
+        <v>0.57125000000000004</v>
       </c>
       <c r="Q11" s="308">
-        <v>0.67249999999999999</v>
+        <v>0.67125000000000001</v>
       </c>
       <c r="R11" s="308">
         <v>0</v>
@@ -16794,7 +16798,7 @@
       </c>
       <c r="T11" s="384">
         <f>_xll.qlMidSafe($P11,$Q11)</f>
-        <v>0.62250000000000005</v>
+        <v>0.62125000000000008</v>
       </c>
       <c r="U11" s="260"/>
       <c r="V11" s="267">
@@ -16802,7 +16806,7 @@
       </c>
       <c r="W11" s="260"/>
       <c r="X11" s="458">
-        <v>0.62250000000000005</v>
+        <v>0.62125000000000008</v>
       </c>
       <c r="Y11" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F11,X11/100,Trigger)</f>
@@ -16848,10 +16852,10 @@
         <v>GBP9X1S=ICAP</v>
       </c>
       <c r="P12" s="308">
-        <v>0.60250000000000004</v>
+        <v>0.59875</v>
       </c>
       <c r="Q12" s="308">
-        <v>0.70250000000000001</v>
+        <v>0.69874999999999998</v>
       </c>
       <c r="R12" s="308">
         <v>0</v>
@@ -16861,7 +16865,7 @@
       </c>
       <c r="T12" s="384">
         <f>_xll.qlMidSafe($P12,$Q12)</f>
-        <v>0.65250000000000008</v>
+        <v>0.64874999999999994</v>
       </c>
       <c r="U12" s="260"/>
       <c r="V12" s="267">
@@ -16869,11 +16873,11 @@
       </c>
       <c r="W12" s="260"/>
       <c r="X12" s="458">
-        <v>0.65250000000000008</v>
+        <v>0.64874999999999994</v>
       </c>
       <c r="Y12" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F12,X12/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.2499999999999491E-5</v>
       </c>
       <c r="Z12" s="160"/>
     </row>
@@ -16915,10 +16919,10 @@
         <v>GBP10X1S=ICAP</v>
       </c>
       <c r="P13" s="308">
-        <v>0.63249999999999995</v>
+        <v>0.62875000000000003</v>
       </c>
       <c r="Q13" s="308">
-        <v>0.73250000000000004</v>
+        <v>0.72875000000000001</v>
       </c>
       <c r="R13" s="308">
         <v>0</v>
@@ -16928,7 +16932,7 @@
       </c>
       <c r="T13" s="384">
         <f>_xll.qlMidSafe($P13,$Q13)</f>
-        <v>0.6825</v>
+        <v>0.67874999999999996</v>
       </c>
       <c r="U13" s="260"/>
       <c r="V13" s="267">
@@ -16936,11 +16940,11 @@
       </c>
       <c r="W13" s="260"/>
       <c r="X13" s="458">
-        <v>0.6825</v>
+        <v>0.67874999999999996</v>
       </c>
       <c r="Y13" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F13,X13/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.2500000000000358E-5</v>
       </c>
       <c r="Z13" s="160"/>
     </row>
@@ -16982,10 +16986,10 @@
         <v>GBP11X1S=ICAP</v>
       </c>
       <c r="P14" s="308">
-        <v>0.66</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="Q14" s="308">
-        <v>0.76</v>
+        <v>0.755</v>
       </c>
       <c r="R14" s="308">
         <v>0</v>
@@ -16995,7 +16999,7 @@
       </c>
       <c r="T14" s="384">
         <f>_xll.qlMidSafe($P14,$Q14)</f>
-        <v>0.71</v>
+        <v>0.70500000000000007</v>
       </c>
       <c r="U14" s="260"/>
       <c r="V14" s="267">
@@ -17003,11 +17007,11 @@
       </c>
       <c r="W14" s="260"/>
       <c r="X14" s="458">
-        <v>0.71</v>
+        <v>0.70500000000000007</v>
       </c>
       <c r="Y14" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F14,X14/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.4999999999999849E-5</v>
       </c>
       <c r="Z14" s="160"/>
     </row>
@@ -17049,10 +17053,10 @@
         <v>GBP12X1S=ICAP</v>
       </c>
       <c r="P15" s="304">
-        <v>0.69</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="Q15" s="304">
-        <v>0.79</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="R15" s="304">
         <v>0</v>
@@ -17062,7 +17066,7 @@
       </c>
       <c r="T15" s="382">
         <f>_xll.qlMidSafe($P15,$Q15)</f>
-        <v>0.74</v>
+        <v>0.7350000000000001</v>
       </c>
       <c r="U15" s="260"/>
       <c r="V15" s="261">
@@ -17070,11 +17074,11 @@
       </c>
       <c r="W15" s="260"/>
       <c r="X15" s="459">
-        <v>0.74</v>
+        <v>0.7350000000000001</v>
       </c>
       <c r="Y15" s="258">
         <f>_xll.qlSimpleQuoteSetValue(F15,X15/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.2500000000000358E-5</v>
       </c>
       <c r="Z15" s="160"/>
     </row>
@@ -17221,7 +17225,7 @@
       <c r="X3" s="86"/>
       <c r="Y3" s="361">
         <f>_xll.ohTrigger(Y5:Y11)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Z3" s="160"/>
     </row>
@@ -17250,7 +17254,7 @@
       <c r="N4" s="141"/>
       <c r="O4" s="288" t="str">
         <f>_xll.RData(O5:O11,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
       </c>
       <c r="P4" s="319" t="s">
         <v>254</v>
@@ -17319,10 +17323,10 @@
         <v>GBP1S12=ICAP</v>
       </c>
       <c r="P5" s="308">
-        <v>0.94</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="Q5" s="308">
-        <v>0.96</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="R5" s="308">
         <v>0</v>
@@ -17332,7 +17336,7 @@
       </c>
       <c r="T5" s="384">
         <f>_xll.qlMidSafe($P5,$Q5)</f>
-        <v>0.95</v>
+        <v>0.94500000000000006</v>
       </c>
       <c r="U5" s="260"/>
       <c r="V5" s="383">
@@ -17341,7 +17345,7 @@
       <c r="W5" s="260"/>
       <c r="X5" s="458">
         <f t="array" ref="X5:X11">QuoteLive</f>
-        <v>0.95</v>
+        <v>0.94500000000000006</v>
       </c>
       <c r="Y5" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F5,X5/100,Trigger)</f>
@@ -17387,10 +17391,10 @@
         <v>GBP2S12=ICAP</v>
       </c>
       <c r="P6" s="308">
-        <v>1.145</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="Q6" s="308">
-        <v>1.165</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="R6" s="308">
         <v>0</v>
@@ -17400,7 +17404,7 @@
       </c>
       <c r="T6" s="384">
         <f>_xll.qlMidSafe($P6,$Q6)</f>
-        <v>1.155</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="U6" s="260"/>
       <c r="V6" s="383">
@@ -17408,7 +17412,7 @@
       </c>
       <c r="W6" s="260"/>
       <c r="X6" s="458">
-        <v>1.155</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="Y6" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F6,X6/100,Trigger)</f>
@@ -17454,10 +17458,10 @@
         <v>GBP3S12=ICAP</v>
       </c>
       <c r="P7" s="308">
-        <v>1.345</v>
+        <v>1.33</v>
       </c>
       <c r="Q7" s="308">
-        <v>1.365</v>
+        <v>1.35</v>
       </c>
       <c r="R7" s="308">
         <v>0</v>
@@ -17467,7 +17471,7 @@
       </c>
       <c r="T7" s="384">
         <f>_xll.qlMidSafe($P7,$Q7)</f>
-        <v>1.355</v>
+        <v>1.34</v>
       </c>
       <c r="U7" s="260"/>
       <c r="V7" s="383">
@@ -17475,11 +17479,11 @@
       </c>
       <c r="W7" s="260"/>
       <c r="X7" s="458">
-        <v>1.355</v>
+        <v>1.34</v>
       </c>
       <c r="Y7" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F7,X7/100,Trigger)</f>
-        <v>0</v>
+        <v>-4.9999999999999697E-5</v>
       </c>
       <c r="Z7" s="160"/>
     </row>
@@ -17521,10 +17525,10 @@
         <v>GBP4S12=ICAP</v>
       </c>
       <c r="P8" s="308">
-        <v>1.55</v>
+        <v>1.5349999999999999</v>
       </c>
       <c r="Q8" s="308">
-        <v>1.57</v>
+        <v>1.5549999999999999</v>
       </c>
       <c r="R8" s="308">
         <v>0</v>
@@ -17534,7 +17538,7 @@
       </c>
       <c r="T8" s="384">
         <f>_xll.qlMidSafe($P8,$Q8)</f>
-        <v>1.56</v>
+        <v>1.5449999999999999</v>
       </c>
       <c r="U8" s="260"/>
       <c r="V8" s="383">
@@ -17542,7 +17546,7 @@
       </c>
       <c r="W8" s="260"/>
       <c r="X8" s="458">
-        <v>1.56</v>
+        <v>1.5449999999999999</v>
       </c>
       <c r="Y8" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F8,X8/100,Trigger)</f>
@@ -17588,10 +17592,10 @@
         <v>GBP1S24=ICAP</v>
       </c>
       <c r="P9" s="308">
-        <v>1.34</v>
+        <v>1.325</v>
       </c>
       <c r="Q9" s="308">
-        <v>1.36</v>
+        <v>1.345</v>
       </c>
       <c r="R9" s="308">
         <v>0</v>
@@ -17601,7 +17605,7 @@
       </c>
       <c r="T9" s="384">
         <f>_xll.qlMidSafe($P9,$Q9)</f>
-        <v>1.35</v>
+        <v>1.335</v>
       </c>
       <c r="U9" s="260"/>
       <c r="V9" s="383">
@@ -17609,11 +17613,11 @@
       </c>
       <c r="W9" s="260"/>
       <c r="X9" s="458">
-        <v>1.35</v>
+        <v>1.335</v>
       </c>
       <c r="Y9" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F9,X9/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.0000000000001432E-5</v>
       </c>
       <c r="Z9" s="160"/>
     </row>
@@ -17655,10 +17659,10 @@
         <v>GBP2S24=ICAP</v>
       </c>
       <c r="P10" s="308">
-        <v>1.52</v>
+        <v>1.5049999999999999</v>
       </c>
       <c r="Q10" s="308">
-        <v>1.54</v>
+        <v>1.5249999999999999</v>
       </c>
       <c r="R10" s="308">
         <v>0</v>
@@ -17668,7 +17672,7 @@
       </c>
       <c r="T10" s="384">
         <f>_xll.qlMidSafe($P10,$Q10)</f>
-        <v>1.53</v>
+        <v>1.5149999999999999</v>
       </c>
       <c r="U10" s="260"/>
       <c r="V10" s="383">
@@ -17676,7 +17680,7 @@
       </c>
       <c r="W10" s="260"/>
       <c r="X10" s="458">
-        <v>1.53</v>
+        <v>1.5149999999999999</v>
       </c>
       <c r="Y10" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F10,X10/100,Trigger)</f>
@@ -17926,7 +17930,7 @@
       <c r="AB3" s="86"/>
       <c r="AC3" s="289">
         <f>_xll.ohTrigger(AC5:AC43)</f>
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="AD3" s="160"/>
       <c r="AE3" s="17"/>
@@ -17962,7 +17966,7 @@
       <c r="R4" s="141"/>
       <c r="S4" s="288" t="str">
         <f>_xll.RData(S5:S43,T4:W4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
       </c>
       <c r="T4" s="319" t="s">
         <v>254</v>
@@ -18232,10 +18236,10 @@
         <v>GBPSM3L1Y=ICAP</v>
       </c>
       <c r="T7" s="308">
-        <v>0.77200000000000002</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="U7" s="308">
-        <v>0.81200000000000006</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="V7" s="308">
         <v>0</v>
@@ -18245,7 +18249,7 @@
       </c>
       <c r="X7" s="268">
         <f>_xll.qlMidSafe($T7,$U7)</f>
-        <v>0.79200000000000004</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="Y7" s="260"/>
       <c r="Z7" s="267">
@@ -18253,7 +18257,7 @@
       </c>
       <c r="AA7" s="260"/>
       <c r="AB7" s="458">
-        <v>0.79200000000000004</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="AC7" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F7,AB7/100,Trigger)</f>
@@ -18587,10 +18591,10 @@
         <v>GBPSM3L2Y=ICAP</v>
       </c>
       <c r="T11" s="308">
-        <v>1.159</v>
+        <v>1.147</v>
       </c>
       <c r="U11" s="308">
-        <v>1.1990000000000001</v>
+        <v>1.1870000000000001</v>
       </c>
       <c r="V11" s="308">
         <v>0</v>
@@ -18600,7 +18604,7 @@
       </c>
       <c r="X11" s="268">
         <f>_xll.qlMidSafe($T11,$U11)</f>
-        <v>1.179</v>
+        <v>1.167</v>
       </c>
       <c r="Y11" s="260"/>
       <c r="Z11" s="267">
@@ -18608,7 +18612,7 @@
       </c>
       <c r="AA11" s="260"/>
       <c r="AB11" s="458">
-        <v>1.179</v>
+        <v>1.167</v>
       </c>
       <c r="AC11" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F11,AB11/100,Trigger)</f>
@@ -18664,10 +18668,10 @@
         <v>GBPSM3L3Y=ICAP</v>
       </c>
       <c r="T12" s="308">
-        <v>1.4890000000000001</v>
+        <v>1.4750000000000001</v>
       </c>
       <c r="U12" s="308">
-        <v>1.5289999999999999</v>
+        <v>1.5149999999999999</v>
       </c>
       <c r="V12" s="308">
         <v>0</v>
@@ -18677,7 +18681,7 @@
       </c>
       <c r="X12" s="268">
         <f>_xll.qlMidSafe($T12,$U12)</f>
-        <v>1.5089999999999999</v>
+        <v>1.4950000000000001</v>
       </c>
       <c r="Y12" s="260"/>
       <c r="Z12" s="267">
@@ -18685,7 +18689,7 @@
       </c>
       <c r="AA12" s="260"/>
       <c r="AB12" s="458">
-        <v>1.5089999999999999</v>
+        <v>1.4950000000000001</v>
       </c>
       <c r="AC12" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F12,AB12/100,Trigger)</f>
@@ -18740,10 +18744,10 @@
         <v>GBPSM3L4Y=ICAP</v>
       </c>
       <c r="T13" s="308">
-        <v>1.724</v>
+        <v>1.7090000000000001</v>
       </c>
       <c r="U13" s="308">
-        <v>1.774</v>
+        <v>1.7589999999999999</v>
       </c>
       <c r="V13" s="308">
         <v>0</v>
@@ -18753,7 +18757,7 @@
       </c>
       <c r="X13" s="268">
         <f>_xll.qlMidSafe($T13,$U13)</f>
-        <v>1.7490000000000001</v>
+        <v>1.734</v>
       </c>
       <c r="Y13" s="260"/>
       <c r="Z13" s="267">
@@ -18761,11 +18765,11 @@
       </c>
       <c r="AA13" s="260"/>
       <c r="AB13" s="458">
-        <v>1.7490000000000001</v>
+        <v>1.734</v>
       </c>
       <c r="AC13" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F13,AB13/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999995925E-6</v>
       </c>
       <c r="AD13" s="160"/>
       <c r="AE13" s="17"/>
@@ -18816,10 +18820,10 @@
         <v>GBPSM3L5Y=ICAP</v>
       </c>
       <c r="T14" s="308">
-        <v>1.8919999999999999</v>
+        <v>1.877</v>
       </c>
       <c r="U14" s="308">
-        <v>1.9419999999999999</v>
+        <v>1.927</v>
       </c>
       <c r="V14" s="308">
         <v>0</v>
@@ -18829,7 +18833,7 @@
       </c>
       <c r="X14" s="268">
         <f>_xll.qlMidSafe($T14,$U14)</f>
-        <v>1.9169999999999998</v>
+        <v>1.9020000000000001</v>
       </c>
       <c r="Y14" s="260"/>
       <c r="Z14" s="267">
@@ -18837,7 +18841,7 @@
       </c>
       <c r="AA14" s="260"/>
       <c r="AB14" s="458">
-        <v>1.9169999999999998</v>
+        <v>1.9020000000000001</v>
       </c>
       <c r="AC14" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F14,AB14/100,Trigger)</f>
@@ -18892,10 +18896,10 @@
         <v>GBPSM3L6Y=ICAP</v>
       </c>
       <c r="T15" s="308">
-        <v>2.0219999999999998</v>
+        <v>2.0089999999999999</v>
       </c>
       <c r="U15" s="308">
-        <v>2.0720000000000001</v>
+        <v>2.0590000000000002</v>
       </c>
       <c r="V15" s="308">
         <v>0</v>
@@ -18905,7 +18909,7 @@
       </c>
       <c r="X15" s="268">
         <f>_xll.qlMidSafe($T15,$U15)</f>
-        <v>2.0469999999999997</v>
+        <v>2.0339999999999998</v>
       </c>
       <c r="Y15" s="260"/>
       <c r="Z15" s="267">
@@ -18913,7 +18917,7 @@
       </c>
       <c r="AA15" s="260"/>
       <c r="AB15" s="458">
-        <v>2.0469999999999997</v>
+        <v>2.0339999999999998</v>
       </c>
       <c r="AC15" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F15,AB15/100,Trigger)</f>
@@ -18968,10 +18972,10 @@
         <v>GBPSM3L7Y=ICAP</v>
       </c>
       <c r="T16" s="308">
-        <v>2.1269999999999998</v>
+        <v>2.117</v>
       </c>
       <c r="U16" s="308">
-        <v>2.177</v>
+        <v>2.1669999999999998</v>
       </c>
       <c r="V16" s="308">
         <v>0</v>
@@ -18981,7 +18985,7 @@
       </c>
       <c r="X16" s="268">
         <f>_xll.qlMidSafe($T16,$U16)</f>
-        <v>2.1520000000000001</v>
+        <v>2.1419999999999999</v>
       </c>
       <c r="Y16" s="260"/>
       <c r="Z16" s="267">
@@ -18989,7 +18993,7 @@
       </c>
       <c r="AA16" s="260"/>
       <c r="AB16" s="458">
-        <v>2.1520000000000001</v>
+        <v>2.1419999999999999</v>
       </c>
       <c r="AC16" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F16,AB16/100,Trigger)</f>
@@ -19044,10 +19048,10 @@
         <v>GBPSM3L8Y=ICAP</v>
       </c>
       <c r="T17" s="308">
-        <v>2.2130000000000001</v>
+        <v>2.2050000000000001</v>
       </c>
       <c r="U17" s="308">
-        <v>2.2629999999999999</v>
+        <v>2.2549999999999999</v>
       </c>
       <c r="V17" s="308">
         <v>0</v>
@@ -19057,7 +19061,7 @@
       </c>
       <c r="X17" s="268">
         <f>_xll.qlMidSafe($T17,$U17)</f>
-        <v>2.238</v>
+        <v>2.23</v>
       </c>
       <c r="Y17" s="260"/>
       <c r="Z17" s="267">
@@ -19065,7 +19069,7 @@
       </c>
       <c r="AA17" s="260"/>
       <c r="AB17" s="458">
-        <v>2.238</v>
+        <v>2.23</v>
       </c>
       <c r="AC17" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F17,AB17/100,Trigger)</f>
@@ -19120,10 +19124,10 @@
         <v>GBPSM3L9Y=ICAP</v>
       </c>
       <c r="T18" s="308">
-        <v>2.2869999999999999</v>
+        <v>2.2810000000000001</v>
       </c>
       <c r="U18" s="308">
-        <v>2.3370000000000002</v>
+        <v>2.331</v>
       </c>
       <c r="V18" s="308">
         <v>0</v>
@@ -19133,7 +19137,7 @@
       </c>
       <c r="X18" s="268">
         <f>_xll.qlMidSafe($T18,$U18)</f>
-        <v>2.3120000000000003</v>
+        <v>2.306</v>
       </c>
       <c r="Y18" s="260"/>
       <c r="Z18" s="267">
@@ -19141,7 +19145,7 @@
       </c>
       <c r="AA18" s="260"/>
       <c r="AB18" s="458">
-        <v>2.3120000000000003</v>
+        <v>2.306</v>
       </c>
       <c r="AC18" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F18,AB18/100,Trigger)</f>
@@ -19196,10 +19200,10 @@
         <v>GBPSM3L10Y=ICAP</v>
       </c>
       <c r="T19" s="308">
-        <v>2.3530000000000002</v>
+        <v>2.347</v>
       </c>
       <c r="U19" s="308">
-        <v>2.403</v>
+        <v>2.3969999999999998</v>
       </c>
       <c r="V19" s="308">
         <v>0</v>
@@ -19209,7 +19213,7 @@
       </c>
       <c r="X19" s="268">
         <f>_xll.qlMidSafe($T19,$U19)</f>
-        <v>2.3780000000000001</v>
+        <v>2.3719999999999999</v>
       </c>
       <c r="Y19" s="260"/>
       <c r="Z19" s="267">
@@ -19217,7 +19221,7 @@
       </c>
       <c r="AA19" s="260"/>
       <c r="AB19" s="458">
-        <v>2.3780000000000001</v>
+        <v>2.3719999999999999</v>
       </c>
       <c r="AC19" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F19,AB19/100,Trigger)</f>
@@ -19272,10 +19276,10 @@
         <v>GBPSM3L11Y=ICAP</v>
       </c>
       <c r="T20" s="308">
-        <v>2.4039999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="U20" s="308">
-        <v>2.4740000000000002</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="V20" s="308">
         <v>0</v>
@@ -19285,7 +19289,7 @@
       </c>
       <c r="X20" s="268">
         <f>_xll.qlMidSafe($T20,$U20)</f>
-        <v>2.4390000000000001</v>
+        <v>2.4350000000000001</v>
       </c>
       <c r="Y20" s="260"/>
       <c r="Z20" s="267">
@@ -19293,7 +19297,7 @@
       </c>
       <c r="AA20" s="260"/>
       <c r="AB20" s="458">
-        <v>2.4390000000000001</v>
+        <v>2.4350000000000001</v>
       </c>
       <c r="AC20" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F20,AB20/100,Trigger)</f>
@@ -19348,10 +19352,10 @@
         <v>GBPSM3L12Y=ICAP</v>
       </c>
       <c r="T21" s="308">
-        <v>2.46</v>
+        <v>2.456</v>
       </c>
       <c r="U21" s="308">
-        <v>2.5299999999999998</v>
+        <v>2.5259999999999998</v>
       </c>
       <c r="V21" s="308">
         <v>0</v>
@@ -19361,7 +19365,7 @@
       </c>
       <c r="X21" s="268">
         <f>_xll.qlMidSafe($T21,$U21)</f>
-        <v>2.4950000000000001</v>
+        <v>2.4909999999999997</v>
       </c>
       <c r="Y21" s="260"/>
       <c r="Z21" s="267">
@@ -19369,7 +19373,7 @@
       </c>
       <c r="AA21" s="260"/>
       <c r="AB21" s="458">
-        <v>2.4950000000000001</v>
+        <v>2.4909999999999997</v>
       </c>
       <c r="AC21" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F21,AB21/100,Trigger)</f>
@@ -19576,10 +19580,10 @@
         <v>GBPSM3L15Y=ICAP</v>
       </c>
       <c r="T24" s="308">
-        <v>2.5750000000000002</v>
+        <v>2.5720000000000001</v>
       </c>
       <c r="U24" s="308">
-        <v>2.665</v>
+        <v>2.6619999999999999</v>
       </c>
       <c r="V24" s="308">
         <v>0</v>
@@ -19589,7 +19593,7 @@
       </c>
       <c r="X24" s="268">
         <f>_xll.qlMidSafe($T24,$U24)</f>
-        <v>2.62</v>
+        <v>2.617</v>
       </c>
       <c r="Y24" s="260"/>
       <c r="Z24" s="267">
@@ -19597,7 +19601,7 @@
       </c>
       <c r="AA24" s="260"/>
       <c r="AB24" s="458">
-        <v>2.62</v>
+        <v>2.617</v>
       </c>
       <c r="AC24" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F24,AB24/100,Trigger)</f>
@@ -19956,10 +19960,10 @@
         <v>GBPSM3L20Y=ICAP</v>
       </c>
       <c r="T29" s="308">
-        <v>2.6720000000000002</v>
+        <v>2.673</v>
       </c>
       <c r="U29" s="308">
-        <v>2.802</v>
+        <v>2.8029999999999999</v>
       </c>
       <c r="V29" s="308">
         <v>0</v>
@@ -19969,7 +19973,7 @@
       </c>
       <c r="X29" s="268">
         <f>_xll.qlMidSafe($T29,$U29)</f>
-        <v>2.7370000000000001</v>
+        <v>2.738</v>
       </c>
       <c r="Y29" s="260"/>
       <c r="Z29" s="267">
@@ -19977,7 +19981,7 @@
       </c>
       <c r="AA29" s="260"/>
       <c r="AB29" s="458">
-        <v>2.7370000000000001</v>
+        <v>2.738</v>
       </c>
       <c r="AC29" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F29,AB29/100,Trigger)</f>
@@ -20336,10 +20340,10 @@
         <v>GBPSM3L25Y=ICAP</v>
       </c>
       <c r="T34" s="308">
-        <v>2.7050000000000001</v>
+        <v>2.7090000000000001</v>
       </c>
       <c r="U34" s="308">
-        <v>2.835</v>
+        <v>2.839</v>
       </c>
       <c r="V34" s="308">
         <v>0</v>
@@ -20349,7 +20353,7 @@
       </c>
       <c r="X34" s="268">
         <f>_xll.qlMidSafe($T34,$U34)</f>
-        <v>2.77</v>
+        <v>2.774</v>
       </c>
       <c r="Y34" s="260"/>
       <c r="Z34" s="267">
@@ -20357,7 +20361,7 @@
       </c>
       <c r="AA34" s="260"/>
       <c r="AB34" s="458">
-        <v>2.77</v>
+        <v>2.774</v>
       </c>
       <c r="AC34" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F34,AB34/100,Trigger)</f>
@@ -20716,10 +20720,10 @@
         <v>GBPSM3L30Y=ICAP</v>
       </c>
       <c r="T39" s="308">
-        <v>2.7170000000000001</v>
+        <v>2.722</v>
       </c>
       <c r="U39" s="308">
-        <v>2.847</v>
+        <v>2.8519999999999999</v>
       </c>
       <c r="V39" s="308">
         <v>0</v>
@@ -20729,7 +20733,7 @@
       </c>
       <c r="X39" s="268">
         <f>_xll.qlMidSafe($T39,$U39)</f>
-        <v>2.782</v>
+        <v>2.7869999999999999</v>
       </c>
       <c r="Y39" s="260"/>
       <c r="Z39" s="267">
@@ -20737,7 +20741,7 @@
       </c>
       <c r="AA39" s="260"/>
       <c r="AB39" s="458">
-        <v>2.782</v>
+        <v>2.7869999999999999</v>
       </c>
       <c r="AC39" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F39,AB39/100,Trigger)</f>
@@ -20868,10 +20872,10 @@
         <v>GBPSM3L40Y=ICAP</v>
       </c>
       <c r="T41" s="308">
-        <v>2.6890000000000001</v>
+        <v>2.6960000000000002</v>
       </c>
       <c r="U41" s="308">
-        <v>2.859</v>
+        <v>2.8660000000000001</v>
       </c>
       <c r="V41" s="308">
         <v>0</v>
@@ -20881,7 +20885,7 @@
       </c>
       <c r="X41" s="268">
         <f>_xll.qlMidSafe($T41,$U41)</f>
-        <v>2.774</v>
+        <v>2.7810000000000001</v>
       </c>
       <c r="Y41" s="260"/>
       <c r="Z41" s="267">
@@ -20889,7 +20893,7 @@
       </c>
       <c r="AA41" s="260"/>
       <c r="AB41" s="458">
-        <v>2.774</v>
+        <v>2.7810000000000001</v>
       </c>
       <c r="AC41" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F41,AB41/100,Trigger)</f>
@@ -20944,10 +20948,10 @@
         <v>GBPSM3L50Y=ICAP</v>
       </c>
       <c r="T42" s="308">
-        <v>2.694</v>
+        <v>2.7029999999999998</v>
       </c>
       <c r="U42" s="308">
-        <v>2.8639999999999999</v>
+        <v>2.8730000000000002</v>
       </c>
       <c r="V42" s="308">
         <v>0</v>
@@ -20957,7 +20961,7 @@
       </c>
       <c r="X42" s="268">
         <f>_xll.qlMidSafe($T42,$U42)</f>
-        <v>2.7789999999999999</v>
+        <v>2.7880000000000003</v>
       </c>
       <c r="Y42" s="260"/>
       <c r="Z42" s="267">
@@ -20965,7 +20969,7 @@
       </c>
       <c r="AA42" s="260"/>
       <c r="AB42" s="458">
-        <v>2.7789999999999999</v>
+        <v>2.7880000000000003</v>
       </c>
       <c r="AC42" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F42,AB42/100,Trigger)</f>
@@ -21020,10 +21024,10 @@
         <v>GBPSM3L60Y=ICAP</v>
       </c>
       <c r="T43" s="304">
-        <v>2.7120000000000002</v>
+        <v>2.7210000000000001</v>
       </c>
       <c r="U43" s="304">
-        <v>2.8820000000000001</v>
+        <v>2.891</v>
       </c>
       <c r="V43" s="304">
         <v>0</v>
@@ -21033,7 +21037,7 @@
       </c>
       <c r="X43" s="262">
         <f>_xll.qlMidSafe($T43,$U43)</f>
-        <v>2.7970000000000002</v>
+        <v>2.806</v>
       </c>
       <c r="Y43" s="260"/>
       <c r="Z43" s="261">
@@ -21041,7 +21045,7 @@
       </c>
       <c r="AA43" s="260"/>
       <c r="AB43" s="459">
-        <v>2.7970000000000002</v>
+        <v>2.806</v>
       </c>
       <c r="AC43" s="258">
         <f>_xll.qlSimpleQuoteSetValue(F43,AB43/100,Trigger)</f>
@@ -21233,7 +21237,7 @@
       <c r="AB3" s="86"/>
       <c r="AC3" s="289">
         <f>_xll.ohTrigger(AC5:AC43)</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AD3" s="160"/>
       <c r="AE3" s="17"/>
@@ -21269,7 +21273,7 @@
       <c r="R4" s="141"/>
       <c r="S4" s="288" t="str">
         <f>_xll.RData(S5:S43,T4:W4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
       </c>
       <c r="T4" s="319" t="s">
         <v>254</v>
@@ -21358,10 +21362,10 @@
         <v>GBPAM3L6M=ICAP</v>
       </c>
       <c r="T5" s="308">
-        <v>0.60699999999999998</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="U5" s="308">
-        <v>0.63700000000000001</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="V5" s="308">
         <v>0</v>
@@ -21371,7 +21375,7 @@
       </c>
       <c r="X5" s="268">
         <f>_xll.qlMidSafe($T5,$U5)</f>
-        <v>0.622</v>
+        <v>0.621</v>
       </c>
       <c r="Y5" s="260"/>
       <c r="Z5" s="267">
@@ -21380,7 +21384,7 @@
       <c r="AA5" s="260"/>
       <c r="AB5" s="458">
         <f t="array" ref="AB5:AB43">QuoteLive</f>
-        <v>0.622</v>
+        <v>0.621</v>
       </c>
       <c r="AC5" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F5,AB5/100,Trigger)</f>
@@ -21452,10 +21456,10 @@
         <v>GBPAM3L9M=ICAP</v>
       </c>
       <c r="T6" s="308">
-        <v>0.68799999999999994</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="U6" s="308">
-        <v>0.71799999999999997</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="V6" s="308">
         <v>0</v>
@@ -21465,7 +21469,7 @@
       </c>
       <c r="X6" s="268">
         <f>_xll.qlMidSafe($T6,$U6)</f>
-        <v>0.70299999999999996</v>
+        <v>0.69900000000000007</v>
       </c>
       <c r="Y6" s="260"/>
       <c r="Z6" s="267">
@@ -21473,11 +21477,11 @@
       </c>
       <c r="AA6" s="260"/>
       <c r="AB6" s="458">
-        <v>0.70299999999999996</v>
+        <v>0.69900000000000007</v>
       </c>
       <c r="AC6" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F6,AB6/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999987252E-6</v>
       </c>
       <c r="AD6" s="160"/>
       <c r="AE6" s="17"/>
@@ -21545,10 +21549,10 @@
         <v>GBPAM3L1Y=ICAP</v>
       </c>
       <c r="T7" s="308">
-        <v>0.77900000000000003</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="U7" s="308">
-        <v>0.80900000000000005</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="V7" s="308">
         <v>0</v>
@@ -21558,7 +21562,7 @@
       </c>
       <c r="X7" s="268">
         <f>_xll.qlMidSafe($T7,$U7)</f>
-        <v>0.79400000000000004</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="Y7" s="260"/>
       <c r="Z7" s="267">
@@ -21566,11 +21570,11 @@
       </c>
       <c r="AA7" s="260"/>
       <c r="AB7" s="458">
-        <v>0.79400000000000004</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="AC7" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F7,AB7/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.000000000000092E-5</v>
       </c>
       <c r="AD7" s="160"/>
       <c r="AE7" s="17"/>
@@ -21636,10 +21640,10 @@
         <v>GBPAM3L15M=ICAP</v>
       </c>
       <c r="T8" s="308">
-        <v>0.879</v>
+        <v>0.871</v>
       </c>
       <c r="U8" s="308">
-        <v>0.90900000000000003</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="V8" s="308">
         <v>0</v>
@@ -21649,7 +21653,7 @@
       </c>
       <c r="X8" s="268">
         <f>_xll.qlMidSafe($T8,$U8)</f>
-        <v>0.89400000000000002</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="Y8" s="260"/>
       <c r="Z8" s="267">
@@ -21657,11 +21661,11 @@
       </c>
       <c r="AA8" s="260"/>
       <c r="AB8" s="458">
-        <v>0.89400000000000002</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="AC8" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F8,AB8/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.000000000000092E-5</v>
       </c>
       <c r="AD8" s="160"/>
       <c r="AE8" s="17"/>
@@ -21727,10 +21731,10 @@
         <v>GBPAM3L18M=ICAP</v>
       </c>
       <c r="T9" s="308">
-        <v>0.97799999999999998</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="U9" s="308">
-        <v>1.008</v>
+        <v>0.998</v>
       </c>
       <c r="V9" s="308">
         <v>0</v>
@@ -21740,7 +21744,7 @@
       </c>
       <c r="X9" s="268">
         <f>_xll.qlMidSafe($T9,$U9)</f>
-        <v>0.99299999999999999</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="Y9" s="260"/>
       <c r="Z9" s="267">
@@ -21748,11 +21752,11 @@
       </c>
       <c r="AA9" s="260"/>
       <c r="AB9" s="458">
-        <v>0.99299999999999999</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="AC9" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F9,AB9/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.9999999999999185E-5</v>
       </c>
       <c r="AD9" s="160"/>
       <c r="AE9" s="17"/>
@@ -24541,7 +24545,7 @@
       <c r="AB3" s="86"/>
       <c r="AC3" s="361">
         <f>_xll.ohTrigger(AC5:AC43)</f>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AD3" s="160"/>
       <c r="AE3" s="17"/>
@@ -24576,7 +24580,7 @@
       <c r="R4" s="141"/>
       <c r="S4" s="288" t="str">
         <f>_xll.RData(S5:S43,T4:W4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
       </c>
       <c r="T4" s="319" t="s">
         <v>254</v>
@@ -25029,10 +25033,10 @@
         <v>GBPSB6L18M=ICAP</v>
       </c>
       <c r="T9" s="308">
-        <v>1.0629999999999999</v>
+        <v>1.0529999999999999</v>
       </c>
       <c r="U9" s="308">
-        <v>1.103</v>
+        <v>1.093</v>
       </c>
       <c r="V9" s="308">
         <v>0</v>
@@ -25042,7 +25046,7 @@
       </c>
       <c r="X9" s="384">
         <f>_xll.qlMidEquivalent($T9,$U9,$V9,$W9)</f>
-        <v>1.083</v>
+        <v>1.073</v>
       </c>
       <c r="Y9" s="260"/>
       <c r="Z9" s="267">
@@ -25050,11 +25054,11 @@
       </c>
       <c r="AA9" s="260"/>
       <c r="AB9" s="458">
-        <v>1.083</v>
+        <v>1.073</v>
       </c>
       <c r="AC9" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F9,AB9/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000001327E-5</v>
       </c>
       <c r="AD9" s="160"/>
       <c r="AE9" s="17"/>
@@ -25194,10 +25198,10 @@
         <v>GBPSB6L2Y=ICAP</v>
       </c>
       <c r="T11" s="308">
-        <v>1.254</v>
+        <v>1.242</v>
       </c>
       <c r="U11" s="308">
-        <v>1.294</v>
+        <v>1.282</v>
       </c>
       <c r="V11" s="308">
         <v>0</v>
@@ -25207,7 +25211,7 @@
       </c>
       <c r="X11" s="384">
         <f>_xll.qlMidEquivalent($T11,$U11,$V11,$W11)</f>
-        <v>1.274</v>
+        <v>1.262</v>
       </c>
       <c r="Y11" s="260"/>
       <c r="Z11" s="267">
@@ -25215,11 +25219,11 @@
       </c>
       <c r="AA11" s="260"/>
       <c r="AB11" s="458">
-        <v>1.274</v>
+        <v>1.262</v>
       </c>
       <c r="AC11" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F11,AB11/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.000000000000092E-5</v>
       </c>
       <c r="AD11" s="160"/>
       <c r="AE11" s="17"/>
@@ -25269,10 +25273,10 @@
         <v>GBPSB6L3Y=ICAP</v>
       </c>
       <c r="T12" s="308">
-        <v>1.595</v>
+        <v>1.579</v>
       </c>
       <c r="U12" s="308">
-        <v>1.635</v>
+        <v>1.619</v>
       </c>
       <c r="V12" s="308">
         <v>0</v>
@@ -25282,7 +25286,7 @@
       </c>
       <c r="X12" s="384">
         <f>_xll.qlMidEquivalent($T12,$U12,$V12,$W12)</f>
-        <v>1.615</v>
+        <v>1.599</v>
       </c>
       <c r="Y12" s="260"/>
       <c r="Z12" s="267">
@@ -25290,11 +25294,11 @@
       </c>
       <c r="AA12" s="260"/>
       <c r="AB12" s="458">
-        <v>1.615</v>
+        <v>1.599</v>
       </c>
       <c r="AC12" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F12,AB12/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="AD12" s="160"/>
       <c r="AE12" s="17"/>
@@ -25344,10 +25348,10 @@
         <v>GBPSB6L4Y=ICAP</v>
       </c>
       <c r="T13" s="308">
-        <v>1.8340000000000001</v>
+        <v>1.8180000000000001</v>
       </c>
       <c r="U13" s="308">
-        <v>1.8839999999999999</v>
+        <v>1.8680000000000001</v>
       </c>
       <c r="V13" s="308">
         <v>0</v>
@@ -25357,7 +25361,7 @@
       </c>
       <c r="X13" s="384">
         <f>_xll.qlMidEquivalent($T13,$U13,$V13,$W13)</f>
-        <v>1.859</v>
+        <v>1.843</v>
       </c>
       <c r="Y13" s="260"/>
       <c r="Z13" s="267">
@@ -25365,7 +25369,7 @@
       </c>
       <c r="AA13" s="260"/>
       <c r="AB13" s="458">
-        <v>1.859</v>
+        <v>1.843</v>
       </c>
       <c r="AC13" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F13,AB13/100,Trigger)</f>
@@ -25419,10 +25423,10 @@
         <v>GBPSB6L5Y=ICAP</v>
       </c>
       <c r="T14" s="308">
-        <v>2.0129999999999999</v>
+        <v>1.996</v>
       </c>
       <c r="U14" s="308">
-        <v>2.0630000000000002</v>
+        <v>2.0459999999999998</v>
       </c>
       <c r="V14" s="308">
         <v>0</v>
@@ -25432,7 +25436,7 @@
       </c>
       <c r="X14" s="384">
         <f>_xll.qlMidEquivalent($T14,$U14,$V14,$W14)</f>
-        <v>2.0380000000000003</v>
+        <v>2.0209999999999999</v>
       </c>
       <c r="Y14" s="260"/>
       <c r="Z14" s="267">
@@ -25440,7 +25444,7 @@
       </c>
       <c r="AA14" s="260"/>
       <c r="AB14" s="458">
-        <v>2.0380000000000003</v>
+        <v>2.0209999999999999</v>
       </c>
       <c r="AC14" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F14,AB14/100,Trigger)</f>
@@ -25494,10 +25498,10 @@
         <v>GBPSB6L6Y=ICAP</v>
       </c>
       <c r="T15" s="308">
-        <v>2.15</v>
+        <v>2.1360000000000001</v>
       </c>
       <c r="U15" s="308">
-        <v>2.2000000000000002</v>
+        <v>2.1859999999999999</v>
       </c>
       <c r="V15" s="308">
         <v>0</v>
@@ -25507,7 +25511,7 @@
       </c>
       <c r="X15" s="384">
         <f>_xll.qlMidEquivalent($T15,$U15,$V15,$W15)</f>
-        <v>2.1749999999999998</v>
+        <v>2.161</v>
       </c>
       <c r="Y15" s="260"/>
       <c r="Z15" s="267">
@@ -25515,7 +25519,7 @@
       </c>
       <c r="AA15" s="260"/>
       <c r="AB15" s="458">
-        <v>2.1749999999999998</v>
+        <v>2.161</v>
       </c>
       <c r="AC15" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F15,AB15/100,Trigger)</f>
@@ -25569,10 +25573,10 @@
         <v>GBPSB6L7Y=ICAP</v>
       </c>
       <c r="T16" s="308">
-        <v>2.2610000000000001</v>
+        <v>2.25</v>
       </c>
       <c r="U16" s="308">
-        <v>2.3109999999999999</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V16" s="308">
         <v>0</v>
@@ -25582,7 +25586,7 @@
       </c>
       <c r="X16" s="384">
         <f>_xll.qlMidEquivalent($T16,$U16,$V16,$W16)</f>
-        <v>2.286</v>
+        <v>2.2749999999999999</v>
       </c>
       <c r="Y16" s="260"/>
       <c r="Z16" s="267">
@@ -25590,11 +25594,11 @@
       </c>
       <c r="AA16" s="260"/>
       <c r="AB16" s="458">
-        <v>2.286</v>
+        <v>2.2749999999999999</v>
       </c>
       <c r="AC16" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F16,AB16/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999995925E-6</v>
       </c>
       <c r="AD16" s="160"/>
       <c r="AE16" s="17"/>
@@ -25644,10 +25648,10 @@
         <v>GBPSB6L8Y=ICAP</v>
       </c>
       <c r="T17" s="308">
-        <v>2.355</v>
+        <v>2.3450000000000002</v>
       </c>
       <c r="U17" s="308">
-        <v>2.4049999999999998</v>
+        <v>2.395</v>
       </c>
       <c r="V17" s="308">
         <v>0</v>
@@ -25657,7 +25661,7 @@
       </c>
       <c r="X17" s="384">
         <f>_xll.qlMidEquivalent($T17,$U17,$V17,$W17)</f>
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Y17" s="260"/>
       <c r="Z17" s="267">
@@ -25665,11 +25669,11 @@
       </c>
       <c r="AA17" s="260"/>
       <c r="AB17" s="458">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="AC17" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F17,AB17/100,Trigger)</f>
-        <v>9.9999999999995925E-6</v>
+        <v>1.0000000000003062E-5</v>
       </c>
       <c r="AD17" s="160"/>
       <c r="AE17" s="17"/>
@@ -25719,10 +25723,10 @@
         <v>GBPSB6L9Y=ICAP</v>
       </c>
       <c r="T18" s="308">
-        <v>2.4340000000000002</v>
+        <v>2.4260000000000002</v>
       </c>
       <c r="U18" s="308">
-        <v>2.484</v>
+        <v>2.476</v>
       </c>
       <c r="V18" s="308">
         <v>0</v>
@@ -25732,7 +25736,7 @@
       </c>
       <c r="X18" s="384">
         <f>_xll.qlMidEquivalent($T18,$U18,$V18,$W18)</f>
-        <v>2.4590000000000001</v>
+        <v>2.4510000000000001</v>
       </c>
       <c r="Y18" s="260"/>
       <c r="Z18" s="267">
@@ -25740,11 +25744,11 @@
       </c>
       <c r="AA18" s="260"/>
       <c r="AB18" s="458">
-        <v>2.4590000000000001</v>
+        <v>2.4510000000000001</v>
       </c>
       <c r="AC18" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F18,AB18/100,Trigger)</f>
-        <v>9.9999999999995925E-6</v>
+        <v>2.0000000000002655E-5</v>
       </c>
       <c r="AD18" s="160"/>
       <c r="AE18" s="17"/>
@@ -25794,10 +25798,10 @@
         <v>GBPSB6L10Y=ICAP</v>
       </c>
       <c r="T19" s="308">
-        <v>2.5019999999999998</v>
+        <v>2.4950000000000001</v>
       </c>
       <c r="U19" s="308">
-        <v>2.552</v>
+        <v>2.5449999999999999</v>
       </c>
       <c r="V19" s="308">
         <v>0</v>
@@ -25807,7 +25811,7 @@
       </c>
       <c r="X19" s="384">
         <f>_xll.qlMidEquivalent($T19,$U19,$V19,$W19)</f>
-        <v>2.5270000000000001</v>
+        <v>2.52</v>
       </c>
       <c r="Y19" s="260"/>
       <c r="Z19" s="267">
@@ -25815,11 +25819,11 @@
       </c>
       <c r="AA19" s="260"/>
       <c r="AB19" s="458">
-        <v>2.5270000000000001</v>
+        <v>2.52</v>
       </c>
       <c r="AC19" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F19,AB19/100,Trigger)</f>
-        <v>1.0000000000003062E-5</v>
+        <v>3.0000000000002247E-5</v>
       </c>
       <c r="AD19" s="160"/>
       <c r="AE19" s="17"/>
@@ -25869,10 +25873,10 @@
         <v>GBPSB6L11Y=ICAP</v>
       </c>
       <c r="T20" s="308">
-        <v>2.5529999999999999</v>
+        <v>2.5470000000000002</v>
       </c>
       <c r="U20" s="308">
-        <v>2.6230000000000002</v>
+        <v>2.617</v>
       </c>
       <c r="V20" s="308">
         <v>0</v>
@@ -25882,7 +25886,7 @@
       </c>
       <c r="X20" s="384">
         <f>_xll.qlMidEquivalent($T20,$U20,$V20,$W20)</f>
-        <v>2.5880000000000001</v>
+        <v>2.5819999999999999</v>
       </c>
       <c r="Y20" s="260"/>
       <c r="Z20" s="267">
@@ -25890,11 +25894,11 @@
       </c>
       <c r="AA20" s="260"/>
       <c r="AB20" s="458">
-        <v>2.5880000000000001</v>
+        <v>2.5819999999999999</v>
       </c>
       <c r="AC20" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F20,AB20/100,Trigger)</f>
-        <v>1.0000000000003062E-5</v>
+        <v>1.9999999999999185E-5</v>
       </c>
       <c r="AD20" s="160"/>
       <c r="AE20" s="17"/>
@@ -25944,10 +25948,10 @@
         <v>GBPSB6L12Y=ICAP</v>
       </c>
       <c r="T21" s="308">
-        <v>2.6070000000000002</v>
+        <v>2.601</v>
       </c>
       <c r="U21" s="308">
-        <v>2.677</v>
+        <v>2.6709999999999998</v>
       </c>
       <c r="V21" s="308">
         <v>0</v>
@@ -25957,7 +25961,7 @@
       </c>
       <c r="X21" s="384">
         <f>_xll.qlMidEquivalent($T21,$U21,$V21,$W21)</f>
-        <v>2.6420000000000003</v>
+        <v>2.6360000000000001</v>
       </c>
       <c r="Y21" s="260"/>
       <c r="Z21" s="267">
@@ -25965,11 +25969,11 @@
       </c>
       <c r="AA21" s="260"/>
       <c r="AB21" s="458">
-        <v>2.6420000000000003</v>
+        <v>2.6360000000000001</v>
       </c>
       <c r="AC21" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F21,AB21/100,Trigger)</f>
-        <v>1.0000000000003062E-5</v>
+        <v>3.0000000000002247E-5</v>
       </c>
       <c r="AD21" s="160"/>
       <c r="AE21" s="17"/>
@@ -26169,10 +26173,10 @@
         <v>GBPSB6L15Y=ICAP</v>
       </c>
       <c r="T24" s="308">
-        <v>2.714</v>
+        <v>2.71</v>
       </c>
       <c r="U24" s="308">
-        <v>2.8039999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="V24" s="308">
         <v>0</v>
@@ -26182,7 +26186,7 @@
       </c>
       <c r="X24" s="384">
         <f>_xll.qlMidEquivalent($T24,$U24,$V24,$W24)</f>
-        <v>2.7589999999999999</v>
+        <v>2.7549999999999999</v>
       </c>
       <c r="Y24" s="260"/>
       <c r="Z24" s="267">
@@ -26190,11 +26194,11 @@
       </c>
       <c r="AA24" s="260"/>
       <c r="AB24" s="458">
-        <v>2.7589999999999999</v>
+        <v>2.7549999999999999</v>
       </c>
       <c r="AC24" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F24,AB24/100,Trigger)</f>
-        <v>9.9999999999995925E-6</v>
+        <v>2.9999999999998778E-5</v>
       </c>
       <c r="AD24" s="160"/>
       <c r="AE24" s="17"/>
@@ -26544,10 +26548,10 @@
         <v>GBPSB6L20Y=ICAP</v>
       </c>
       <c r="T29" s="308">
-        <v>2.7930000000000001</v>
+        <v>2.7919999999999998</v>
       </c>
       <c r="U29" s="308">
-        <v>2.923</v>
+        <v>2.9220000000000002</v>
       </c>
       <c r="V29" s="308">
         <v>0</v>
@@ -26557,7 +26561,7 @@
       </c>
       <c r="X29" s="384">
         <f>_xll.qlMidEquivalent($T29,$U29,$V29,$W29)</f>
-        <v>2.8580000000000001</v>
+        <v>2.8570000000000002</v>
       </c>
       <c r="Y29" s="260"/>
       <c r="Z29" s="267">
@@ -26565,11 +26569,11 @@
       </c>
       <c r="AA29" s="260"/>
       <c r="AB29" s="458">
-        <v>2.8580000000000001</v>
+        <v>2.8570000000000002</v>
       </c>
       <c r="AC29" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F29,AB29/100,Trigger)</f>
-        <v>9.9999999999995925E-6</v>
+        <v>3.0000000000002247E-5</v>
       </c>
       <c r="AD29" s="160"/>
       <c r="AE29" s="17"/>
@@ -26919,10 +26923,10 @@
         <v>GBPSB6L25Y=ICAP</v>
       </c>
       <c r="T34" s="308">
-        <v>2.8159999999999998</v>
+        <v>2.8180000000000001</v>
       </c>
       <c r="U34" s="308">
-        <v>2.9460000000000002</v>
+        <v>2.948</v>
       </c>
       <c r="V34" s="308">
         <v>0</v>
@@ -26932,7 +26936,7 @@
       </c>
       <c r="X34" s="384">
         <f>_xll.qlMidEquivalent($T34,$U34,$V34,$W34)</f>
-        <v>2.8810000000000002</v>
+        <v>2.883</v>
       </c>
       <c r="Y34" s="260"/>
       <c r="Z34" s="267">
@@ -26940,11 +26944,11 @@
       </c>
       <c r="AA34" s="260"/>
       <c r="AB34" s="458">
-        <v>2.8810000000000002</v>
+        <v>2.883</v>
       </c>
       <c r="AC34" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F34,AB34/100,Trigger)</f>
-        <v>1.0000000000003062E-5</v>
+        <v>3.0000000000002247E-5</v>
       </c>
       <c r="AD34" s="160"/>
       <c r="AE34" s="17"/>
@@ -27294,10 +27298,10 @@
         <v>GBPSB6L30Y=ICAP</v>
       </c>
       <c r="T39" s="308">
-        <v>2.82</v>
+        <v>2.8239999999999998</v>
       </c>
       <c r="U39" s="308">
-        <v>2.95</v>
+        <v>2.9540000000000002</v>
       </c>
       <c r="V39" s="308">
         <v>0</v>
@@ -27307,7 +27311,7 @@
       </c>
       <c r="X39" s="384">
         <f>_xll.qlMidEquivalent($T39,$U39,$V39,$W39)</f>
-        <v>2.8849999999999998</v>
+        <v>2.8890000000000002</v>
       </c>
       <c r="Y39" s="260"/>
       <c r="Z39" s="267">
@@ -27315,11 +27319,11 @@
       </c>
       <c r="AA39" s="260"/>
       <c r="AB39" s="458">
-        <v>2.8849999999999998</v>
+        <v>2.8890000000000002</v>
       </c>
       <c r="AC39" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F39,AB39/100,Trigger)</f>
-        <v>9.9999999999995925E-6</v>
+        <v>3.0000000000002247E-5</v>
       </c>
       <c r="AD39" s="160"/>
       <c r="AE39" s="17"/>
@@ -27444,10 +27448,10 @@
         <v>GBPSB6L40Y=ICAP</v>
       </c>
       <c r="T41" s="308">
-        <v>2.782</v>
+        <v>2.7879999999999998</v>
       </c>
       <c r="U41" s="308">
-        <v>2.952</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="V41" s="308">
         <v>0</v>
@@ -27457,7 +27461,7 @@
       </c>
       <c r="X41" s="384">
         <f>_xll.qlMidEquivalent($T41,$U41,$V41,$W41)</f>
-        <v>2.867</v>
+        <v>2.8730000000000002</v>
       </c>
       <c r="Y41" s="260"/>
       <c r="Z41" s="267">
@@ -27465,11 +27469,11 @@
       </c>
       <c r="AA41" s="260"/>
       <c r="AB41" s="458">
-        <v>2.867</v>
+        <v>2.8730000000000002</v>
       </c>
       <c r="AC41" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F41,AB41/100,Trigger)</f>
-        <v>9.9999999999995925E-6</v>
+        <v>3.0000000000002247E-5</v>
       </c>
       <c r="AD41" s="160"/>
       <c r="AE41" s="17"/>
@@ -27519,10 +27523,10 @@
         <v>GBPSB6L50Y=ICAP</v>
       </c>
       <c r="T42" s="308">
-        <v>2.7810000000000001</v>
+        <v>2.7879999999999998</v>
       </c>
       <c r="U42" s="308">
-        <v>2.9510000000000001</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="V42" s="308">
         <v>0</v>
@@ -27532,7 +27536,7 @@
       </c>
       <c r="X42" s="384">
         <f>_xll.qlMidEquivalent($T42,$U42,$V42,$W42)</f>
-        <v>2.8660000000000001</v>
+        <v>2.8730000000000002</v>
       </c>
       <c r="Y42" s="260"/>
       <c r="Z42" s="267">
@@ -27540,11 +27544,11 @@
       </c>
       <c r="AA42" s="260"/>
       <c r="AB42" s="458">
-        <v>2.8660000000000001</v>
+        <v>2.8730000000000002</v>
       </c>
       <c r="AC42" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F42,AB42/100,Trigger)</f>
-        <v>9.9999999999995925E-6</v>
+        <v>4.0000000000005309E-5</v>
       </c>
       <c r="AD42" s="160"/>
       <c r="AE42" s="17"/>
@@ -27594,10 +27598,10 @@
         <v>GBPSB6L60Y=ICAP</v>
       </c>
       <c r="T43" s="304">
-        <v>2.794</v>
+        <v>2.8010000000000002</v>
       </c>
       <c r="U43" s="304">
-        <v>2.964</v>
+        <v>2.9710000000000001</v>
       </c>
       <c r="V43" s="304">
         <v>0</v>
@@ -27607,7 +27611,7 @@
       </c>
       <c r="X43" s="382">
         <f>_xll.qlMidEquivalent($T43,$U43,$V43,$W43)</f>
-        <v>2.879</v>
+        <v>2.8860000000000001</v>
       </c>
       <c r="Y43" s="260"/>
       <c r="Z43" s="261">
@@ -27615,11 +27619,11 @@
       </c>
       <c r="AA43" s="260"/>
       <c r="AB43" s="459">
-        <v>2.879</v>
+        <v>2.8860000000000001</v>
       </c>
       <c r="AC43" s="678">
         <f>_xll.qlSimpleQuoteSetValue(F43,AB43/100,Trigger)</f>
-        <v>9.9999999999995925E-6</v>
+        <v>3.999999999999837E-5</v>
       </c>
       <c r="AD43" s="160"/>
       <c r="AE43" s="17"/>
@@ -29452,7 +29456,7 @@
   <dimension ref="B1:W25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -29623,7 +29627,7 @@
       <c r="J6" s="514"/>
       <c r="K6" s="465" t="str">
         <f>_xll.RData(K7:K13,L6:M6,"RTFEED:IDN",,,L7)</f>
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
       </c>
       <c r="L6" s="516" t="s">
         <v>210</v>
@@ -29707,7 +29711,7 @@
       <c r="P7" s="537"/>
       <c r="Q7" s="556">
         <f>_xll.qlIndexFixing($E7,$L7,TRUE,$N7)</f>
-        <v>4.1593612328538754E-3</v>
+        <v>4.1582102909731855E-3</v>
       </c>
       <c r="R7" s="556">
         <f>IF($N7,_xll.qlIndexFixing($E7,$L7,FALSE,$N7),"-")</f>
@@ -29715,15 +29719,15 @@
       </c>
       <c r="S7" s="556">
         <f>$Q7-$R7</f>
-        <v>-6.0943876714612474E-4</v>
+        <v>-6.1058970902681461E-4</v>
       </c>
       <c r="T7" s="556">
         <f>_xll.qlIndexFixing($E7,$L7,TRUE,$R7)</f>
-        <v>4.1593612328538754E-3</v>
+        <v>4.1582102909731855E-3</v>
       </c>
       <c r="U7" s="559">
         <f>IF(ISERROR(S7),0,ABS(S7))</f>
-        <v>6.0943876714612474E-4</v>
+        <v>6.1058970902681461E-4</v>
       </c>
       <c r="V7" s="514"/>
       <c r="W7" s="515"/>
@@ -29850,7 +29854,7 @@
       <c r="P9" s="537"/>
       <c r="Q9" s="557">
         <f>_xll.qlIndexFixing($E9,$L9,TRUE,$N9)</f>
-        <v>5.068999999942557E-3</v>
+        <v>5.0689999999982763E-3</v>
       </c>
       <c r="R9" s="557">
         <f>IF($N9,_xll.qlIndexFixing($E9,$L9,FALSE,$N9),"-")</f>
@@ -29858,15 +29862,15 @@
       </c>
       <c r="S9" s="557">
         <f t="shared" si="2"/>
-        <v>-4.0000005744212502E-7</v>
+        <v>-4.0000000172280697E-7</v>
       </c>
       <c r="T9" s="557">
         <f>_xll.qlIndexFixing($E9,$L9,TRUE,$R9)</f>
-        <v>5.068999999942557E-3</v>
+        <v>5.0689999999982763E-3</v>
       </c>
       <c r="U9" s="560">
         <f t="shared" si="3"/>
-        <v>4.0000005744212502E-7</v>
+        <v>4.0000000172280697E-7</v>
       </c>
       <c r="V9" s="514"/>
       <c r="W9" s="515"/>
@@ -29991,7 +29995,7 @@
       <c r="P11" s="537"/>
       <c r="Q11" s="557">
         <f>_xll.qlIndexFixing($E11,$L11,TRUE,$N11)</f>
-        <v>5.6410000000020524E-3</v>
+        <v>5.6409999999994936E-3</v>
       </c>
       <c r="R11" s="557">
         <f>IF($N11,_xll.qlIndexFixing($E11,$L11,FALSE,$N11),"-")</f>
@@ -29999,15 +30003,15 @@
       </c>
       <c r="S11" s="557">
         <f t="shared" si="2"/>
-        <v>-2.9999999794777521E-7</v>
+        <v>-3.0000000050649234E-7</v>
       </c>
       <c r="T11" s="557">
         <f>_xll.qlIndexFixing($E11,$L11,TRUE,$R11)</f>
-        <v>5.6410000000020524E-3</v>
+        <v>5.6409999999994936E-3</v>
       </c>
       <c r="U11" s="560">
         <f t="shared" si="3"/>
-        <v>2.9999999794777521E-7</v>
+        <v>3.0000000050649234E-7</v>
       </c>
       <c r="V11" s="514"/>
       <c r="W11" s="515"/>
@@ -30063,7 +30067,7 @@
       <c r="P12" s="537"/>
       <c r="Q12" s="557">
         <f>_xll.qlIndexFixing($E12,$L12,TRUE,$N12)</f>
-        <v>7.1379999999935549E-3</v>
+        <v>7.136999999960425E-3</v>
       </c>
       <c r="R12" s="557">
         <f>IF($N12,_xll.qlIndexFixing($E12,$L12,FALSE,$N12),"-")</f>
@@ -30071,15 +30075,15 @@
       </c>
       <c r="S12" s="557">
         <f t="shared" si="2"/>
-        <v>4.9999999355513497E-7</v>
+        <v>-5.000000395747467E-7</v>
       </c>
       <c r="T12" s="557">
         <f>_xll.qlIndexFixing($E12,$L12,TRUE,$R12)</f>
-        <v>7.1379999999935549E-3</v>
+        <v>7.136999999960425E-3</v>
       </c>
       <c r="U12" s="560">
         <f t="shared" si="3"/>
-        <v>4.9999999355513497E-7</v>
+        <v>5.000000395747467E-7</v>
       </c>
       <c r="V12" s="514"/>
       <c r="W12" s="515"/>
@@ -30135,7 +30139,7 @@
       <c r="P13" s="537"/>
       <c r="Q13" s="558">
         <f>_xll.qlIndexFixing($E13,$L13,TRUE,$N13)</f>
-        <v>1.0664999999977498E-2</v>
+        <v>1.0664999999980163E-2</v>
       </c>
       <c r="R13" s="558">
         <f>IF($N13,_xll.qlIndexFixing($E13,$L13,FALSE,$N13),"-")</f>
@@ -30143,15 +30147,15 @@
       </c>
       <c r="S13" s="558">
         <f t="shared" si="2"/>
-        <v>-2.2502832930371142E-14</v>
+        <v>-1.9838297671270766E-14</v>
       </c>
       <c r="T13" s="558">
         <f>_xll.qlIndexFixing($E13,$L13,TRUE,$R13)</f>
-        <v>1.0664999999977498E-2</v>
+        <v>1.0664999999980163E-2</v>
       </c>
       <c r="U13" s="561">
         <f t="shared" si="3"/>
-        <v>2.2502832930371142E-14</v>
+        <v>1.9838297671270766E-14</v>
       </c>
       <c r="V13" s="514"/>
       <c r="W13" s="515"/>
@@ -33827,7 +33831,7 @@
       </c>
       <c r="D3" s="235" t="str">
         <f>_xll.RData(D4:D21,E3:F3,"RTFEED:IDN",,,E4)</f>
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
       </c>
       <c r="E3" s="235" t="s">
         <v>210</v>
@@ -36040,7 +36044,7 @@
       </c>
       <c r="D3" s="235" t="str">
         <f>_xll.RData(D4:D21,E3:F3,"RTFEED:IDN",,,E4)</f>
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
       </c>
       <c r="E3" s="235" t="s">
         <v>210</v>
@@ -38060,7 +38064,7 @@
       </c>
       <c r="D3" s="235" t="str">
         <f>_xll.RData(D4:D18,E3:F3,"RTFEED:IDN",,,E4)</f>
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
       </c>
       <c r="E3" s="235" t="s">
         <v>210</v>
@@ -39893,7 +39897,7 @@
       </c>
       <c r="D3" s="235" t="str">
         <f>_xll.RData(D4:D18,E3:F3,"RTFEED:IDN",,,E4)</f>
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
       </c>
       <c r="E3" s="235" t="s">
         <v>210</v>
@@ -41710,7 +41714,7 @@
       <c r="P3" s="431"/>
       <c r="Q3" s="430">
         <f>_xll.ohTrigger(Q5:Q10)</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="R3" s="405"/>
     </row>
@@ -41722,7 +41726,7 @@
       <c r="E4" s="133"/>
       <c r="F4" s="428" t="str">
         <f>_xll.RData(F5:F10,G4:J4,"RTFEED:IDN",ReutersRtMode,,G5)</f>
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
       </c>
       <c r="G4" s="427" t="s">
         <v>254</v>
@@ -41775,10 +41779,10 @@
         <v>GBPMPCOISM1=ICAP</v>
       </c>
       <c r="G5" s="418">
-        <v>0.41249999999999998</v>
+        <v>0.41125</v>
       </c>
       <c r="H5" s="418">
-        <v>0.45250000000000001</v>
+        <v>0.45124999999999998</v>
       </c>
       <c r="I5" s="418">
         <v>0</v>
@@ -41788,7 +41792,7 @@
       </c>
       <c r="K5" s="417">
         <f>_xll.qlMidEquivalent($G5,$H5,$I5,$J5)</f>
-        <v>0.4325</v>
+        <v>0.43125000000000002</v>
       </c>
       <c r="L5" s="409"/>
       <c r="M5" s="416">
@@ -41801,7 +41805,7 @@
       </c>
       <c r="P5" s="407">
         <f t="array" ref="P5:P10">QuoteLive</f>
-        <v>0.4325</v>
+        <v>0.43125000000000002</v>
       </c>
       <c r="Q5" s="406" t="e">
         <f>_xll.qlSimpleQuoteSetValue($O5,$P5/100,Trigger)</f>
@@ -41828,10 +41832,10 @@
         <v>GBPMPCOISM2=ICAP</v>
       </c>
       <c r="G6" s="407">
-        <v>0.44750000000000001</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="H6" s="407">
-        <v>0.48749999999999999</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="I6" s="407">
         <v>0</v>
@@ -41841,7 +41845,7 @@
       </c>
       <c r="K6" s="411">
         <f>_xll.qlMidEquivalent($G6,$H6,$I6,$J6)</f>
-        <v>0.46750000000000003</v>
+        <v>0.46499999999999997</v>
       </c>
       <c r="L6" s="409"/>
       <c r="M6" s="410">
@@ -41853,7 +41857,7 @@
         <v>GBPMPCNOV14OIS_Quote</v>
       </c>
       <c r="P6" s="407">
-        <v>0.46750000000000003</v>
+        <v>0.46499999999999997</v>
       </c>
       <c r="Q6" s="406" t="e">
         <f>_xll.qlSimpleQuoteSetValue($O6,$P6/100,Trigger)</f>
@@ -41880,10 +41884,10 @@
         <v>GBPMPCOISM3=ICAP</v>
       </c>
       <c r="G7" s="407">
-        <v>0.45624999999999999</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="H7" s="407">
-        <v>0.49625000000000002</v>
+        <v>0.495</v>
       </c>
       <c r="I7" s="407">
         <v>0</v>
@@ -41893,7 +41897,7 @@
       </c>
       <c r="K7" s="411">
         <f>_xll.qlMidEquivalent($G7,$H7,$I7,$J7)</f>
-        <v>0.47625000000000001</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="L7" s="409"/>
       <c r="M7" s="410">
@@ -41905,7 +41909,7 @@
         <v>GBPMPCDEC14OIS_Quote</v>
       </c>
       <c r="P7" s="407">
-        <v>0.47625000000000001</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="Q7" s="406" t="e">
         <f>_xll.qlSimpleQuoteSetValue($O7,$P7/100,Trigger)</f>
@@ -41984,10 +41988,10 @@
         <v>GBPMPCOISM5=ICAP</v>
       </c>
       <c r="G9" s="407">
-        <v>0.58875</v>
+        <v>0.58625000000000005</v>
       </c>
       <c r="H9" s="407">
-        <v>0.62875000000000003</v>
+        <v>0.62624999999999997</v>
       </c>
       <c r="I9" s="407">
         <v>0</v>
@@ -41997,7 +42001,7 @@
       </c>
       <c r="K9" s="411">
         <f>_xll.qlMidEquivalent($G9,$H9,$I9,$J9)</f>
-        <v>0.60875000000000001</v>
+        <v>0.60624999999999996</v>
       </c>
       <c r="L9" s="409"/>
       <c r="M9" s="410">
@@ -42009,7 +42013,7 @@
         <v>GBPMPCFEB15OIS_Quote</v>
       </c>
       <c r="P9" s="407">
-        <v>0.60875000000000001</v>
+        <v>0.60624999999999996</v>
       </c>
       <c r="Q9" s="406" t="e">
         <f>_xll.qlSimpleQuoteSetValue($O9,$P9/100,Trigger)</f>
@@ -42036,10 +42040,10 @@
         <v>GBPMPCOISM6=ICAP</v>
       </c>
       <c r="G10" s="407">
-        <v>0.61499999999999999</v>
+        <v>0.61250000000000004</v>
       </c>
       <c r="H10" s="407">
-        <v>0.65500000000000003</v>
+        <v>0.65249999999999997</v>
       </c>
       <c r="I10" s="407">
         <v>0</v>
@@ -42049,7 +42053,7 @@
       </c>
       <c r="K10" s="411">
         <f>_xll.qlMidEquivalent($G10,$H10,$I10,$J10)</f>
-        <v>0.63500000000000001</v>
+        <v>0.63250000000000006</v>
       </c>
       <c r="L10" s="409"/>
       <c r="M10" s="410">
@@ -42061,7 +42065,7 @@
         <v>GBPMPCMAR15OIS_Quote</v>
       </c>
       <c r="P10" s="407">
-        <v>0.63500000000000001</v>
+        <v>0.63250000000000006</v>
       </c>
       <c r="Q10" s="406" t="e">
         <f>_xll.qlSimpleQuoteSetValue($O10,$P10/100,Trigger)</f>
@@ -42215,7 +42219,7 @@
       <c r="E4" s="141"/>
       <c r="F4" s="288" t="str">
         <f>_xll.RData(F5:F10,G4:J4,"RTFEED:IDN",ReutersRtMode,,G5)</f>
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
       </c>
       <c r="G4" s="319" t="s">
         <v>254</v>
@@ -42589,7 +42593,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42647,7 +42651,7 @@
       <c r="I2" s="285"/>
       <c r="J2" s="288" t="str">
         <f>_xll.RData(J3:J20,K2:K2,"RTFEED:DTSIMI1",ReutersRtMode,,K3)</f>
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
       </c>
       <c r="K2" s="287" t="s">
         <v>229</v>
@@ -42671,12 +42675,12 @@
         <v>128</v>
       </c>
       <c r="C3" s="55" t="str">
-        <f>Currency&amp;$B3&amp;"_Mx"&amp;QuoteSuffix</f>
+        <f t="shared" ref="C3:C20" si="0">Currency&amp;$B3&amp;"_Mx"&amp;QuoteSuffix</f>
         <v>GBPOND_Mx_Quote</v>
       </c>
       <c r="D3" s="55" t="str">
         <f>_xll.qlSimpleQuote(C3,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPOND_Mx_Quote#0002</v>
+        <v>GBPOND_Mx_Quote#0000</v>
       </c>
       <c r="E3" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
@@ -42689,7 +42693,7 @@
         <v>201</v>
       </c>
       <c r="J3" s="269" t="str">
-        <f>Currency&amp;I3&amp;"D="</f>
+        <f t="shared" ref="J3:J20" si="1">Currency&amp;I3&amp;"D="</f>
         <v>GBPOND=</v>
       </c>
       <c r="K3" s="279">
@@ -42716,12 +42720,12 @@
         <v>127</v>
       </c>
       <c r="C4" s="55" t="str">
-        <f>Currency&amp;$B4&amp;"_Mx"&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>GBPTND_Mx_Quote</v>
       </c>
       <c r="D4" s="55" t="str">
         <f>_xll.qlSimpleQuote(C4,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPTND_Mx_Quote#0002</v>
+        <v>GBPTND_Mx_Quote#0000</v>
       </c>
       <c r="E4" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -42734,7 +42738,7 @@
         <v>200</v>
       </c>
       <c r="J4" s="269" t="str">
-        <f>Currency&amp;I4&amp;"D="</f>
+        <f t="shared" si="1"/>
         <v>GBPTND=</v>
       </c>
       <c r="K4" s="268" t="s">
@@ -42760,12 +42764,12 @@
         <v>126</v>
       </c>
       <c r="C5" s="55" t="str">
-        <f>Currency&amp;$B5&amp;"_Mx"&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>GBPSND_Mx_Quote</v>
       </c>
       <c r="D5" s="55" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSND_Mx_Quote#0002</v>
+        <v>GBPSND_Mx_Quote#0000</v>
       </c>
       <c r="E5" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -42778,7 +42782,7 @@
         <v>199</v>
       </c>
       <c r="J5" s="269" t="str">
-        <f>Currency&amp;I5&amp;"D="</f>
+        <f t="shared" si="1"/>
         <v>GBPSND=</v>
       </c>
       <c r="K5" s="268">
@@ -42804,12 +42808,12 @@
         <v>125</v>
       </c>
       <c r="C6" s="55" t="str">
-        <f>Currency&amp;$B6&amp;"_Mx"&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>GBPSWD_Mx_Quote</v>
       </c>
       <c r="D6" s="55" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSWD_Mx_Quote#0002</v>
+        <v>GBPSWD_Mx_Quote#0000</v>
       </c>
       <c r="E6" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -42822,7 +42826,7 @@
         <v>14</v>
       </c>
       <c r="J6" s="269" t="str">
-        <f>Currency&amp;I6&amp;"D="</f>
+        <f t="shared" si="1"/>
         <v>GBPSWD=</v>
       </c>
       <c r="K6" s="268">
@@ -42848,12 +42852,12 @@
         <v>124</v>
       </c>
       <c r="C7" s="55" t="str">
-        <f>Currency&amp;$B7&amp;"_Mx"&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>GBP2WD_Mx_Quote</v>
       </c>
       <c r="D7" s="55" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP2WD_Mx_Quote#0002</v>
+        <v>GBP2WD_Mx_Quote#0000</v>
       </c>
       <c r="E7" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -42866,7 +42870,7 @@
         <v>13</v>
       </c>
       <c r="J7" s="269" t="str">
-        <f>Currency&amp;I7&amp;"D="</f>
+        <f t="shared" si="1"/>
         <v>GBP2WD=</v>
       </c>
       <c r="K7" s="268">
@@ -42892,12 +42896,12 @@
         <v>123</v>
       </c>
       <c r="C8" s="55" t="str">
-        <f>Currency&amp;$B8&amp;"_Mx"&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>GBP3WD_Mx_Quote</v>
       </c>
       <c r="D8" s="55" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3WD_Mx_Quote#0002</v>
+        <v>GBP3WD_Mx_Quote#0000</v>
       </c>
       <c r="E8" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -42910,7 +42914,7 @@
         <v>12</v>
       </c>
       <c r="J8" s="269" t="str">
-        <f>Currency&amp;I8&amp;"D="</f>
+        <f t="shared" si="1"/>
         <v>GBP3WD=</v>
       </c>
       <c r="K8" s="268">
@@ -42936,12 +42940,12 @@
         <v>122</v>
       </c>
       <c r="C9" s="55" t="str">
-        <f>Currency&amp;$B9&amp;"_Mx"&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>GBP1MD_Mx_Quote</v>
       </c>
       <c r="D9" s="55" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1MD_Mx_Quote#0002</v>
+        <v>GBP1MD_Mx_Quote#0000</v>
       </c>
       <c r="E9" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -42954,7 +42958,7 @@
         <v>11</v>
       </c>
       <c r="J9" s="269" t="str">
-        <f>Currency&amp;I9&amp;"D="</f>
+        <f t="shared" si="1"/>
         <v>GBP1MD=</v>
       </c>
       <c r="K9" s="268">
@@ -42980,12 +42984,12 @@
         <v>121</v>
       </c>
       <c r="C10" s="55" t="str">
-        <f>Currency&amp;$B10&amp;"_Mx"&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>GBP2MD_Mx_Quote</v>
       </c>
       <c r="D10" s="55" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP2MD_Mx_Quote#0002</v>
+        <v>GBP2MD_Mx_Quote#0000</v>
       </c>
       <c r="E10" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -42998,7 +43002,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="269" t="str">
-        <f>Currency&amp;I10&amp;"D="</f>
+        <f t="shared" si="1"/>
         <v>GBP2MD=</v>
       </c>
       <c r="K10" s="268">
@@ -43024,12 +43028,12 @@
         <v>120</v>
       </c>
       <c r="C11" s="55" t="str">
-        <f>Currency&amp;$B11&amp;"_Mx"&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>GBP3MD_Mx_Quote</v>
       </c>
       <c r="D11" s="55" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3MD_Mx_Quote#0002</v>
+        <v>GBP3MD_Mx_Quote#0000</v>
       </c>
       <c r="E11" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -43042,7 +43046,7 @@
         <v>9</v>
       </c>
       <c r="J11" s="269" t="str">
-        <f>Currency&amp;I11&amp;"D="</f>
+        <f t="shared" si="1"/>
         <v>GBP3MD=</v>
       </c>
       <c r="K11" s="268">
@@ -43068,12 +43072,12 @@
         <v>119</v>
       </c>
       <c r="C12" s="55" t="str">
-        <f>Currency&amp;$B12&amp;"_Mx"&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>GBP4MD_Mx_Quote</v>
       </c>
       <c r="D12" s="55" t="str">
         <f>_xll.qlSimpleQuote(C12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP4MD_Mx_Quote#0002</v>
+        <v>GBP4MD_Mx_Quote#0000</v>
       </c>
       <c r="E12" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
@@ -43086,7 +43090,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="269" t="str">
-        <f>Currency&amp;I12&amp;"D="</f>
+        <f t="shared" si="1"/>
         <v>GBP4MD=</v>
       </c>
       <c r="K12" s="268">
@@ -43112,12 +43116,12 @@
         <v>118</v>
       </c>
       <c r="C13" s="55" t="str">
-        <f>Currency&amp;$B13&amp;"_Mx"&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>GBP5MD_Mx_Quote</v>
       </c>
       <c r="D13" s="55" t="str">
         <f>_xll.qlSimpleQuote(C13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP5MD_Mx_Quote#0002</v>
+        <v>GBP5MD_Mx_Quote#0000</v>
       </c>
       <c r="E13" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
@@ -43130,7 +43134,7 @@
         <v>7</v>
       </c>
       <c r="J13" s="269" t="str">
-        <f>Currency&amp;I13&amp;"D="</f>
+        <f t="shared" si="1"/>
         <v>GBP5MD=</v>
       </c>
       <c r="K13" s="268">
@@ -43156,12 +43160,12 @@
         <v>117</v>
       </c>
       <c r="C14" s="55" t="str">
-        <f>Currency&amp;$B14&amp;"_Mx"&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>GBP6MD_Mx_Quote</v>
       </c>
       <c r="D14" s="55" t="str">
         <f>_xll.qlSimpleQuote(C14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6MD_Mx_Quote#0002</v>
+        <v>GBP6MD_Mx_Quote#0000</v>
       </c>
       <c r="E14" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(D14)</f>
@@ -43174,7 +43178,7 @@
         <v>6</v>
       </c>
       <c r="J14" s="269" t="str">
-        <f>Currency&amp;I14&amp;"D="</f>
+        <f t="shared" si="1"/>
         <v>GBP6MD=</v>
       </c>
       <c r="K14" s="268">
@@ -43200,12 +43204,12 @@
         <v>116</v>
       </c>
       <c r="C15" s="55" t="str">
-        <f>Currency&amp;$B15&amp;"_Mx"&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>GBP7MD_Mx_Quote</v>
       </c>
       <c r="D15" s="55" t="str">
         <f>_xll.qlSimpleQuote(C15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP7MD_Mx_Quote#0002</v>
+        <v>GBP7MD_Mx_Quote#0000</v>
       </c>
       <c r="E15" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -43218,7 +43222,7 @@
         <v>5</v>
       </c>
       <c r="J15" s="269" t="str">
-        <f>Currency&amp;I15&amp;"D="</f>
+        <f t="shared" si="1"/>
         <v>GBP7MD=</v>
       </c>
       <c r="K15" s="268">
@@ -43244,12 +43248,12 @@
         <v>115</v>
       </c>
       <c r="C16" s="55" t="str">
-        <f>Currency&amp;$B16&amp;"_Mx"&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>GBP8MD_Mx_Quote</v>
       </c>
       <c r="D16" s="55" t="str">
         <f>_xll.qlSimpleQuote(C16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP8MD_Mx_Quote#0002</v>
+        <v>GBP8MD_Mx_Quote#0000</v>
       </c>
       <c r="E16" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -43262,7 +43266,7 @@
         <v>4</v>
       </c>
       <c r="J16" s="269" t="str">
-        <f>Currency&amp;I16&amp;"D="</f>
+        <f t="shared" si="1"/>
         <v>GBP8MD=</v>
       </c>
       <c r="K16" s="268">
@@ -43288,12 +43292,12 @@
         <v>114</v>
       </c>
       <c r="C17" s="55" t="str">
-        <f>Currency&amp;$B17&amp;"_Mx"&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>GBP9MD_Mx_Quote</v>
       </c>
       <c r="D17" s="55" t="str">
         <f>_xll.qlSimpleQuote(C17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP9MD_Mx_Quote#0002</v>
+        <v>GBP9MD_Mx_Quote#0000</v>
       </c>
       <c r="E17" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -43306,7 +43310,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="269" t="str">
-        <f>Currency&amp;I17&amp;"D="</f>
+        <f t="shared" si="1"/>
         <v>GBP9MD=</v>
       </c>
       <c r="K17" s="268">
@@ -43332,12 +43336,12 @@
         <v>113</v>
       </c>
       <c r="C18" s="55" t="str">
-        <f>Currency&amp;$B18&amp;"_Mx"&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>GBP10MD_Mx_Quote</v>
       </c>
       <c r="D18" s="55" t="str">
         <f>_xll.qlSimpleQuote(C18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP10MD_Mx_Quote#0002</v>
+        <v>GBP10MD_Mx_Quote#0000</v>
       </c>
       <c r="E18" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -43350,7 +43354,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="269" t="str">
-        <f>Currency&amp;I18&amp;"D="</f>
+        <f t="shared" si="1"/>
         <v>GBP10MD=</v>
       </c>
       <c r="K18" s="268">
@@ -43376,12 +43380,12 @@
         <v>112</v>
       </c>
       <c r="C19" s="55" t="str">
-        <f>Currency&amp;$B19&amp;"_Mx"&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>GBP11MD_Mx_Quote</v>
       </c>
       <c r="D19" s="55" t="str">
         <f>_xll.qlSimpleQuote(C19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP11MD_Mx_Quote#0002</v>
+        <v>GBP11MD_Mx_Quote#0000</v>
       </c>
       <c r="E19" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
@@ -43394,7 +43398,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="269" t="str">
-        <f>Currency&amp;I19&amp;"D="</f>
+        <f t="shared" si="1"/>
         <v>GBP11MD=</v>
       </c>
       <c r="K19" s="268">
@@ -43420,12 +43424,12 @@
         <v>111</v>
       </c>
       <c r="C20" s="55" t="str">
-        <f>Currency&amp;$B20&amp;"_Mx"&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>GBP1YD_Mx_Quote</v>
       </c>
       <c r="D20" s="55" t="str">
         <f>_xll.qlSimpleQuote(C20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1YD_Mx_Quote#0002</v>
+        <v>GBP1YD_Mx_Quote#0000</v>
       </c>
       <c r="E20" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
@@ -43438,7 +43442,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="263" t="str">
-        <f>Currency&amp;I20&amp;"D="</f>
+        <f t="shared" si="1"/>
         <v>GBP1YD=</v>
       </c>
       <c r="K20" s="262">
@@ -43633,7 +43637,7 @@
       <c r="W5" s="569"/>
       <c r="X5" s="574">
         <f>MAX(Z7:Z22)</f>
-        <v>1.900000000022474E-4</v>
+        <v>2.2000000012521725E-4</v>
       </c>
       <c r="Y5" s="569"/>
       <c r="Z5" s="569"/>
@@ -43664,7 +43668,7 @@
       </c>
       <c r="O6" s="516" t="str">
         <f>_xll.RData(O7:O21,P6:Q6,"RTFEED:IDN",,,P7)</f>
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
       </c>
       <c r="P6" s="516" t="s">
         <v>210</v>
@@ -43749,7 +43753,7 @@
       </c>
       <c r="V7" s="581">
         <f>_xll.qlIndexFixing($U7,$P7,TRUE,$R7)</f>
-        <v>7.9155417988406376E-3</v>
+        <v>7.8611314602343128E-3</v>
       </c>
       <c r="W7" s="581">
         <f>IF($S7,_xll.qlIndexFixing($U7,$P7,FALSE,$R7),"-")</f>
@@ -43757,15 +43761,15 @@
       </c>
       <c r="X7" s="581">
         <f t="shared" ref="X7:X21" si="4">V7-W7</f>
-        <v>-4.4458201159362429E-5</v>
+        <v>-9.8868539765687227E-5</v>
       </c>
       <c r="Y7" s="584">
         <f>_xll.qlIndexFixing($U7,$P7,TRUE,$W7)</f>
-        <v>7.9155417988406376E-3</v>
+        <v>7.8611314602343128E-3</v>
       </c>
       <c r="Z7" s="585">
         <f t="shared" ref="Z7:Z21" si="5">IF(ISERROR(X7),0,ABS(X7))</f>
-        <v>4.4458201159362429E-5</v>
+        <v>9.8868539765687227E-5</v>
       </c>
       <c r="AA7" s="518"/>
       <c r="AB7" s="502"/>
@@ -43821,7 +43825,7 @@
       </c>
       <c r="V8" s="588">
         <f>_xll.qlIndexFixing($U8,$P8,TRUE,$R8)</f>
-        <v>1.2740000000000098E-2</v>
+        <v>1.2629999999998353E-2</v>
       </c>
       <c r="W8" s="588">
         <f>IF($S8,_xll.qlIndexFixing($U8,$P8,FALSE,$R8),"-")</f>
@@ -43829,15 +43833,15 @@
       </c>
       <c r="X8" s="588">
         <f t="shared" si="4"/>
-        <v>-2.9999999999899898E-5</v>
+        <v>-1.4000000000164575E-4</v>
       </c>
       <c r="Y8" s="462">
         <f>_xll.qlIndexFixing($U8,$P8,TRUE,$W8)</f>
-        <v>1.2740000000000098E-2</v>
+        <v>1.2629999999998353E-2</v>
       </c>
       <c r="Z8" s="585">
         <f t="shared" si="5"/>
-        <v>2.9999999999899898E-5</v>
+        <v>1.4000000000164575E-4</v>
       </c>
       <c r="AA8" s="518"/>
       <c r="AB8" s="502"/>
@@ -43893,7 +43897,7 @@
       </c>
       <c r="V9" s="588">
         <f>_xll.qlIndexFixing($U9,$P9,TRUE,$R9)</f>
-        <v>1.614999999999445E-2</v>
+        <v>1.5999999999972623E-2</v>
       </c>
       <c r="W9" s="588">
         <f>IF($S9,_xll.qlIndexFixing($U9,$P9,FALSE,$R9),"-")</f>
@@ -43901,15 +43905,15 @@
       </c>
       <c r="X9" s="588">
         <f t="shared" si="4"/>
-        <v>-3.0000000005549893E-5</v>
+        <v>-1.8000000002737701E-4</v>
       </c>
       <c r="Y9" s="462">
         <f>_xll.qlIndexFixing($U9,$P9,TRUE,$W9)</f>
-        <v>1.614999999999445E-2</v>
+        <v>1.5999999999972623E-2</v>
       </c>
       <c r="Z9" s="585">
         <f t="shared" si="5"/>
-        <v>3.0000000005549893E-5</v>
+        <v>1.8000000002737701E-4</v>
       </c>
       <c r="AA9" s="518"/>
       <c r="AB9" s="502"/>
@@ -43965,7 +43969,7 @@
       </c>
       <c r="V10" s="588">
         <f>_xll.qlIndexFixing($U10,$P10,TRUE,$R10)</f>
-        <v>1.8599999999995894E-2</v>
+        <v>1.8450000000001715E-2</v>
       </c>
       <c r="W10" s="588">
         <f>IF($S10,_xll.qlIndexFixing($U10,$P10,FALSE,$R10),"-")</f>
@@ -43973,15 +43977,15 @@
       </c>
       <c r="X10" s="588">
         <f t="shared" si="4"/>
-        <v>-7.0000000004104973E-5</v>
+        <v>-2.1999999999828407E-4</v>
       </c>
       <c r="Y10" s="462">
         <f>_xll.qlIndexFixing($U10,$P10,TRUE,$W10)</f>
-        <v>1.8599999999995894E-2</v>
+        <v>1.8450000000001715E-2</v>
       </c>
       <c r="Z10" s="585">
         <f t="shared" si="5"/>
-        <v>7.0000000004104973E-5</v>
+        <v>2.1999999999828407E-4</v>
       </c>
       <c r="AA10" s="518"/>
       <c r="AB10" s="502"/>
@@ -44037,7 +44041,7 @@
       </c>
       <c r="V11" s="588">
         <f>_xll.qlIndexFixing($U11,$P11,TRUE,$R11)</f>
-        <v>2.0389999999996286E-2</v>
+        <v>2.0249999999874785E-2</v>
       </c>
       <c r="W11" s="588">
         <f>IF($S11,_xll.qlIndexFixing($U11,$P11,FALSE,$R11),"-")</f>
@@ -44045,15 +44049,15 @@
       </c>
       <c r="X11" s="588">
         <f t="shared" si="4"/>
-        <v>-8.0000000003715988E-5</v>
+        <v>-2.2000000012521725E-4</v>
       </c>
       <c r="Y11" s="462">
         <f>_xll.qlIndexFixing($U11,$P11,TRUE,$W11)</f>
-        <v>2.0389999999996286E-2</v>
+        <v>2.0249999999874785E-2</v>
       </c>
       <c r="Z11" s="585">
         <f t="shared" si="5"/>
-        <v>8.0000000003715988E-5</v>
+        <v>2.2000000012521725E-4</v>
       </c>
       <c r="AA11" s="518"/>
       <c r="AB11" s="502"/>
@@ -44109,7 +44113,7 @@
       </c>
       <c r="V12" s="588">
         <f>_xll.qlIndexFixing($U12,$P12,TRUE,$R12)</f>
-        <v>2.1759999999996758E-2</v>
+        <v>2.1659999999869301E-2</v>
       </c>
       <c r="W12" s="588">
         <f>IF($S12,_xll.qlIndexFixing($U12,$P12,FALSE,$R12),"-")</f>
@@ -44117,15 +44121,15 @@
       </c>
       <c r="X12" s="588">
         <f t="shared" si="4"/>
-        <v>-1.1000000000323945E-4</v>
+        <v>-2.1000000013069592E-4</v>
       </c>
       <c r="Y12" s="462">
         <f>_xll.qlIndexFixing($U12,$P12,TRUE,$W12)</f>
-        <v>2.1759999999996758E-2</v>
+        <v>2.1659999999869301E-2</v>
       </c>
       <c r="Z12" s="585">
         <f t="shared" si="5"/>
-        <v>1.1000000000323945E-4</v>
+        <v>2.1000000013069592E-4</v>
       </c>
       <c r="AA12" s="518"/>
       <c r="AB12" s="502"/>
@@ -44181,7 +44185,7 @@
       </c>
       <c r="V13" s="588">
         <f>_xll.qlIndexFixing($U13,$P13,TRUE,$R13)</f>
-        <v>2.2869999999997337E-2</v>
+        <v>2.2799999999876829E-2</v>
       </c>
       <c r="W13" s="588">
         <f>IF($S13,_xll.qlIndexFixing($U13,$P13,FALSE,$R13),"-")</f>
@@ -44189,15 +44193,15 @@
       </c>
       <c r="X13" s="588">
         <f t="shared" si="4"/>
-        <v>-1.3000000000266271E-4</v>
+        <v>-2.000000001231711E-4</v>
       </c>
       <c r="Y13" s="462">
         <f>_xll.qlIndexFixing($U13,$P13,TRUE,$W13)</f>
-        <v>2.2869999999997337E-2</v>
+        <v>2.2799999999876829E-2</v>
       </c>
       <c r="Z13" s="585">
         <f t="shared" si="5"/>
-        <v>1.3000000000266271E-4</v>
+        <v>2.000000001231711E-4</v>
       </c>
       <c r="AA13" s="518"/>
       <c r="AB13" s="502"/>
@@ -44253,7 +44257,7 @@
       </c>
       <c r="V14" s="588">
         <f>_xll.qlIndexFixing($U14,$P14,TRUE,$R14)</f>
-        <v>2.3809999999997538E-2</v>
+        <v>2.3759999999905641E-2</v>
       </c>
       <c r="W14" s="588">
         <f>IF($S14,_xll.qlIndexFixing($U14,$P14,FALSE,$R14),"-")</f>
@@ -44261,15 +44265,15 @@
       </c>
       <c r="X14" s="588">
         <f t="shared" si="4"/>
-        <v>-1.4000000000246107E-4</v>
+        <v>-1.9000000009435775E-4</v>
       </c>
       <c r="Y14" s="462">
         <f>_xll.qlIndexFixing($U14,$P14,TRUE,$W14)</f>
-        <v>2.3809999999997538E-2</v>
+        <v>2.3759999999905641E-2</v>
       </c>
       <c r="Z14" s="585">
         <f t="shared" si="5"/>
-        <v>1.4000000000246107E-4</v>
+        <v>1.9000000009435775E-4</v>
       </c>
       <c r="AA14" s="518"/>
       <c r="AB14" s="502"/>
@@ -44325,7 +44329,7 @@
       </c>
       <c r="V15" s="588">
         <f>_xll.qlIndexFixing($U15,$P15,TRUE,$R15)</f>
-        <v>2.4599999999997686E-2</v>
+        <v>2.4569999999926814E-2</v>
       </c>
       <c r="W15" s="588">
         <f>IF($S15,_xll.qlIndexFixing($U15,$P15,FALSE,$R15),"-")</f>
@@ -44333,15 +44337,15 @@
       </c>
       <c r="X15" s="588">
         <f t="shared" si="4"/>
-        <v>-1.7000000000231413E-4</v>
+        <v>-2.0000000007318677E-4</v>
       </c>
       <c r="Y15" s="462">
         <f>_xll.qlIndexFixing($U15,$P15,TRUE,$W15)</f>
-        <v>2.4599999999997686E-2</v>
+        <v>2.4569999999926814E-2</v>
       </c>
       <c r="Z15" s="585">
         <f t="shared" si="5"/>
-        <v>1.7000000000231413E-4</v>
+        <v>2.0000000007318677E-4</v>
       </c>
       <c r="AA15" s="518"/>
       <c r="AB15" s="502"/>
@@ -44397,7 +44401,7 @@
       </c>
       <c r="V16" s="588">
         <f>_xll.qlIndexFixing($U16,$P16,TRUE,$R16)</f>
-        <v>2.5279999999997756E-2</v>
+        <v>2.5269999999938085E-2</v>
       </c>
       <c r="W16" s="588">
         <f>IF($S16,_xll.qlIndexFixing($U16,$P16,FALSE,$R16),"-")</f>
@@ -44405,15 +44409,15 @@
       </c>
       <c r="X16" s="588">
         <f t="shared" si="4"/>
-        <v>-1.900000000022474E-4</v>
+        <v>-2.0000000006191801E-4</v>
       </c>
       <c r="Y16" s="462">
         <f>_xll.qlIndexFixing($U16,$P16,TRUE,$W16)</f>
-        <v>2.5279999999997756E-2</v>
+        <v>2.5269999999938085E-2</v>
       </c>
       <c r="Z16" s="585">
         <f t="shared" si="5"/>
-        <v>1.900000000022474E-4</v>
+        <v>2.0000000006191801E-4</v>
       </c>
       <c r="AA16" s="518"/>
       <c r="AB16" s="502"/>
@@ -44469,7 +44473,7 @@
       </c>
       <c r="V17" s="588">
         <f>_xll.qlIndexFixing($U17,$P17,TRUE,$R17)</f>
-        <v>2.6430000000081035E-2</v>
+        <v>2.6430000000169051E-2</v>
       </c>
       <c r="W17" s="588">
         <f>IF($S17,_xll.qlIndexFixing($U17,$P17,FALSE,$R17),"-")</f>
@@ -44477,15 +44481,15 @@
       </c>
       <c r="X17" s="588">
         <f t="shared" si="4"/>
-        <v>-1.799999999189672E-4</v>
+        <v>-1.799999998309508E-4</v>
       </c>
       <c r="Y17" s="462">
         <f>_xll.qlIndexFixing($U17,$P17,TRUE,$W17)</f>
-        <v>2.6430000000081035E-2</v>
+        <v>2.6430000000169051E-2</v>
       </c>
       <c r="Z17" s="585">
         <f t="shared" si="5"/>
-        <v>1.799999999189672E-4</v>
+        <v>1.799999998309508E-4</v>
       </c>
       <c r="AA17" s="518"/>
       <c r="AB17" s="502"/>
@@ -44541,7 +44545,7 @@
       </c>
       <c r="V18" s="588">
         <f>_xll.qlIndexFixing($U18,$P18,TRUE,$R18)</f>
-        <v>2.7599999999974249E-2</v>
+        <v>2.7620000000029836E-2</v>
       </c>
       <c r="W18" s="588">
         <f>IF($S18,_xll.qlIndexFixing($U18,$P18,FALSE,$R18),"-")</f>
@@ -44549,15 +44553,15 @@
       </c>
       <c r="X18" s="588">
         <f t="shared" si="4"/>
-        <v>-1.8000000002574984E-4</v>
+        <v>-1.5999999997016318E-4</v>
       </c>
       <c r="Y18" s="462">
         <f>_xll.qlIndexFixing($U18,$P18,TRUE,$W18)</f>
-        <v>2.7599999999974249E-2</v>
+        <v>2.7620000000029836E-2</v>
       </c>
       <c r="Z18" s="585">
         <f t="shared" si="5"/>
-        <v>1.8000000002574984E-4</v>
+        <v>1.5999999997016318E-4</v>
       </c>
       <c r="AA18" s="518"/>
       <c r="AB18" s="502"/>
@@ -44613,7 +44617,7 @@
       </c>
       <c r="V19" s="588">
         <f>_xll.qlIndexFixing($U19,$P19,TRUE,$R19)</f>
-        <v>2.8589999999956393E-2</v>
+        <v>2.8639999999969582E-2</v>
       </c>
       <c r="W19" s="588">
         <f>IF($S19,_xll.qlIndexFixing($U19,$P19,FALSE,$R19),"-")</f>
@@ -44621,15 +44625,15 @@
       </c>
       <c r="X19" s="588">
         <f t="shared" si="4"/>
-        <v>-1.7000000004360402E-4</v>
+        <v>-1.2000000003041522E-4</v>
       </c>
       <c r="Y19" s="462">
         <f>_xll.qlIndexFixing($U19,$P19,TRUE,$W19)</f>
-        <v>2.8589999999956393E-2</v>
+        <v>2.8639999999969582E-2</v>
       </c>
       <c r="Z19" s="585">
         <f t="shared" si="5"/>
-        <v>1.7000000004360402E-4</v>
+        <v>1.2000000003041522E-4</v>
       </c>
       <c r="AA19" s="518"/>
       <c r="AB19" s="502"/>
@@ -44685,7 +44689,7 @@
       </c>
       <c r="V20" s="588">
         <f>_xll.qlIndexFixing($U20,$P20,TRUE,$R20)</f>
-        <v>2.8820000000007819E-2</v>
+        <v>2.8890000000008902E-2</v>
       </c>
       <c r="W20" s="588">
         <f>IF($S20,_xll.qlIndexFixing($U20,$P20,FALSE,$R20),"-")</f>
@@ -44693,15 +44697,15 @@
       </c>
       <c r="X20" s="588">
         <f t="shared" si="4"/>
-        <v>-1.5999999999218376E-4</v>
+        <v>-8.9999999991100671E-5</v>
       </c>
       <c r="Y20" s="462">
         <f>_xll.qlIndexFixing($U20,$P20,TRUE,$W20)</f>
-        <v>2.8820000000007819E-2</v>
+        <v>2.8890000000008902E-2</v>
       </c>
       <c r="Z20" s="585">
         <f t="shared" si="5"/>
-        <v>1.5999999999218376E-4</v>
+        <v>8.9999999991100671E-5</v>
       </c>
       <c r="AA20" s="518"/>
       <c r="AB20" s="502"/>
@@ -44757,7 +44761,7 @@
       </c>
       <c r="V21" s="590">
         <f>_xll.qlIndexFixing($U21,$P21,TRUE,$R21)</f>
-        <v>2.8859999999983649E-2</v>
+        <v>2.8950000000017042E-2</v>
       </c>
       <c r="W21" s="590">
         <f>IF($S21,_xll.qlIndexFixing($U21,$P21,FALSE,$R21),"-")</f>
@@ -44765,15 +44769,15 @@
       </c>
       <c r="X21" s="590">
         <f t="shared" si="4"/>
-        <v>-1.5000000001634886E-4</v>
+        <v>-5.9999999982955632E-5</v>
       </c>
       <c r="Y21" s="460">
         <f>_xll.qlIndexFixing($U21,$P21,TRUE,$W21)</f>
-        <v>2.8859999999983649E-2</v>
+        <v>2.8950000000017042E-2</v>
       </c>
       <c r="Z21" s="591">
         <f t="shared" si="5"/>
-        <v>1.5000000001634886E-4</v>
+        <v>5.9999999982955632E-5</v>
       </c>
       <c r="AA21" s="518"/>
       <c r="AB21" s="502"/>
@@ -46139,7 +46143,7 @@
       <c r="R3" s="86"/>
       <c r="S3" s="260" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,_xll.ohFilter(N5:N42,W5:W42),_xll.ohFilter(V5:V42,W5:W42))</f>
-        <v>obj_00615#0004</v>
+        <v>obj_0063b#0004</v>
       </c>
       <c r="T3" s="86"/>
       <c r="U3" s="86"/>
@@ -46187,7 +46191,7 @@
       <c r="R4" s="141"/>
       <c r="S4" s="288" t="str">
         <f>_xll.RData(S5:S42,T4:U4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
       </c>
       <c r="T4" s="319" t="s">
         <v>254</v>
@@ -46288,7 +46292,7 @@
       </c>
       <c r="X5" s="397">
         <f t="array" ref="X5:X42">_xll.qlInterpolationInterpolate(S3,N5:N42,TRUE)</f>
-        <v>13.945214210846624</v>
+        <v>13.662708735494791</v>
       </c>
       <c r="Y5" s="260"/>
       <c r="Z5" s="395">
@@ -46297,11 +46301,11 @@
       <c r="AA5" s="260"/>
       <c r="AB5" s="467">
         <f t="array" ref="AB5:AB42">QuoteLive</f>
-        <v>13.945214210846624</v>
+        <v>13.662708735494791</v>
       </c>
       <c r="AC5" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F5,AB5/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.2926725250427765E-5</v>
       </c>
       <c r="AD5" s="160"/>
       <c r="AE5" s="17"/>
@@ -46366,21 +46370,21 @@
         <v>GBP1L6L1Y=ICAP</v>
       </c>
       <c r="T6" s="396">
-        <v>12.5</v>
+        <v>12.375</v>
       </c>
       <c r="U6" s="396">
-        <v>16.5</v>
+        <v>16.375</v>
       </c>
       <c r="V6" s="396">
         <f t="shared" ref="V6:V41" si="5">IF(ISERROR(AVERAGE(T6,U6)),#NUM!,AVERAGE(T6,U6))</f>
-        <v>14.5</v>
+        <v>14.375</v>
       </c>
       <c r="W6" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X6" s="397">
-        <v>14.5</v>
+        <v>14.375</v>
       </c>
       <c r="Y6" s="260"/>
       <c r="Z6" s="395">
@@ -46388,11 +46392,11 @@
       </c>
       <c r="AA6" s="260"/>
       <c r="AB6" s="467">
-        <v>14.5</v>
+        <v>14.375</v>
       </c>
       <c r="AC6" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F6,AB6/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.2499999999999924E-5</v>
       </c>
       <c r="AD6" s="160"/>
       <c r="AE6" s="17"/>
@@ -46466,7 +46470,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="397">
-        <v>14.77642861822086</v>
+        <v>14.734244540315757</v>
       </c>
       <c r="Y7" s="260"/>
       <c r="Z7" s="395">
@@ -46474,11 +46478,11 @@
       </c>
       <c r="AA7" s="260"/>
       <c r="AB7" s="467">
-        <v>14.77642861822086</v>
+        <v>14.734244540315757</v>
       </c>
       <c r="AC7" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F7,AB7/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.2233296718482849E-5</v>
       </c>
       <c r="AD7" s="160"/>
       <c r="AE7" s="17"/>
@@ -46557,7 +46561,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="397">
-        <v>15.054785789153376</v>
+        <v>15.087291264505209</v>
       </c>
       <c r="Y8" s="260"/>
       <c r="Z8" s="395">
@@ -46565,11 +46569,11 @@
       </c>
       <c r="AA8" s="260"/>
       <c r="AB8" s="467">
-        <v>15.054785789153376</v>
+        <v>15.087291264505209</v>
       </c>
       <c r="AC8" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F8,AB8/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.20732747495723E-5</v>
       </c>
       <c r="AD8" s="160"/>
       <c r="AE8" s="17"/>
@@ -46648,7 +46652,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="397">
-        <v>15.337000065509205</v>
+        <v>15.427942356442058</v>
       </c>
       <c r="Y9" s="260"/>
       <c r="Z9" s="395">
@@ -46656,11 +46660,11 @@
       </c>
       <c r="AA9" s="260"/>
       <c r="AB9" s="467">
-        <v>15.337000065509205</v>
+        <v>15.427942356442058</v>
       </c>
       <c r="AC9" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F9,AB9/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.2126615405875889E-5</v>
       </c>
       <c r="AD9" s="160"/>
       <c r="AE9" s="17"/>
@@ -46729,21 +46733,21 @@
         <v>GBP1L6L2Y=ICAP</v>
       </c>
       <c r="T10" s="396">
-        <v>13.625</v>
+        <v>13.75</v>
       </c>
       <c r="U10" s="396">
-        <v>17.625</v>
+        <v>17.75</v>
       </c>
       <c r="V10" s="396">
         <f t="shared" si="5"/>
-        <v>15.625</v>
+        <v>15.75</v>
       </c>
       <c r="W10" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X10" s="397">
-        <v>15.625</v>
+        <v>15.75</v>
       </c>
       <c r="Y10" s="260"/>
       <c r="Z10" s="395">
@@ -46751,11 +46755,11 @@
       </c>
       <c r="AA10" s="260"/>
       <c r="AB10" s="467">
-        <v>15.625</v>
+        <v>15.75</v>
       </c>
       <c r="AC10" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F10,AB10/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.2499999999999924E-5</v>
       </c>
       <c r="AD10" s="160"/>
       <c r="AE10" s="17"/>
@@ -46844,7 +46848,7 @@
       </c>
       <c r="AC11" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F11,AB11/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.2500000000000141E-5</v>
       </c>
       <c r="AD11" s="160"/>
       <c r="AE11" s="17"/>
@@ -46907,21 +46911,21 @@
         <v>GBP1L6L4Y=ICAP</v>
       </c>
       <c r="T12" s="396">
-        <v>15.625</v>
+        <v>15.375</v>
       </c>
       <c r="U12" s="396">
-        <v>19.625</v>
+        <v>19.375</v>
       </c>
       <c r="V12" s="396">
         <f t="shared" si="5"/>
-        <v>17.625</v>
+        <v>17.375</v>
       </c>
       <c r="W12" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X12" s="397">
-        <v>17.625</v>
+        <v>17.375</v>
       </c>
       <c r="Y12" s="260"/>
       <c r="Z12" s="395">
@@ -46929,7 +46933,7 @@
       </c>
       <c r="AA12" s="260"/>
       <c r="AB12" s="467">
-        <v>17.625</v>
+        <v>17.375</v>
       </c>
       <c r="AC12" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F12,AB12/10000,Trigger)</f>
@@ -46996,21 +47000,21 @@
         <v>GBP1L6L5Y=ICAP</v>
       </c>
       <c r="T13" s="396">
-        <v>16.625</v>
+        <v>16.375</v>
       </c>
       <c r="U13" s="396">
-        <v>20.625</v>
+        <v>20.375</v>
       </c>
       <c r="V13" s="396">
         <f t="shared" si="5"/>
-        <v>18.625</v>
+        <v>18.375</v>
       </c>
       <c r="W13" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X13" s="397">
-        <v>18.625</v>
+        <v>18.375</v>
       </c>
       <c r="Y13" s="260"/>
       <c r="Z13" s="395">
@@ -47018,7 +47022,7 @@
       </c>
       <c r="AA13" s="260"/>
       <c r="AB13" s="467">
-        <v>18.625</v>
+        <v>18.375</v>
       </c>
       <c r="AC13" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F13,AB13/10000,Trigger)</f>
@@ -47085,21 +47089,21 @@
         <v>GBP1L6L6Y=ICAP</v>
       </c>
       <c r="T14" s="396">
-        <v>17.5</v>
+        <v>17.25</v>
       </c>
       <c r="U14" s="396">
-        <v>21.5</v>
+        <v>21.25</v>
       </c>
       <c r="V14" s="396">
         <f t="shared" si="5"/>
-        <v>19.5</v>
+        <v>19.25</v>
       </c>
       <c r="W14" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X14" s="397">
-        <v>19.5</v>
+        <v>19.25</v>
       </c>
       <c r="Y14" s="260"/>
       <c r="Z14" s="395">
@@ -47107,7 +47111,7 @@
       </c>
       <c r="AA14" s="260"/>
       <c r="AB14" s="467">
-        <v>19.5</v>
+        <v>19.25</v>
       </c>
       <c r="AC14" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F14,AB14/10000,Trigger)</f>
@@ -47165,21 +47169,21 @@
         <v>GBP1L6L7Y=ICAP</v>
       </c>
       <c r="T15" s="396">
-        <v>18.125</v>
+        <v>17.875</v>
       </c>
       <c r="U15" s="396">
-        <v>22.125</v>
+        <v>21.875</v>
       </c>
       <c r="V15" s="396">
         <f t="shared" si="5"/>
-        <v>20.125</v>
+        <v>19.875</v>
       </c>
       <c r="W15" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X15" s="397">
-        <v>20.125</v>
+        <v>19.875</v>
       </c>
       <c r="Y15" s="260"/>
       <c r="Z15" s="395">
@@ -47187,7 +47191,7 @@
       </c>
       <c r="AA15" s="260"/>
       <c r="AB15" s="467">
-        <v>20.125</v>
+        <v>19.875</v>
       </c>
       <c r="AC15" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F15,AB15/10000,Trigger)</f>
@@ -47245,21 +47249,21 @@
         <v>GBP1L6L8Y=ICAP</v>
       </c>
       <c r="T16" s="396">
-        <v>18.875</v>
+        <v>18.625</v>
       </c>
       <c r="U16" s="396">
-        <v>22.875</v>
+        <v>22.625</v>
       </c>
       <c r="V16" s="396">
         <f t="shared" si="5"/>
-        <v>20.875</v>
+        <v>20.625</v>
       </c>
       <c r="W16" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X16" s="397">
-        <v>20.875</v>
+        <v>20.625</v>
       </c>
       <c r="Y16" s="260"/>
       <c r="Z16" s="395">
@@ -47267,7 +47271,7 @@
       </c>
       <c r="AA16" s="260"/>
       <c r="AB16" s="467">
-        <v>20.875</v>
+        <v>20.625</v>
       </c>
       <c r="AC16" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F16,AB16/10000,Trigger)</f>
@@ -47325,21 +47329,21 @@
         <v>GBP1L6L9Y=ICAP</v>
       </c>
       <c r="T17" s="396">
-        <v>19.25</v>
+        <v>19.125</v>
       </c>
       <c r="U17" s="396">
-        <v>23.25</v>
+        <v>23.125</v>
       </c>
       <c r="V17" s="396">
         <f t="shared" si="5"/>
-        <v>21.25</v>
+        <v>21.125</v>
       </c>
       <c r="W17" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X17" s="397">
-        <v>21.25</v>
+        <v>21.125</v>
       </c>
       <c r="Y17" s="260"/>
       <c r="Z17" s="395">
@@ -47347,7 +47351,7 @@
       </c>
       <c r="AA17" s="260"/>
       <c r="AB17" s="467">
-        <v>21.25</v>
+        <v>21.125</v>
       </c>
       <c r="AC17" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F17,AB17/10000,Trigger)</f>
@@ -47405,21 +47409,21 @@
         <v>GBP1L6L10Y=ICAP</v>
       </c>
       <c r="T18" s="396">
-        <v>19.5</v>
+        <v>19.375</v>
       </c>
       <c r="U18" s="396">
-        <v>23.5</v>
+        <v>23.375</v>
       </c>
       <c r="V18" s="396">
         <f t="shared" si="5"/>
-        <v>21.5</v>
+        <v>21.375</v>
       </c>
       <c r="W18" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X18" s="397">
-        <v>21.5</v>
+        <v>21.375</v>
       </c>
       <c r="Y18" s="260"/>
       <c r="Z18" s="395">
@@ -47427,7 +47431,7 @@
       </c>
       <c r="AA18" s="260"/>
       <c r="AB18" s="467">
-        <v>21.5</v>
+        <v>21.375</v>
       </c>
       <c r="AC18" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F18,AB18/10000,Trigger)</f>
@@ -47499,7 +47503,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="397">
-        <v>21.473306935418549</v>
+        <v>21.3387902593627</v>
       </c>
       <c r="Y19" s="260"/>
       <c r="Z19" s="395">
@@ -47507,11 +47511,11 @@
       </c>
       <c r="AA19" s="260"/>
       <c r="AB19" s="467">
-        <v>21.473306935418549</v>
+        <v>21.3387902593627</v>
       </c>
       <c r="AC19" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F19,AB19/10000,Trigger)</f>
-        <v>0</v>
+        <v>9.0987444404787982E-8</v>
       </c>
       <c r="AD19" s="160"/>
       <c r="AE19" s="17"/>
@@ -47565,21 +47569,21 @@
         <v>GBP1L6L12Y=ICAP</v>
       </c>
       <c r="T20" s="396">
-        <v>19.25</v>
+        <v>19.125</v>
       </c>
       <c r="U20" s="396">
-        <v>23.25</v>
+        <v>23.125</v>
       </c>
       <c r="V20" s="396">
         <f t="shared" si="5"/>
-        <v>21.25</v>
+        <v>21.125</v>
       </c>
       <c r="W20" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X20" s="397">
-        <v>21.25</v>
+        <v>21.125</v>
       </c>
       <c r="Y20" s="260"/>
       <c r="Z20" s="395">
@@ -47587,7 +47591,7 @@
       </c>
       <c r="AA20" s="260"/>
       <c r="AB20" s="467">
-        <v>21.25</v>
+        <v>21.125</v>
       </c>
       <c r="AC20" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F20,AB20/10000,Trigger)</f>
@@ -47659,7 +47663,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="397">
-        <v>20.986136269962032</v>
+        <v>20.866142259189342</v>
       </c>
       <c r="Y21" s="260"/>
       <c r="Z21" s="395">
@@ -47667,11 +47671,11 @@
       </c>
       <c r="AA21" s="260"/>
       <c r="AB21" s="467">
-        <v>20.986136269962032</v>
+        <v>20.866142259189342</v>
       </c>
       <c r="AC21" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F21,AB21/10000,Trigger)</f>
-        <v>0</v>
+        <v>-4.6572301983958606E-7</v>
       </c>
       <c r="AD21" s="160"/>
       <c r="AE21" s="17"/>
@@ -47739,7 +47743,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="397">
-        <v>20.699898296605017</v>
+        <v>20.578665019541365</v>
       </c>
       <c r="Y22" s="260"/>
       <c r="Z22" s="395">
@@ -47747,11 +47751,11 @@
       </c>
       <c r="AA22" s="260"/>
       <c r="AB22" s="467">
-        <v>20.699898296605017</v>
+        <v>20.578665019541365</v>
       </c>
       <c r="AC22" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F22,AB22/10000,Trigger)</f>
-        <v>0</v>
+        <v>-7.242555882512082E-7</v>
       </c>
       <c r="AD22" s="160"/>
       <c r="AE22" s="17"/>
@@ -47805,21 +47809,21 @@
         <v>GBP1L6L15Y=ICAP</v>
       </c>
       <c r="T23" s="396">
-        <v>18.375</v>
+        <v>18.25</v>
       </c>
       <c r="U23" s="396">
-        <v>22.375</v>
+        <v>22.25</v>
       </c>
       <c r="V23" s="396">
         <f t="shared" si="5"/>
-        <v>20.375</v>
+        <v>20.25</v>
       </c>
       <c r="W23" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X23" s="397">
-        <v>20.375</v>
+        <v>20.25</v>
       </c>
       <c r="Y23" s="260"/>
       <c r="Z23" s="395">
@@ -47827,7 +47831,7 @@
       </c>
       <c r="AA23" s="260"/>
       <c r="AB23" s="467">
-        <v>20.375</v>
+        <v>20.25</v>
       </c>
       <c r="AC23" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F23,AB23/10000,Trigger)</f>
@@ -47899,7 +47903,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="397">
-        <v>20.00135057325209</v>
+        <v>19.873187172573747</v>
       </c>
       <c r="Y24" s="260"/>
       <c r="Z24" s="395">
@@ -47907,11 +47911,11 @@
       </c>
       <c r="AA24" s="260"/>
       <c r="AB24" s="467">
-        <v>20.00135057325209</v>
+        <v>19.873187172573747</v>
       </c>
       <c r="AC24" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F24,AB24/10000,Trigger)</f>
-        <v>0</v>
+        <v>2.2185692903540187E-6</v>
       </c>
       <c r="AD24" s="160"/>
       <c r="AE24" s="17"/>
@@ -47979,7 +47983,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="397">
-        <v>19.593640301602672</v>
+        <v>19.463699521529332</v>
       </c>
       <c r="Y25" s="260"/>
       <c r="Z25" s="395">
@@ -47987,11 +47991,11 @@
       </c>
       <c r="AA25" s="260"/>
       <c r="AB25" s="467">
-        <v>19.593640301602672</v>
+        <v>19.463699521529332</v>
       </c>
       <c r="AC25" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F25,AB25/10000,Trigger)</f>
-        <v>0</v>
+        <v>5.3866891890684641E-6</v>
       </c>
       <c r="AD25" s="160"/>
       <c r="AE25" s="17"/>
@@ -48059,7 +48063,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="397">
-        <v>19.172754743327214</v>
+        <v>19.042618284198046</v>
       </c>
       <c r="Y26" s="260"/>
       <c r="Z26" s="395">
@@ -48067,11 +48071,11 @@
       </c>
       <c r="AA26" s="260"/>
       <c r="AB26" s="467">
-        <v>19.172754743327214</v>
+        <v>19.042618284198046</v>
       </c>
       <c r="AC26" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F26,AB26/10000,Trigger)</f>
-        <v>0</v>
+        <v>8.6955244426064997E-6</v>
       </c>
       <c r="AD26" s="160"/>
       <c r="AE26" s="17"/>
@@ -48139,7 +48143,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="397">
-        <v>18.759579456701168</v>
+        <v>18.631024697911172</v>
       </c>
       <c r="Y27" s="260"/>
       <c r="Z27" s="395">
@@ -48147,11 +48151,11 @@
       </c>
       <c r="AA27" s="260"/>
       <c r="AB27" s="467">
-        <v>18.759579456701168</v>
+        <v>18.631024697911172</v>
       </c>
       <c r="AC27" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F27,AB27/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.1336239797429121E-5</v>
       </c>
       <c r="AD27" s="160"/>
       <c r="AE27" s="17"/>
@@ -48205,21 +48209,21 @@
         <v>GBP1L6L20Y=ICAP</v>
       </c>
       <c r="T28" s="396">
-        <v>16.375</v>
+        <v>16.25</v>
       </c>
       <c r="U28" s="396">
-        <v>20.375</v>
+        <v>20.25</v>
       </c>
       <c r="V28" s="396">
         <f t="shared" si="5"/>
-        <v>18.375</v>
+        <v>18.25</v>
       </c>
       <c r="W28" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X28" s="397">
-        <v>18.375</v>
+        <v>18.25</v>
       </c>
       <c r="Y28" s="260"/>
       <c r="Z28" s="395">
@@ -48227,11 +48231,11 @@
       </c>
       <c r="AA28" s="260"/>
       <c r="AB28" s="467">
-        <v>18.375</v>
+        <v>18.25</v>
       </c>
       <c r="AC28" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F28,AB28/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.2499999999999924E-5</v>
       </c>
       <c r="AD28" s="160"/>
       <c r="AE28" s="17"/>
@@ -48299,7 +48303,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="397">
-        <v>18.035005653859095</v>
+        <v>17.915295402654419</v>
       </c>
       <c r="Y29" s="260"/>
       <c r="Z29" s="395">
@@ -48307,11 +48311,11 @@
       </c>
       <c r="AA29" s="260"/>
       <c r="AB29" s="467">
-        <v>18.035005653859095</v>
+        <v>17.915295402654419</v>
       </c>
       <c r="AC29" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F29,AB29/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.1635127877938564E-5</v>
       </c>
       <c r="AD29" s="160"/>
       <c r="AE29" s="17"/>
@@ -48379,7 +48383,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="397">
-        <v>17.736000588353583</v>
+        <v>17.62134201749873</v>
       </c>
       <c r="Y30" s="260"/>
       <c r="Z30" s="395">
@@ -48387,11 +48391,11 @@
       </c>
       <c r="AA30" s="260"/>
       <c r="AB30" s="467">
-        <v>17.736000588353583</v>
+        <v>17.62134201749873</v>
       </c>
       <c r="AC30" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F30,AB30/10000,Trigger)</f>
-        <v>0</v>
+        <v>9.2185785834980258E-6</v>
       </c>
       <c r="AD30" s="160"/>
       <c r="AE30" s="17"/>
@@ -48459,7 +48463,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="397">
-        <v>17.469492695918522</v>
+        <v>17.357240931015827</v>
       </c>
       <c r="Y31" s="260"/>
       <c r="Z31" s="395">
@@ -48467,11 +48471,11 @@
       </c>
       <c r="AA31" s="260"/>
       <c r="AB31" s="467">
-        <v>17.469492695918522</v>
+        <v>17.357240931015827</v>
       </c>
       <c r="AC31" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F31,AB31/10000,Trigger)</f>
-        <v>0</v>
+        <v>5.9844653500877847E-6</v>
       </c>
       <c r="AD31" s="160"/>
       <c r="AE31" s="17"/>
@@ -48539,7 +48543,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="397">
-        <v>17.226989868988976</v>
+        <v>17.112093229688618</v>
       </c>
       <c r="Y32" s="260"/>
       <c r="Z32" s="395">
@@ -48547,11 +48551,11 @@
       </c>
       <c r="AA32" s="260"/>
       <c r="AB32" s="467">
-        <v>17.226989868988976</v>
+        <v>17.112093229688618</v>
       </c>
       <c r="AC32" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F32,AB32/10000,Trigger)</f>
-        <v>0</v>
+        <v>2.6669014111184008E-6</v>
       </c>
       <c r="AD32" s="160"/>
       <c r="AE32" s="17"/>
@@ -48605,21 +48609,21 @@
         <v>GBP1L6L25Y=ICAP</v>
       </c>
       <c r="T33" s="396">
-        <v>15</v>
+        <v>14.875</v>
       </c>
       <c r="U33" s="396">
-        <v>19</v>
+        <v>18.875</v>
       </c>
       <c r="V33" s="396">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>16.875</v>
       </c>
       <c r="W33" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X33" s="397">
-        <v>17</v>
+        <v>16.875</v>
       </c>
       <c r="Y33" s="260"/>
       <c r="Z33" s="395">
@@ -48627,7 +48631,7 @@
       </c>
       <c r="AA33" s="260"/>
       <c r="AB33" s="467">
-        <v>17</v>
+        <v>16.875</v>
       </c>
       <c r="AC33" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F33,AB33/10000,Trigger)</f>
@@ -48699,7 +48703,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="397">
-        <v>16.781626811311529</v>
+        <v>16.637631216808575</v>
       </c>
       <c r="Y34" s="260"/>
       <c r="Z34" s="395">
@@ -48707,11 +48711,11 @@
       </c>
       <c r="AA34" s="260"/>
       <c r="AB34" s="467">
-        <v>16.781626811311529</v>
+        <v>16.637631216808575</v>
       </c>
       <c r="AC34" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F34,AB34/10000,Trigger)</f>
-        <v>0</v>
+        <v>-1.4590808021092399E-6</v>
       </c>
       <c r="AD34" s="160"/>
       <c r="AE34" s="17"/>
@@ -48779,7 +48783,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="397">
-        <v>16.571357344982992</v>
+        <v>16.401932408475751</v>
       </c>
       <c r="Y35" s="260"/>
       <c r="Z35" s="395">
@@ -48787,11 +48791,11 @@
       </c>
       <c r="AA35" s="260"/>
       <c r="AB35" s="467">
-        <v>16.571357344982992</v>
+        <v>16.401932408475751</v>
       </c>
       <c r="AC35" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F35,AB35/10000,Trigger)</f>
-        <v>0</v>
+        <v>-1.8610035230608862E-6</v>
       </c>
       <c r="AD35" s="160"/>
       <c r="AE35" s="17"/>
@@ -48859,7 +48863,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="397">
-        <v>16.370274472998691</v>
+        <v>16.172417991738641</v>
       </c>
       <c r="Y36" s="260"/>
       <c r="Z36" s="395">
@@ -48867,11 +48871,11 @@
       </c>
       <c r="AA36" s="260"/>
       <c r="AB36" s="467">
-        <v>16.370274472998691</v>
+        <v>16.172417991738641</v>
       </c>
       <c r="AC36" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F36,AB36/10000,Trigger)</f>
-        <v>0</v>
+        <v>-1.5333858429573705E-6</v>
       </c>
       <c r="AD36" s="160"/>
       <c r="AE36" s="17"/>
@@ -48939,7 +48943,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="397">
-        <v>16.179461067342928</v>
+        <v>15.953602383334353</v>
       </c>
       <c r="Y37" s="260"/>
       <c r="Z37" s="395">
@@ -48947,11 +48951,11 @@
       </c>
       <c r="AA37" s="260"/>
       <c r="AB37" s="467">
-        <v>16.179461067342928</v>
+        <v>15.953602383334353</v>
       </c>
       <c r="AC37" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F37,AB37/10000,Trigger)</f>
-        <v>0</v>
+        <v>-8.03845441902859E-7</v>
       </c>
       <c r="AD37" s="160"/>
       <c r="AE37" s="17"/>
@@ -49005,21 +49009,21 @@
         <v>GBP1L6L30Y=ICAP</v>
       </c>
       <c r="T38" s="396">
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="U38" s="396">
-        <v>18</v>
+        <v>17.75</v>
       </c>
       <c r="V38" s="396">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>15.75</v>
       </c>
       <c r="W38" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X38" s="397">
-        <v>16</v>
+        <v>15.75</v>
       </c>
       <c r="Y38" s="260"/>
       <c r="Z38" s="395">
@@ -49027,7 +49031,7 @@
       </c>
       <c r="AA38" s="260"/>
       <c r="AB38" s="467">
-        <v>16</v>
+        <v>15.75</v>
       </c>
       <c r="AC38" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F38,AB38/10000,Trigger)</f>
@@ -49099,7 +49103,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="663">
-        <v>15.271130286138106</v>
+        <v>14.987706641717715</v>
       </c>
       <c r="Y39" s="260"/>
       <c r="Z39" s="395">
@@ -49107,11 +49111,11 @@
       </c>
       <c r="AA39" s="260"/>
       <c r="AB39" s="467">
-        <v>15.271130286138106</v>
+        <v>14.987706641717715</v>
       </c>
       <c r="AC39" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F39,AB39/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.1610162632526375E-6</v>
       </c>
       <c r="AD39" s="160"/>
       <c r="AE39" s="17"/>
@@ -49165,21 +49169,21 @@
         <v>GBP1L6L40Y=ICAP</v>
       </c>
       <c r="T40" s="396">
-        <v>12.75</v>
+        <v>12.5</v>
       </c>
       <c r="U40" s="396">
-        <v>16.75</v>
+        <v>16.5</v>
       </c>
       <c r="V40" s="396">
         <f t="shared" si="5"/>
-        <v>14.75</v>
+        <v>14.5</v>
       </c>
       <c r="W40" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X40" s="663">
-        <v>14.75</v>
+        <v>14.5</v>
       </c>
       <c r="Y40" s="260"/>
       <c r="Z40" s="395">
@@ -49187,7 +49191,7 @@
       </c>
       <c r="AA40" s="260"/>
       <c r="AB40" s="467">
-        <v>14.75</v>
+        <v>14.5</v>
       </c>
       <c r="AC40" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F40,AB40/10000,Trigger)</f>
@@ -49245,21 +49249,21 @@
         <v>GBP1L6L50Y=ICAP</v>
       </c>
       <c r="T41" s="396">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="U41" s="396">
-        <v>16.5</v>
+        <v>16.25</v>
       </c>
       <c r="V41" s="396">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="W41" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X41" s="663">
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="Y41" s="260"/>
       <c r="Z41" s="395">
@@ -49267,7 +49271,7 @@
       </c>
       <c r="AA41" s="260"/>
       <c r="AB41" s="467">
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="AC41" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F41,AB41/10000,Trigger)</f>
@@ -49325,21 +49329,21 @@
         <v>GBP1L6L60Y=ICAP</v>
       </c>
       <c r="T42" s="394">
-        <v>10.375</v>
+        <v>10.125</v>
       </c>
       <c r="U42" s="394">
-        <v>16.375</v>
+        <v>16.125</v>
       </c>
       <c r="V42" s="394">
         <f>IF(ISERROR(AVERAGE(T42,U42)),#NUM!,AVERAGE(T42,U42))</f>
-        <v>13.375</v>
+        <v>13.125</v>
       </c>
       <c r="W42" s="259" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X42" s="664">
-        <v>13.375</v>
+        <v>13.125</v>
       </c>
       <c r="Y42" s="260"/>
       <c r="Z42" s="393">
@@ -49347,7 +49351,7 @@
       </c>
       <c r="AA42" s="260"/>
       <c r="AB42" s="468">
-        <v>13.375</v>
+        <v>13.125</v>
       </c>
       <c r="AC42" s="258">
         <f>_xll.qlSimpleQuoteSetValue(F42,AB42/10000,Trigger)</f>
@@ -49510,7 +49514,7 @@
       <c r="R3" s="86"/>
       <c r="S3" s="260" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,_xll.ohFilter(N5:N42,W5:W42),_xll.ohFilter(V5:V42,W5:W42))</f>
-        <v>obj_00616#0001</v>
+        <v>obj_0063c#0001</v>
       </c>
       <c r="T3" s="86"/>
       <c r="U3" s="86"/>
@@ -49560,7 +49564,7 @@
       <c r="R4" s="141"/>
       <c r="S4" s="288" t="str">
         <f>_xll.RData(S5:S42,T4:U4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
       </c>
       <c r="T4" s="319" t="s">
         <v>254</v>
@@ -49660,7 +49664,7 @@
       </c>
       <c r="X5" s="397">
         <f t="array" ref="X5:X42">_xll.qlInterpolationInterpolate(S3,N5:N42,TRUE)</f>
-        <v>8.8640359480217494</v>
+        <v>8.8725704469311086</v>
       </c>
       <c r="Y5" s="260"/>
       <c r="Z5" s="395">
@@ -49669,7 +49673,7 @@
       <c r="AA5" s="260"/>
       <c r="AB5" s="467">
         <f t="array" ref="AB5:AB42">QuoteLive</f>
-        <v>8.8640359480217494</v>
+        <v>8.8725704469311086</v>
       </c>
       <c r="AC5" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F5,AB5/10000,Trigger)</f>
@@ -49849,7 +49853,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="397">
-        <v>9.0615400324864073</v>
+        <v>9.0562059706680564</v>
       </c>
       <c r="Y7" s="260"/>
       <c r="Z7" s="395">
@@ -49857,7 +49861,7 @@
       </c>
       <c r="AA7" s="260"/>
       <c r="AB7" s="467">
-        <v>9.0615400324864073</v>
+        <v>9.0562059706680564</v>
       </c>
       <c r="AC7" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F7,AB7/10000,Trigger)</f>
@@ -49943,7 +49947,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="397">
-        <v>9.1359640519782506</v>
+        <v>9.1274295530688914</v>
       </c>
       <c r="Y8" s="260"/>
       <c r="Z8" s="395">
@@ -49951,7 +49955,7 @@
       </c>
       <c r="AA8" s="260"/>
       <c r="AB8" s="467">
-        <v>9.1359640519782506</v>
+        <v>9.1274295530688914</v>
       </c>
       <c r="AC8" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F8,AB8/10000,Trigger)</f>
@@ -49974,7 +49978,7 @@
       </c>
       <c r="AJ8" s="392">
         <f>((Swap6M!AB9-Swap3MAnnual!AB9)*100-AB8)/10000</f>
-        <v>-1.3596405197825412E-5</v>
+        <v>-1.2742955306889491E-5</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -50037,7 +50041,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="397">
-        <v>9.2361560454809695</v>
+        <v>9.2286883589352797</v>
       </c>
       <c r="Y9" s="260"/>
       <c r="Z9" s="395">
@@ -50045,7 +50049,7 @@
       </c>
       <c r="AA9" s="260"/>
       <c r="AB9" s="467">
-        <v>9.2361560454809695</v>
+        <v>9.2286883589352797</v>
       </c>
       <c r="AC9" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F9,AB9/10000,Trigger)</f>
@@ -50320,21 +50324,21 @@
         <v>GBP3L6L4Y=ICAP</v>
       </c>
       <c r="T12" s="396">
-        <v>9.125</v>
+        <v>8.875</v>
       </c>
       <c r="U12" s="396">
-        <v>13.125</v>
+        <v>12.875</v>
       </c>
       <c r="V12" s="396">
         <f t="shared" si="6"/>
-        <v>11.125</v>
+        <v>10.875</v>
       </c>
       <c r="W12" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X12" s="397">
-        <v>11.125</v>
+        <v>10.875</v>
       </c>
       <c r="Y12" s="260"/>
       <c r="Z12" s="395">
@@ -50342,7 +50346,7 @@
       </c>
       <c r="AA12" s="260"/>
       <c r="AB12" s="467">
-        <v>11.125</v>
+        <v>10.875</v>
       </c>
       <c r="AC12" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F12,AB12/10000,Trigger)</f>
@@ -50417,21 +50421,21 @@
         <v>GBP3L6L5Y=ICAP</v>
       </c>
       <c r="T13" s="396">
-        <v>10.125</v>
+        <v>9.875</v>
       </c>
       <c r="U13" s="396">
-        <v>14.125</v>
+        <v>13.875</v>
       </c>
       <c r="V13" s="396">
         <f t="shared" si="6"/>
-        <v>12.125</v>
+        <v>11.875</v>
       </c>
       <c r="W13" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X13" s="397">
-        <v>12.125</v>
+        <v>11.875</v>
       </c>
       <c r="Y13" s="260"/>
       <c r="Z13" s="395">
@@ -50439,7 +50443,7 @@
       </c>
       <c r="AA13" s="260"/>
       <c r="AB13" s="467">
-        <v>12.125</v>
+        <v>11.875</v>
       </c>
       <c r="AC13" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F13,AB13/10000,Trigger)</f>
@@ -50514,21 +50518,21 @@
         <v>GBP3L6L6Y=ICAP</v>
       </c>
       <c r="T14" s="396">
-        <v>11.375</v>
+        <v>11.125</v>
       </c>
       <c r="U14" s="396">
-        <v>14.375</v>
+        <v>14.125</v>
       </c>
       <c r="V14" s="396">
         <f t="shared" si="6"/>
-        <v>12.875</v>
+        <v>12.625</v>
       </c>
       <c r="W14" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X14" s="397">
-        <v>12.875</v>
+        <v>12.625</v>
       </c>
       <c r="Y14" s="260"/>
       <c r="Z14" s="395">
@@ -50536,7 +50540,7 @@
       </c>
       <c r="AA14" s="260"/>
       <c r="AB14" s="467">
-        <v>12.875</v>
+        <v>12.625</v>
       </c>
       <c r="AC14" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F14,AB14/10000,Trigger)</f>
@@ -50602,21 +50606,21 @@
         <v>GBP3L6L7Y=ICAP</v>
       </c>
       <c r="T15" s="396">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="U15" s="396">
-        <v>15</v>
+        <v>14.75</v>
       </c>
       <c r="V15" s="396">
         <f t="shared" si="6"/>
-        <v>13.5</v>
+        <v>13.25</v>
       </c>
       <c r="W15" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X15" s="397">
-        <v>13.5</v>
+        <v>13.25</v>
       </c>
       <c r="Y15" s="260"/>
       <c r="Z15" s="395">
@@ -50624,7 +50628,7 @@
       </c>
       <c r="AA15" s="260"/>
       <c r="AB15" s="467">
-        <v>13.5</v>
+        <v>13.25</v>
       </c>
       <c r="AC15" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F15,AB15/10000,Trigger)</f>
@@ -50690,21 +50694,21 @@
         <v>GBP3L6L8Y=ICAP</v>
       </c>
       <c r="T16" s="396">
-        <v>12.75</v>
+        <v>12.5</v>
       </c>
       <c r="U16" s="396">
-        <v>15.75</v>
+        <v>15.5</v>
       </c>
       <c r="V16" s="396">
         <f t="shared" si="6"/>
-        <v>14.25</v>
+        <v>14</v>
       </c>
       <c r="W16" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X16" s="397">
-        <v>14.25</v>
+        <v>14</v>
       </c>
       <c r="Y16" s="260"/>
       <c r="Z16" s="395">
@@ -50712,7 +50716,7 @@
       </c>
       <c r="AA16" s="260"/>
       <c r="AB16" s="467">
-        <v>14.25</v>
+        <v>14</v>
       </c>
       <c r="AC16" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F16,AB16/10000,Trigger)</f>
@@ -50778,21 +50782,21 @@
         <v>GBP3L6L9Y=ICAP</v>
       </c>
       <c r="T17" s="396">
-        <v>13.25</v>
+        <v>13</v>
       </c>
       <c r="U17" s="396">
-        <v>16.25</v>
+        <v>16</v>
       </c>
       <c r="V17" s="396">
         <f t="shared" si="6"/>
-        <v>14.75</v>
+        <v>14.5</v>
       </c>
       <c r="W17" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X17" s="397">
-        <v>14.75</v>
+        <v>14.5</v>
       </c>
       <c r="Y17" s="260"/>
       <c r="Z17" s="395">
@@ -50800,7 +50804,7 @@
       </c>
       <c r="AA17" s="260"/>
       <c r="AB17" s="467">
-        <v>14.75</v>
+        <v>14.5</v>
       </c>
       <c r="AC17" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F17,AB17/10000,Trigger)</f>
@@ -50866,21 +50870,21 @@
         <v>GBP3L6L10Y=ICAP</v>
       </c>
       <c r="T18" s="396">
-        <v>13.5</v>
+        <v>13.25</v>
       </c>
       <c r="U18" s="396">
-        <v>16.5</v>
+        <v>16.25</v>
       </c>
       <c r="V18" s="396">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>14.75</v>
       </c>
       <c r="W18" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X18" s="397">
-        <v>15</v>
+        <v>14.75</v>
       </c>
       <c r="Y18" s="260"/>
       <c r="Z18" s="395">
@@ -50888,7 +50892,7 @@
       </c>
       <c r="AA18" s="260"/>
       <c r="AB18" s="467">
-        <v>15</v>
+        <v>14.75</v>
       </c>
       <c r="AC18" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F18,AB18/10000,Trigger)</f>
@@ -50968,7 +50972,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="397">
-        <v>14.958271718092561</v>
+        <v>14.708245655346031</v>
       </c>
       <c r="Y19" s="260"/>
       <c r="Z19" s="395">
@@ -50976,7 +50980,7 @@
       </c>
       <c r="AA19" s="260"/>
       <c r="AB19" s="467">
-        <v>14.958271718092561</v>
+        <v>14.708245655346031</v>
       </c>
       <c r="AC19" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F19,AB19/10000,Trigger)</f>
@@ -51042,21 +51046,21 @@
         <v>GBP3L6L12Y=ICAP</v>
       </c>
       <c r="T20" s="396">
-        <v>13.25</v>
+        <v>13</v>
       </c>
       <c r="U20" s="396">
-        <v>16.25</v>
+        <v>16</v>
       </c>
       <c r="V20" s="396">
         <f t="shared" si="6"/>
-        <v>14.75</v>
+        <v>14.5</v>
       </c>
       <c r="W20" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X20" s="397">
-        <v>14.75</v>
+        <v>14.5</v>
       </c>
       <c r="Y20" s="260"/>
       <c r="Z20" s="395">
@@ -51064,7 +51068,7 @@
       </c>
       <c r="AA20" s="260"/>
       <c r="AB20" s="467">
-        <v>14.75</v>
+        <v>14.5</v>
       </c>
       <c r="AC20" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F20,AB20/10000,Trigger)</f>
@@ -51144,7 +51148,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="397">
-        <v>14.522941363411675</v>
+        <v>14.272954479002815</v>
       </c>
       <c r="Y21" s="260"/>
       <c r="Z21" s="395">
@@ -51152,7 +51156,7 @@
       </c>
       <c r="AA21" s="260"/>
       <c r="AB21" s="467">
-        <v>14.522941363411675</v>
+        <v>14.272954479002815</v>
       </c>
       <c r="AC21" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F21,AB21/10000,Trigger)</f>
@@ -51232,7 +51236,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="397">
-        <v>14.28285481883926</v>
+        <v>14.032864156167474</v>
       </c>
       <c r="Y22" s="260"/>
       <c r="Z22" s="395">
@@ -51240,7 +51244,7 @@
       </c>
       <c r="AA22" s="260"/>
       <c r="AB22" s="467">
-        <v>14.28285481883926</v>
+        <v>14.032864156167474</v>
       </c>
       <c r="AC22" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F22,AB22/10000,Trigger)</f>
@@ -51306,21 +51310,21 @@
         <v>GBP3L6L15Y=ICAP</v>
       </c>
       <c r="T23" s="396">
-        <v>12.5</v>
+        <v>12.25</v>
       </c>
       <c r="U23" s="396">
-        <v>15.5</v>
+        <v>15.25</v>
       </c>
       <c r="V23" s="396">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="W23" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X23" s="397">
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="Y23" s="260"/>
       <c r="Z23" s="395">
@@ -51328,7 +51332,7 @@
       </c>
       <c r="AA23" s="260"/>
       <c r="AB23" s="467">
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="AC23" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F23,AB23/10000,Trigger)</f>
@@ -51408,7 +51412,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="397">
-        <v>13.654410228835909</v>
+        <v>13.404404534071285</v>
       </c>
       <c r="Y24" s="260"/>
       <c r="Z24" s="395">
@@ -51416,7 +51420,7 @@
       </c>
       <c r="AA24" s="260"/>
       <c r="AB24" s="467">
-        <v>13.654410228835909</v>
+        <v>13.404404534071285</v>
       </c>
       <c r="AC24" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F24,AB24/10000,Trigger)</f>
@@ -51496,7 +51500,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="397">
-        <v>13.265213580188043</v>
+        <v>13.015206502211692</v>
       </c>
       <c r="Y25" s="260"/>
       <c r="Z25" s="395">
@@ -51504,7 +51508,7 @@
       </c>
       <c r="AA25" s="260"/>
       <c r="AB25" s="467">
-        <v>13.265213580188043</v>
+        <v>13.015206502211692</v>
       </c>
       <c r="AC25" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F25,AB25/10000,Trigger)</f>
@@ -51584,7 +51588,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="397">
-        <v>12.861311817122221</v>
+        <v>12.611306203316456</v>
       </c>
       <c r="Y26" s="260"/>
       <c r="Z26" s="395">
@@ -51592,7 +51596,7 @@
       </c>
       <c r="AA26" s="260"/>
       <c r="AB26" s="467">
-        <v>12.861311817122221</v>
+        <v>12.611306203316456</v>
       </c>
       <c r="AC26" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F26,AB26/10000,Trigger)</f>
@@ -51672,7 +51676,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="397">
-        <v>12.471606702704268</v>
+        <v>12.221603936280815</v>
       </c>
       <c r="Y27" s="260"/>
       <c r="Z27" s="395">
@@ -51680,7 +51684,7 @@
       </c>
       <c r="AA27" s="260"/>
       <c r="AB27" s="467">
-        <v>12.471606702704268</v>
+        <v>12.221603936280815</v>
       </c>
       <c r="AC27" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F27,AB27/10000,Trigger)</f>
@@ -51746,21 +51750,21 @@
         <v>GBP3L6L20Y=ICAP</v>
       </c>
       <c r="T28" s="396">
-        <v>10.625</v>
+        <v>10.375</v>
       </c>
       <c r="U28" s="396">
-        <v>13.625</v>
+        <v>13.375</v>
       </c>
       <c r="V28" s="396">
         <f t="shared" si="6"/>
-        <v>12.125</v>
+        <v>11.875</v>
       </c>
       <c r="W28" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X28" s="397">
-        <v>12.125</v>
+        <v>11.875</v>
       </c>
       <c r="Y28" s="260"/>
       <c r="Z28" s="395">
@@ -51768,7 +51772,7 @@
       </c>
       <c r="AA28" s="260"/>
       <c r="AB28" s="467">
-        <v>12.125</v>
+        <v>11.875</v>
       </c>
       <c r="AC28" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F28,AB28/10000,Trigger)</f>
@@ -51848,7 +51852,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="397">
-        <v>11.842993437119338</v>
+        <v>11.592994967439235</v>
       </c>
       <c r="Y29" s="260"/>
       <c r="Z29" s="395">
@@ -51856,7 +51860,7 @@
       </c>
       <c r="AA29" s="260"/>
       <c r="AB29" s="467">
-        <v>11.842993437119338</v>
+        <v>11.592994967439235</v>
       </c>
       <c r="AC29" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F29,AB29/10000,Trigger)</f>
@@ -51936,7 +51940,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="397">
-        <v>11.617488602348596</v>
+        <v>11.367490507843693</v>
       </c>
       <c r="Y30" s="260"/>
       <c r="Z30" s="395">
@@ -51944,7 +51948,7 @@
       </c>
       <c r="AA30" s="260"/>
       <c r="AB30" s="467">
-        <v>11.617488602348596</v>
+        <v>11.367490507843693</v>
       </c>
       <c r="AC30" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F30,AB30/10000,Trigger)</f>
@@ -52024,7 +52028,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="397">
-        <v>11.432987049018184</v>
+        <v>11.182988564528532</v>
       </c>
       <c r="Y31" s="260"/>
       <c r="Z31" s="395">
@@ -52032,7 +52036,7 @@
       </c>
       <c r="AA31" s="260"/>
       <c r="AB31" s="467">
-        <v>11.432987049018184</v>
+        <v>11.182988564528532</v>
       </c>
       <c r="AC31" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F31,AB31/10000,Trigger)</f>
@@ -52112,7 +52116,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="397">
-        <v>11.273990330458513</v>
+        <v>11.023991080808916</v>
       </c>
       <c r="Y32" s="260"/>
       <c r="Z32" s="395">
@@ -52120,7 +52124,7 @@
       </c>
       <c r="AA32" s="260"/>
       <c r="AB32" s="467">
-        <v>11.273990330458513</v>
+        <v>11.023991080808916</v>
       </c>
       <c r="AC32" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F32,AB32/10000,Trigger)</f>
@@ -52186,21 +52190,21 @@
         <v>GBP3L6L25Y=ICAP</v>
       </c>
       <c r="T33" s="396">
-        <v>9.625</v>
+        <v>9.375</v>
       </c>
       <c r="U33" s="396">
-        <v>12.625</v>
+        <v>12.375</v>
       </c>
       <c r="V33" s="396">
         <f t="shared" si="6"/>
-        <v>11.125</v>
+        <v>10.875</v>
       </c>
       <c r="W33" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X33" s="397">
-        <v>11.125</v>
+        <v>10.875</v>
       </c>
       <c r="Y33" s="260"/>
       <c r="Z33" s="395">
@@ -52208,7 +52212,7 @@
       </c>
       <c r="AA33" s="260"/>
       <c r="AB33" s="467">
-        <v>11.125</v>
+        <v>10.875</v>
       </c>
       <c r="AC33" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F33,AB33/10000,Trigger)</f>
@@ -52288,7 +52292,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="397">
-        <v>10.973616022686739</v>
+        <v>10.723615596171774</v>
       </c>
       <c r="Y34" s="260"/>
       <c r="Z34" s="395">
@@ -52296,7 +52300,7 @@
       </c>
       <c r="AA34" s="260"/>
       <c r="AB34" s="467">
-        <v>10.973616022686739</v>
+        <v>10.723615596171774</v>
       </c>
       <c r="AC34" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F34,AB34/10000,Trigger)</f>
@@ -52376,7 +52380,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="397">
-        <v>10.819832010417578</v>
+        <v>10.569831466413536</v>
       </c>
       <c r="Y35" s="260"/>
       <c r="Z35" s="395">
@@ -52384,7 +52388,7 @@
       </c>
       <c r="AA35" s="260"/>
       <c r="AB35" s="467">
-        <v>10.819832010417578</v>
+        <v>10.569831466413536</v>
       </c>
       <c r="AC35" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F35,AB35/10000,Trigger)</f>
@@ -52464,7 +52468,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="397">
-        <v>10.666739986805046</v>
+        <v>10.416739538569411</v>
       </c>
       <c r="Y36" s="260"/>
       <c r="Z36" s="395">
@@ -52472,7 +52476,7 @@
       </c>
       <c r="AA36" s="260"/>
       <c r="AB36" s="467">
-        <v>10.666739986805046</v>
+        <v>10.416739538569411</v>
       </c>
       <c r="AC36" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F36,AB36/10000,Trigger)</f>
@@ -52552,7 +52556,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="397">
-        <v>10.517431975461676</v>
+        <v>10.267431740483524</v>
       </c>
       <c r="Y37" s="260"/>
       <c r="Z37" s="395">
@@ -52560,7 +52564,7 @@
       </c>
       <c r="AA37" s="260"/>
       <c r="AB37" s="467">
-        <v>10.517431975461676</v>
+        <v>10.267431740483524</v>
       </c>
       <c r="AC37" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F37,AB37/10000,Trigger)</f>
@@ -52626,21 +52630,21 @@
         <v>GBP3L6L30Y=ICAP</v>
       </c>
       <c r="T38" s="396">
-        <v>8.875</v>
+        <v>8.625</v>
       </c>
       <c r="U38" s="396">
-        <v>11.875</v>
+        <v>11.625</v>
       </c>
       <c r="V38" s="396">
         <f t="shared" si="6"/>
-        <v>10.375</v>
+        <v>10.125</v>
       </c>
       <c r="W38" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X38" s="663">
-        <v>10.375</v>
+        <v>10.125</v>
       </c>
       <c r="Y38" s="260"/>
       <c r="Z38" s="395">
@@ -52648,7 +52652,7 @@
       </c>
       <c r="AA38" s="260"/>
       <c r="AB38" s="467">
-        <v>10.375</v>
+        <v>10.125</v>
       </c>
       <c r="AC38" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F38,AB38/10000,Trigger)</f>
@@ -52728,7 +52732,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="663">
-        <v>9.7949380606514662</v>
+        <v>9.5449384000369264</v>
       </c>
       <c r="Y39" s="260"/>
       <c r="Z39" s="395">
@@ -52736,7 +52740,7 @@
       </c>
       <c r="AA39" s="260"/>
       <c r="AB39" s="467">
-        <v>9.7949380606514662</v>
+        <v>9.5449384000369264</v>
       </c>
       <c r="AC39" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F39,AB39/10000,Trigger)</f>
@@ -52802,21 +52806,21 @@
         <v>GBP3L6L40Y=ICAP</v>
       </c>
       <c r="T40" s="396">
-        <v>7.875</v>
+        <v>7.625</v>
       </c>
       <c r="U40" s="396">
-        <v>10.875</v>
+        <v>10.625</v>
       </c>
       <c r="V40" s="396">
         <f t="shared" si="6"/>
-        <v>9.375</v>
+        <v>9.125</v>
       </c>
       <c r="W40" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X40" s="663">
-        <v>9.375</v>
+        <v>9.125</v>
       </c>
       <c r="Y40" s="260"/>
       <c r="Z40" s="395">
@@ -52824,7 +52828,7 @@
       </c>
       <c r="AA40" s="260"/>
       <c r="AB40" s="467">
-        <v>9.375</v>
+        <v>9.125</v>
       </c>
       <c r="AC40" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F40,AB40/10000,Trigger)</f>
@@ -52890,21 +52894,21 @@
         <v>GBP3L6L50Y=ICAP</v>
       </c>
       <c r="T41" s="396">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="U41" s="396">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="V41" s="396">
         <f t="shared" si="6"/>
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W41" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X41" s="663">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Y41" s="260"/>
       <c r="Z41" s="395">
@@ -52912,7 +52916,7 @@
       </c>
       <c r="AA41" s="260"/>
       <c r="AB41" s="467">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AC41" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F41,AB41/10000,Trigger)</f>
@@ -52978,21 +52982,21 @@
         <v>GBP3L6L60Y=ICAP</v>
       </c>
       <c r="T42" s="394">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="U42" s="394">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="V42" s="394">
         <f>IF(ISERROR(AVERAGE(T42,U42)),#NUM!,AVERAGE(T42,U42))</f>
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W42" s="259" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X42" s="664">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Y42" s="260"/>
       <c r="Z42" s="393">
@@ -53000,7 +53004,7 @@
       </c>
       <c r="AA42" s="260"/>
       <c r="AB42" s="468">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AC42" s="258">
         <f>_xll.qlSimpleQuoteSetValue(F42,AB42/10000,Trigger)</f>
@@ -53174,7 +53178,7 @@
       <c r="R3" s="86"/>
       <c r="S3" s="260" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,_xll.ohFilter(N5:N42,W5:W42),_xll.ohFilter(V5:V42,W5:W42))</f>
-        <v>obj_00614#0002</v>
+        <v>obj_0063a#0001</v>
       </c>
       <c r="T3" s="86"/>
       <c r="U3" s="86"/>
@@ -53187,7 +53191,7 @@
       <c r="AB3" s="86"/>
       <c r="AC3" s="289">
         <f>_xll.ohTrigger(AC5:AC42)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD3" s="160"/>
       <c r="AE3" s="17"/>
@@ -53222,7 +53226,7 @@
       <c r="R4" s="141"/>
       <c r="S4" s="288" t="str">
         <f>_xll.RData(S5:S42,T4:U4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
       </c>
       <c r="T4" s="319" t="s">
         <v>254</v>
@@ -53318,7 +53322,7 @@
       </c>
       <c r="X5" s="663">
         <f t="array" ref="X5:X42">_xll.qlInterpolationInterpolate(S3,N5:N42,TRUE)</f>
-        <v>18</v>
+        <v>19.034845401194257</v>
       </c>
       <c r="Y5" s="260"/>
       <c r="Z5" s="395">
@@ -53327,11 +53331,11 @@
       <c r="AA5" s="260"/>
       <c r="AB5" s="467">
         <f t="array" ref="AB5:AB42">QuoteLive</f>
-        <v>18</v>
+        <v>19.034845401194257</v>
       </c>
       <c r="AC5" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F5,AB5/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.0006011839235035E-5</v>
       </c>
       <c r="AD5" s="160"/>
       <c r="AE5" s="17"/>
@@ -53391,21 +53395,21 @@
         <v>GBP6L12L1Y=ICAP</v>
       </c>
       <c r="T6" s="396">
-        <v>12</v>
+        <v>12.625</v>
       </c>
       <c r="U6" s="396">
-        <v>24</v>
+        <v>24.625</v>
       </c>
       <c r="V6" s="396">
         <f t="shared" ref="V6:V41" si="5">IF(ISERROR(AVERAGE(T6,U6)),#NUM!,AVERAGE(T6,U6))</f>
-        <v>18</v>
+        <v>18.625</v>
       </c>
       <c r="W6" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X6" s="663">
-        <v>18</v>
+        <v>18.625</v>
       </c>
       <c r="Y6" s="260"/>
       <c r="Z6" s="395">
@@ -53413,11 +53417,11 @@
       </c>
       <c r="AA6" s="260"/>
       <c r="AB6" s="467">
-        <v>18</v>
+        <v>18.625</v>
       </c>
       <c r="AC6" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F6,AB6/10000,Trigger)</f>
-        <v>0</v>
+        <v>-1.2499999999999924E-5</v>
       </c>
       <c r="AD6" s="160"/>
       <c r="AE6" s="17"/>
@@ -53491,7 +53495,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="663">
-        <v>18</v>
+        <v>18.407909124253589</v>
       </c>
       <c r="Y7" s="260"/>
       <c r="Z7" s="395">
@@ -53499,11 +53503,11 @@
       </c>
       <c r="AA7" s="260"/>
       <c r="AB7" s="467">
-        <v>18</v>
+        <v>18.407909124253589</v>
       </c>
       <c r="AC7" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F7,AB7/10000,Trigger)</f>
-        <v>0</v>
+        <v>-8.5899926004781926E-6</v>
       </c>
       <c r="AD7" s="160"/>
       <c r="AE7" s="17"/>
@@ -53577,7 +53581,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="663">
-        <v>18</v>
+        <v>18.215154598805743</v>
       </c>
       <c r="Y8" s="260"/>
       <c r="Z8" s="395">
@@ -53585,11 +53589,11 @@
       </c>
       <c r="AA8" s="260"/>
       <c r="AB8" s="467">
-        <v>18</v>
+        <v>18.215154598805743</v>
       </c>
       <c r="AC8" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F8,AB8/10000,Trigger)</f>
-        <v>0</v>
+        <v>-4.993988160765031E-6</v>
       </c>
       <c r="AD8" s="160"/>
       <c r="AE8" s="17"/>
@@ -53663,7 +53667,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="663">
-        <v>18</v>
+        <v>18.071072773955024</v>
       </c>
       <c r="Y9" s="260"/>
       <c r="Z9" s="395">
@@ -53671,11 +53675,11 @@
       </c>
       <c r="AA9" s="260"/>
       <c r="AB9" s="467">
-        <v>18</v>
+        <v>18.071072773955024</v>
       </c>
       <c r="AC9" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F9,AB9/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.0259896406690098E-6</v>
       </c>
       <c r="AD9" s="160"/>
       <c r="AE9" s="17"/>
@@ -54514,7 +54518,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="663">
-        <v>16.145957649859177</v>
+        <v>16.145954220550422</v>
       </c>
       <c r="Y19" s="260"/>
       <c r="Z19" s="395">
@@ -54522,11 +54526,11 @@
       </c>
       <c r="AA19" s="260"/>
       <c r="AB19" s="467">
-        <v>16.145957649859177</v>
+        <v>16.145954220550422</v>
       </c>
       <c r="AC19" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F19,AB19/10000,Trigger)</f>
-        <v>0</v>
+        <v>6.8586175150722739E-11</v>
       </c>
       <c r="AD19" s="160"/>
       <c r="AE19" s="17"/>
@@ -54674,7 +54678,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="663">
-        <v>15.354898695971391</v>
+        <v>15.354900421707068</v>
       </c>
       <c r="Y21" s="260"/>
       <c r="Z21" s="395">
@@ -54682,11 +54686,11 @@
       </c>
       <c r="AA21" s="260"/>
       <c r="AB21" s="467">
-        <v>15.354898695971391</v>
+        <v>15.354900421707068</v>
       </c>
       <c r="AC21" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F21,AB21/10000,Trigger)</f>
-        <v>0</v>
+        <v>-3.4514713569827604E-11</v>
       </c>
       <c r="AD21" s="160"/>
       <c r="AE21" s="17"/>
@@ -54754,7 +54758,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="663">
-        <v>14.976754393298375</v>
+        <v>14.976755621894194</v>
       </c>
       <c r="Y22" s="260"/>
       <c r="Z22" s="395">
@@ -54762,11 +54766,11 @@
       </c>
       <c r="AA22" s="260"/>
       <c r="AB22" s="467">
-        <v>14.976754393298375</v>
+        <v>14.976755621894194</v>
       </c>
       <c r="AC22" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F22,AB22/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4571916333246402E-11</v>
       </c>
       <c r="AD22" s="160"/>
       <c r="AE22" s="17"/>
@@ -54914,7 +54918,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="663">
-        <v>14.306330596456958</v>
+        <v>14.306329847145824</v>
       </c>
       <c r="Y24" s="260"/>
       <c r="Z24" s="395">
@@ -54922,11 +54926,11 @@
       </c>
       <c r="AA24" s="260"/>
       <c r="AB24" s="467">
-        <v>14.306330596456958</v>
+        <v>14.306329847145824</v>
       </c>
       <c r="AC24" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F24,AB24/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.498622276621675E-11</v>
       </c>
       <c r="AD24" s="160"/>
       <c r="AE24" s="17"/>
@@ -54994,7 +54998,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="663">
-        <v>14.016489952496521</v>
+        <v>14.016489021183842</v>
       </c>
       <c r="Y25" s="260"/>
       <c r="Z25" s="395">
@@ -55002,11 +55006,11 @@
       </c>
       <c r="AA25" s="260"/>
       <c r="AB25" s="467">
-        <v>14.016489952496521</v>
+        <v>14.016489021183842</v>
       </c>
       <c r="AC25" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F25,AB25/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.8626253534340109E-11</v>
       </c>
       <c r="AD25" s="160"/>
       <c r="AE25" s="17"/>
@@ -55074,7 +55078,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="663">
-        <v>13.748484010307605</v>
+        <v>13.748483271648951</v>
       </c>
       <c r="Y26" s="260"/>
       <c r="Z26" s="395">
@@ -55082,11 +55086,11 @@
       </c>
       <c r="AA26" s="260"/>
       <c r="AB26" s="467">
-        <v>13.748484010307605</v>
+        <v>13.748483271648951</v>
       </c>
       <c r="AC26" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F26,AB26/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.4773173136195528E-11</v>
       </c>
       <c r="AD26" s="160"/>
       <c r="AE26" s="17"/>
@@ -55154,7 +55158,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="663">
-        <v>13.495318712079126</v>
+        <v>13.49531834807604</v>
       </c>
       <c r="Y27" s="260"/>
       <c r="Z27" s="395">
@@ -55162,11 +55166,11 @@
       </c>
       <c r="AA27" s="260"/>
       <c r="AB27" s="467">
-        <v>13.495318712079126</v>
+        <v>13.49531834807604</v>
       </c>
       <c r="AC27" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F27,AB27/10000,Trigger)</f>
-        <v>0</v>
+        <v>7.2800617530871525E-12</v>
       </c>
       <c r="AD27" s="160"/>
       <c r="AE27" s="17"/>
@@ -55314,7 +55318,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="663">
-        <v>13.00736331059149</v>
+        <v>13.007363511949372</v>
       </c>
       <c r="Y29" s="260"/>
       <c r="Z29" s="395">
@@ -55322,11 +55326,11 @@
       </c>
       <c r="AA29" s="260"/>
       <c r="AB29" s="467">
-        <v>13.00736331059149</v>
+        <v>13.007363511949372</v>
       </c>
       <c r="AC29" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F29,AB29/10000,Trigger)</f>
-        <v>0</v>
+        <v>-4.0271577305545092E-12</v>
       </c>
       <c r="AD29" s="160"/>
       <c r="AE29" s="17"/>
@@ -55394,7 +55398,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="663">
-        <v>12.769562057704242</v>
+        <v>12.769562308427282</v>
       </c>
       <c r="Y30" s="260"/>
       <c r="Z30" s="395">
@@ -55402,11 +55406,11 @@
       </c>
       <c r="AA30" s="260"/>
       <c r="AB30" s="467">
-        <v>12.769562057704242</v>
+        <v>12.769562308427282</v>
       </c>
       <c r="AC30" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F30,AB30/10000,Trigger)</f>
-        <v>0</v>
+        <v>-5.0144606349167287E-12</v>
       </c>
       <c r="AD30" s="160"/>
       <c r="AE30" s="17"/>
@@ -55474,7 +55478,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="663">
-        <v>12.54057914952125</v>
+        <v>12.540579348930507</v>
       </c>
       <c r="Y31" s="260"/>
       <c r="Z31" s="395">
@@ -55482,11 +55486,11 @@
       </c>
       <c r="AA31" s="260"/>
       <c r="AB31" s="467">
-        <v>12.54057914952125</v>
+        <v>12.540579348930507</v>
       </c>
       <c r="AC31" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F31,AB31/10000,Trigger)</f>
-        <v>0</v>
+        <v>-3.9881852161027798E-12</v>
       </c>
       <c r="AD31" s="160"/>
       <c r="AE31" s="17"/>
@@ -55554,7 +55558,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="663">
-        <v>12.324397494225504</v>
+        <v>12.324397592955821</v>
       </c>
       <c r="Y32" s="260"/>
       <c r="Z32" s="395">
@@ -55562,11 +55566,11 @@
       </c>
       <c r="AA32" s="260"/>
       <c r="AB32" s="467">
-        <v>12.324397494225504</v>
+        <v>12.324397592955821</v>
       </c>
       <c r="AC32" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F32,AB32/10000,Trigger)</f>
-        <v>0</v>
+        <v>-1.9746062424053079E-12</v>
       </c>
       <c r="AD32" s="160"/>
       <c r="AE32" s="17"/>
@@ -55714,7 +55718,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="663">
-        <v>11.945216161177081</v>
+        <v>11.945216105056691</v>
       </c>
       <c r="Y34" s="260"/>
       <c r="Z34" s="395">
@@ -55722,11 +55726,11 @@
       </c>
       <c r="AA34" s="260"/>
       <c r="AB34" s="467">
-        <v>11.945216161177081</v>
+        <v>11.945216105056691</v>
       </c>
       <c r="AC34" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F34,AB34/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.1224077223204176E-12</v>
       </c>
       <c r="AD34" s="160"/>
       <c r="AE34" s="17"/>
@@ -55794,7 +55798,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="663">
-        <v>11.783261816686508</v>
+        <v>11.78326174510703</v>
       </c>
       <c r="Y35" s="260"/>
       <c r="Z35" s="395">
@@ -55802,11 +55806,11 @@
       </c>
       <c r="AA35" s="260"/>
       <c r="AB35" s="467">
-        <v>11.783261816686508</v>
+        <v>11.78326174510703</v>
       </c>
       <c r="AC35" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F35,AB35/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.4315894390076744E-12</v>
       </c>
       <c r="AD35" s="160"/>
       <c r="AE35" s="17"/>
@@ -55874,7 +55878,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="663">
-        <v>11.636199391607395</v>
+        <v>11.636199332629023</v>
       </c>
       <c r="Y36" s="260"/>
       <c r="Z36" s="395">
@@ -55882,11 +55886,11 @@
       </c>
       <c r="AA36" s="260"/>
       <c r="AB36" s="467">
-        <v>11.636199391607395</v>
+        <v>11.636199332629023</v>
       </c>
       <c r="AC36" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F36,AB36/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.1795675113751569E-12</v>
       </c>
       <c r="AD36" s="160"/>
       <c r="AE36" s="17"/>
@@ -55954,7 +55958,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="663">
-        <v>11.501091311018856</v>
+        <v>11.501091280100677</v>
       </c>
       <c r="Y37" s="260"/>
       <c r="Z37" s="395">
@@ -55962,11 +55966,11 @@
       </c>
       <c r="AA37" s="260"/>
       <c r="AB37" s="467">
-        <v>11.501091311018856</v>
+        <v>11.501091280100677</v>
       </c>
       <c r="AC37" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F37,AB37/10000,Trigger)</f>
-        <v>0</v>
+        <v>6.183636502149481E-13</v>
       </c>
       <c r="AD37" s="160"/>
       <c r="AE37" s="17"/>
@@ -56114,7 +56118,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="663">
-        <v>10.828387024526338</v>
+        <v>10.82838706918232</v>
       </c>
       <c r="Y39" s="260"/>
       <c r="Z39" s="395">
@@ -56122,11 +56126,11 @@
       </c>
       <c r="AA39" s="260"/>
       <c r="AB39" s="467">
-        <v>10.828387024526338</v>
+        <v>10.82838706918232</v>
       </c>
       <c r="AC39" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F39,AB39/10000,Trigger)</f>
-        <v>0</v>
+        <v>-8.9311977952144517E-13</v>
       </c>
       <c r="AD39" s="160"/>
       <c r="AE39" s="17"/>
@@ -56540,7 +56544,7 @@
       <c r="I4" s="285"/>
       <c r="J4" s="288" t="str">
         <f>_xll.RData(J5:J22,K4:K4,"RTFEED:IDN",ReutersRtMode,,K5)</f>
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
       </c>
       <c r="K4" s="287" t="str">
         <f>VLOOKUP(Contributor,ContributorTable,5,FALSE)</f>
@@ -57684,7 +57688,7 @@
       <c r="V3" s="86"/>
       <c r="W3" s="289">
         <f>_xll.ohTrigger(W5:W20)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X3" s="160"/>
       <c r="Y3" s="17"/>
@@ -57712,7 +57716,7 @@
       <c r="L4" s="141"/>
       <c r="M4" s="288" t="str">
         <f>_xll.RData(M5:M20,N4:Q4,"RTFEED:IDN",ReutersRtMode,,N5)</f>
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
       </c>
       <c r="N4" s="319" t="s">
         <v>254</v>
@@ -57979,10 +57983,10 @@
         <v>GBP4X7F=ICAP</v>
       </c>
       <c r="N8" s="308">
-        <v>0.72</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="O8" s="308">
-        <v>0.77</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="P8" s="307">
         <v>0</v>
@@ -57992,7 +57996,7 @@
       </c>
       <c r="R8" s="268">
         <f>_xll.qlMidSafe($N8,$O8)</f>
-        <v>0.745</v>
+        <v>0.74</v>
       </c>
       <c r="S8" s="260"/>
       <c r="T8" s="302">
@@ -58000,7 +58004,7 @@
       </c>
       <c r="U8" s="260"/>
       <c r="V8" s="458">
-        <v>0.745</v>
+        <v>0.74</v>
       </c>
       <c r="W8" s="265">
         <f>_xll.qlSimpleQuoteSetValue(E8,V8/100,Trigger)</f>
@@ -58045,10 +58049,10 @@
         <v>GBP5X8F=ICAP</v>
       </c>
       <c r="N9" s="308">
-        <v>0.77500000000000002</v>
+        <v>0.77</v>
       </c>
       <c r="O9" s="308">
-        <v>0.82499999999999996</v>
+        <v>0.82</v>
       </c>
       <c r="P9" s="307">
         <v>0</v>
@@ -58058,7 +58062,7 @@
       </c>
       <c r="R9" s="268">
         <f>_xll.qlMidSafe($N9,$O9)</f>
-        <v>0.8</v>
+        <v>0.79499999999999993</v>
       </c>
       <c r="S9" s="260"/>
       <c r="T9" s="302">
@@ -58066,7 +58070,7 @@
       </c>
       <c r="U9" s="260"/>
       <c r="V9" s="458">
-        <v>0.8</v>
+        <v>0.79499999999999993</v>
       </c>
       <c r="W9" s="265">
         <f>_xll.qlSimpleQuoteSetValue(E9,V9/100,Trigger)</f>
@@ -58111,10 +58115,10 @@
         <v>GBP6X9F=ICAP</v>
       </c>
       <c r="N10" s="304">
-        <v>0.83499999999999996</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="O10" s="304">
-        <v>0.88500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="P10" s="303">
         <v>0</v>
@@ -58124,7 +58128,7 @@
       </c>
       <c r="R10" s="262">
         <f>_xll.qlMidSafe($N10,$O10)</f>
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="S10" s="260"/>
       <c r="T10" s="315">
@@ -58132,7 +58136,7 @@
       </c>
       <c r="U10" s="260"/>
       <c r="V10" s="458">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="W10" s="265">
         <f>_xll.qlSimpleQuoteSetValue(E10,V10/100,Trigger)</f>
@@ -58312,10 +58316,10 @@
         <v>GBP3X9F=ICAP</v>
       </c>
       <c r="N13" s="308">
-        <v>0.84499999999999997</v>
+        <v>0.84</v>
       </c>
       <c r="O13" s="308">
-        <v>0.89500000000000002</v>
+        <v>0.89</v>
       </c>
       <c r="P13" s="307">
         <v>0</v>
@@ -58325,7 +58329,7 @@
       </c>
       <c r="R13" s="268">
         <f>_xll.qlMidSafe($N13,$O13)</f>
-        <v>0.87</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="S13" s="260"/>
       <c r="T13" s="302">
@@ -58333,7 +58337,7 @@
       </c>
       <c r="U13" s="260"/>
       <c r="V13" s="458">
-        <v>0.87</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="W13" s="265">
         <f>_xll.qlSimpleQuoteSetValue(E13,V13/100,Trigger)</f>
@@ -58379,10 +58383,10 @@
         <v>GBP4X10F=ICAP</v>
       </c>
       <c r="N14" s="308">
-        <v>0.91</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="O14" s="308">
-        <v>0.96</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="P14" s="307">
         <v>0</v>
@@ -58392,7 +58396,7 @@
       </c>
       <c r="R14" s="268">
         <f>_xll.qlMidSafe($N14,$O14)</f>
-        <v>0.93500000000000005</v>
+        <v>0.92999999999999994</v>
       </c>
       <c r="S14" s="260"/>
       <c r="T14" s="302">
@@ -58400,7 +58404,7 @@
       </c>
       <c r="U14" s="260"/>
       <c r="V14" s="458">
-        <v>0.93500000000000005</v>
+        <v>0.92999999999999994</v>
       </c>
       <c r="W14" s="265">
         <f>_xll.qlSimpleQuoteSetValue(E14,V14/100,Trigger)</f>
@@ -58446,10 +58450,10 @@
         <v>GBP5X11F=ICAP</v>
       </c>
       <c r="N15" s="308">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O15" s="308">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P15" s="307">
         <v>0</v>
@@ -58459,7 +58463,7 @@
       </c>
       <c r="R15" s="268">
         <f>_xll.qlMidSafe($N15,$O15)</f>
-        <v>0.995</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="S15" s="260"/>
       <c r="T15" s="302">
@@ -58467,7 +58471,7 @@
       </c>
       <c r="U15" s="260"/>
       <c r="V15" s="458">
-        <v>0.995</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="W15" s="265">
         <f>_xll.qlSimpleQuoteSetValue(E15,V15/100,Trigger)</f>
@@ -58513,10 +58517,10 @@
         <v>GBP6X12F=ICAP</v>
       </c>
       <c r="N16" s="308">
-        <v>1.0249999999999999</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="O16" s="308">
-        <v>1.075</v>
+        <v>1.0649999999999999</v>
       </c>
       <c r="P16" s="307">
         <v>0</v>
@@ -58526,7 +58530,7 @@
       </c>
       <c r="R16" s="268">
         <f>_xll.qlMidSafe($N16,$O16)</f>
-        <v>1.0499999999999998</v>
+        <v>1.04</v>
       </c>
       <c r="S16" s="260"/>
       <c r="T16" s="302">
@@ -58534,7 +58538,7 @@
       </c>
       <c r="U16" s="260"/>
       <c r="V16" s="458">
-        <v>1.0499999999999998</v>
+        <v>1.04</v>
       </c>
       <c r="W16" s="265">
         <f>_xll.qlSimpleQuoteSetValue(E16,V16/100,Trigger)</f>
@@ -58580,10 +58584,10 @@
         <v>GBP9X15F=ICAP</v>
       </c>
       <c r="N17" s="308">
-        <v>1.2350000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="O17" s="308">
-        <v>1.2849999999999999</v>
+        <v>1.27</v>
       </c>
       <c r="P17" s="307">
         <v>0</v>
@@ -58593,7 +58597,7 @@
       </c>
       <c r="R17" s="268">
         <f>_xll.qlMidSafe($N17,$O17)</f>
-        <v>1.26</v>
+        <v>1.2450000000000001</v>
       </c>
       <c r="S17" s="260"/>
       <c r="T17" s="302">
@@ -58601,11 +58605,11 @@
       </c>
       <c r="U17" s="260"/>
       <c r="V17" s="458">
-        <v>1.26</v>
+        <v>1.2450000000000001</v>
       </c>
       <c r="W17" s="265">
         <f>_xll.qlSimpleQuoteSetValue(E17,V17/100,Trigger)</f>
-        <v>0</v>
+        <v>-4.9999999999999697E-5</v>
       </c>
       <c r="X17" s="160"/>
       <c r="Y17" s="17"/>
@@ -58647,10 +58651,10 @@
         <v>GBP12X18F=ICAP</v>
       </c>
       <c r="N18" s="308">
-        <v>1.45</v>
+        <v>1.4350000000000001</v>
       </c>
       <c r="O18" s="308">
-        <v>1.5</v>
+        <v>1.4850000000000001</v>
       </c>
       <c r="P18" s="307">
         <v>0</v>
@@ -58660,7 +58664,7 @@
       </c>
       <c r="R18" s="268">
         <f>_xll.qlMidSafe($N18,$O18)</f>
-        <v>1.4750000000000001</v>
+        <v>1.46</v>
       </c>
       <c r="S18" s="260"/>
       <c r="T18" s="302">
@@ -58668,7 +58672,7 @@
       </c>
       <c r="U18" s="260"/>
       <c r="V18" s="458">
-        <v>1.4750000000000001</v>
+        <v>1.46</v>
       </c>
       <c r="W18" s="265">
         <f>_xll.qlSimpleQuoteSetValue(E18,V18/100,Trigger)</f>
@@ -58780,10 +58784,10 @@
         <v>GBP12X24F=ICAP</v>
       </c>
       <c r="N20" s="298">
-        <v>1.845</v>
+        <v>1.825</v>
       </c>
       <c r="O20" s="298">
-        <v>1.9450000000000001</v>
+        <v>1.925</v>
       </c>
       <c r="P20" s="297">
         <v>0</v>
@@ -58793,7 +58797,7 @@
       </c>
       <c r="R20" s="296">
         <f>_xll.qlMidSafe($N20,$O20)</f>
-        <v>1.895</v>
+        <v>1.875</v>
       </c>
       <c r="S20" s="260"/>
       <c r="T20" s="295">
@@ -58801,11 +58805,11 @@
       </c>
       <c r="U20" s="260"/>
       <c r="V20" s="494">
-        <v>1.895</v>
+        <v>1.875</v>
       </c>
       <c r="W20" s="648">
         <f>_xll.qlSimpleQuoteSetValue(E20,V20/100,Trigger)</f>
-        <v>0</v>
+        <v>-4.9999999999997963E-5</v>
       </c>
       <c r="X20" s="160"/>
       <c r="Y20" s="17"/>
@@ -58988,7 +58992,7 @@
       </c>
       <c r="O3" s="358" t="str">
         <f>_xll.RData(O4:O15,P3:T3,"RTFEED:IDN",ReutersRtMode,,P4)</f>
-        <v>Paused at 15:48:31</v>
+        <v>Paused at 18:10:27</v>
       </c>
       <c r="P3" s="355" t="s">
         <v>258</v>

--- a/QuantLibXL/Data2/XLS/GBP_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_Market.xlsx
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3059" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3060" uniqueCount="323">
   <si>
     <t>1Y</t>
   </si>
@@ -1155,6 +1155,9 @@
   <si>
     <t>RIC Not Found</t>
   </si>
+  <si>
+    <t>mx ConvexityAdj</t>
+  </si>
 </sst>
 </file>
 
@@ -1365,7 +1368,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1423,6 +1426,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1808,7 +1817,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="684">
+  <cellXfs count="686">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -3205,6 +3214,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="10" fillId="11" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="5"/>
@@ -3573,148 +3586,148 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:16:24</v>
         <stp/>
-        <stp>{52EF716F-EC90-45D3-B602-58FCBC4DFBF6}</stp>
+        <stp>{5B6CB206-AB02-404D-B39E-05C44C2EDBEE}</stp>
+        <tr r="S4" s="9"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 16:15:40</v>
+        <stp/>
+        <stp>{3BEBFBAB-DFC8-4D7C-91AD-6F148B5A8579}</stp>
+        <tr r="S4" s="11"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 16:16:06</v>
+        <stp/>
+        <stp>{7E4AD50F-F3F6-49A0-BE0E-1B63565A07BB}</stp>
+        <tr r="O4" s="21"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 16:15:41</v>
+        <stp/>
+        <stp>{01F8ABC0-DE6D-4440-B683-42FE6F72C92C}</stp>
+        <tr r="M4" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 16:15:39</v>
+        <stp/>
+        <stp>{962A4A0F-0F63-4C3F-81BA-26CCB4FE8618}</stp>
+        <tr r="F4" s="61"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 16:15:39</v>
+        <stp/>
+        <stp>{8484159F-0A41-409F-8256-A7E6405DEE8F}</stp>
+        <tr r="D3" s="43"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 16:16:06</v>
+        <stp/>
+        <stp>{A54E342C-7829-493C-BF2D-3AE4BF57407F}</stp>
+        <tr r="S4" s="23"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 16:15:39</v>
+        <stp/>
+        <stp>{E97D758E-A7B2-420C-9AE5-45761E193167}</stp>
+        <tr r="D3" s="40"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 16:15:39</v>
+        <stp/>
+        <stp>{22E6D4D4-CB9C-4B61-B699-B2D5B6F547C8}</stp>
         <tr r="D3" s="39"/>
       </tp>
       <tp t="s">
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:15:40</v>
         <stp/>
-        <stp>{5F7D9C5F-01C2-4DAA-A7FD-F70E9BEED05C}</stp>
-        <tr r="D3" s="40"/>
+        <stp>{1F3DC3A1-5E2F-49E0-B73C-0982463CBCD9}</stp>
+        <tr r="O4" s="22"/>
       </tp>
       <tp t="s">
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:15:39</v>
         <stp/>
-        <stp>{6FBC34B7-F83A-43AC-BA85-7890CFAAFFFD}</stp>
-        <tr r="S4" s="11"/>
+        <stp>{F5918493-5950-43BA-9487-9B3159536101}</stp>
+        <tr r="O3" s="15"/>
       </tp>
       <tp t="s">
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:15:40</v>
         <stp/>
-        <stp>{7A7327F3-D3F3-485C-87FD-CE6FC6C92ECF}</stp>
-        <tr r="J2" s="65"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:28:41</v>
-        <stp/>
-        <stp>{62A9986E-89D3-4CC8-B4CA-8539AF2EF11A}</stp>
+        <stp>{BF870455-7E48-4C64-9B4F-05F82939ACBE}</stp>
         <tr r="O6" s="5"/>
       </tp>
       <tp t="s">
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:15:39</v>
         <stp/>
-        <stp>{EB3664B3-FDB3-47BE-B3CF-BF2A44969ADD}</stp>
-        <tr r="M4" s="14"/>
+        <stp>{FB8CA1D0-5050-4A18-8630-B76BDE0442C1}</stp>
+        <tr r="D3" s="44"/>
       </tp>
       <tp t="s">
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:16:15</v>
         <stp/>
-        <stp>{551EE48A-5FF8-428F-828D-2CFA69BDE357}</stp>
-        <tr r="O3" s="15"/>
+        <stp>{36EAE910-9F05-4682-946B-1F65724D7C20}</stp>
+        <tr r="S4" s="24"/>
       </tp>
       <tp t="s">
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:16:23</v>
         <stp/>
-        <stp>{47C806F9-F816-42FC-B3D1-C0228D6C8F31}</stp>
-        <tr r="O4" s="22"/>
+        <stp>{6955CD43-71EF-40F0-9394-23659DD60860}</stp>
+        <tr r="S4" s="64"/>
       </tp>
       <tp t="s">
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:15:40</v>
         <stp/>
-        <stp>{B7AFCB83-CC75-405D-831C-60BC72705778}</stp>
+        <stp>{07B777CF-6A99-4604-970A-7B105FE0C654}</stp>
+        <tr r="J4" s="13"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 16:15:40</v>
+        <stp/>
+        <stp>{3F89628C-AF39-4BED-8A1A-40776D5AEBD8}</stp>
+        <tr r="K6" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 16:15:40</v>
+        <stp/>
+        <stp>{7120955D-D3BC-4F31-B4B6-4B59949BE5AE}</stp>
+        <tr r="O7" s="17"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 16:15:40</v>
+        <stp/>
+        <stp>{B20795A6-62C8-4BE0-8F6D-959E33F12C4F}</stp>
+        <tr r="S4" s="10"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 16:16:23</v>
+        <stp/>
+        <stp>{BA54BD9D-8304-490A-B34D-3B109E636117}</stp>
+        <tr r="O6" s="16"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 16:15:40</v>
+        <stp/>
+        <stp>{36E08835-F57B-400D-BF4B-B5FDF095C655}</stp>
+        <tr r="H4" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 16:15:40</v>
+        <stp/>
+        <stp>{2AEF70B2-C900-4631-8D17-BA6D7F2A2FF9}</stp>
         <tr r="F4" s="60"/>
       </tp>
       <tp t="s">
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:16:07</v>
         <stp/>
-        <stp>{470B1C09-5914-41A5-807D-28E70B656651}</stp>
-        <tr r="K6" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:28:41</v>
-        <stp/>
-        <stp>{78217BE1-42FE-4EE0-A3CE-B21F5F8B6213}</stp>
-        <tr r="F4" s="61"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:28:41</v>
-        <stp/>
-        <stp>{B21919BA-C1C8-4C54-AAD8-8EC085F75C90}</stp>
-        <tr r="S4" s="23"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:28:41</v>
-        <stp/>
-        <stp>{7C3C4D42-F8C8-489A-929A-14E2789CFBDD}</stp>
-        <tr r="S4" s="64"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:28:41</v>
-        <stp/>
-        <stp>{2CF4052F-B29B-412A-8875-A554BA69A966}</stp>
-        <tr r="H4" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:28:41</v>
-        <stp/>
-        <stp>{3AA8E261-F5D2-4B26-B398-A48A364E6A4D}</stp>
-        <tr r="O6" s="16"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:28:41</v>
-        <stp/>
-        <stp>{18531E66-7E67-4790-BF06-CEC43277B7FE}</stp>
-        <tr r="O7" s="17"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:28:41</v>
-        <stp/>
-        <stp>{5543F3D8-CFC9-4D27-910E-7A5D5D410310}</stp>
-        <tr r="S4" s="9"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:28:41</v>
-        <stp/>
-        <stp>{E12570F4-B9E2-4995-8223-9715856A6D95}</stp>
-        <tr r="J4" s="13"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:28:41</v>
-        <stp/>
-        <stp>{F516B3C4-9B61-47EC-B8EB-B9FC2F7950C9}</stp>
-        <tr r="S4" s="24"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:28:41</v>
-        <stp/>
-        <stp>{FD753204-F429-4A23-A743-ACAE9D7DDD61}</stp>
-        <tr r="O4" s="21"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:28:41</v>
-        <stp/>
-        <stp>{4B153B9B-6D2E-4199-BBB0-088BC4B395F6}</stp>
+        <stp>{50D6C41F-0719-4A3A-9BF7-45855E3B497C}</stp>
         <tr r="O4" s="20"/>
       </tp>
       <tp t="s">
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:15:40</v>
         <stp/>
-        <stp>{BE526D4C-B379-4EC5-963B-FF44963A9C99}</stp>
-        <tr r="S4" s="10"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:28:41</v>
-        <stp/>
-        <stp>{D51E0087-6E69-451A-A521-569279096D84}</stp>
-        <tr r="D3" s="43"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:28:41</v>
-        <stp/>
-        <stp>{EAFAFD2E-C10A-4140-A6A8-DEED510854C7}</stp>
-        <tr r="D3" s="44"/>
+        <stp>{CDFDCB71-BF73-4781-8E75-6B99C11CDDC5}</stp>
+        <tr r="J2" s="65"/>
       </tp>
     </main>
   </volType>
@@ -4071,7 +4084,7 @@
         <v>89</v>
       </c>
       <c r="I4" s="11">
-        <v>41914.512152777781</v>
+        <v>41914.662280092591</v>
       </c>
       <c r="J4" s="10"/>
     </row>
@@ -4100,7 +4113,7 @@
       </c>
       <c r="D6" s="447">
         <f>_xll.ohTrigger(Deposits!P3,FRA!W3,Futures3M!Z5,FuturesHWConvAdj!Q3,Swaps1M!Y3,Swap3MAnnual!AC3,SwapsIMMDated!Y3,Swap6M!AC3,BasisSwap1MxM!AC3,BasisSwap3M6M!AC3,OIS!Y3)</f>
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="E6" s="437"/>
       <c r="G6" s="12"/>
@@ -4438,7 +4451,8 @@
     <col min="24" max="24" width="2.7109375" style="18" customWidth="1"/>
     <col min="25" max="26" width="9.140625" style="18"/>
     <col min="27" max="28" width="2.7109375" style="18" customWidth="1"/>
-    <col min="29" max="30" width="9.140625" style="18"/>
+    <col min="29" max="29" width="14.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" style="18"/>
     <col min="31" max="31" width="2.7109375" style="18" customWidth="1"/>
     <col min="32" max="32" width="9.140625" style="18"/>
     <col min="33" max="34" width="2.7109375" style="18" customWidth="1"/>
@@ -4592,7 +4606,7 @@
       <c r="Y5" s="165"/>
       <c r="Z5" s="361">
         <f>_xll.ohTrigger(Z7:Z48)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AA5" s="360"/>
       <c r="AF5" s="318"/>
@@ -4644,7 +4658,7 @@
       </c>
       <c r="O6" s="367" t="str">
         <f>_xll.RData(O7:O48,P6:T6,"RTFEED:IDN",ReutersRtMode,,P7)</f>
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:16:23</v>
       </c>
       <c r="P6" s="364" t="s">
         <v>258</v>
@@ -4725,7 +4739,7 @@
       </c>
       <c r="F7" s="98" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MV4_Quote#0000</v>
+        <v>GBPFUT3MV4_Quote#0003</v>
       </c>
       <c r="G7" s="97" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -4808,7 +4822,7 @@
       </c>
       <c r="AM7" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL7,IborIndex,AK7,F7,Volatility,MeanReversion,Permanent,OR(ISERROR(Z7),ISERROR(FuturesHWConvAdj!Q5:Q6)),ObjectOverwrite)</f>
-        <v>GBPFUT3MV4ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MV4ConvAdj_Quote#0024</v>
       </c>
       <c r="AN7" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM7)</f>
@@ -4833,7 +4847,7 @@
       </c>
       <c r="F8" s="91" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MX4_Quote#0000</v>
+        <v>GBPFUT3MX4_Quote#0003</v>
       </c>
       <c r="G8" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -4911,7 +4925,7 @@
       </c>
       <c r="AM8" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL8,IborIndex,AK8,F8,Volatility,MeanReversion,Permanent,OR(ISERROR(Z8),ISERROR(FuturesHWConvAdj!Q6:Q7)),ObjectOverwrite)</f>
-        <v>GBPFUT3MX4ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MX4ConvAdj_Quote#0024</v>
       </c>
       <c r="AN8" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM8)</f>
@@ -4936,7 +4950,7 @@
       </c>
       <c r="F9" s="91" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MZ4_Quote#0000</v>
+        <v>GBPFUT3MZ4_Quote#0003</v>
       </c>
       <c r="G9" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -4969,7 +4983,7 @@
         <v>99.36</v>
       </c>
       <c r="S9" s="332">
-        <v>99.36</v>
+        <v>99.35</v>
       </c>
       <c r="T9" s="332">
         <v>99.35</v>
@@ -5014,7 +5028,7 @@
       </c>
       <c r="AM9" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL9,IborIndex,AK9,F9,Volatility,MeanReversion,Permanent,OR(ISERROR(Z9),ISERROR(FuturesHWConvAdj!Q7:Q8)),ObjectOverwrite)</f>
-        <v>GBPFUT3MZ4ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MZ4ConvAdj_Quote#0024</v>
       </c>
       <c r="AN9" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM9)</f>
@@ -5039,7 +5053,7 @@
       </c>
       <c r="F10" s="91" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MF5_Quote#0000</v>
+        <v>GBPFUT3MF5_Quote#0003</v>
       </c>
       <c r="G10" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -5115,7 +5129,7 @@
       </c>
       <c r="AM10" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL10,IborIndex,AK10,F10,Volatility,MeanReversion,Permanent,OR(ISERROR(Z10),ISERROR(FuturesHWConvAdj!Q8:Q9)),ObjectOverwrite)</f>
-        <v>GBPFUT3MF5ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MF5ConvAdj_Quote#0024</v>
       </c>
       <c r="AN10" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM10)</f>
@@ -5140,7 +5154,7 @@
       </c>
       <c r="F11" s="91" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MG5_Quote#0000</v>
+        <v>GBPFUT3MG5_Quote#0003</v>
       </c>
       <c r="G11" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -5218,7 +5232,7 @@
       </c>
       <c r="AM11" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL11,IborIndex,AK11,F11,Volatility,MeanReversion,Permanent,OR(ISERROR(Z11),ISERROR(FuturesHWConvAdj!Q9:Q10)),ObjectOverwrite)</f>
-        <v>GBPFUT3MG5ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MG5ConvAdj_Quote#0024</v>
       </c>
       <c r="AN11" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM11)</f>
@@ -5243,7 +5257,7 @@
       </c>
       <c r="F12" s="91" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MH5_Quote#0000</v>
+        <v>GBPFUT3MH5_Quote#0003</v>
       </c>
       <c r="G12" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -5270,20 +5284,20 @@
         <v>42081</v>
       </c>
       <c r="Q12" s="332">
+        <v>99.2</v>
+      </c>
+      <c r="R12" s="332">
         <v>99.21</v>
       </c>
-      <c r="R12" s="332">
-        <v>99.22</v>
-      </c>
       <c r="S12" s="332">
-        <v>99.21</v>
+        <v>99.2</v>
       </c>
       <c r="T12" s="332">
         <v>99.19</v>
       </c>
       <c r="U12" s="331">
         <f>_xll.qlMidSafe($Q12,$R12)</f>
-        <v>99.215000000000003</v>
+        <v>99.204999999999998</v>
       </c>
       <c r="V12" s="325"/>
       <c r="W12" s="334">
@@ -5291,7 +5305,7 @@
       </c>
       <c r="X12" s="325"/>
       <c r="Y12" s="333">
-        <v>99.215000000000003</v>
+        <v>99.204999999999998</v>
       </c>
       <c r="Z12" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F12,Y12,Trigger)</f>
@@ -5315,7 +5329,7 @@
       </c>
       <c r="AM12" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL12,IborIndex,AK12,F12,Volatility,MeanReversion,Permanent,OR(ISERROR(Z12),ISERROR(FuturesHWConvAdj!Q10:Q11)),ObjectOverwrite)</f>
-        <v>GBPFUT3MH5ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MH5ConvAdj_Quote#0024</v>
       </c>
       <c r="AN12" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM12)</f>
@@ -5340,7 +5354,7 @@
       </c>
       <c r="F13" s="91" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MJ5_Quote#0000</v>
+        <v>GBPFUT3MJ5_Quote#0003</v>
       </c>
       <c r="G13" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -5412,7 +5426,7 @@
       </c>
       <c r="AM13" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL13,IborIndex,AK13,F13,Volatility,MeanReversion,Permanent,OR(ISERROR(Z13),ISERROR(FuturesHWConvAdj!Q11:Q12)),ObjectOverwrite)</f>
-        <v>GBPFUT3MJ5ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MJ5ConvAdj_Quote#0024</v>
       </c>
       <c r="AN13" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM13)</f>
@@ -5437,7 +5451,7 @@
       </c>
       <c r="F14" s="91" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MK5_Quote#0000</v>
+        <v>GBPFUT3MK5_Quote#0003</v>
       </c>
       <c r="G14" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -5492,6 +5506,9 @@
         <v>#NUM!</v>
       </c>
       <c r="AA14" s="90"/>
+      <c r="AC14" s="685" t="s">
+        <v>322</v>
+      </c>
       <c r="AF14" s="321"/>
       <c r="AH14" s="483"/>
       <c r="AI14" s="488">
@@ -5509,7 +5526,7 @@
       </c>
       <c r="AM14" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL14,IborIndex,AK14,F14,Volatility,MeanReversion,Permanent,OR(ISERROR(Z14),ISERROR(FuturesHWConvAdj!Q12:Q13)),ObjectOverwrite)</f>
-        <v>GBPFUT3MK5ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MK5ConvAdj_Quote#0024</v>
       </c>
       <c r="AN14" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM14)</f>
@@ -5534,7 +5551,7 @@
       </c>
       <c r="F15" s="91" t="str">
         <f>_xll.qlSimpleQuote(E15,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MM5_Quote#0000</v>
+        <v>GBPFUT3MM5_Quote#0003</v>
       </c>
       <c r="G15" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -5561,20 +5578,20 @@
         <v>42172</v>
       </c>
       <c r="Q15" s="332">
+        <v>99.02</v>
+      </c>
+      <c r="R15" s="332">
         <v>99.03</v>
       </c>
-      <c r="R15" s="332">
-        <v>99.04</v>
-      </c>
       <c r="S15" s="332">
-        <v>99.04</v>
+        <v>99.03</v>
       </c>
       <c r="T15" s="332">
         <v>99.01</v>
       </c>
       <c r="U15" s="331">
         <f>_xll.qlMidSafe($Q15,$R15)</f>
-        <v>99.034999999999997</v>
+        <v>99.025000000000006</v>
       </c>
       <c r="V15" s="325"/>
       <c r="W15" s="334">
@@ -5582,13 +5599,16 @@
       </c>
       <c r="X15" s="325"/>
       <c r="Y15" s="333">
-        <v>99.034999999999997</v>
-      </c>
-      <c r="Z15" s="331">
-        <f>_xll.qlSimpleQuoteSetValue(F15,Y15,Trigger)</f>
+        <v>99.025000000000006</v>
+      </c>
+      <c r="Z15" s="684">
+        <f>_xll.qlSimpleQuoteSetValue(F15,Y15+AC15,Trigger)</f>
         <v>0</v>
       </c>
       <c r="AA15" s="90"/>
+      <c r="AC15" s="18">
+        <v>4.1999999999999997E-3</v>
+      </c>
       <c r="AF15" s="321"/>
       <c r="AH15" s="483"/>
       <c r="AI15" s="488">
@@ -5606,7 +5626,7 @@
       </c>
       <c r="AM15" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL15,IborIndex,AK15,F15,Volatility,MeanReversion,Permanent,OR(ISERROR(Z15),ISERROR(FuturesHWConvAdj!Q13:Q14)),ObjectOverwrite)</f>
-        <v>GBPFUT3MM5ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MM5ConvAdj_Quote#0025</v>
       </c>
       <c r="AN15" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM15)</f>
@@ -5631,7 +5651,7 @@
       </c>
       <c r="F16" s="91" t="str">
         <f>_xll.qlSimpleQuote(E16,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MN5_Quote#0000</v>
+        <v>GBPFUT3MN5_Quote#0003</v>
       </c>
       <c r="G16" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -5703,7 +5723,7 @@
       </c>
       <c r="AM16" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL16,IborIndex,AK16,F16,Volatility,MeanReversion,Permanent,OR(ISERROR(Z16),ISERROR(FuturesHWConvAdj!Q14:Q15)),ObjectOverwrite)</f>
-        <v>GBPFUT3MN5ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MN5ConvAdj_Quote#0024</v>
       </c>
       <c r="AN16" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM16)</f>
@@ -5728,7 +5748,7 @@
       </c>
       <c r="F17" s="91" t="str">
         <f>_xll.qlSimpleQuote(E17,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MQ5_Quote#0000</v>
+        <v>GBPFUT3MQ5_Quote#0003</v>
       </c>
       <c r="G17" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -5800,7 +5820,7 @@
       </c>
       <c r="AM17" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL17,IborIndex,AK17,F17,Volatility,MeanReversion,Permanent,OR(ISERROR(Z17),ISERROR(FuturesHWConvAdj!Q15:Q16)),ObjectOverwrite)</f>
-        <v>GBPFUT3MQ5ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MQ5ConvAdj_Quote#0024</v>
       </c>
       <c r="AN17" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM17)</f>
@@ -5825,7 +5845,7 @@
       </c>
       <c r="F18" s="91" t="str">
         <f>_xll.qlSimpleQuote(E18,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MU5_Quote#0000</v>
+        <v>GBPFUT3MU5_Quote#0003</v>
       </c>
       <c r="G18" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -5852,20 +5872,20 @@
         <v>42263</v>
       </c>
       <c r="Q18" s="332">
+        <v>98.84</v>
+      </c>
+      <c r="R18" s="332">
         <v>98.85</v>
       </c>
-      <c r="R18" s="332">
-        <v>98.86</v>
-      </c>
       <c r="S18" s="332">
-        <v>98.86</v>
+        <v>98.84</v>
       </c>
       <c r="T18" s="332">
         <v>98.82</v>
       </c>
       <c r="U18" s="331">
         <f>_xll.qlMidSafe($Q18,$R18)</f>
-        <v>98.85499999999999</v>
+        <v>98.844999999999999</v>
       </c>
       <c r="V18" s="325"/>
       <c r="W18" s="334">
@@ -5873,13 +5893,16 @@
       </c>
       <c r="X18" s="325"/>
       <c r="Y18" s="333">
-        <v>98.85499999999999</v>
-      </c>
-      <c r="Z18" s="331">
-        <f>_xll.qlSimpleQuoteSetValue(F18,Y18,Trigger)</f>
+        <v>98.844999999999999</v>
+      </c>
+      <c r="Z18" s="684">
+        <f>_xll.qlSimpleQuoteSetValue(F18,Y18+AC18,Trigger)</f>
         <v>0</v>
       </c>
       <c r="AA18" s="90"/>
+      <c r="AC18" s="18">
+        <v>6.7000000000000002E-3</v>
+      </c>
       <c r="AF18" s="321"/>
       <c r="AH18" s="483"/>
       <c r="AI18" s="488">
@@ -5897,7 +5920,7 @@
       </c>
       <c r="AM18" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL18,IborIndex,AK18,F18,Volatility,MeanReversion,Permanent,OR(ISERROR(Z18),ISERROR(FuturesHWConvAdj!Q16:Q17)),ObjectOverwrite)</f>
-        <v>GBPFUT3MU5ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MU5ConvAdj_Quote#0025</v>
       </c>
       <c r="AN18" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM18)</f>
@@ -5922,7 +5945,7 @@
       </c>
       <c r="F19" s="91" t="str">
         <f>_xll.qlSimpleQuote(E19,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MZ5_Quote#0000</v>
+        <v>GBPFUT3MZ5_Quote#0003</v>
       </c>
       <c r="G19" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -5949,20 +5972,20 @@
         <v>42354</v>
       </c>
       <c r="Q19" s="332">
+        <v>98.65</v>
+      </c>
+      <c r="R19" s="332">
         <v>98.66</v>
       </c>
-      <c r="R19" s="332">
-        <v>98.67</v>
-      </c>
       <c r="S19" s="332">
-        <v>98.66</v>
+        <v>98.65</v>
       </c>
       <c r="T19" s="332">
         <v>98.62</v>
       </c>
       <c r="U19" s="331">
         <f>_xll.qlMidSafe($Q19,$R19)</f>
-        <v>98.664999999999992</v>
+        <v>98.655000000000001</v>
       </c>
       <c r="V19" s="325"/>
       <c r="W19" s="334">
@@ -5970,13 +5993,16 @@
       </c>
       <c r="X19" s="325"/>
       <c r="Y19" s="333">
-        <v>98.664999999999992</v>
-      </c>
-      <c r="Z19" s="331">
-        <f>_xll.qlSimpleQuoteSetValue(F19,Y19,Trigger)</f>
+        <v>98.655000000000001</v>
+      </c>
+      <c r="Z19" s="684">
+        <f>_xll.qlSimpleQuoteSetValue(F19,Y19+AC19,Trigger)</f>
         <v>0</v>
       </c>
       <c r="AA19" s="90"/>
+      <c r="AC19" s="18">
+        <v>9.7999999999999997E-3</v>
+      </c>
       <c r="AF19" s="321"/>
       <c r="AH19" s="483"/>
       <c r="AI19" s="488">
@@ -5994,7 +6020,7 @@
       </c>
       <c r="AM19" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL19,IborIndex,AK19,F19,Volatility,MeanReversion,Permanent,OR(ISERROR(Z19),ISERROR(FuturesHWConvAdj!Q17:Q18)),ObjectOverwrite)</f>
-        <v>GBPFUT3MZ5ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MZ5ConvAdj_Quote#0025</v>
       </c>
       <c r="AN19" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM19)</f>
@@ -6019,7 +6045,7 @@
       </c>
       <c r="F20" s="91" t="str">
         <f>_xll.qlSimpleQuote(E20,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MH6_Quote#0000</v>
+        <v>GBPFUT3MH6_Quote#0003</v>
       </c>
       <c r="G20" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -6046,20 +6072,20 @@
         <v>42445</v>
       </c>
       <c r="Q20" s="332">
+        <v>98.47</v>
+      </c>
+      <c r="R20" s="332">
         <v>98.48</v>
       </c>
-      <c r="R20" s="332">
-        <v>98.49</v>
-      </c>
       <c r="S20" s="332">
-        <v>98.48</v>
+        <v>98.47</v>
       </c>
       <c r="T20" s="332">
         <v>98.44</v>
       </c>
       <c r="U20" s="331">
         <f>_xll.qlMidSafe($Q20,$R20)</f>
-        <v>98.484999999999999</v>
+        <v>98.474999999999994</v>
       </c>
       <c r="V20" s="325"/>
       <c r="W20" s="334">
@@ -6067,13 +6093,16 @@
       </c>
       <c r="X20" s="325"/>
       <c r="Y20" s="333">
-        <v>98.484999999999999</v>
-      </c>
-      <c r="Z20" s="331">
-        <f>_xll.qlSimpleQuoteSetValue(F20,Y20,Trigger)</f>
+        <v>98.474999999999994</v>
+      </c>
+      <c r="Z20" s="684">
+        <f>_xll.qlSimpleQuoteSetValue(F20,Y20+AC20,Trigger)</f>
         <v>0</v>
       </c>
       <c r="AA20" s="90"/>
+      <c r="AC20" s="18">
+        <v>1.34E-2</v>
+      </c>
       <c r="AF20" s="321"/>
       <c r="AH20" s="483"/>
       <c r="AI20" s="488">
@@ -6091,7 +6120,7 @@
       </c>
       <c r="AM20" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL20,IborIndex,AK20,F20,Volatility,MeanReversion,Permanent,OR(ISERROR(Z20),ISERROR(FuturesHWConvAdj!Q18:Q19)),ObjectOverwrite)</f>
-        <v>GBPFUT3MH6ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MH6ConvAdj_Quote#0025</v>
       </c>
       <c r="AN20" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM20)</f>
@@ -6116,7 +6145,7 @@
       </c>
       <c r="F21" s="91" t="str">
         <f>_xll.qlSimpleQuote(E21,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MM6_Quote#0000</v>
+        <v>GBPFUT3MM6_Quote#0003</v>
       </c>
       <c r="G21" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -6149,7 +6178,7 @@
         <v>98.32</v>
       </c>
       <c r="S21" s="332">
-        <v>98.32</v>
+        <v>98.31</v>
       </c>
       <c r="T21" s="332">
         <v>98.27</v>
@@ -6166,11 +6195,14 @@
       <c r="Y21" s="333">
         <v>98.314999999999998</v>
       </c>
-      <c r="Z21" s="331">
-        <f>_xll.qlSimpleQuoteSetValue(F21,Y21,Trigger)</f>
+      <c r="Z21" s="684">
+        <f>_xll.qlSimpleQuoteSetValue(F21,Y21+AC21,Trigger)</f>
         <v>0</v>
       </c>
       <c r="AA21" s="90"/>
+      <c r="AC21" s="18">
+        <v>1.7600000000000001E-2</v>
+      </c>
       <c r="AF21" s="321"/>
       <c r="AH21" s="483"/>
       <c r="AI21" s="488">
@@ -6188,7 +6220,7 @@
       </c>
       <c r="AM21" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL21,IborIndex,AK21,F21,Volatility,MeanReversion,Permanent,OR(ISERROR(Z21),ISERROR(FuturesHWConvAdj!Q19:Q20)),ObjectOverwrite)</f>
-        <v>GBPFUT3MM6ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MM6ConvAdj_Quote#0025</v>
       </c>
       <c r="AN21" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM21)</f>
@@ -6213,7 +6245,7 @@
       </c>
       <c r="F22" s="91" t="str">
         <f>_xll.qlSimpleQuote(E22,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MU6_Quote#0000</v>
+        <v>GBPFUT3MU6_Quote#0003</v>
       </c>
       <c r="G22" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -6243,17 +6275,17 @@
         <v>98.14</v>
       </c>
       <c r="R22" s="332">
-        <v>98.16</v>
+        <v>98.15</v>
       </c>
       <c r="S22" s="332">
-        <v>98.15</v>
+        <v>98.14</v>
       </c>
       <c r="T22" s="332">
         <v>98.11</v>
       </c>
       <c r="U22" s="331">
         <f>_xll.qlMidSafe($Q22,$R22)</f>
-        <v>98.15</v>
+        <v>98.14500000000001</v>
       </c>
       <c r="V22" s="325"/>
       <c r="W22" s="334">
@@ -6261,13 +6293,16 @@
       </c>
       <c r="X22" s="325"/>
       <c r="Y22" s="333">
-        <v>98.15</v>
-      </c>
-      <c r="Z22" s="331">
-        <f>_xll.qlSimpleQuoteSetValue(F22,Y22,Trigger)</f>
+        <v>98.14500000000001</v>
+      </c>
+      <c r="Z22" s="684">
+        <f>_xll.qlSimpleQuoteSetValue(F22,Y22+AC22,Trigger)</f>
         <v>-4.9999999999954525E-3</v>
       </c>
       <c r="AA22" s="90"/>
+      <c r="AC22" s="18">
+        <v>2.2499999999999999E-2</v>
+      </c>
       <c r="AF22" s="321"/>
       <c r="AH22" s="483"/>
       <c r="AI22" s="488">
@@ -6285,7 +6320,7 @@
       </c>
       <c r="AM22" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL22,IborIndex,AK22,F22,Volatility,MeanReversion,Permanent,OR(ISERROR(Z22),ISERROR(FuturesHWConvAdj!Q20:Q21)),ObjectOverwrite)</f>
-        <v>GBPFUT3MU6ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MU6ConvAdj_Quote#0025</v>
       </c>
       <c r="AN22" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM22)</f>
@@ -6310,7 +6345,7 @@
       </c>
       <c r="F23" s="91" t="str">
         <f>_xll.qlSimpleQuote(E23,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MZ6_Quote#0000</v>
+        <v>GBPFUT3MZ6_Quote#0003</v>
       </c>
       <c r="G23" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -6382,7 +6417,7 @@
       </c>
       <c r="AM23" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL23,IborIndex,AK23,F23,Volatility,MeanReversion,Permanent,OR(ISERROR(Z23),ISERROR(FuturesHWConvAdj!Q21:Q22)),ObjectOverwrite)</f>
-        <v>GBPFUT3MZ6ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MZ6ConvAdj_Quote#0024</v>
       </c>
       <c r="AN23" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM23)</f>
@@ -6407,7 +6442,7 @@
       </c>
       <c r="F24" s="91" t="str">
         <f>_xll.qlSimpleQuote(E24,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MH7_Quote#0000</v>
+        <v>GBPFUT3MH7_Quote#0003</v>
       </c>
       <c r="G24" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -6479,7 +6514,7 @@
       </c>
       <c r="AM24" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL24,IborIndex,AK24,F24,Volatility,MeanReversion,Permanent,OR(ISERROR(Z24),ISERROR(FuturesHWConvAdj!Q22:Q23)),ObjectOverwrite)</f>
-        <v>GBPFUT3MH7ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MH7ConvAdj_Quote#0024</v>
       </c>
       <c r="AN24" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM24)</f>
@@ -6504,7 +6539,7 @@
       </c>
       <c r="F25" s="91" t="str">
         <f>_xll.qlSimpleQuote(E25,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MM7_Quote#0000</v>
+        <v>GBPFUT3MM7_Quote#0003</v>
       </c>
       <c r="G25" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -6576,7 +6611,7 @@
       </c>
       <c r="AM25" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL25,IborIndex,AK25,F25,Volatility,MeanReversion,Permanent,OR(ISERROR(Z25),ISERROR(FuturesHWConvAdj!Q23:Q24)),ObjectOverwrite)</f>
-        <v>GBPFUT3MM7ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MM7ConvAdj_Quote#0024</v>
       </c>
       <c r="AN25" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM25)</f>
@@ -6601,7 +6636,7 @@
       </c>
       <c r="F26" s="91" t="str">
         <f>_xll.qlSimpleQuote(E26,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MU7_Quote#0000</v>
+        <v>GBPFUT3MU7_Quote#0003</v>
       </c>
       <c r="G26" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -6628,7 +6663,7 @@
         <v>42998</v>
       </c>
       <c r="Q26" s="332">
-        <v>97.69</v>
+        <v>97.7</v>
       </c>
       <c r="R26" s="332">
         <v>97.71</v>
@@ -6641,7 +6676,7 @@
       </c>
       <c r="U26" s="331">
         <f>_xll.qlMidSafe($Q26,$R26)</f>
-        <v>97.699999999999989</v>
+        <v>97.704999999999998</v>
       </c>
       <c r="V26" s="325"/>
       <c r="W26" s="334">
@@ -6649,11 +6684,11 @@
       </c>
       <c r="X26" s="325"/>
       <c r="Y26" s="333">
-        <v>97.699999999999989</v>
+        <v>97.704999999999998</v>
       </c>
       <c r="Z26" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F26,Y26,Trigger)</f>
-        <v>-5.0000000000096634E-3</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="90"/>
       <c r="AF26" s="321"/>
@@ -6673,7 +6708,7 @@
       </c>
       <c r="AM26" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL26,IborIndex,AK26,F26,Volatility,MeanReversion,Permanent,OR(ISERROR(Z26),ISERROR(FuturesHWConvAdj!Q24:Q25)),ObjectOverwrite)</f>
-        <v>GBPFUT3MU7ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MU7ConvAdj_Quote#0024</v>
       </c>
       <c r="AN26" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM26)</f>
@@ -6698,7 +6733,7 @@
       </c>
       <c r="F27" s="91" t="str">
         <f>_xll.qlSimpleQuote(E27,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MZ7_Quote#0000</v>
+        <v>GBPFUT3MZ7_Quote#0003</v>
       </c>
       <c r="G27" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -6725,20 +6760,20 @@
         <v>43089</v>
       </c>
       <c r="Q27" s="332">
-        <v>97.61</v>
+        <v>97.62</v>
       </c>
       <c r="R27" s="332">
         <v>97.63</v>
       </c>
       <c r="S27" s="332">
-        <v>97.62</v>
+        <v>97.63</v>
       </c>
       <c r="T27" s="332">
         <v>97.6</v>
       </c>
       <c r="U27" s="331">
         <f>_xll.qlMidSafe($Q27,$R27)</f>
-        <v>97.62</v>
+        <v>97.625</v>
       </c>
       <c r="V27" s="325"/>
       <c r="W27" s="334">
@@ -6746,7 +6781,7 @@
       </c>
       <c r="X27" s="325"/>
       <c r="Y27" s="333">
-        <v>97.62</v>
+        <v>97.625</v>
       </c>
       <c r="Z27" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F27,Y27,Trigger)</f>
@@ -6770,7 +6805,7 @@
       </c>
       <c r="AM27" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL27,IborIndex,AK27,F27,Volatility,MeanReversion,Permanent,OR(ISERROR(Z27),ISERROR(FuturesHWConvAdj!Q25:Q26)),ObjectOverwrite)</f>
-        <v>GBPFUT3MZ7ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MZ7ConvAdj_Quote#0024</v>
       </c>
       <c r="AN27" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM27)</f>
@@ -6795,7 +6830,7 @@
       </c>
       <c r="F28" s="91" t="str">
         <f>_xll.qlSimpleQuote(E28,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MH8_Quote#0000</v>
+        <v>GBPFUT3MH8_Quote#0003</v>
       </c>
       <c r="G28" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -6825,17 +6860,17 @@
         <v>97.55</v>
       </c>
       <c r="R28" s="332">
-        <v>97.57</v>
+        <v>97.56</v>
       </c>
       <c r="S28" s="332">
-        <v>97.56</v>
+        <v>97.55</v>
       </c>
       <c r="T28" s="332">
         <v>97.54</v>
       </c>
       <c r="U28" s="331">
         <f>_xll.qlMidSafe($Q28,$R28)</f>
-        <v>97.56</v>
+        <v>97.555000000000007</v>
       </c>
       <c r="V28" s="325"/>
       <c r="W28" s="334">
@@ -6843,7 +6878,7 @@
       </c>
       <c r="X28" s="325"/>
       <c r="Y28" s="333">
-        <v>97.56</v>
+        <v>97.555000000000007</v>
       </c>
       <c r="Z28" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F28,Y28,Trigger)</f>
@@ -6867,7 +6902,7 @@
       </c>
       <c r="AM28" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL28,IborIndex,AK28,F28,Volatility,MeanReversion,Permanent,OR(ISERROR(Z28),ISERROR(FuturesHWConvAdj!Q26:Q27)),ObjectOverwrite)</f>
-        <v>GBPFUT3MH8ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MH8ConvAdj_Quote#0024</v>
       </c>
       <c r="AN28" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM28)</f>
@@ -6892,7 +6927,7 @@
       </c>
       <c r="F29" s="91" t="str">
         <f>_xll.qlSimpleQuote(E29,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MM8_Quote#0000</v>
+        <v>GBPFUT3MM8_Quote#0003</v>
       </c>
       <c r="G29" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -6919,13 +6954,13 @@
         <v>43271</v>
       </c>
       <c r="Q29" s="332">
-        <v>97.48</v>
+        <v>97.49</v>
       </c>
       <c r="R29" s="332">
-        <v>97.51</v>
+        <v>97.5</v>
       </c>
       <c r="S29" s="332">
-        <v>97.51</v>
+        <v>97.49</v>
       </c>
       <c r="T29" s="332">
         <v>97.48</v>
@@ -6964,7 +6999,7 @@
       </c>
       <c r="AM29" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL29,IborIndex,AK29,F29,Volatility,MeanReversion,Permanent,OR(ISERROR(Z29),ISERROR(FuturesHWConvAdj!Q27:Q28)),ObjectOverwrite)</f>
-        <v>GBPFUT3MM8ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MM8ConvAdj_Quote#0024</v>
       </c>
       <c r="AN29" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM29)</f>
@@ -6989,7 +7024,7 @@
       </c>
       <c r="F30" s="91" t="str">
         <f>_xll.qlSimpleQuote(E30,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MU8_Quote#0000</v>
+        <v>GBPFUT3MU8_Quote#0003</v>
       </c>
       <c r="G30" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -7019,17 +7054,17 @@
         <v>97.42</v>
       </c>
       <c r="R30" s="332">
-        <v>97.45</v>
+        <v>97.44</v>
       </c>
       <c r="S30" s="332">
-        <v>97.45</v>
+        <v>97.43</v>
       </c>
       <c r="T30" s="332">
         <v>97.42</v>
       </c>
       <c r="U30" s="331">
         <f>_xll.qlMidSafe($Q30,$R30)</f>
-        <v>97.435000000000002</v>
+        <v>97.43</v>
       </c>
       <c r="V30" s="325"/>
       <c r="W30" s="334">
@@ -7037,7 +7072,7 @@
       </c>
       <c r="X30" s="325"/>
       <c r="Y30" s="333">
-        <v>97.435000000000002</v>
+        <v>97.43</v>
       </c>
       <c r="Z30" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F30,Y30,Trigger)</f>
@@ -7061,7 +7096,7 @@
       </c>
       <c r="AM30" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL30,IborIndex,AK30,F30,Volatility,MeanReversion,Permanent,OR(ISERROR(Z30),ISERROR(FuturesHWConvAdj!Q28:Q29)),ObjectOverwrite)</f>
-        <v>GBPFUT3MU8ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MU8ConvAdj_Quote#0024</v>
       </c>
       <c r="AN30" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM30)</f>
@@ -7086,7 +7121,7 @@
       </c>
       <c r="F31" s="91" t="str">
         <f>_xll.qlSimpleQuote(E31,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MZ8_Quote#0000</v>
+        <v>GBPFUT3MZ8_Quote#0003</v>
       </c>
       <c r="G31" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -7158,7 +7193,7 @@
       </c>
       <c r="AM31" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL31,IborIndex,AK31,F31,Volatility,MeanReversion,Permanent,OR(ISERROR(Z31),ISERROR(FuturesHWConvAdj!Q29:Q30)),ObjectOverwrite)</f>
-        <v>GBPFUT3MZ8ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MZ8ConvAdj_Quote#0024</v>
       </c>
       <c r="AN31" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM31)</f>
@@ -7183,7 +7218,7 @@
       </c>
       <c r="F32" s="91" t="str">
         <f>_xll.qlSimpleQuote(E32,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MH9_Quote#0000</v>
+        <v>GBPFUT3MH9_Quote#0003</v>
       </c>
       <c r="G32" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -7213,7 +7248,7 @@
         <v>97.31</v>
       </c>
       <c r="R32" s="332">
-        <v>97.36</v>
+        <v>97.35</v>
       </c>
       <c r="S32" s="332">
         <v>0</v>
@@ -7223,7 +7258,7 @@
       </c>
       <c r="U32" s="331">
         <f>_xll.qlMidSafe($Q32,$R32)</f>
-        <v>97.335000000000008</v>
+        <v>97.33</v>
       </c>
       <c r="V32" s="325"/>
       <c r="W32" s="334">
@@ -7231,7 +7266,7 @@
       </c>
       <c r="X32" s="325"/>
       <c r="Y32" s="333">
-        <v>97.335000000000008</v>
+        <v>97.33</v>
       </c>
       <c r="Z32" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F32,Y32,Trigger)</f>
@@ -7255,7 +7290,7 @@
       </c>
       <c r="AM32" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL32,IborIndex,AK32,F32,Volatility,MeanReversion,Permanent,OR(ISERROR(Z32),ISERROR(FuturesHWConvAdj!Q30:Q31)),ObjectOverwrite)</f>
-        <v>GBPFUT3MH9ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MH9ConvAdj_Quote#0024</v>
       </c>
       <c r="AN32" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM32)</f>
@@ -7280,7 +7315,7 @@
       </c>
       <c r="F33" s="91" t="str">
         <f>_xll.qlSimpleQuote(E33,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MM9_Quote#0000</v>
+        <v>GBPFUT3MM9_Quote#0003</v>
       </c>
       <c r="G33" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -7352,7 +7387,7 @@
       </c>
       <c r="AM33" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL33,IborIndex,AK33,F33,Volatility,MeanReversion,Permanent,OR(ISERROR(Z33),ISERROR(FuturesHWConvAdj!Q31:Q32)),ObjectOverwrite)</f>
-        <v>GBPFUT3MM9ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MM9ConvAdj_Quote#0024</v>
       </c>
       <c r="AN33" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM33)</f>
@@ -7377,7 +7412,7 @@
       </c>
       <c r="F34" s="91" t="str">
         <f>_xll.qlSimpleQuote(E34,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MU9_Quote#0000</v>
+        <v>GBPFUT3MU9_Quote#0003</v>
       </c>
       <c r="G34" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -7449,7 +7484,7 @@
       </c>
       <c r="AM34" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL34,IborIndex,AK34,F34,Volatility,MeanReversion,Permanent,OR(ISERROR(Z34),ISERROR(FuturesHWConvAdj!Q32:Q33)),ObjectOverwrite)</f>
-        <v>GBPFUT3MU9ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MU9ConvAdj_Quote#0024</v>
       </c>
       <c r="AN34" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM34)</f>
@@ -7474,7 +7509,7 @@
       </c>
       <c r="F35" s="91" t="str">
         <f>_xll.qlSimpleQuote(E35,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MZ9_Quote#0000</v>
+        <v>GBPFUT3MZ9_Quote#0003</v>
       </c>
       <c r="G35" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -7546,7 +7581,7 @@
       </c>
       <c r="AM35" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL35,IborIndex,AK35,F35,Volatility,MeanReversion,Permanent,OR(ISERROR(Z35),ISERROR(FuturesHWConvAdj!Q33:Q34)),ObjectOverwrite)</f>
-        <v>GBPFUT3MZ9ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MZ9ConvAdj_Quote#0024</v>
       </c>
       <c r="AN35" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM35)</f>
@@ -7571,7 +7606,7 @@
       </c>
       <c r="F36" s="91" t="str">
         <f>_xll.qlSimpleQuote(E36,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MH0_Quote#0000</v>
+        <v>GBPFUT3MH0_Quote#0003</v>
       </c>
       <c r="G36" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -7643,7 +7678,7 @@
       </c>
       <c r="AM36" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL36,IborIndex,AK36,F36,Volatility,MeanReversion,Permanent,OR(ISERROR(Z36),ISERROR(FuturesHWConvAdj!Q34:Q35)),ObjectOverwrite)</f>
-        <v>GBPFUT3MH0ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MH0ConvAdj_Quote#0024</v>
       </c>
       <c r="AN36" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM36)</f>
@@ -7668,7 +7703,7 @@
       </c>
       <c r="F37" s="91" t="str">
         <f>_xll.qlSimpleQuote(E37,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MM0_Quote#0000</v>
+        <v>GBPFUT3MM0_Quote#0003</v>
       </c>
       <c r="G37" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -7740,7 +7775,7 @@
       </c>
       <c r="AM37" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL37,IborIndex,AK37,F37,Volatility,MeanReversion,Permanent,OR(ISERROR(Z37),ISERROR(FuturesHWConvAdj!Q35:Q36)),ObjectOverwrite)</f>
-        <v>GBPFUT3MM0ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MM0ConvAdj_Quote#0024</v>
       </c>
       <c r="AN37" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM37)</f>
@@ -7765,7 +7800,7 @@
       </c>
       <c r="F38" s="91" t="str">
         <f>_xll.qlSimpleQuote(E38,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MU0_Quote#0000</v>
+        <v>GBPFUT3MU0_Quote#0003</v>
       </c>
       <c r="G38" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -7837,7 +7872,7 @@
       </c>
       <c r="AM38" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL38,IborIndex,AK38,F38,Volatility,MeanReversion,Permanent,OR(ISERROR(Z38),ISERROR(FuturesHWConvAdj!Q36:Q37)),ObjectOverwrite)</f>
-        <v>GBPFUT3MU0ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MU0ConvAdj_Quote#0024</v>
       </c>
       <c r="AN38" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM38)</f>
@@ -7862,7 +7897,7 @@
       </c>
       <c r="F39" s="91" t="str">
         <f>_xll.qlSimpleQuote(E39,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MZ0_Quote#0000</v>
+        <v>GBPFUT3MZ0_Quote#0003</v>
       </c>
       <c r="G39" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -7934,7 +7969,7 @@
       </c>
       <c r="AM39" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL39,IborIndex,AK39,F39,Volatility,MeanReversion,Permanent,OR(ISERROR(Z39),ISERROR(FuturesHWConvAdj!Q37:Q38)),ObjectOverwrite)</f>
-        <v>GBPFUT3MZ0ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MZ0ConvAdj_Quote#0024</v>
       </c>
       <c r="AN39" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM39)</f>
@@ -7959,7 +7994,7 @@
       </c>
       <c r="F40" s="91" t="str">
         <f>_xll.qlSimpleQuote(E40,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MH1_Quote#0000</v>
+        <v>GBPFUT3MH1_Quote#0003</v>
       </c>
       <c r="G40" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -8031,7 +8066,7 @@
       </c>
       <c r="AM40" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL40,IborIndex,AK40,F40,Volatility,MeanReversion,Permanent,OR(ISERROR(Z40),ISERROR(FuturesHWConvAdj!Q38:Q39)),ObjectOverwrite)</f>
-        <v>GBPFUT3MH1ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MH1ConvAdj_Quote#0024</v>
       </c>
       <c r="AN40" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM40)</f>
@@ -8056,7 +8091,7 @@
       </c>
       <c r="F41" s="91" t="str">
         <f>_xll.qlSimpleQuote(E41,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MM1_Quote#0000</v>
+        <v>GBPFUT3MM1_Quote#0003</v>
       </c>
       <c r="G41" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -8128,7 +8163,7 @@
       </c>
       <c r="AM41" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL41,IborIndex,AK41,F41,Volatility,MeanReversion,Permanent,OR(ISERROR(Z41),ISERROR(FuturesHWConvAdj!Q39:Q40)),ObjectOverwrite)</f>
-        <v>GBPFUT3MM1ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MM1ConvAdj_Quote#0024</v>
       </c>
       <c r="AN41" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM41)</f>
@@ -8153,7 +8188,7 @@
       </c>
       <c r="F42" s="91" t="str">
         <f>_xll.qlSimpleQuote(E42,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MU1_Quote#0000</v>
+        <v>GBPFUT3MU1_Quote#0003</v>
       </c>
       <c r="G42" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -8225,7 +8260,7 @@
       </c>
       <c r="AM42" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL42,IborIndex,AK42,F42,Volatility,MeanReversion,Permanent,OR(ISERROR(Z42),ISERROR(FuturesHWConvAdj!Q40:Q41)),ObjectOverwrite)</f>
-        <v>GBPFUT3MU1ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MU1ConvAdj_Quote#0024</v>
       </c>
       <c r="AN42" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM42)</f>
@@ -8250,7 +8285,7 @@
       </c>
       <c r="F43" s="91" t="str">
         <f>_xll.qlSimpleQuote(E43,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MZ1_Quote#0000</v>
+        <v>GBPFUT3MZ1_Quote#0003</v>
       </c>
       <c r="G43" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -8322,7 +8357,7 @@
       </c>
       <c r="AM43" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL43,IborIndex,AK43,F43,Volatility,MeanReversion,Permanent,OR(ISERROR(Z43),ISERROR(FuturesHWConvAdj!Q41:Q42)),ObjectOverwrite)</f>
-        <v>GBPFUT3MZ1ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MZ1ConvAdj_Quote#0024</v>
       </c>
       <c r="AN43" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM43)</f>
@@ -8347,7 +8382,7 @@
       </c>
       <c r="F44" s="91" t="str">
         <f>_xll.qlSimpleQuote(E44,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MH2_Quote#0000</v>
+        <v>GBPFUT3MH2_Quote#0003</v>
       </c>
       <c r="G44" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -8419,7 +8454,7 @@
       </c>
       <c r="AM44" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL44,IborIndex,AK44,F44,Volatility,MeanReversion,Permanent,OR(ISERROR(Z44),ISERROR(FuturesHWConvAdj!Q42:Q43)),ObjectOverwrite)</f>
-        <v>GBPFUT3MH2ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MH2ConvAdj_Quote#0024</v>
       </c>
       <c r="AN44" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM44)</f>
@@ -8444,7 +8479,7 @@
       </c>
       <c r="F45" s="91" t="str">
         <f>_xll.qlSimpleQuote(E45,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MM2_Quote#0000</v>
+        <v>GBPFUT3MM2_Quote#0003</v>
       </c>
       <c r="G45" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -8516,7 +8551,7 @@
       </c>
       <c r="AM45" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL45,IborIndex,AK45,F45,Volatility,MeanReversion,Permanent,OR(ISERROR(Z45),ISERROR(FuturesHWConvAdj!Q43:Q44)),ObjectOverwrite)</f>
-        <v>GBPFUT3MM2ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MM2ConvAdj_Quote#0024</v>
       </c>
       <c r="AN45" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM45)</f>
@@ -8541,7 +8576,7 @@
       </c>
       <c r="F46" s="91" t="str">
         <f>_xll.qlSimpleQuote(E46,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MU2_Quote#0000</v>
+        <v>GBPFUT3MU2_Quote#0003</v>
       </c>
       <c r="G46" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -8613,7 +8648,7 @@
       </c>
       <c r="AM46" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL46,IborIndex,AK46,F46,Volatility,MeanReversion,Permanent,OR(ISERROR(Z46),ISERROR(FuturesHWConvAdj!Q44:Q45)),ObjectOverwrite)</f>
-        <v>GBPFUT3MU2ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MU2ConvAdj_Quote#0024</v>
       </c>
       <c r="AN46" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM46)</f>
@@ -8638,7 +8673,7 @@
       </c>
       <c r="F47" s="91" t="str">
         <f>_xll.qlSimpleQuote(E47,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MZ2_Quote#0000</v>
+        <v>GBPFUT3MZ2_Quote#0003</v>
       </c>
       <c r="G47" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -8710,7 +8745,7 @@
       </c>
       <c r="AM47" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL47,IborIndex,AK47,F47,Volatility,MeanReversion,Permanent,OR(ISERROR(Z47),ISERROR(FuturesHWConvAdj!Q45:Q46)),ObjectOverwrite)</f>
-        <v>GBPFUT3MZ2ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MZ2ConvAdj_Quote#0024</v>
       </c>
       <c r="AN47" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM47)</f>
@@ -8735,7 +8770,7 @@
       </c>
       <c r="F48" s="91" t="str">
         <f>_xll.qlSimpleQuote(E48,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MH3_Quote#0000</v>
+        <v>GBPFUT3MH3_Quote#0003</v>
       </c>
       <c r="G48" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -8806,7 +8841,7 @@
       </c>
       <c r="AM48" s="487" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL48,IborIndex,AK48,F48,Volatility,MeanReversion,Permanent,OR(ISERROR(Z48),ISERROR(FuturesHWConvAdj!Q46:Q47)),ObjectOverwrite)</f>
-        <v>GBPFUT3MH3ConvAdj_Quote#0023</v>
+        <v>GBPFUT3MH3ConvAdj_Quote#0024</v>
       </c>
       <c r="AN48" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(AM48)</f>
@@ -9067,7 +9102,7 @@
       <c r="Y6" s="165"/>
       <c r="Z6" s="361">
         <f>_xll.ohTrigger(Z8:Z11)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AA6" s="360"/>
     </row>
@@ -9110,7 +9145,7 @@
       </c>
       <c r="O7" s="367" t="str">
         <f>_xll.RData(O8:O11,P7:T7,"RTFEED:IDN",ReutersRtMode,,P8)</f>
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:15:40</v>
       </c>
       <c r="P7" s="364" t="s">
         <v>258</v>
@@ -9190,10 +9225,10 @@
         <v>316</v>
       </c>
       <c r="Q8" s="345">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="R8" s="345">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="S8" s="345">
         <v>0</v>
@@ -9203,7 +9238,7 @@
       </c>
       <c r="U8" s="344">
         <f>100-_xll.qlMidSafe($Q8,$R8)</f>
-        <v>99.2</v>
+        <v>99.19</v>
       </c>
       <c r="V8" s="325"/>
       <c r="W8" s="608">
@@ -9212,11 +9247,11 @@
       <c r="X8" s="325"/>
       <c r="Y8" s="346">
         <f t="array" ref="Y8:Y11">QuoteLive</f>
-        <v>99.2</v>
+        <v>99.19</v>
       </c>
       <c r="Z8" s="344">
         <f>_xll.qlSimpleQuoteSetValue(F6,Y8,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000005116E-2</v>
       </c>
       <c r="AA8" s="90"/>
     </row>
@@ -9264,10 +9299,10 @@
         <v>316</v>
       </c>
       <c r="Q9" s="332">
-        <v>0.93500000000000005</v>
+        <v>0.95</v>
       </c>
       <c r="R9" s="332">
-        <v>0.995</v>
+        <v>1.01</v>
       </c>
       <c r="S9" s="332">
         <v>0</v>
@@ -9277,7 +9312,7 @@
       </c>
       <c r="U9" s="331">
         <f>100-_xll.qlMidSafe($Q9,$R9)</f>
-        <v>99.034999999999997</v>
+        <v>99.02</v>
       </c>
       <c r="V9" s="325"/>
       <c r="W9" s="609">
@@ -9285,11 +9320,11 @@
       </c>
       <c r="X9" s="325"/>
       <c r="Y9" s="333">
-        <v>99.034999999999997</v>
+        <v>99.02</v>
       </c>
       <c r="Z9" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F7,Y9,Trigger)</f>
-        <v>-5.0000000000096634E-3</v>
+        <v>-1.5000000000000568E-2</v>
       </c>
       <c r="AA9" s="90"/>
     </row>
@@ -9337,10 +9372,10 @@
         <v>316</v>
       </c>
       <c r="Q10" s="332">
-        <v>1.1100000000000001</v>
+        <v>1.125</v>
       </c>
       <c r="R10" s="332">
-        <v>1.17</v>
+        <v>1.1850000000000001</v>
       </c>
       <c r="S10" s="332">
         <v>0</v>
@@ -9350,7 +9385,7 @@
       </c>
       <c r="U10" s="331">
         <f>100-_xll.qlMidSafe($Q10,$R10)</f>
-        <v>98.86</v>
+        <v>98.844999999999999</v>
       </c>
       <c r="V10" s="325"/>
       <c r="W10" s="609">
@@ -9358,11 +9393,11 @@
       </c>
       <c r="X10" s="325"/>
       <c r="Y10" s="333">
-        <v>98.86</v>
+        <v>98.844999999999999</v>
       </c>
       <c r="Z10" s="331">
         <f>_xll.qlSimpleQuoteSetValue(F8,Y10,Trigger)</f>
-        <v>0</v>
+        <v>-1.5000000000000568E-2</v>
       </c>
       <c r="AA10" s="90"/>
     </row>
@@ -9410,10 +9445,10 @@
         <v>316</v>
       </c>
       <c r="Q11" s="323">
-        <v>1.3</v>
+        <v>1.3149999999999999</v>
       </c>
       <c r="R11" s="323">
-        <v>1.36</v>
+        <v>1.375</v>
       </c>
       <c r="S11" s="323">
         <v>0</v>
@@ -9423,7 +9458,7 @@
       </c>
       <c r="U11" s="322">
         <f>100-_xll.qlMidSafe($Q11,$R11)</f>
-        <v>98.67</v>
+        <v>98.655000000000001</v>
       </c>
       <c r="V11" s="325"/>
       <c r="W11" s="610">
@@ -9431,11 +9466,11 @@
       </c>
       <c r="X11" s="325"/>
       <c r="Y11" s="324">
-        <v>98.67</v>
+        <v>98.655000000000001</v>
       </c>
       <c r="Z11" s="322">
         <f>_xll.qlSimpleQuoteSetValue(F9,Y11,Trigger)</f>
-        <v>0</v>
+        <v>-1.5000000000000568E-2</v>
       </c>
       <c r="AA11" s="90"/>
     </row>
@@ -12317,7 +12352,9 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12387,7 +12424,7 @@
       <c r="P3" s="165"/>
       <c r="Q3" s="361">
         <f>_xll.ohTrigger(Q5:Q9)</f>
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="R3" s="90"/>
       <c r="U3" s="18" t="s">
@@ -12412,7 +12449,7 @@
       <c r="G4" s="102"/>
       <c r="H4" s="379" t="str">
         <f>_xll.RData(H5,I4,"RTFEED:IDN",ReutersRtMode,,I5)</f>
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:15:40</v>
       </c>
       <c r="I4" s="380" t="s">
         <v>254</v>
@@ -12456,15 +12493,15 @@
         <v>GB4Y3LATM=ICAP</v>
       </c>
       <c r="I5" s="612">
-        <v>44.93</v>
+        <v>44.73</v>
       </c>
       <c r="J5" s="375"/>
       <c r="K5" s="280" t="s">
         <v>270</v>
       </c>
       <c r="L5" s="615">
-        <f>I5/100*IF(ISNUMBER(Swap3M4Y),Swap3M4Y/100,Swap6M4Y/100)</f>
-        <v>7.790862E-3</v>
+        <f>I5/100*IF(ISNUMBER(Swap3M4Y),Swap3M4Y/100,Swap6M4Y/100)*0</f>
+        <v>0</v>
       </c>
       <c r="M5" s="375"/>
       <c r="N5" s="617">
@@ -12473,7 +12510,7 @@
       <c r="O5" s="374"/>
       <c r="P5" s="619">
         <f t="array" ref="P5:P6">QuoteLive</f>
-        <v>7.790862E-3</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="615">
         <f>_xll.qlSimpleQuoteSetValue(C5,P5,Trigger)</f>
@@ -12720,7 +12757,7 @@
       <c r="X3" s="86"/>
       <c r="Y3" s="361">
         <f>_xll.ohTrigger(Y5:Y24)</f>
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="Z3" s="160"/>
     </row>
@@ -12750,7 +12787,7 @@
       <c r="N4" s="141"/>
       <c r="O4" s="288" t="str">
         <f>_xll.RData(O5:O40,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:16:07</v>
       </c>
       <c r="P4" s="319" t="s">
         <v>254</v>
@@ -13093,10 +13130,10 @@
         <v>GBP2MOIS=ICAP</v>
       </c>
       <c r="P9" s="266">
-        <v>0.42249999999999999</v>
+        <v>0.42375000000000002</v>
       </c>
       <c r="Q9" s="266">
-        <v>0.46250000000000002</v>
+        <v>0.46375</v>
       </c>
       <c r="R9" s="266">
         <v>0</v>
@@ -13106,7 +13143,7 @@
       </c>
       <c r="T9" s="266">
         <f>_xll.qlMidEquivalent($P9,$Q9,$R9,$S9)</f>
-        <v>0.4425</v>
+        <v>0.44374999999999998</v>
       </c>
       <c r="U9" s="30"/>
       <c r="V9" s="651">
@@ -13114,7 +13151,7 @@
       </c>
       <c r="W9" s="30"/>
       <c r="X9" s="458">
-        <v>0.4425</v>
+        <v>0.44374999999999998</v>
       </c>
       <c r="Y9" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E9,X9/100,ISERROR(F9))</f>
@@ -13161,10 +13198,10 @@
         <v>GBP3MOIS=ICAP</v>
       </c>
       <c r="P10" s="266">
-        <v>0.42875000000000002</v>
+        <v>0.43</v>
       </c>
       <c r="Q10" s="266">
-        <v>0.46875</v>
+        <v>0.47</v>
       </c>
       <c r="R10" s="266">
         <v>0</v>
@@ -13174,7 +13211,7 @@
       </c>
       <c r="T10" s="266">
         <f>_xll.qlMidEquivalent($P10,$Q10,$R10,$S10)</f>
-        <v>0.44874999999999998</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="U10" s="30"/>
       <c r="V10" s="651">
@@ -13182,7 +13219,7 @@
       </c>
       <c r="W10" s="30"/>
       <c r="X10" s="458">
-        <v>0.44874999999999998</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="Y10" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E10,X10/100,ISERROR(F10))</f>
@@ -13229,10 +13266,10 @@
         <v>GBP4MOIS=ICAP</v>
       </c>
       <c r="P11" s="266">
-        <v>0.43625000000000003</v>
+        <v>0.43874999999999997</v>
       </c>
       <c r="Q11" s="266">
-        <v>0.47625000000000001</v>
+        <v>0.47875000000000001</v>
       </c>
       <c r="R11" s="266">
         <v>0</v>
@@ -13242,7 +13279,7 @@
       </c>
       <c r="T11" s="266">
         <f>_xll.qlMidEquivalent($P11,$Q11,$R11,$S11)</f>
-        <v>0.45625000000000004</v>
+        <v>0.45874999999999999</v>
       </c>
       <c r="U11" s="30"/>
       <c r="V11" s="651">
@@ -13250,7 +13287,7 @@
       </c>
       <c r="W11" s="30"/>
       <c r="X11" s="458">
-        <v>0.45625000000000004</v>
+        <v>0.45874999999999999</v>
       </c>
       <c r="Y11" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E11,X11/100,ISERROR(F11))</f>
@@ -13297,10 +13334,10 @@
         <v>GBP5MOIS=ICAP</v>
       </c>
       <c r="P12" s="266">
-        <v>0.46</v>
+        <v>0.46375</v>
       </c>
       <c r="Q12" s="266">
-        <v>0.5</v>
+        <v>0.50375000000000003</v>
       </c>
       <c r="R12" s="266">
         <v>0</v>
@@ -13310,7 +13347,7 @@
       </c>
       <c r="T12" s="266">
         <f>_xll.qlMidEquivalent($P12,$Q12,$R12,$S12)</f>
-        <v>0.48</v>
+        <v>0.48375000000000001</v>
       </c>
       <c r="U12" s="30"/>
       <c r="V12" s="651">
@@ -13318,7 +13355,7 @@
       </c>
       <c r="W12" s="30"/>
       <c r="X12" s="458">
-        <v>0.48</v>
+        <v>0.48375000000000001</v>
       </c>
       <c r="Y12" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E12,X12/100,ISERROR(F12))</f>
@@ -13365,10 +13402,10 @@
         <v>GBP6MOIS=ICAP</v>
       </c>
       <c r="P13" s="266">
-        <v>0.48125000000000001</v>
+        <v>0.48625000000000002</v>
       </c>
       <c r="Q13" s="266">
-        <v>0.52124999999999999</v>
+        <v>0.52625</v>
       </c>
       <c r="R13" s="266">
         <v>0</v>
@@ -13378,7 +13415,7 @@
       </c>
       <c r="T13" s="266">
         <f>_xll.qlMidEquivalent($P13,$Q13,$R13,$S13)</f>
-        <v>0.50124999999999997</v>
+        <v>0.50624999999999998</v>
       </c>
       <c r="U13" s="30"/>
       <c r="V13" s="651">
@@ -13386,7 +13423,7 @@
       </c>
       <c r="W13" s="30"/>
       <c r="X13" s="458">
-        <v>0.50124999999999997</v>
+        <v>0.50624999999999998</v>
       </c>
       <c r="Y13" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E13,X13/100,ISERROR(F13))</f>
@@ -13433,10 +13470,10 @@
         <v>GBP7MOIS=ICAP</v>
       </c>
       <c r="P14" s="266">
-        <v>0.50124999999999997</v>
+        <v>0.50624999999999998</v>
       </c>
       <c r="Q14" s="266">
-        <v>0.54125000000000001</v>
+        <v>0.54625000000000001</v>
       </c>
       <c r="R14" s="266">
         <v>0</v>
@@ -13446,7 +13483,7 @@
       </c>
       <c r="T14" s="266">
         <f>_xll.qlMidEquivalent($P14,$Q14,$R14,$S14)</f>
-        <v>0.52124999999999999</v>
+        <v>0.52625</v>
       </c>
       <c r="U14" s="30"/>
       <c r="V14" s="651">
@@ -13454,7 +13491,7 @@
       </c>
       <c r="W14" s="30"/>
       <c r="X14" s="458">
-        <v>0.52124999999999999</v>
+        <v>0.52625</v>
       </c>
       <c r="Y14" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E14,X14/100,ISERROR(F14))</f>
@@ -13501,10 +13538,10 @@
         <v>GBP8MOIS=ICAP</v>
       </c>
       <c r="P15" s="266">
-        <v>0.51749999999999996</v>
+        <v>0.52375000000000005</v>
       </c>
       <c r="Q15" s="266">
-        <v>0.5575</v>
+        <v>0.56374999999999997</v>
       </c>
       <c r="R15" s="266">
         <v>0</v>
@@ -13514,7 +13551,7 @@
       </c>
       <c r="T15" s="266">
         <f>_xll.qlMidEquivalent($P15,$Q15,$R15,$S15)</f>
-        <v>0.53749999999999998</v>
+        <v>0.54374999999999996</v>
       </c>
       <c r="U15" s="30"/>
       <c r="V15" s="651">
@@ -13522,7 +13559,7 @@
       </c>
       <c r="W15" s="30"/>
       <c r="X15" s="458">
-        <v>0.53749999999999998</v>
+        <v>0.54374999999999996</v>
       </c>
       <c r="Y15" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E15,X15/100,ISERROR(F15))</f>
@@ -13569,10 +13606,10 @@
         <v>GBP9MOIS=ICAP</v>
       </c>
       <c r="P16" s="266">
-        <v>0.53874999999999995</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="Q16" s="266">
-        <v>0.57874999999999999</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="R16" s="266">
         <v>0</v>
@@ -13582,7 +13619,7 @@
       </c>
       <c r="T16" s="266">
         <f>_xll.qlMidEquivalent($P16,$Q16,$R16,$S16)</f>
-        <v>0.55874999999999997</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="U16" s="30"/>
       <c r="V16" s="651">
@@ -13590,7 +13627,7 @@
       </c>
       <c r="W16" s="30"/>
       <c r="X16" s="458">
-        <v>0.55874999999999997</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="Y16" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E16,X16/100,ISERROR(F16))</f>
@@ -13637,10 +13674,10 @@
         <v>GBP10MOIS=ICAP</v>
       </c>
       <c r="P17" s="266">
-        <v>0.55874999999999997</v>
+        <v>0.56625000000000003</v>
       </c>
       <c r="Q17" s="266">
-        <v>0.59875</v>
+        <v>0.60624999999999996</v>
       </c>
       <c r="R17" s="266">
         <v>0</v>
@@ -13650,7 +13687,7 @@
       </c>
       <c r="T17" s="266">
         <f>_xll.qlMidEquivalent($P17,$Q17,$R17,$S17)</f>
-        <v>0.57874999999999999</v>
+        <v>0.58624999999999994</v>
       </c>
       <c r="U17" s="30"/>
       <c r="V17" s="651">
@@ -13658,7 +13695,7 @@
       </c>
       <c r="W17" s="30"/>
       <c r="X17" s="458">
-        <v>0.57874999999999999</v>
+        <v>0.58624999999999994</v>
       </c>
       <c r="Y17" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E17,X17/100,ISERROR(F17))</f>
@@ -13705,10 +13742,10 @@
         <v>GBP11MOIS=ICAP</v>
       </c>
       <c r="P18" s="266">
-        <v>0.58499999999999996</v>
+        <v>0.59250000000000003</v>
       </c>
       <c r="Q18" s="266">
-        <v>0.625</v>
+        <v>0.63249999999999995</v>
       </c>
       <c r="R18" s="266">
         <v>0</v>
@@ -13718,7 +13755,7 @@
       </c>
       <c r="T18" s="266">
         <f>_xll.qlMidEquivalent($P18,$Q18,$R18,$S18)</f>
-        <v>0.60499999999999998</v>
+        <v>0.61250000000000004</v>
       </c>
       <c r="U18" s="30"/>
       <c r="V18" s="651">
@@ -13726,7 +13763,7 @@
       </c>
       <c r="W18" s="30"/>
       <c r="X18" s="458">
-        <v>0.60499999999999998</v>
+        <v>0.61250000000000004</v>
       </c>
       <c r="Y18" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E18,X18/100,ISERROR(F18))</f>
@@ -13773,10 +13810,10 @@
         <v>GBP1YOIS=ICAP</v>
       </c>
       <c r="P19" s="266">
-        <v>0.60875000000000001</v>
+        <v>0.61624999999999996</v>
       </c>
       <c r="Q19" s="266">
-        <v>0.64875000000000005</v>
+        <v>0.65625</v>
       </c>
       <c r="R19" s="266">
         <v>0</v>
@@ -13786,7 +13823,7 @@
       </c>
       <c r="T19" s="266">
         <f>_xll.qlMidEquivalent($P19,$Q19,$R19,$S19)</f>
-        <v>0.62875000000000003</v>
+        <v>0.63624999999999998</v>
       </c>
       <c r="U19" s="30"/>
       <c r="V19" s="651">
@@ -13794,7 +13831,7 @@
       </c>
       <c r="W19" s="30"/>
       <c r="X19" s="458">
-        <v>0.62875000000000003</v>
+        <v>0.63624999999999998</v>
       </c>
       <c r="Y19" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E19,X19/100,ISERROR(F19))</f>
@@ -13841,10 +13878,10 @@
         <v>GBP15MOIS=ICAP</v>
       </c>
       <c r="P20" s="266">
-        <v>0.68500000000000005</v>
+        <v>0.69374999999999998</v>
       </c>
       <c r="Q20" s="266">
-        <v>0.72499999999999998</v>
+        <v>0.73375000000000001</v>
       </c>
       <c r="R20" s="266">
         <v>0</v>
@@ -13854,7 +13891,7 @@
       </c>
       <c r="T20" s="266">
         <f>_xll.qlMidEquivalent($P20,$Q20,$R20,$S20)</f>
-        <v>0.70500000000000007</v>
+        <v>0.71375</v>
       </c>
       <c r="U20" s="30"/>
       <c r="V20" s="651">
@@ -13862,7 +13899,7 @@
       </c>
       <c r="W20" s="30"/>
       <c r="X20" s="458">
-        <v>0.70500000000000007</v>
+        <v>0.71375</v>
       </c>
       <c r="Y20" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E20,X20/100,ISERROR(F20))</f>
@@ -13909,10 +13946,10 @@
         <v>GBP18MOIS=ICAP</v>
       </c>
       <c r="P21" s="266">
-        <v>0.77</v>
+        <v>0.77875000000000005</v>
       </c>
       <c r="Q21" s="266">
-        <v>0.8</v>
+        <v>0.80874999999999997</v>
       </c>
       <c r="R21" s="266">
         <v>0</v>
@@ -13922,7 +13959,7 @@
       </c>
       <c r="T21" s="266">
         <f>_xll.qlMidEquivalent($P21,$Q21,$R21,$S21)</f>
-        <v>0.78500000000000003</v>
+        <v>0.79374999999999996</v>
       </c>
       <c r="U21" s="30"/>
       <c r="V21" s="651">
@@ -13930,7 +13967,7 @@
       </c>
       <c r="W21" s="30"/>
       <c r="X21" s="458">
-        <v>0.78500000000000003</v>
+        <v>0.79374999999999996</v>
       </c>
       <c r="Y21" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E21,X21/100,ISERROR(F21))</f>
@@ -14045,10 +14082,10 @@
         <v>GBP2YOIS=ICAP</v>
       </c>
       <c r="P23" s="266">
-        <v>0.92500000000000004</v>
+        <v>0.93374999999999997</v>
       </c>
       <c r="Q23" s="266">
-        <v>0.95499999999999996</v>
+        <v>0.96375</v>
       </c>
       <c r="R23" s="266">
         <v>0</v>
@@ -14058,7 +14095,7 @@
       </c>
       <c r="T23" s="266">
         <f>_xll.qlMidEquivalent($P23,$Q23,$R23,$S23)</f>
-        <v>0.94</v>
+        <v>0.94874999999999998</v>
       </c>
       <c r="U23" s="30"/>
       <c r="V23" s="651">
@@ -14066,7 +14103,7 @@
       </c>
       <c r="W23" s="30"/>
       <c r="X23" s="458">
-        <v>0.94</v>
+        <v>0.94874999999999998</v>
       </c>
       <c r="Y23" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E23,X23/100,ISERROR(F23))</f>
@@ -14113,10 +14150,10 @@
         <v>GBP3YOIS=ICAP</v>
       </c>
       <c r="P24" s="266">
-        <v>1.20875</v>
+        <v>1.2137500000000001</v>
       </c>
       <c r="Q24" s="266">
-        <v>1.23875</v>
+        <v>1.2437499999999999</v>
       </c>
       <c r="R24" s="266">
         <v>0</v>
@@ -14126,7 +14163,7 @@
       </c>
       <c r="T24" s="266">
         <f>_xll.qlMidEquivalent($P24,$Q24,$R24,$S24)</f>
-        <v>1.2237499999999999</v>
+        <v>1.22875</v>
       </c>
       <c r="U24" s="30"/>
       <c r="V24" s="651">
@@ -14134,7 +14171,7 @@
       </c>
       <c r="W24" s="30"/>
       <c r="X24" s="458">
-        <v>1.2237499999999999</v>
+        <v>1.22875</v>
       </c>
       <c r="Y24" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E24,X24/100,ISERROR(F24))</f>
@@ -14181,10 +14218,10 @@
         <v>GBP4YOIS=ICAP</v>
       </c>
       <c r="P25" s="266">
-        <v>1.405</v>
+        <v>1.41</v>
       </c>
       <c r="Q25" s="266">
-        <v>1.4550000000000001</v>
+        <v>1.46</v>
       </c>
       <c r="R25" s="266">
         <v>0</v>
@@ -14194,7 +14231,7 @@
       </c>
       <c r="T25" s="266">
         <f>_xll.qlMidEquivalent($P25,$Q25,$R25,$S25)</f>
-        <v>1.4300000000000002</v>
+        <v>1.4350000000000001</v>
       </c>
       <c r="U25" s="30"/>
       <c r="V25" s="651">
@@ -14202,7 +14239,7 @@
       </c>
       <c r="W25" s="30"/>
       <c r="X25" s="458">
-        <v>1.4300000000000002</v>
+        <v>1.4350000000000001</v>
       </c>
       <c r="Y25" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E25,X25/100,ISERROR(F25))</f>
@@ -14249,10 +14286,10 @@
         <v>GBP5YOIS=ICAP</v>
       </c>
       <c r="P26" s="266">
-        <v>1.5674999999999999</v>
+        <v>1.5687500000000001</v>
       </c>
       <c r="Q26" s="266">
-        <v>1.6174999999999999</v>
+        <v>1.6187499999999999</v>
       </c>
       <c r="R26" s="266">
         <v>0</v>
@@ -14262,7 +14299,7 @@
       </c>
       <c r="T26" s="266">
         <f>_xll.qlMidEquivalent($P26,$Q26,$R26,$S26)</f>
-        <v>1.5924999999999998</v>
+        <v>1.59375</v>
       </c>
       <c r="U26" s="30"/>
       <c r="V26" s="651">
@@ -14270,7 +14307,7 @@
       </c>
       <c r="W26" s="30"/>
       <c r="X26" s="458">
-        <v>1.5924999999999998</v>
+        <v>1.59375</v>
       </c>
       <c r="Y26" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E26,X26/100,ISERROR(F26))</f>
@@ -14317,10 +14354,10 @@
         <v>GBP6YOIS=ICAP</v>
       </c>
       <c r="P27" s="266">
-        <v>1.6975</v>
+        <v>1.69625</v>
       </c>
       <c r="Q27" s="266">
-        <v>1.7475000000000001</v>
+        <v>1.7462500000000001</v>
       </c>
       <c r="R27" s="266">
         <v>0</v>
@@ -14330,7 +14367,7 @@
       </c>
       <c r="T27" s="266">
         <f>_xll.qlMidEquivalent($P27,$Q27,$R27,$S27)</f>
-        <v>1.7225000000000001</v>
+        <v>1.7212499999999999</v>
       </c>
       <c r="U27" s="30"/>
       <c r="V27" s="651">
@@ -14338,11 +14375,11 @@
       </c>
       <c r="W27" s="30"/>
       <c r="X27" s="458">
-        <v>1.7225000000000001</v>
+        <v>1.7212499999999999</v>
       </c>
       <c r="Y27" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E27,X27/100,ISERROR(F27))</f>
-        <v>0</v>
+        <v>-1.2500000000002093E-5</v>
       </c>
       <c r="Z27" s="655"/>
     </row>
@@ -14385,10 +14422,10 @@
         <v>GBP7YOIS=ICAP</v>
       </c>
       <c r="P28" s="266">
-        <v>1.8075000000000001</v>
+        <v>1.8062499999999999</v>
       </c>
       <c r="Q28" s="266">
-        <v>1.8574999999999999</v>
+        <v>1.85625</v>
       </c>
       <c r="R28" s="266">
         <v>0</v>
@@ -14398,7 +14435,7 @@
       </c>
       <c r="T28" s="266">
         <f>_xll.qlMidEquivalent($P28,$Q28,$R28,$S28)</f>
-        <v>1.8325</v>
+        <v>1.8312499999999998</v>
       </c>
       <c r="U28" s="30"/>
       <c r="V28" s="651">
@@ -14406,11 +14443,11 @@
       </c>
       <c r="W28" s="30"/>
       <c r="X28" s="458">
-        <v>1.8325</v>
+        <v>1.8312499999999998</v>
       </c>
       <c r="Y28" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E28,X28/100,ISERROR(F28))</f>
-        <v>0</v>
+        <v>-1.2500000000002093E-5</v>
       </c>
       <c r="Z28" s="655"/>
     </row>
@@ -14521,10 +14558,10 @@
         <v>GBP9YOIS=ICAP</v>
       </c>
       <c r="P30" s="266">
-        <v>1.9824999999999999</v>
+        <v>1.98</v>
       </c>
       <c r="Q30" s="266">
-        <v>2.0325000000000002</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="R30" s="266">
         <v>0</v>
@@ -14534,7 +14571,7 @@
       </c>
       <c r="T30" s="266">
         <f>_xll.qlMidEquivalent($P30,$Q30,$R30,$S30)</f>
-        <v>2.0075000000000003</v>
+        <v>2.0049999999999999</v>
       </c>
       <c r="U30" s="30"/>
       <c r="V30" s="651">
@@ -14542,11 +14579,11 @@
       </c>
       <c r="W30" s="30"/>
       <c r="X30" s="458">
-        <v>2.0075000000000003</v>
+        <v>2.0049999999999999</v>
       </c>
       <c r="Y30" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E30,X30/100,ISERROR(F30))</f>
-        <v>0</v>
+        <v>-1.2500000000002093E-5</v>
       </c>
       <c r="Z30" s="655"/>
     </row>
@@ -14589,10 +14626,10 @@
         <v>GBP10YOIS=ICAP</v>
       </c>
       <c r="P31" s="266">
-        <v>2.0562499999999999</v>
+        <v>2.05375</v>
       </c>
       <c r="Q31" s="266">
-        <v>2.1062500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
       <c r="R31" s="266">
         <v>0</v>
@@ -14602,7 +14639,7 @@
       </c>
       <c r="T31" s="266">
         <f>_xll.qlMidEquivalent($P31,$Q31,$R31,$S31)</f>
-        <v>2.0812499999999998</v>
+        <v>2.0787499999999999</v>
       </c>
       <c r="U31" s="30"/>
       <c r="V31" s="651">
@@ -14610,11 +14647,11 @@
       </c>
       <c r="W31" s="30"/>
       <c r="X31" s="458">
-        <v>2.0812499999999998</v>
+        <v>2.0787499999999999</v>
       </c>
       <c r="Y31" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E31,X31/100,ISERROR(F31))</f>
-        <v>0</v>
+        <v>-1.2499999999998623E-5</v>
       </c>
       <c r="Z31" s="655"/>
     </row>
@@ -14725,10 +14762,10 @@
         <v>GBP12YOIS=ICAP</v>
       </c>
       <c r="P33" s="266">
-        <v>2.1850000000000001</v>
+        <v>2.1825000000000001</v>
       </c>
       <c r="Q33" s="266">
-        <v>2.2349999999999999</v>
+        <v>2.2324999999999999</v>
       </c>
       <c r="R33" s="266">
         <v>0</v>
@@ -14738,7 +14775,7 @@
       </c>
       <c r="T33" s="266">
         <f>_xll.qlMidEquivalent($P33,$Q33,$R33,$S33)</f>
-        <v>2.21</v>
+        <v>2.2075</v>
       </c>
       <c r="U33" s="30"/>
       <c r="V33" s="651">
@@ -14746,11 +14783,11 @@
       </c>
       <c r="W33" s="30"/>
       <c r="X33" s="458">
-        <v>2.21</v>
+        <v>2.2075</v>
       </c>
       <c r="Y33" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E33,X33/100,ISERROR(F33))</f>
-        <v>0</v>
+        <v>-1.2500000000002093E-5</v>
       </c>
       <c r="Z33" s="655"/>
     </row>
@@ -14793,10 +14830,10 @@
         <v>GBP15YOIS=ICAP</v>
       </c>
       <c r="P34" s="266">
-        <v>2.3362500000000002</v>
+        <v>2.3325</v>
       </c>
       <c r="Q34" s="266">
-        <v>2.38625</v>
+        <v>2.3824999999999998</v>
       </c>
       <c r="R34" s="266">
         <v>0</v>
@@ -14806,7 +14843,7 @@
       </c>
       <c r="T34" s="266">
         <f>_xll.qlMidEquivalent($P34,$Q34,$R34,$S34)</f>
-        <v>2.3612500000000001</v>
+        <v>2.3574999999999999</v>
       </c>
       <c r="U34" s="30"/>
       <c r="V34" s="651">
@@ -14814,11 +14851,11 @@
       </c>
       <c r="W34" s="30"/>
       <c r="X34" s="458">
-        <v>2.3612500000000001</v>
+        <v>2.3574999999999999</v>
       </c>
       <c r="Y34" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E34,X34/100,ISERROR(F34))</f>
-        <v>0</v>
+        <v>-1.2500000000002093E-5</v>
       </c>
       <c r="Z34" s="655"/>
     </row>
@@ -14861,10 +14898,10 @@
         <v>GBP20YOIS=ICAP</v>
       </c>
       <c r="P35" s="266">
-        <v>2.49125</v>
+        <v>2.4862500000000001</v>
       </c>
       <c r="Q35" s="266">
-        <v>2.5412499999999998</v>
+        <v>2.5362499999999999</v>
       </c>
       <c r="R35" s="266">
         <v>0</v>
@@ -14874,7 +14911,7 @@
       </c>
       <c r="T35" s="266">
         <f>_xll.qlMidEquivalent($P35,$Q35,$R35,$S35)</f>
-        <v>2.5162499999999999</v>
+        <v>2.51125</v>
       </c>
       <c r="U35" s="30"/>
       <c r="V35" s="651">
@@ -14882,11 +14919,11 @@
       </c>
       <c r="W35" s="30"/>
       <c r="X35" s="458">
-        <v>2.5162499999999999</v>
+        <v>2.51125</v>
       </c>
       <c r="Y35" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E35,X35/100,ISERROR(F35))</f>
-        <v>1.2499999999995154E-5</v>
+        <v>-1.2500000000002093E-5</v>
       </c>
       <c r="Z35" s="655"/>
     </row>
@@ -14929,10 +14966,10 @@
         <v>GBP25YOIS=ICAP</v>
       </c>
       <c r="P36" s="266">
-        <v>2.5550000000000002</v>
+        <v>2.55125</v>
       </c>
       <c r="Q36" s="266">
-        <v>2.605</v>
+        <v>2.6012499999999998</v>
       </c>
       <c r="R36" s="266">
         <v>0</v>
@@ -14942,7 +14979,7 @@
       </c>
       <c r="T36" s="266">
         <f>_xll.qlMidEquivalent($P36,$Q36,$R36,$S36)</f>
-        <v>2.58</v>
+        <v>2.5762499999999999</v>
       </c>
       <c r="U36" s="30"/>
       <c r="V36" s="651">
@@ -14950,11 +14987,11 @@
       </c>
       <c r="W36" s="30"/>
       <c r="X36" s="458">
-        <v>2.58</v>
+        <v>2.5762499999999999</v>
       </c>
       <c r="Y36" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E36,X36/100,ISERROR(F36))</f>
-        <v>0</v>
+        <v>-1.2500000000002093E-5</v>
       </c>
       <c r="Z36" s="655"/>
     </row>
@@ -14997,10 +15034,10 @@
         <v>GBP30YOIS=ICAP</v>
       </c>
       <c r="P37" s="266">
-        <v>2.5487500000000001</v>
+        <v>2.5449999999999999</v>
       </c>
       <c r="Q37" s="266">
-        <v>2.67875</v>
+        <v>2.6749999999999998</v>
       </c>
       <c r="R37" s="266">
         <v>0</v>
@@ -15010,7 +15047,7 @@
       </c>
       <c r="T37" s="266">
         <f>_xll.qlMidEquivalent($P37,$Q37,$R37,$S37)</f>
-        <v>2.61375</v>
+        <v>2.61</v>
       </c>
       <c r="U37" s="30"/>
       <c r="V37" s="651">
@@ -15018,11 +15055,11 @@
       </c>
       <c r="W37" s="30"/>
       <c r="X37" s="458">
-        <v>2.61375</v>
+        <v>2.61</v>
       </c>
       <c r="Y37" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E37,X37/100,ISERROR(F37))</f>
-        <v>0</v>
+        <v>-1.2500000000002093E-5</v>
       </c>
       <c r="Z37" s="655"/>
     </row>
@@ -15062,10 +15099,10 @@
         <v>GBP40YOIS=ICAP</v>
       </c>
       <c r="P38" s="266">
-        <v>2.5587499999999999</v>
+        <v>2.5550000000000002</v>
       </c>
       <c r="Q38" s="266">
-        <v>2.6887500000000002</v>
+        <v>2.6850000000000001</v>
       </c>
       <c r="R38" s="266">
         <v>0</v>
@@ -15075,7 +15112,7 @@
       </c>
       <c r="T38" s="266">
         <f>_xll.qlMidEquivalent($P38,$Q38,$R38,$S38)</f>
-        <v>2.6237500000000002</v>
+        <v>2.62</v>
       </c>
       <c r="U38" s="30"/>
       <c r="V38" s="651">
@@ -15083,11 +15120,11 @@
       </c>
       <c r="W38" s="30"/>
       <c r="X38" s="458">
-        <v>2.6237500000000002</v>
+        <v>2.62</v>
       </c>
       <c r="Y38" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E38,X38/100,ISERROR(F38))</f>
-        <v>0</v>
+        <v>-1.2499999999998623E-5</v>
       </c>
       <c r="Z38" s="655"/>
     </row>
@@ -15127,10 +15164,10 @@
         <v>GBP50YOIS=ICAP</v>
       </c>
       <c r="P39" s="266">
-        <v>2.5762499999999999</v>
+        <v>2.57125</v>
       </c>
       <c r="Q39" s="266">
-        <v>2.7062499999999998</v>
+        <v>2.7012499999999999</v>
       </c>
       <c r="R39" s="266">
         <v>0</v>
@@ -15140,7 +15177,7 @@
       </c>
       <c r="T39" s="266">
         <f>_xll.qlMidEquivalent($P39,$Q39,$R39,$S39)</f>
-        <v>2.6412499999999999</v>
+        <v>2.63625</v>
       </c>
       <c r="U39" s="30"/>
       <c r="V39" s="651">
@@ -15148,11 +15185,11 @@
       </c>
       <c r="W39" s="30"/>
       <c r="X39" s="458">
-        <v>2.6412499999999999</v>
+        <v>2.63625</v>
       </c>
       <c r="Y39" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E39,X39/100,ISERROR(F39))</f>
-        <v>0</v>
+        <v>-1.2500000000002093E-5</v>
       </c>
       <c r="Z39" s="655"/>
     </row>
@@ -15192,10 +15229,10 @@
         <v>GBP60YOIS=ICAP</v>
       </c>
       <c r="P40" s="266">
-        <v>2.5987499999999999</v>
+        <v>2.5950000000000002</v>
       </c>
       <c r="Q40" s="266">
-        <v>2.7287499999999998</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="R40" s="266">
         <v>0</v>
@@ -15205,7 +15242,7 @@
       </c>
       <c r="T40" s="266">
         <f>_xll.qlMidEquivalent($P40,$Q40,$R40,$S40)</f>
-        <v>2.6637499999999998</v>
+        <v>2.66</v>
       </c>
       <c r="U40" s="30"/>
       <c r="V40" s="652">
@@ -15213,11 +15250,11 @@
       </c>
       <c r="W40" s="30"/>
       <c r="X40" s="459">
-        <v>2.6637499999999998</v>
+        <v>2.66</v>
       </c>
       <c r="Y40" s="649">
         <f>_xll.qlSimpleQuoteSetValue(E40,X40/100,ISERROR(F40))</f>
-        <v>0</v>
+        <v>-1.2499999999995154E-5</v>
       </c>
       <c r="Z40" s="655"/>
     </row>
@@ -16280,7 +16317,7 @@
       <c r="X3" s="86"/>
       <c r="Y3" s="289">
         <f>_xll.ohTrigger(Y5:Y15)</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Z3" s="160"/>
     </row>
@@ -16309,7 +16346,7 @@
       <c r="N4" s="141"/>
       <c r="O4" s="288" t="str">
         <f>_xll.RData(O5:O15,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:16:06</v>
       </c>
       <c r="P4" s="319" t="s">
         <v>254</v>
@@ -16378,10 +16415,10 @@
         <v>GBP2X1S=ICAP</v>
       </c>
       <c r="P5" s="308">
-        <v>0.44624999999999998</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="Q5" s="308">
-        <v>0.54625000000000001</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="R5" s="308">
         <v>0</v>
@@ -16391,7 +16428,7 @@
       </c>
       <c r="T5" s="384">
         <f>_xll.qlMidSafe($P5,$Q5)</f>
-        <v>0.49624999999999997</v>
+        <v>0.495</v>
       </c>
       <c r="U5" s="260"/>
       <c r="V5" s="267">
@@ -16400,7 +16437,7 @@
       <c r="W5" s="260"/>
       <c r="X5" s="458">
         <f t="array" ref="X5:X15">QuoteLive</f>
-        <v>0.49624999999999997</v>
+        <v>0.495</v>
       </c>
       <c r="Y5" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F5,X5/100,Trigger)</f>
@@ -16513,10 +16550,10 @@
         <v>GBP4X1S=ICAP</v>
       </c>
       <c r="P7" s="308">
-        <v>0.46625</v>
+        <v>0.46750000000000003</v>
       </c>
       <c r="Q7" s="308">
-        <v>0.56625000000000003</v>
+        <v>0.5675</v>
       </c>
       <c r="R7" s="308">
         <v>0</v>
@@ -16526,7 +16563,7 @@
       </c>
       <c r="T7" s="384">
         <f>_xll.qlMidSafe($P7,$Q7)</f>
-        <v>0.51624999999999999</v>
+        <v>0.51750000000000007</v>
       </c>
       <c r="U7" s="260"/>
       <c r="V7" s="267">
@@ -16534,7 +16571,7 @@
       </c>
       <c r="W7" s="260"/>
       <c r="X7" s="458">
-        <v>0.51624999999999999</v>
+        <v>0.51750000000000007</v>
       </c>
       <c r="Y7" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F7,X7/100,Trigger)</f>
@@ -16580,10 +16617,10 @@
         <v>GBP5X1S=ICAP</v>
       </c>
       <c r="P8" s="308">
-        <v>0.49375000000000002</v>
+        <v>0.49625000000000002</v>
       </c>
       <c r="Q8" s="308">
-        <v>0.59375</v>
+        <v>0.59624999999999995</v>
       </c>
       <c r="R8" s="308">
         <v>0</v>
@@ -16593,7 +16630,7 @@
       </c>
       <c r="T8" s="384">
         <f>_xll.qlMidSafe($P8,$Q8)</f>
-        <v>0.54374999999999996</v>
+        <v>0.54625000000000001</v>
       </c>
       <c r="U8" s="260"/>
       <c r="V8" s="267">
@@ -16601,7 +16638,7 @@
       </c>
       <c r="W8" s="260"/>
       <c r="X8" s="458">
-        <v>0.54374999999999996</v>
+        <v>0.54625000000000001</v>
       </c>
       <c r="Y8" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F8,X8/100,Trigger)</f>
@@ -16647,10 +16684,10 @@
         <v>GBP6X1S=ICAP</v>
       </c>
       <c r="P9" s="308">
-        <v>0.51749999999999996</v>
+        <v>0.52</v>
       </c>
       <c r="Q9" s="308">
-        <v>0.61750000000000005</v>
+        <v>0.62</v>
       </c>
       <c r="R9" s="308">
         <v>0</v>
@@ -16660,7 +16697,7 @@
       </c>
       <c r="T9" s="384">
         <f>_xll.qlMidSafe($P9,$Q9)</f>
-        <v>0.5675</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="U9" s="260"/>
       <c r="V9" s="267">
@@ -16668,11 +16705,11 @@
       </c>
       <c r="W9" s="260"/>
       <c r="X9" s="458">
-        <v>0.5675</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="Y9" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F9,X9/100,Trigger)</f>
-        <v>1.2500000000001225E-5</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="160"/>
     </row>
@@ -16714,10 +16751,10 @@
         <v>GBP7X1S=ICAP</v>
       </c>
       <c r="P10" s="308">
-        <v>0.54125000000000001</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="Q10" s="308">
-        <v>0.64124999999999999</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="R10" s="308">
         <v>0</v>
@@ -16727,7 +16764,7 @@
       </c>
       <c r="T10" s="384">
         <f>_xll.qlMidSafe($P10,$Q10)</f>
-        <v>0.59125000000000005</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="U10" s="260"/>
       <c r="V10" s="267">
@@ -16735,11 +16772,11 @@
       </c>
       <c r="W10" s="260"/>
       <c r="X10" s="458">
-        <v>0.59125000000000005</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="Y10" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F10,X10/100,Trigger)</f>
-        <v>1.2499999999999491E-5</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="160"/>
     </row>
@@ -16781,10 +16818,10 @@
         <v>GBP8X1S=ICAP</v>
       </c>
       <c r="P11" s="308">
-        <v>0.56000000000000005</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="Q11" s="308">
-        <v>0.66</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="R11" s="308">
         <v>0</v>
@@ -16794,7 +16831,7 @@
       </c>
       <c r="T11" s="384">
         <f>_xll.qlMidSafe($P11,$Q11)</f>
-        <v>0.6100000000000001</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="U11" s="260"/>
       <c r="V11" s="267">
@@ -16802,11 +16839,11 @@
       </c>
       <c r="W11" s="260"/>
       <c r="X11" s="458">
-        <v>0.6100000000000001</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="Y11" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F11,X11/100,Trigger)</f>
-        <v>1.2500000000002093E-5</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="160"/>
     </row>
@@ -16848,10 +16885,10 @@
         <v>GBP9X1S=ICAP</v>
       </c>
       <c r="P12" s="308">
-        <v>0.58374999999999999</v>
+        <v>0.58875</v>
       </c>
       <c r="Q12" s="308">
-        <v>0.68374999999999997</v>
+        <v>0.68874999999999997</v>
       </c>
       <c r="R12" s="308">
         <v>0</v>
@@ -16861,7 +16898,7 @@
       </c>
       <c r="T12" s="384">
         <f>_xll.qlMidSafe($P12,$Q12)</f>
-        <v>0.63375000000000004</v>
+        <v>0.63874999999999993</v>
       </c>
       <c r="U12" s="260"/>
       <c r="V12" s="267">
@@ -16869,11 +16906,11 @@
       </c>
       <c r="W12" s="260"/>
       <c r="X12" s="458">
-        <v>0.63375000000000004</v>
+        <v>0.63874999999999993</v>
       </c>
       <c r="Y12" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F12,X12/100,Trigger)</f>
-        <v>1.2499999999999491E-5</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="160"/>
     </row>
@@ -16915,10 +16952,10 @@
         <v>GBP10X1S=ICAP</v>
       </c>
       <c r="P13" s="308">
-        <v>0.60875000000000001</v>
+        <v>0.61375000000000002</v>
       </c>
       <c r="Q13" s="308">
-        <v>0.70874999999999999</v>
+        <v>0.71375</v>
       </c>
       <c r="R13" s="308">
         <v>0</v>
@@ -16928,7 +16965,7 @@
       </c>
       <c r="T13" s="384">
         <f>_xll.qlMidSafe($P13,$Q13)</f>
-        <v>0.65874999999999995</v>
+        <v>0.66375000000000006</v>
       </c>
       <c r="U13" s="260"/>
       <c r="V13" s="267">
@@ -16936,11 +16973,11 @@
       </c>
       <c r="W13" s="260"/>
       <c r="X13" s="458">
-        <v>0.65874999999999995</v>
+        <v>0.66375000000000006</v>
       </c>
       <c r="Y13" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F13,X13/100,Trigger)</f>
-        <v>1.2499999999999491E-5</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="160"/>
     </row>
@@ -16982,10 +17019,10 @@
         <v>GBP11X1S=ICAP</v>
       </c>
       <c r="P14" s="308">
-        <v>0.63249999999999995</v>
+        <v>0.63875000000000004</v>
       </c>
       <c r="Q14" s="308">
-        <v>0.73250000000000004</v>
+        <v>0.73875000000000002</v>
       </c>
       <c r="R14" s="308">
         <v>0</v>
@@ -16995,7 +17032,7 @@
       </c>
       <c r="T14" s="384">
         <f>_xll.qlMidSafe($P14,$Q14)</f>
-        <v>0.6825</v>
+        <v>0.68874999999999997</v>
       </c>
       <c r="U14" s="260"/>
       <c r="V14" s="267">
@@ -17003,11 +17040,11 @@
       </c>
       <c r="W14" s="260"/>
       <c r="X14" s="458">
-        <v>0.6825</v>
+        <v>0.68874999999999997</v>
       </c>
       <c r="Y14" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F14,X14/100,Trigger)</f>
-        <v>1.2500000000001225E-5</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="160"/>
     </row>
@@ -17049,10 +17086,10 @@
         <v>GBP12X1S=ICAP</v>
       </c>
       <c r="P15" s="304">
-        <v>0.65749999999999997</v>
+        <v>0.66374999999999995</v>
       </c>
       <c r="Q15" s="304">
-        <v>0.75749999999999995</v>
+        <v>0.76375000000000004</v>
       </c>
       <c r="R15" s="304">
         <v>0</v>
@@ -17062,7 +17099,7 @@
       </c>
       <c r="T15" s="382">
         <f>_xll.qlMidSafe($P15,$Q15)</f>
-        <v>0.70750000000000002</v>
+        <v>0.71375</v>
       </c>
       <c r="U15" s="260"/>
       <c r="V15" s="261">
@@ -17070,11 +17107,11 @@
       </c>
       <c r="W15" s="260"/>
       <c r="X15" s="459">
-        <v>0.70750000000000002</v>
+        <v>0.71375</v>
       </c>
       <c r="Y15" s="258">
         <f>_xll.qlSimpleQuoteSetValue(F15,X15/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.2500000000001225E-5</v>
       </c>
       <c r="Z15" s="160"/>
     </row>
@@ -17221,7 +17258,7 @@
       <c r="X3" s="86"/>
       <c r="Y3" s="361">
         <f>_xll.ohTrigger(Y5:Y11)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Z3" s="160"/>
     </row>
@@ -17250,7 +17287,7 @@
       <c r="N4" s="141"/>
       <c r="O4" s="288" t="str">
         <f>_xll.RData(O5:O11,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:15:40</v>
       </c>
       <c r="P4" s="319" t="s">
         <v>254</v>
@@ -17319,10 +17356,10 @@
         <v>GBP1S12=ICAP</v>
       </c>
       <c r="P5" s="308">
-        <v>0.875</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="Q5" s="308">
-        <v>0.89500000000000002</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="R5" s="308">
         <v>0</v>
@@ -17332,7 +17369,7 @@
       </c>
       <c r="T5" s="384">
         <f>_xll.qlMidSafe($P5,$Q5)</f>
-        <v>0.88500000000000001</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="U5" s="260"/>
       <c r="V5" s="383">
@@ -17341,7 +17378,7 @@
       <c r="W5" s="260"/>
       <c r="X5" s="458">
         <f t="array" ref="X5:X11">QuoteLive</f>
-        <v>0.88500000000000001</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="Y5" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F5,X5/100,Trigger)</f>
@@ -17387,10 +17424,10 @@
         <v>GBP2S12=ICAP</v>
       </c>
       <c r="P6" s="308">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Q6" s="308">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="R6" s="308">
         <v>0</v>
@@ -17400,7 +17437,7 @@
       </c>
       <c r="T6" s="384">
         <f>_xll.qlMidSafe($P6,$Q6)</f>
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="U6" s="260"/>
       <c r="V6" s="383">
@@ -17408,7 +17445,7 @@
       </c>
       <c r="W6" s="260"/>
       <c r="X6" s="458">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Y6" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F6,X6/100,Trigger)</f>
@@ -17454,10 +17491,10 @@
         <v>GBP3S12=ICAP</v>
       </c>
       <c r="P7" s="308">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="Q7" s="308">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="R7" s="308">
         <v>0</v>
@@ -17467,7 +17504,7 @@
       </c>
       <c r="T7" s="384">
         <f>_xll.qlMidSafe($P7,$Q7)</f>
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="U7" s="260"/>
       <c r="V7" s="383">
@@ -17475,7 +17512,7 @@
       </c>
       <c r="W7" s="260"/>
       <c r="X7" s="458">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Y7" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F7,X7/100,Trigger)</f>
@@ -17521,10 +17558,10 @@
         <v>GBP4S12=ICAP</v>
       </c>
       <c r="P8" s="308">
-        <v>1.415</v>
+        <v>1.425</v>
       </c>
       <c r="Q8" s="308">
-        <v>1.4350000000000001</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="R8" s="308">
         <v>0</v>
@@ -17534,7 +17571,7 @@
       </c>
       <c r="T8" s="384">
         <f>_xll.qlMidSafe($P8,$Q8)</f>
-        <v>1.425</v>
+        <v>1.4350000000000001</v>
       </c>
       <c r="U8" s="260"/>
       <c r="V8" s="383">
@@ -17542,11 +17579,11 @@
       </c>
       <c r="W8" s="260"/>
       <c r="X8" s="458">
-        <v>1.425</v>
+        <v>1.4350000000000001</v>
       </c>
       <c r="Y8" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F8,X8/100,Trigger)</f>
-        <v>-4.9999999999999697E-5</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="160"/>
     </row>
@@ -17588,10 +17625,10 @@
         <v>GBP1S24=ICAP</v>
       </c>
       <c r="P9" s="308">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="Q9" s="308">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="R9" s="308">
         <v>0</v>
@@ -17601,7 +17638,7 @@
       </c>
       <c r="T9" s="384">
         <f>_xll.qlMidSafe($P9,$Q9)</f>
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="U9" s="260"/>
       <c r="V9" s="383">
@@ -17609,7 +17646,7 @@
       </c>
       <c r="W9" s="260"/>
       <c r="X9" s="458">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Y9" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F9,X9/100,Trigger)</f>
@@ -17655,10 +17692,10 @@
         <v>GBP2S24=ICAP</v>
       </c>
       <c r="P10" s="308">
-        <v>1.39</v>
+        <v>1.395</v>
       </c>
       <c r="Q10" s="308">
-        <v>1.41</v>
+        <v>1.415</v>
       </c>
       <c r="R10" s="308">
         <v>0</v>
@@ -17668,7 +17705,7 @@
       </c>
       <c r="T10" s="384">
         <f>_xll.qlMidSafe($P10,$Q10)</f>
-        <v>1.4</v>
+        <v>1.405</v>
       </c>
       <c r="U10" s="260"/>
       <c r="V10" s="383">
@@ -17676,11 +17713,11 @@
       </c>
       <c r="W10" s="260"/>
       <c r="X10" s="458">
-        <v>1.4</v>
+        <v>1.405</v>
       </c>
       <c r="Y10" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F10,X10/100,Trigger)</f>
-        <v>0</v>
+        <v>-4.9999999999999697E-5</v>
       </c>
       <c r="Z10" s="160"/>
     </row>
@@ -17926,7 +17963,7 @@
       <c r="AB3" s="86"/>
       <c r="AC3" s="289">
         <f>_xll.ohTrigger(AC5:AC43)</f>
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="AD3" s="160"/>
       <c r="AE3" s="17"/>
@@ -17962,7 +17999,7 @@
       <c r="R4" s="141"/>
       <c r="S4" s="288" t="str">
         <f>_xll.RData(S5:S43,T4:W4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:16:23</v>
       </c>
       <c r="T4" s="319" t="s">
         <v>254</v>
@@ -18232,10 +18269,10 @@
         <v>GBPSM3L1Y=ICAP</v>
       </c>
       <c r="T7" s="308">
-        <v>0.74</v>
+        <v>0.747</v>
       </c>
       <c r="U7" s="308">
-        <v>0.78</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="V7" s="308">
         <v>0</v>
@@ -18245,7 +18282,7 @@
       </c>
       <c r="X7" s="268">
         <f>_xll.qlMidSafe($T7,$U7)</f>
-        <v>0.76</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="Y7" s="260"/>
       <c r="Z7" s="267">
@@ -18253,7 +18290,7 @@
       </c>
       <c r="AA7" s="260"/>
       <c r="AB7" s="458">
-        <v>0.76</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="AC7" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F7,AB7/100,Trigger)</f>
@@ -18587,10 +18624,10 @@
         <v>GBPSM3L2Y=ICAP</v>
       </c>
       <c r="T11" s="308">
-        <v>1.0820000000000001</v>
+        <v>1.089</v>
       </c>
       <c r="U11" s="308">
-        <v>1.1220000000000001</v>
+        <v>1.129</v>
       </c>
       <c r="V11" s="308">
         <v>0</v>
@@ -18600,7 +18637,7 @@
       </c>
       <c r="X11" s="268">
         <f>_xll.qlMidSafe($T11,$U11)</f>
-        <v>1.1020000000000001</v>
+        <v>1.109</v>
       </c>
       <c r="Y11" s="260"/>
       <c r="Z11" s="267">
@@ -18608,7 +18645,7 @@
       </c>
       <c r="AA11" s="260"/>
       <c r="AB11" s="458">
-        <v>1.1020000000000001</v>
+        <v>1.109</v>
       </c>
       <c r="AC11" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F11,AB11/100,Trigger)</f>
@@ -18664,10 +18701,10 @@
         <v>GBPSM3L3Y=ICAP</v>
       </c>
       <c r="T12" s="308">
-        <v>1.383</v>
+        <v>1.3879999999999999</v>
       </c>
       <c r="U12" s="308">
-        <v>1.423</v>
+        <v>1.4279999999999999</v>
       </c>
       <c r="V12" s="308">
         <v>0</v>
@@ -18677,7 +18714,7 @@
       </c>
       <c r="X12" s="268">
         <f>_xll.qlMidSafe($T12,$U12)</f>
-        <v>1.403</v>
+        <v>1.4079999999999999</v>
       </c>
       <c r="Y12" s="260"/>
       <c r="Z12" s="267">
@@ -18685,7 +18722,7 @@
       </c>
       <c r="AA12" s="260"/>
       <c r="AB12" s="458">
-        <v>1.403</v>
+        <v>1.4079999999999999</v>
       </c>
       <c r="AC12" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F12,AB12/100,Trigger)</f>
@@ -18740,10 +18777,10 @@
         <v>GBPSM3L4Y=ICAP</v>
       </c>
       <c r="T13" s="308">
-        <v>1.601</v>
+        <v>1.6060000000000001</v>
       </c>
       <c r="U13" s="308">
-        <v>1.651</v>
+        <v>1.6559999999999999</v>
       </c>
       <c r="V13" s="308">
         <v>0</v>
@@ -18753,7 +18790,7 @@
       </c>
       <c r="X13" s="268">
         <f>_xll.qlMidSafe($T13,$U13)</f>
-        <v>1.6259999999999999</v>
+        <v>1.631</v>
       </c>
       <c r="Y13" s="260"/>
       <c r="Z13" s="267">
@@ -18761,7 +18798,7 @@
       </c>
       <c r="AA13" s="260"/>
       <c r="AB13" s="458">
-        <v>1.6259999999999999</v>
+        <v>1.631</v>
       </c>
       <c r="AC13" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F13,AB13/100,Trigger)</f>
@@ -18816,10 +18853,10 @@
         <v>GBPSM3L5Y=ICAP</v>
       </c>
       <c r="T14" s="308">
-        <v>1.772</v>
+        <v>1.7729999999999999</v>
       </c>
       <c r="U14" s="308">
-        <v>1.8220000000000001</v>
+        <v>1.823</v>
       </c>
       <c r="V14" s="308">
         <v>0</v>
@@ -18829,7 +18866,7 @@
       </c>
       <c r="X14" s="268">
         <f>_xll.qlMidSafe($T14,$U14)</f>
-        <v>1.7970000000000002</v>
+        <v>1.798</v>
       </c>
       <c r="Y14" s="260"/>
       <c r="Z14" s="267">
@@ -18837,7 +18874,7 @@
       </c>
       <c r="AA14" s="260"/>
       <c r="AB14" s="458">
-        <v>1.7970000000000002</v>
+        <v>1.798</v>
       </c>
       <c r="AC14" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F14,AB14/100,Trigger)</f>
@@ -18892,10 +18929,10 @@
         <v>GBPSM3L6Y=ICAP</v>
       </c>
       <c r="T15" s="308">
-        <v>1.9059999999999999</v>
+        <v>1.907</v>
       </c>
       <c r="U15" s="308">
-        <v>1.956</v>
+        <v>1.9570000000000001</v>
       </c>
       <c r="V15" s="308">
         <v>0</v>
@@ -18905,7 +18942,7 @@
       </c>
       <c r="X15" s="268">
         <f>_xll.qlMidSafe($T15,$U15)</f>
-        <v>1.931</v>
+        <v>1.9319999999999999</v>
       </c>
       <c r="Y15" s="260"/>
       <c r="Z15" s="267">
@@ -18913,11 +18950,11 @@
       </c>
       <c r="AA15" s="260"/>
       <c r="AB15" s="458">
-        <v>1.931</v>
+        <v>1.9319999999999999</v>
       </c>
       <c r="AC15" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F15,AB15/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999995925E-6</v>
       </c>
       <c r="AD15" s="160"/>
       <c r="AE15" s="17"/>
@@ -18968,10 +19005,10 @@
         <v>GBPSM3L7Y=ICAP</v>
       </c>
       <c r="T16" s="308">
-        <v>2.0169999999999999</v>
+        <v>2.0179999999999998</v>
       </c>
       <c r="U16" s="308">
-        <v>2.0670000000000002</v>
+        <v>2.0680000000000001</v>
       </c>
       <c r="V16" s="308">
         <v>0</v>
@@ -18981,7 +19018,7 @@
       </c>
       <c r="X16" s="268">
         <f>_xll.qlMidSafe($T16,$U16)</f>
-        <v>2.0419999999999998</v>
+        <v>2.0430000000000001</v>
       </c>
       <c r="Y16" s="260"/>
       <c r="Z16" s="267">
@@ -18989,11 +19026,11 @@
       </c>
       <c r="AA16" s="260"/>
       <c r="AB16" s="458">
-        <v>2.0419999999999998</v>
+        <v>2.0430000000000001</v>
       </c>
       <c r="AC16" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F16,AB16/100,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000003062E-5</v>
       </c>
       <c r="AD16" s="160"/>
       <c r="AE16" s="17"/>
@@ -19069,7 +19106,7 @@
       </c>
       <c r="AC17" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F17,AB17/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999995925E-6</v>
       </c>
       <c r="AD17" s="160"/>
       <c r="AE17" s="17"/>
@@ -19120,10 +19157,10 @@
         <v>GBPSM3L9Y=ICAP</v>
       </c>
       <c r="T18" s="308">
-        <v>2.1920000000000002</v>
+        <v>2.1909999999999998</v>
       </c>
       <c r="U18" s="308">
-        <v>2.242</v>
+        <v>2.2410000000000001</v>
       </c>
       <c r="V18" s="308">
         <v>0</v>
@@ -19133,7 +19170,7 @@
       </c>
       <c r="X18" s="268">
         <f>_xll.qlMidSafe($T18,$U18)</f>
-        <v>2.2170000000000001</v>
+        <v>2.2160000000000002</v>
       </c>
       <c r="Y18" s="260"/>
       <c r="Z18" s="267">
@@ -19141,11 +19178,11 @@
       </c>
       <c r="AA18" s="260"/>
       <c r="AB18" s="458">
-        <v>2.2170000000000001</v>
+        <v>2.2160000000000002</v>
       </c>
       <c r="AC18" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F18,AB18/100,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000003062E-5</v>
       </c>
       <c r="AD18" s="160"/>
       <c r="AE18" s="17"/>
@@ -19221,7 +19258,7 @@
       </c>
       <c r="AC19" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F19,AB19/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999961231E-6</v>
       </c>
       <c r="AD19" s="160"/>
       <c r="AE19" s="17"/>
@@ -19297,7 +19334,7 @@
       </c>
       <c r="AC20" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F20,AB20/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999995925E-6</v>
       </c>
       <c r="AD20" s="160"/>
       <c r="AE20" s="17"/>
@@ -19348,10 +19385,10 @@
         <v>GBPSM3L12Y=ICAP</v>
       </c>
       <c r="T21" s="308">
-        <v>2.3759999999999999</v>
+        <v>2.3769999999999998</v>
       </c>
       <c r="U21" s="308">
-        <v>2.4460000000000002</v>
+        <v>2.4470000000000001</v>
       </c>
       <c r="V21" s="308">
         <v>0</v>
@@ -19361,7 +19398,7 @@
       </c>
       <c r="X21" s="268">
         <f>_xll.qlMidSafe($T21,$U21)</f>
-        <v>2.411</v>
+        <v>2.4119999999999999</v>
       </c>
       <c r="Y21" s="260"/>
       <c r="Z21" s="267">
@@ -19369,11 +19406,11 @@
       </c>
       <c r="AA21" s="260"/>
       <c r="AB21" s="458">
-        <v>2.411</v>
+        <v>2.4119999999999999</v>
       </c>
       <c r="AC21" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F21,AB21/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999995925E-6</v>
       </c>
       <c r="AD21" s="160"/>
       <c r="AE21" s="17"/>
@@ -19576,10 +19613,10 @@
         <v>GBPSM3L15Y=ICAP</v>
       </c>
       <c r="T24" s="308">
-        <v>2.5030000000000001</v>
+        <v>2.5009999999999999</v>
       </c>
       <c r="U24" s="308">
-        <v>2.593</v>
+        <v>2.5910000000000002</v>
       </c>
       <c r="V24" s="308">
         <v>0</v>
@@ -19589,7 +19626,7 @@
       </c>
       <c r="X24" s="268">
         <f>_xll.qlMidSafe($T24,$U24)</f>
-        <v>2.548</v>
+        <v>2.5460000000000003</v>
       </c>
       <c r="Y24" s="260"/>
       <c r="Z24" s="267">
@@ -19597,11 +19634,11 @@
       </c>
       <c r="AA24" s="260"/>
       <c r="AB24" s="458">
-        <v>2.548</v>
+        <v>2.5460000000000003</v>
       </c>
       <c r="AC24" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F24,AB24/100,Trigger)</f>
-        <v>-9.9999999999995925E-6</v>
+        <v>1.0000000000003062E-5</v>
       </c>
       <c r="AD24" s="160"/>
       <c r="AE24" s="17"/>
@@ -19956,10 +19993,10 @@
         <v>GBPSM3L20Y=ICAP</v>
       </c>
       <c r="T29" s="308">
-        <v>2.6139999999999999</v>
+        <v>2.6110000000000002</v>
       </c>
       <c r="U29" s="308">
-        <v>2.7440000000000002</v>
+        <v>2.7410000000000001</v>
       </c>
       <c r="V29" s="308">
         <v>0</v>
@@ -19969,7 +20006,7 @@
       </c>
       <c r="X29" s="268">
         <f>_xll.qlMidSafe($T29,$U29)</f>
-        <v>2.6790000000000003</v>
+        <v>2.6760000000000002</v>
       </c>
       <c r="Y29" s="260"/>
       <c r="Z29" s="267">
@@ -19977,11 +20014,11 @@
       </c>
       <c r="AA29" s="260"/>
       <c r="AB29" s="458">
-        <v>2.6790000000000003</v>
+        <v>2.6760000000000002</v>
       </c>
       <c r="AC29" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F29,AB29/100,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000003062E-5</v>
       </c>
       <c r="AD29" s="160"/>
       <c r="AE29" s="17"/>
@@ -20336,10 +20373,10 @@
         <v>GBPSM3L25Y=ICAP</v>
       </c>
       <c r="T34" s="308">
-        <v>2.6619999999999999</v>
+        <v>2.661</v>
       </c>
       <c r="U34" s="308">
-        <v>2.7919999999999998</v>
+        <v>2.7909999999999999</v>
       </c>
       <c r="V34" s="308">
         <v>0</v>
@@ -20349,7 +20386,7 @@
       </c>
       <c r="X34" s="268">
         <f>_xll.qlMidSafe($T34,$U34)</f>
-        <v>2.7269999999999999</v>
+        <v>2.726</v>
       </c>
       <c r="Y34" s="260"/>
       <c r="Z34" s="267">
@@ -20357,11 +20394,11 @@
       </c>
       <c r="AA34" s="260"/>
       <c r="AB34" s="458">
-        <v>2.7269999999999999</v>
+        <v>2.726</v>
       </c>
       <c r="AC34" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F34,AB34/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999995925E-6</v>
       </c>
       <c r="AD34" s="160"/>
       <c r="AE34" s="17"/>
@@ -20716,10 +20753,10 @@
         <v>GBPSM3L30Y=ICAP</v>
       </c>
       <c r="T39" s="308">
-        <v>2.6859999999999999</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="U39" s="308">
-        <v>2.8159999999999998</v>
+        <v>2.8130000000000002</v>
       </c>
       <c r="V39" s="308">
         <v>0</v>
@@ -20729,7 +20766,7 @@
       </c>
       <c r="X39" s="268">
         <f>_xll.qlMidSafe($T39,$U39)</f>
-        <v>2.7509999999999999</v>
+        <v>2.7480000000000002</v>
       </c>
       <c r="Y39" s="260"/>
       <c r="Z39" s="267">
@@ -20737,11 +20774,11 @@
       </c>
       <c r="AA39" s="260"/>
       <c r="AB39" s="458">
-        <v>2.7509999999999999</v>
+        <v>2.7480000000000002</v>
       </c>
       <c r="AC39" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F39,AB39/100,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000003062E-5</v>
       </c>
       <c r="AD39" s="160"/>
       <c r="AE39" s="17"/>
@@ -20868,10 +20905,10 @@
         <v>GBPSM3L40Y=ICAP</v>
       </c>
       <c r="T41" s="308">
-        <v>2.6629999999999998</v>
+        <v>2.66</v>
       </c>
       <c r="U41" s="308">
-        <v>2.8330000000000002</v>
+        <v>2.83</v>
       </c>
       <c r="V41" s="308">
         <v>0</v>
@@ -20881,7 +20918,7 @@
       </c>
       <c r="X41" s="268">
         <f>_xll.qlMidSafe($T41,$U41)</f>
-        <v>2.7480000000000002</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="Y41" s="260"/>
       <c r="Z41" s="267">
@@ -20889,11 +20926,11 @@
       </c>
       <c r="AA41" s="260"/>
       <c r="AB41" s="458">
-        <v>2.7480000000000002</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="AC41" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F41,AB41/100,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000003062E-5</v>
       </c>
       <c r="AD41" s="160"/>
       <c r="AE41" s="17"/>
@@ -20944,10 +20981,10 @@
         <v>GBPSM3L50Y=ICAP</v>
       </c>
       <c r="T42" s="308">
-        <v>2.6709999999999998</v>
+        <v>2.6680000000000001</v>
       </c>
       <c r="U42" s="308">
-        <v>2.8410000000000002</v>
+        <v>2.8380000000000001</v>
       </c>
       <c r="V42" s="308">
         <v>0</v>
@@ -20957,7 +20994,7 @@
       </c>
       <c r="X42" s="268">
         <f>_xll.qlMidSafe($T42,$U42)</f>
-        <v>2.7560000000000002</v>
+        <v>2.7530000000000001</v>
       </c>
       <c r="Y42" s="260"/>
       <c r="Z42" s="267">
@@ -20965,11 +21002,11 @@
       </c>
       <c r="AA42" s="260"/>
       <c r="AB42" s="458">
-        <v>2.7560000000000002</v>
+        <v>2.7530000000000001</v>
       </c>
       <c r="AC42" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F42,AB42/100,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000003062E-5</v>
       </c>
       <c r="AD42" s="160"/>
       <c r="AE42" s="17"/>
@@ -21020,10 +21057,10 @@
         <v>GBPSM3L60Y=ICAP</v>
       </c>
       <c r="T43" s="304">
-        <v>2.6890000000000001</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="U43" s="304">
-        <v>2.859</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="V43" s="304">
         <v>0</v>
@@ -21033,7 +21070,7 @@
       </c>
       <c r="X43" s="262">
         <f>_xll.qlMidSafe($T43,$U43)</f>
-        <v>2.774</v>
+        <v>2.7709999999999999</v>
       </c>
       <c r="Y43" s="260"/>
       <c r="Z43" s="261">
@@ -21041,11 +21078,11 @@
       </c>
       <c r="AA43" s="260"/>
       <c r="AB43" s="459">
-        <v>2.774</v>
+        <v>2.7709999999999999</v>
       </c>
       <c r="AC43" s="258">
         <f>_xll.qlSimpleQuoteSetValue(F43,AB43/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999995925E-6</v>
       </c>
       <c r="AD43" s="160"/>
       <c r="AE43" s="17"/>
@@ -21233,7 +21270,7 @@
       <c r="AB3" s="86"/>
       <c r="AC3" s="289">
         <f>_xll.ohTrigger(AC5:AC43)</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AD3" s="160"/>
       <c r="AE3" s="17"/>
@@ -21269,7 +21306,7 @@
       <c r="R4" s="141"/>
       <c r="S4" s="288" t="str">
         <f>_xll.RData(S5:S43,T4:W4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:16:06</v>
       </c>
       <c r="T4" s="319" t="s">
         <v>254</v>
@@ -21358,10 +21395,10 @@
         <v>GBPAM3L6M=ICAP</v>
       </c>
       <c r="T5" s="308">
-        <v>0.60199999999999998</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="U5" s="308">
-        <v>0.63200000000000001</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="V5" s="308">
         <v>0</v>
@@ -21371,7 +21408,7 @@
       </c>
       <c r="X5" s="268">
         <f>_xll.qlMidSafe($T5,$U5)</f>
-        <v>0.61699999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="Y5" s="260"/>
       <c r="Z5" s="267">
@@ -21380,7 +21417,7 @@
       <c r="AA5" s="260"/>
       <c r="AB5" s="458">
         <f t="array" ref="AB5:AB43">QuoteLive</f>
-        <v>0.61699999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="AC5" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F5,AB5/100,Trigger)</f>
@@ -21452,10 +21489,10 @@
         <v>GBPAM3L9M=ICAP</v>
       </c>
       <c r="T6" s="308">
-        <v>0.66800000000000004</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="U6" s="308">
-        <v>0.69799999999999995</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="V6" s="308">
         <v>0</v>
@@ -21465,7 +21502,7 @@
       </c>
       <c r="X6" s="268">
         <f>_xll.qlMidSafe($T6,$U6)</f>
-        <v>0.68300000000000005</v>
+        <v>0.68900000000000006</v>
       </c>
       <c r="Y6" s="260"/>
       <c r="Z6" s="267">
@@ -21473,11 +21510,11 @@
       </c>
       <c r="AA6" s="260"/>
       <c r="AB6" s="458">
-        <v>0.68300000000000005</v>
+        <v>0.68900000000000006</v>
       </c>
       <c r="AC6" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F6,AB6/100,Trigger)</f>
-        <v>1.000000000000046E-5</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="160"/>
       <c r="AE6" s="17"/>
@@ -21545,10 +21582,10 @@
         <v>GBPAM3L1Y=ICAP</v>
       </c>
       <c r="T7" s="308">
-        <v>0.747</v>
+        <v>0.753</v>
       </c>
       <c r="U7" s="308">
-        <v>0.77700000000000002</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="V7" s="308">
         <v>0</v>
@@ -21558,7 +21595,7 @@
       </c>
       <c r="X7" s="268">
         <f>_xll.qlMidSafe($T7,$U7)</f>
-        <v>0.76200000000000001</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="Y7" s="260"/>
       <c r="Z7" s="267">
@@ -21566,11 +21603,11 @@
       </c>
       <c r="AA7" s="260"/>
       <c r="AB7" s="458">
-        <v>0.76200000000000001</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="AC7" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F7,AB7/100,Trigger)</f>
-        <v>9.9999999999995925E-6</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="160"/>
       <c r="AE7" s="17"/>
@@ -21636,10 +21673,10 @@
         <v>GBPAM3L15M=ICAP</v>
       </c>
       <c r="T8" s="308">
-        <v>0.83299999999999996</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="U8" s="308">
-        <v>0.86299999999999999</v>
+        <v>0.871</v>
       </c>
       <c r="V8" s="308">
         <v>0</v>
@@ -21649,7 +21686,7 @@
       </c>
       <c r="X8" s="268">
         <f>_xll.qlMidSafe($T8,$U8)</f>
-        <v>0.84799999999999998</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="Y8" s="260"/>
       <c r="Z8" s="267">
@@ -21657,11 +21694,11 @@
       </c>
       <c r="AA8" s="260"/>
       <c r="AB8" s="458">
-        <v>0.84799999999999998</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="AC8" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F8,AB8/100,Trigger)</f>
-        <v>9.9999999999995925E-6</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="160"/>
       <c r="AE8" s="17"/>
@@ -21727,10 +21764,10 @@
         <v>GBPAM3L18M=ICAP</v>
       </c>
       <c r="T9" s="308">
-        <v>0.91900000000000004</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="U9" s="308">
-        <v>0.94899999999999995</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="V9" s="308">
         <v>0</v>
@@ -21740,7 +21777,7 @@
       </c>
       <c r="X9" s="268">
         <f>_xll.qlMidSafe($T9,$U9)</f>
-        <v>0.93399999999999994</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="Y9" s="260"/>
       <c r="Z9" s="267">
@@ -21748,11 +21785,11 @@
       </c>
       <c r="AA9" s="260"/>
       <c r="AB9" s="458">
-        <v>0.93399999999999994</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="AC9" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F9,AB9/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000001327E-5</v>
       </c>
       <c r="AD9" s="160"/>
       <c r="AE9" s="17"/>
@@ -24541,7 +24578,7 @@
       <c r="AB3" s="86"/>
       <c r="AC3" s="361">
         <f>_xll.ohTrigger(AC5:AC43)</f>
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="AD3" s="160"/>
       <c r="AE3" s="17"/>
@@ -24576,7 +24613,7 @@
       <c r="R4" s="141"/>
       <c r="S4" s="288" t="str">
         <f>_xll.RData(S5:S43,T4:W4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:16:15</v>
       </c>
       <c r="T4" s="319" t="s">
         <v>254</v>
@@ -25029,10 +25066,10 @@
         <v>GBPSB6L18M=ICAP</v>
       </c>
       <c r="T9" s="308">
-        <v>1.004</v>
+        <v>1.012</v>
       </c>
       <c r="U9" s="308">
-        <v>1.044</v>
+        <v>1.052</v>
       </c>
       <c r="V9" s="308">
         <v>0</v>
@@ -25042,7 +25079,7 @@
       </c>
       <c r="X9" s="384">
         <f>_xll.qlMidEquivalent($T9,$U9,$V9,$W9)</f>
-        <v>1.024</v>
+        <v>1.032</v>
       </c>
       <c r="Y9" s="260"/>
       <c r="Z9" s="267">
@@ -25050,7 +25087,7 @@
       </c>
       <c r="AA9" s="260"/>
       <c r="AB9" s="458">
-        <v>1.024</v>
+        <v>1.032</v>
       </c>
       <c r="AC9" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F9,AB9/100,Trigger)</f>
@@ -25194,10 +25231,10 @@
         <v>GBPSB6L2Y=ICAP</v>
       </c>
       <c r="T11" s="308">
-        <v>1.175</v>
+        <v>1.18</v>
       </c>
       <c r="U11" s="308">
-        <v>1.2150000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="V11" s="308">
         <v>0</v>
@@ -25207,7 +25244,7 @@
       </c>
       <c r="X11" s="384">
         <f>_xll.qlMidEquivalent($T11,$U11,$V11,$W11)</f>
-        <v>1.1950000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="Y11" s="260"/>
       <c r="Z11" s="267">
@@ -25215,7 +25252,7 @@
       </c>
       <c r="AA11" s="260"/>
       <c r="AB11" s="458">
-        <v>1.1950000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="AC11" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F11,AB11/100,Trigger)</f>
@@ -25269,10 +25306,10 @@
         <v>GBPSB6L3Y=ICAP</v>
       </c>
       <c r="T12" s="308">
-        <v>1.4790000000000001</v>
+        <v>1.4870000000000001</v>
       </c>
       <c r="U12" s="308">
-        <v>1.5189999999999999</v>
+        <v>1.5269999999999999</v>
       </c>
       <c r="V12" s="308">
         <v>0</v>
@@ -25282,7 +25319,7 @@
       </c>
       <c r="X12" s="384">
         <f>_xll.qlMidEquivalent($T12,$U12,$V12,$W12)</f>
-        <v>1.4990000000000001</v>
+        <v>1.5070000000000001</v>
       </c>
       <c r="Y12" s="260"/>
       <c r="Z12" s="267">
@@ -25290,7 +25327,7 @@
       </c>
       <c r="AA12" s="260"/>
       <c r="AB12" s="458">
-        <v>1.4990000000000001</v>
+        <v>1.5070000000000001</v>
       </c>
       <c r="AC12" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F12,AB12/100,Trigger)</f>
@@ -25344,10 +25381,10 @@
         <v>GBPSB6L4Y=ICAP</v>
       </c>
       <c r="T13" s="308">
-        <v>1.7090000000000001</v>
+        <v>1.7150000000000001</v>
       </c>
       <c r="U13" s="308">
-        <v>1.7589999999999999</v>
+        <v>1.7649999999999999</v>
       </c>
       <c r="V13" s="308">
         <v>0</v>
@@ -25357,7 +25394,7 @@
       </c>
       <c r="X13" s="384">
         <f>_xll.qlMidEquivalent($T13,$U13,$V13,$W13)</f>
-        <v>1.734</v>
+        <v>1.74</v>
       </c>
       <c r="Y13" s="260"/>
       <c r="Z13" s="267">
@@ -25365,7 +25402,7 @@
       </c>
       <c r="AA13" s="260"/>
       <c r="AB13" s="458">
-        <v>1.734</v>
+        <v>1.74</v>
       </c>
       <c r="AC13" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F13,AB13/100,Trigger)</f>
@@ -25419,10 +25456,10 @@
         <v>GBPSB6L5Y=ICAP</v>
       </c>
       <c r="T14" s="308">
-        <v>1.887</v>
+        <v>1.891</v>
       </c>
       <c r="U14" s="308">
-        <v>1.9370000000000001</v>
+        <v>1.9410000000000001</v>
       </c>
       <c r="V14" s="308">
         <v>0</v>
@@ -25432,7 +25469,7 @@
       </c>
       <c r="X14" s="384">
         <f>_xll.qlMidEquivalent($T14,$U14,$V14,$W14)</f>
-        <v>1.9119999999999999</v>
+        <v>1.9159999999999999</v>
       </c>
       <c r="Y14" s="260"/>
       <c r="Z14" s="267">
@@ -25440,7 +25477,7 @@
       </c>
       <c r="AA14" s="260"/>
       <c r="AB14" s="458">
-        <v>1.9119999999999999</v>
+        <v>1.9159999999999999</v>
       </c>
       <c r="AC14" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F14,AB14/100,Trigger)</f>
@@ -25494,10 +25531,10 @@
         <v>GBPSB6L6Y=ICAP</v>
       </c>
       <c r="T15" s="308">
-        <v>2.0289999999999999</v>
+        <v>2.032</v>
       </c>
       <c r="U15" s="308">
-        <v>2.0790000000000002</v>
+        <v>2.0819999999999999</v>
       </c>
       <c r="V15" s="308">
         <v>0</v>
@@ -25507,7 +25544,7 @@
       </c>
       <c r="X15" s="384">
         <f>_xll.qlMidEquivalent($T15,$U15,$V15,$W15)</f>
-        <v>2.0540000000000003</v>
+        <v>2.0569999999999999</v>
       </c>
       <c r="Y15" s="260"/>
       <c r="Z15" s="267">
@@ -25515,11 +25552,11 @@
       </c>
       <c r="AA15" s="260"/>
       <c r="AB15" s="458">
-        <v>2.0540000000000003</v>
+        <v>2.0569999999999999</v>
       </c>
       <c r="AC15" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F15,AB15/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999961231E-6</v>
       </c>
       <c r="AD15" s="160"/>
       <c r="AE15" s="17"/>
@@ -25569,10 +25606,10 @@
         <v>GBPSB6L7Y=ICAP</v>
       </c>
       <c r="T16" s="308">
-        <v>2.145</v>
+        <v>2.1480000000000001</v>
       </c>
       <c r="U16" s="308">
-        <v>2.1949999999999998</v>
+        <v>2.198</v>
       </c>
       <c r="V16" s="308">
         <v>0</v>
@@ -25582,7 +25619,7 @@
       </c>
       <c r="X16" s="384">
         <f>_xll.qlMidEquivalent($T16,$U16,$V16,$W16)</f>
-        <v>2.17</v>
+        <v>2.173</v>
       </c>
       <c r="Y16" s="260"/>
       <c r="Z16" s="267">
@@ -25590,11 +25627,11 @@
       </c>
       <c r="AA16" s="260"/>
       <c r="AB16" s="458">
-        <v>2.17</v>
+        <v>2.173</v>
       </c>
       <c r="AC16" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F16,AB16/100,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000003062E-5</v>
       </c>
       <c r="AD16" s="160"/>
       <c r="AE16" s="17"/>
@@ -25644,10 +25681,10 @@
         <v>GBPSB6L8Y=ICAP</v>
       </c>
       <c r="T17" s="308">
-        <v>2.2440000000000002</v>
+        <v>2.2469999999999999</v>
       </c>
       <c r="U17" s="308">
-        <v>2.294</v>
+        <v>2.2970000000000002</v>
       </c>
       <c r="V17" s="308">
         <v>0</v>
@@ -25657,7 +25694,7 @@
       </c>
       <c r="X17" s="384">
         <f>_xll.qlMidEquivalent($T17,$U17,$V17,$W17)</f>
-        <v>2.2690000000000001</v>
+        <v>2.2720000000000002</v>
       </c>
       <c r="Y17" s="260"/>
       <c r="Z17" s="267">
@@ -25665,11 +25702,11 @@
       </c>
       <c r="AA17" s="260"/>
       <c r="AB17" s="458">
-        <v>2.2690000000000001</v>
+        <v>2.2720000000000002</v>
       </c>
       <c r="AC17" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F17,AB17/100,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000006531E-5</v>
       </c>
       <c r="AD17" s="160"/>
       <c r="AE17" s="17"/>
@@ -25719,10 +25756,10 @@
         <v>GBPSB6L9Y=ICAP</v>
       </c>
       <c r="T18" s="308">
-        <v>2.33</v>
+        <v>2.3330000000000002</v>
       </c>
       <c r="U18" s="308">
-        <v>2.38</v>
+        <v>2.383</v>
       </c>
       <c r="V18" s="308">
         <v>0</v>
@@ -25732,7 +25769,7 @@
       </c>
       <c r="X18" s="384">
         <f>_xll.qlMidEquivalent($T18,$U18,$V18,$W18)</f>
-        <v>2.355</v>
+        <v>2.3580000000000001</v>
       </c>
       <c r="Y18" s="260"/>
       <c r="Z18" s="267">
@@ -25740,11 +25777,11 @@
       </c>
       <c r="AA18" s="260"/>
       <c r="AB18" s="458">
-        <v>2.355</v>
+        <v>2.3580000000000001</v>
       </c>
       <c r="AC18" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F18,AB18/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999995925E-6</v>
       </c>
       <c r="AD18" s="160"/>
       <c r="AE18" s="17"/>
@@ -25794,10 +25831,10 @@
         <v>GBPSB6L10Y=ICAP</v>
       </c>
       <c r="T19" s="308">
-        <v>2.403</v>
+        <v>2.407</v>
       </c>
       <c r="U19" s="308">
-        <v>2.4529999999999998</v>
+        <v>2.4569999999999999</v>
       </c>
       <c r="V19" s="308">
         <v>0</v>
@@ -25807,7 +25844,7 @@
       </c>
       <c r="X19" s="384">
         <f>_xll.qlMidEquivalent($T19,$U19,$V19,$W19)</f>
-        <v>2.4279999999999999</v>
+        <v>2.4319999999999999</v>
       </c>
       <c r="Y19" s="260"/>
       <c r="Z19" s="267">
@@ -25815,11 +25852,11 @@
       </c>
       <c r="AA19" s="260"/>
       <c r="AB19" s="458">
-        <v>2.4279999999999999</v>
+        <v>2.4319999999999999</v>
       </c>
       <c r="AC19" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F19,AB19/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999961231E-6</v>
       </c>
       <c r="AD19" s="160"/>
       <c r="AE19" s="17"/>
@@ -25869,10 +25906,10 @@
         <v>GBPSB6L11Y=ICAP</v>
       </c>
       <c r="T20" s="308">
-        <v>2.4580000000000002</v>
+        <v>2.4620000000000002</v>
       </c>
       <c r="U20" s="308">
-        <v>2.528</v>
+        <v>2.532</v>
       </c>
       <c r="V20" s="308">
         <v>0</v>
@@ -25882,7 +25919,7 @@
       </c>
       <c r="X20" s="384">
         <f>_xll.qlMidEquivalent($T20,$U20,$V20,$W20)</f>
-        <v>2.4930000000000003</v>
+        <v>2.4969999999999999</v>
       </c>
       <c r="Y20" s="260"/>
       <c r="Z20" s="267">
@@ -25890,11 +25927,11 @@
       </c>
       <c r="AA20" s="260"/>
       <c r="AB20" s="458">
-        <v>2.4930000000000003</v>
+        <v>2.4969999999999999</v>
       </c>
       <c r="AC20" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F20,AB20/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999995925E-6</v>
       </c>
       <c r="AD20" s="160"/>
       <c r="AE20" s="17"/>
@@ -25944,10 +25981,10 @@
         <v>GBPSB6L12Y=ICAP</v>
       </c>
       <c r="T21" s="308">
-        <v>2.5129999999999999</v>
+        <v>2.5169999999999999</v>
       </c>
       <c r="U21" s="308">
-        <v>2.5830000000000002</v>
+        <v>2.5870000000000002</v>
       </c>
       <c r="V21" s="308">
         <v>0</v>
@@ -25957,7 +25994,7 @@
       </c>
       <c r="X21" s="384">
         <f>_xll.qlMidEquivalent($T21,$U21,$V21,$W21)</f>
-        <v>2.548</v>
+        <v>2.552</v>
       </c>
       <c r="Y21" s="260"/>
       <c r="Z21" s="267">
@@ -25965,11 +26002,11 @@
       </c>
       <c r="AA21" s="260"/>
       <c r="AB21" s="458">
-        <v>2.548</v>
+        <v>2.552</v>
       </c>
       <c r="AC21" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F21,AB21/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999995925E-6</v>
       </c>
       <c r="AD21" s="160"/>
       <c r="AE21" s="17"/>
@@ -26169,10 +26206,10 @@
         <v>GBPSB6L15Y=ICAP</v>
       </c>
       <c r="T24" s="308">
-        <v>2.6309999999999998</v>
+        <v>2.6339999999999999</v>
       </c>
       <c r="U24" s="308">
-        <v>2.7210000000000001</v>
+        <v>2.7240000000000002</v>
       </c>
       <c r="V24" s="308">
         <v>0</v>
@@ -26182,7 +26219,7 @@
       </c>
       <c r="X24" s="384">
         <f>_xll.qlMidEquivalent($T24,$U24,$V24,$W24)</f>
-        <v>2.6760000000000002</v>
+        <v>2.6790000000000003</v>
       </c>
       <c r="Y24" s="260"/>
       <c r="Z24" s="267">
@@ -26190,11 +26227,11 @@
       </c>
       <c r="AA24" s="260"/>
       <c r="AB24" s="458">
-        <v>2.6760000000000002</v>
+        <v>2.6790000000000003</v>
       </c>
       <c r="AC24" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F24,AB24/100,Trigger)</f>
-        <v>-9.9999999999995925E-6</v>
+        <v>1.0000000000003062E-5</v>
       </c>
       <c r="AD24" s="160"/>
       <c r="AE24" s="17"/>
@@ -26544,10 +26581,10 @@
         <v>GBPSB6L20Y=ICAP</v>
       </c>
       <c r="T29" s="308">
-        <v>2.726</v>
+        <v>2.7280000000000002</v>
       </c>
       <c r="U29" s="308">
-        <v>2.8559999999999999</v>
+        <v>2.8580000000000001</v>
       </c>
       <c r="V29" s="308">
         <v>0</v>
@@ -26557,7 +26594,7 @@
       </c>
       <c r="X29" s="384">
         <f>_xll.qlMidEquivalent($T29,$U29,$V29,$W29)</f>
-        <v>2.7909999999999999</v>
+        <v>2.7930000000000001</v>
       </c>
       <c r="Y29" s="260"/>
       <c r="Z29" s="267">
@@ -26565,11 +26602,11 @@
       </c>
       <c r="AA29" s="260"/>
       <c r="AB29" s="458">
-        <v>2.7909999999999999</v>
+        <v>2.7930000000000001</v>
       </c>
       <c r="AC29" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F29,AB29/100,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000003062E-5</v>
       </c>
       <c r="AD29" s="160"/>
       <c r="AE29" s="17"/>
@@ -26919,10 +26956,10 @@
         <v>GBPSB6L25Y=ICAP</v>
       </c>
       <c r="T34" s="308">
-        <v>2.7639999999999998</v>
+        <v>2.766</v>
       </c>
       <c r="U34" s="308">
-        <v>2.8940000000000001</v>
+        <v>2.8959999999999999</v>
       </c>
       <c r="V34" s="308">
         <v>0</v>
@@ -26932,7 +26969,7 @@
       </c>
       <c r="X34" s="384">
         <f>_xll.qlMidEquivalent($T34,$U34,$V34,$W34)</f>
-        <v>2.8289999999999997</v>
+        <v>2.831</v>
       </c>
       <c r="Y34" s="260"/>
       <c r="Z34" s="267">
@@ -26940,11 +26977,11 @@
       </c>
       <c r="AA34" s="260"/>
       <c r="AB34" s="458">
-        <v>2.8289999999999997</v>
+        <v>2.831</v>
       </c>
       <c r="AC34" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F34,AB34/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999961231E-6</v>
       </c>
       <c r="AD34" s="160"/>
       <c r="AE34" s="17"/>
@@ -27294,10 +27331,10 @@
         <v>GBPSB6L30Y=ICAP</v>
       </c>
       <c r="T39" s="308">
-        <v>2.78</v>
+        <v>2.7810000000000001</v>
       </c>
       <c r="U39" s="308">
-        <v>2.91</v>
+        <v>2.911</v>
       </c>
       <c r="V39" s="308">
         <v>0</v>
@@ -27307,7 +27344,7 @@
       </c>
       <c r="X39" s="384">
         <f>_xll.qlMidEquivalent($T39,$U39,$V39,$W39)</f>
-        <v>2.8449999999999998</v>
+        <v>2.8460000000000001</v>
       </c>
       <c r="Y39" s="260"/>
       <c r="Z39" s="267">
@@ -27315,11 +27352,11 @@
       </c>
       <c r="AA39" s="260"/>
       <c r="AB39" s="458">
-        <v>2.8449999999999998</v>
+        <v>2.8460000000000001</v>
       </c>
       <c r="AC39" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F39,AB39/100,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000003062E-5</v>
       </c>
       <c r="AD39" s="160"/>
       <c r="AE39" s="17"/>
@@ -27444,10 +27481,10 @@
         <v>GBPSB6L40Y=ICAP</v>
       </c>
       <c r="T41" s="308">
-        <v>2.7480000000000002</v>
+        <v>2.7490000000000001</v>
       </c>
       <c r="U41" s="308">
-        <v>2.9180000000000001</v>
+        <v>2.919</v>
       </c>
       <c r="V41" s="308">
         <v>0</v>
@@ -27457,7 +27494,7 @@
       </c>
       <c r="X41" s="384">
         <f>_xll.qlMidEquivalent($T41,$U41,$V41,$W41)</f>
-        <v>2.8330000000000002</v>
+        <v>2.8340000000000001</v>
       </c>
       <c r="Y41" s="260"/>
       <c r="Z41" s="267">
@@ -27465,11 +27502,11 @@
       </c>
       <c r="AA41" s="260"/>
       <c r="AB41" s="458">
-        <v>2.8330000000000002</v>
+        <v>2.8340000000000001</v>
       </c>
       <c r="AC41" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F41,AB41/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999995925E-6</v>
       </c>
       <c r="AD41" s="160"/>
       <c r="AE41" s="17"/>
@@ -27519,10 +27556,10 @@
         <v>GBPSB6L50Y=ICAP</v>
       </c>
       <c r="T42" s="308">
-        <v>2.75</v>
+        <v>2.7509999999999999</v>
       </c>
       <c r="U42" s="308">
-        <v>2.92</v>
+        <v>2.9209999999999998</v>
       </c>
       <c r="V42" s="308">
         <v>0</v>
@@ -27532,7 +27569,7 @@
       </c>
       <c r="X42" s="384">
         <f>_xll.qlMidEquivalent($T42,$U42,$V42,$W42)</f>
-        <v>2.835</v>
+        <v>2.8359999999999999</v>
       </c>
       <c r="Y42" s="260"/>
       <c r="Z42" s="267">
@@ -27540,11 +27577,11 @@
       </c>
       <c r="AA42" s="260"/>
       <c r="AB42" s="458">
-        <v>2.835</v>
+        <v>2.8359999999999999</v>
       </c>
       <c r="AC42" s="676">
         <f>_xll.qlSimpleQuoteSetValue(F42,AB42/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999995925E-6</v>
       </c>
       <c r="AD42" s="160"/>
       <c r="AE42" s="17"/>
@@ -27594,10 +27631,10 @@
         <v>GBPSB6L60Y=ICAP</v>
       </c>
       <c r="T43" s="304">
-        <v>2.7629999999999999</v>
+        <v>2.7639999999999998</v>
       </c>
       <c r="U43" s="304">
-        <v>2.9329999999999998</v>
+        <v>2.9340000000000002</v>
       </c>
       <c r="V43" s="304">
         <v>0</v>
@@ -27607,7 +27644,7 @@
       </c>
       <c r="X43" s="382">
         <f>_xll.qlMidEquivalent($T43,$U43,$V43,$W43)</f>
-        <v>2.8479999999999999</v>
+        <v>2.8490000000000002</v>
       </c>
       <c r="Y43" s="260"/>
       <c r="Z43" s="261">
@@ -27615,11 +27652,11 @@
       </c>
       <c r="AA43" s="260"/>
       <c r="AB43" s="459">
-        <v>2.8479999999999999</v>
+        <v>2.8490000000000002</v>
       </c>
       <c r="AC43" s="678">
         <f>_xll.qlSimpleQuoteSetValue(F43,AB43/100,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000003062E-5</v>
       </c>
       <c r="AD43" s="160"/>
       <c r="AE43" s="17"/>
@@ -29623,7 +29660,7 @@
       <c r="J6" s="514"/>
       <c r="K6" s="465" t="str">
         <f>_xll.RData(K7:K13,L6:M6,"RTFEED:IDN",,,L7)</f>
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:15:40</v>
       </c>
       <c r="L6" s="516" t="s">
         <v>210</v>
@@ -29691,10 +29728,10 @@
         <v>GBPONFSR=</v>
       </c>
       <c r="L7" s="541">
-        <v>41913</v>
+        <v>41914</v>
       </c>
       <c r="M7" s="542">
-        <v>0.47688000000000003</v>
+        <v>0.47563</v>
       </c>
       <c r="N7" s="550" t="b">
         <f>IF(AND(ISNUMBER($M7),$M7&lt;&gt;0%),TRUE,FALSE)</f>
@@ -29705,21 +29742,21 @@
         <v>1</v>
       </c>
       <c r="P7" s="537"/>
-      <c r="Q7" s="556" t="e">
+      <c r="Q7" s="556">
         <f>_xll.qlIndexFixing($E7,$L7,TRUE,$N7)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="R7" s="556" t="e">
+        <v>4.2616342709789201E-3</v>
+      </c>
+      <c r="R7" s="556">
         <f>IF($N7,_xll.qlIndexFixing($E7,$L7,FALSE,$N7),"-")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S7" s="556" t="e">
+        <v>4.2616342709789201E-3</v>
+      </c>
+      <c r="S7" s="556">
         <f>$Q7-$R7</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T7" s="556" t="e">
+        <v>0</v>
+      </c>
+      <c r="T7" s="556">
         <f>_xll.qlIndexFixing($E7,$L7,TRUE,$R7)</f>
-        <v>#NUM!</v>
+        <v>4.2616342709789201E-3</v>
       </c>
       <c r="U7" s="559">
         <f>IF(ISERROR(S7),0,ABS(S7))</f>
@@ -29762,10 +29799,10 @@
         <v>GBPSWFSR=</v>
       </c>
       <c r="L8" s="544">
-        <v>41913</v>
+        <v>41914</v>
       </c>
       <c r="M8" s="545">
-        <v>0.48249999999999998</v>
+        <v>0.48187999999999998</v>
       </c>
       <c r="N8" s="551" t="b">
         <f t="shared" ref="N8:N13" si="1">IF(AND(ISNUMBER($M8),$M8&lt;&gt;0%),TRUE,FALSE)</f>
@@ -29834,10 +29871,10 @@
         <v>GBP1MFSR=</v>
       </c>
       <c r="L9" s="544">
-        <v>41913</v>
+        <v>41914</v>
       </c>
       <c r="M9" s="545">
-        <v>0.50788</v>
+        <v>0.50319000000000003</v>
       </c>
       <c r="N9" s="551" t="b">
         <f t="shared" si="1"/>
@@ -29848,21 +29885,21 @@
         <v>1</v>
       </c>
       <c r="P9" s="537"/>
-      <c r="Q9" s="557" t="e">
+      <c r="Q9" s="557">
         <f>_xll.qlIndexFixing($E9,$L9,TRUE,$N9)</f>
-        <v>#NUM!</v>
+        <v>5.0459999999993843E-3</v>
       </c>
       <c r="R9" s="557">
         <f>IF($N9,_xll.qlIndexFixing($E9,$L9,FALSE,$N9),"-")</f>
-        <v>5.0787999999999996E-3</v>
-      </c>
-      <c r="S9" s="557" t="e">
+        <v>5.0459999999993843E-3</v>
+      </c>
+      <c r="S9" s="557">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="T9" s="557">
         <f>_xll.qlIndexFixing($E9,$L9,TRUE,$R9)</f>
-        <v>5.0787999999999996E-3</v>
+        <v>5.0459999999993843E-3</v>
       </c>
       <c r="U9" s="560">
         <f t="shared" si="3"/>
@@ -29903,10 +29940,10 @@
         <v>GBP2MFSR=</v>
       </c>
       <c r="L10" s="544">
-        <v>41913</v>
+        <v>41914</v>
       </c>
       <c r="M10" s="545">
-        <v>0.53244000000000002</v>
+        <v>0.53337999999999997</v>
       </c>
       <c r="N10" s="551" t="b">
         <f t="shared" si="1"/>
@@ -29975,10 +30012,10 @@
         <v>GBP3MFSR=</v>
       </c>
       <c r="L11" s="544">
-        <v>41913</v>
+        <v>41914</v>
       </c>
       <c r="M11" s="545">
-        <v>0.56430999999999998</v>
+        <v>0.56274999999999997</v>
       </c>
       <c r="N11" s="551" t="b">
         <f t="shared" si="1"/>
@@ -29989,21 +30026,21 @@
         <v>1</v>
       </c>
       <c r="P11" s="537"/>
-      <c r="Q11" s="557" t="e">
+      <c r="Q11" s="557">
         <f>_xll.qlIndexFixing($E11,$L11,TRUE,$N11)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="R11" s="557" t="e">
+        <v>5.6370000007748781E-3</v>
+      </c>
+      <c r="R11" s="557">
         <f>IF($N11,_xll.qlIndexFixing($E11,$L11,FALSE,$N11),"-")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S11" s="557" t="e">
+        <v>5.6370000007748781E-3</v>
+      </c>
+      <c r="S11" s="557">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T11" s="557" t="e">
+        <v>0</v>
+      </c>
+      <c r="T11" s="557">
         <f>_xll.qlIndexFixing($E11,$L11,TRUE,$R11)</f>
-        <v>#NUM!</v>
+        <v>5.6370000007748781E-3</v>
       </c>
       <c r="U11" s="560">
         <f t="shared" si="3"/>
@@ -30047,10 +30084,10 @@
         <v>GBP6MFSR=</v>
       </c>
       <c r="L12" s="544">
-        <v>41913</v>
+        <v>41914</v>
       </c>
       <c r="M12" s="545">
-        <v>0.71331</v>
+        <v>0.70955999999999997</v>
       </c>
       <c r="N12" s="551" t="b">
         <f t="shared" si="1"/>
@@ -30061,21 +30098,21 @@
         <v>1</v>
       </c>
       <c r="P12" s="537"/>
-      <c r="Q12" s="557" t="e">
+      <c r="Q12" s="557">
         <f>_xll.qlIndexFixing($E12,$L12,TRUE,$N12)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="R12" s="557" t="e">
+        <v>7.1229999999999601E-3</v>
+      </c>
+      <c r="R12" s="557">
         <f>IF($N12,_xll.qlIndexFixing($E12,$L12,FALSE,$N12),"-")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S12" s="557" t="e">
+        <v>7.1229999999999601E-3</v>
+      </c>
+      <c r="S12" s="557">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T12" s="557" t="e">
+        <v>0</v>
+      </c>
+      <c r="T12" s="557">
         <f>_xll.qlIndexFixing($E12,$L12,TRUE,$R12)</f>
-        <v>#NUM!</v>
+        <v>7.1229999999999601E-3</v>
       </c>
       <c r="U12" s="560">
         <f t="shared" si="3"/>
@@ -30119,10 +30156,10 @@
         <v>GBP1YFSR=</v>
       </c>
       <c r="L13" s="547">
-        <v>41913</v>
+        <v>41914</v>
       </c>
       <c r="M13" s="548">
-        <v>1.0589999999999999</v>
+        <v>1.04619</v>
       </c>
       <c r="N13" s="552" t="b">
         <f t="shared" si="1"/>
@@ -33827,7 +33864,7 @@
       </c>
       <c r="D3" s="235" t="str">
         <f>_xll.RData(D4:D21,E3:F3,"RTFEED:IDN",,,E4)</f>
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:15:39</v>
       </c>
       <c r="E3" s="235" t="s">
         <v>210</v>
@@ -36040,7 +36077,7 @@
       </c>
       <c r="D3" s="235" t="str">
         <f>_xll.RData(D4:D21,E3:F3,"RTFEED:IDN",,,E4)</f>
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:15:39</v>
       </c>
       <c r="E3" s="235" t="s">
         <v>210</v>
@@ -38060,7 +38097,7 @@
       </c>
       <c r="D3" s="235" t="str">
         <f>_xll.RData(D4:D18,E3:F3,"RTFEED:IDN",,,E4)</f>
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:15:39</v>
       </c>
       <c r="E3" s="235" t="s">
         <v>210</v>
@@ -39893,7 +39930,7 @@
       </c>
       <c r="D3" s="235" t="str">
         <f>_xll.RData(D4:D18,E3:F3,"RTFEED:IDN",,,E4)</f>
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:15:39</v>
       </c>
       <c r="E3" s="235" t="s">
         <v>210</v>
@@ -41710,7 +41747,7 @@
       <c r="P3" s="431"/>
       <c r="Q3" s="430">
         <f>_xll.ohTrigger(Q5:Q10)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R3" s="405"/>
     </row>
@@ -41722,7 +41759,7 @@
       <c r="E4" s="133"/>
       <c r="F4" s="428" t="str">
         <f>_xll.RData(F5:F10,G4:J4,"RTFEED:IDN",ReutersRtMode,,G5)</f>
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:15:40</v>
       </c>
       <c r="G4" s="427" t="s">
         <v>254</v>
@@ -41828,10 +41865,10 @@
         <v>GBPMPCOISM2=ICAP</v>
       </c>
       <c r="G6" s="407">
-        <v>0.43625000000000003</v>
+        <v>0.43874999999999997</v>
       </c>
       <c r="H6" s="407">
-        <v>0.47625000000000001</v>
+        <v>0.47875000000000001</v>
       </c>
       <c r="I6" s="407">
         <v>0</v>
@@ -41841,7 +41878,7 @@
       </c>
       <c r="K6" s="411">
         <f>_xll.qlMidEquivalent($G6,$H6,$I6,$J6)</f>
-        <v>0.45625000000000004</v>
+        <v>0.45874999999999999</v>
       </c>
       <c r="L6" s="409"/>
       <c r="M6" s="410">
@@ -41853,7 +41890,7 @@
         <v>GBPMPCNOV14OIS_Quote</v>
       </c>
       <c r="P6" s="407">
-        <v>0.45625000000000004</v>
+        <v>0.45874999999999999</v>
       </c>
       <c r="Q6" s="406" t="e">
         <f>_xll.qlSimpleQuoteSetValue($O6,$P6/100,Trigger)</f>
@@ -41880,10 +41917,10 @@
         <v>GBPMPCOISM3=ICAP</v>
       </c>
       <c r="G7" s="407">
-        <v>0.44124999999999998</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="H7" s="407">
-        <v>0.48125000000000001</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="I7" s="407">
         <v>0</v>
@@ -41893,7 +41930,7 @@
       </c>
       <c r="K7" s="411">
         <f>_xll.qlMidEquivalent($G7,$H7,$I7,$J7)</f>
-        <v>0.46124999999999999</v>
+        <v>0.46499999999999997</v>
       </c>
       <c r="L7" s="409"/>
       <c r="M7" s="410">
@@ -41905,7 +41942,7 @@
         <v>GBPMPCDEC14OIS_Quote</v>
       </c>
       <c r="P7" s="407">
-        <v>0.46124999999999999</v>
+        <v>0.46499999999999997</v>
       </c>
       <c r="Q7" s="406" t="e">
         <f>_xll.qlSimpleQuoteSetValue($O7,$P7/100,Trigger)</f>
@@ -41932,10 +41969,10 @@
         <v>GBPMPCOISM4=ICAP</v>
       </c>
       <c r="G8" s="407">
-        <v>0.45874999999999999</v>
+        <v>0.46375</v>
       </c>
       <c r="H8" s="407">
-        <v>0.49875000000000003</v>
+        <v>0.50375000000000003</v>
       </c>
       <c r="I8" s="407">
         <v>0</v>
@@ -41945,7 +41982,7 @@
       </c>
       <c r="K8" s="411">
         <f>_xll.qlMidEquivalent($G8,$H8,$I8,$J8)</f>
-        <v>0.47875000000000001</v>
+        <v>0.48375000000000001</v>
       </c>
       <c r="L8" s="409"/>
       <c r="M8" s="410">
@@ -41957,7 +41994,7 @@
         <v>GBPMPCJAN15OIS_Quote</v>
       </c>
       <c r="P8" s="407">
-        <v>0.47875000000000001</v>
+        <v>0.48375000000000001</v>
       </c>
       <c r="Q8" s="406" t="e">
         <f>_xll.qlSimpleQuoteSetValue($O8,$P8/100,Trigger)</f>
@@ -41984,10 +42021,10 @@
         <v>GBPMPCOISM5=ICAP</v>
       </c>
       <c r="G9" s="407">
-        <v>0.57625000000000004</v>
+        <v>0.58374999999999999</v>
       </c>
       <c r="H9" s="407">
-        <v>0.61624999999999996</v>
+        <v>0.62375000000000003</v>
       </c>
       <c r="I9" s="407">
         <v>0</v>
@@ -41997,7 +42034,7 @@
       </c>
       <c r="K9" s="411">
         <f>_xll.qlMidEquivalent($G9,$H9,$I9,$J9)</f>
-        <v>0.59624999999999995</v>
+        <v>0.60375000000000001</v>
       </c>
       <c r="L9" s="409"/>
       <c r="M9" s="410">
@@ -42009,7 +42046,7 @@
         <v>GBPMPCFEB15OIS_Quote</v>
       </c>
       <c r="P9" s="407">
-        <v>0.59624999999999995</v>
+        <v>0.60375000000000001</v>
       </c>
       <c r="Q9" s="406" t="e">
         <f>_xll.qlSimpleQuoteSetValue($O9,$P9/100,Trigger)</f>
@@ -42036,10 +42073,10 @@
         <v>GBPMPCOISM6=ICAP</v>
       </c>
       <c r="G10" s="407">
-        <v>0.59</v>
+        <v>0.59875</v>
       </c>
       <c r="H10" s="407">
-        <v>0.63</v>
+        <v>0.63875000000000004</v>
       </c>
       <c r="I10" s="407">
         <v>0</v>
@@ -42049,7 +42086,7 @@
       </c>
       <c r="K10" s="411">
         <f>_xll.qlMidEquivalent($G10,$H10,$I10,$J10)</f>
-        <v>0.61</v>
+        <v>0.61875000000000002</v>
       </c>
       <c r="L10" s="409"/>
       <c r="M10" s="410">
@@ -42061,7 +42098,7 @@
         <v>GBPMPCMAR15OIS_Quote</v>
       </c>
       <c r="P10" s="407">
-        <v>0.61</v>
+        <v>0.61875000000000002</v>
       </c>
       <c r="Q10" s="406" t="e">
         <f>_xll.qlSimpleQuoteSetValue($O10,$P10/100,Trigger)</f>
@@ -42215,7 +42252,7 @@
       <c r="E4" s="141"/>
       <c r="F4" s="288" t="str">
         <f>_xll.RData(F5:F10,G4:J4,"RTFEED:IDN",ReutersRtMode,,G5)</f>
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:15:39</v>
       </c>
       <c r="G4" s="319" t="s">
         <v>254</v>
@@ -42631,7 +42668,7 @@
       <c r="O1" s="290"/>
       <c r="P1" s="604">
         <f>_xll.ohTrigger(P3:P20)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q1" s="160"/>
     </row>
@@ -42647,7 +42684,7 @@
       <c r="I2" s="285"/>
       <c r="J2" s="288" t="str">
         <f>_xll.RData(J3:J20,K2:K2,"RTFEED:DTSIMI1",ReutersRtMode,,K3)</f>
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:15:40</v>
       </c>
       <c r="K2" s="287" t="s">
         <v>229</v>
@@ -42693,7 +42730,7 @@
         <v>GBPOND=</v>
       </c>
       <c r="K3" s="279">
-        <v>0</v>
+        <v>0.47563</v>
       </c>
       <c r="L3" s="260"/>
       <c r="M3" s="278">
@@ -42702,11 +42739,11 @@
       <c r="N3" s="260"/>
       <c r="O3" s="457">
         <f t="array" ref="O3:O20">QuoteLive</f>
-        <v>0</v>
+        <v>0.47563</v>
       </c>
       <c r="P3" s="276">
         <f>_xll.qlSimpleQuoteSetValue(D3,O3/100,Trigger)</f>
-        <v>0</v>
+        <v>4.7562999999999998E-3</v>
       </c>
       <c r="Q3" s="160"/>
     </row>
@@ -42782,7 +42819,7 @@
         <v>GBPSND=</v>
       </c>
       <c r="K5" s="268">
-        <v>0</v>
+        <v>0.48187999999999998</v>
       </c>
       <c r="L5" s="260"/>
       <c r="M5" s="267">
@@ -42790,11 +42827,11 @@
       </c>
       <c r="N5" s="260"/>
       <c r="O5" s="458">
-        <v>0</v>
+        <v>0.48187999999999998</v>
       </c>
       <c r="P5" s="265">
         <f>_xll.qlSimpleQuoteSetValue(D5,O5/100,Trigger)</f>
-        <v>0</v>
+        <v>4.8187999999999998E-3</v>
       </c>
       <c r="Q5" s="160"/>
     </row>
@@ -42826,7 +42863,7 @@
         <v>GBPSWD=</v>
       </c>
       <c r="K6" s="268">
-        <v>0</v>
+        <v>0.48187999999999998</v>
       </c>
       <c r="L6" s="260"/>
       <c r="M6" s="267">
@@ -42834,11 +42871,11 @@
       </c>
       <c r="N6" s="260"/>
       <c r="O6" s="458">
-        <v>0</v>
+        <v>0.48187999999999998</v>
       </c>
       <c r="P6" s="265">
         <f>_xll.qlSimpleQuoteSetValue(D6,O6/100,Trigger)</f>
-        <v>0</v>
+        <v>4.8187999999999998E-3</v>
       </c>
       <c r="Q6" s="160"/>
     </row>
@@ -42870,7 +42907,7 @@
         <v>GBP2WD=</v>
       </c>
       <c r="K7" s="268">
-        <v>0.48990250000000002</v>
+        <v>0.48809541699999998</v>
       </c>
       <c r="L7" s="260"/>
       <c r="M7" s="267">
@@ -42878,11 +42915,11 @@
       </c>
       <c r="N7" s="260"/>
       <c r="O7" s="458">
-        <v>0.48990250000000002</v>
+        <v>0.48809541699999998</v>
       </c>
       <c r="P7" s="265">
         <f>_xll.qlSimpleQuoteSetValue(D7,O7/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.8070830000000392E-5</v>
       </c>
       <c r="Q7" s="160"/>
     </row>
@@ -42914,7 +42951,7 @@
         <v>GBP3WD=</v>
       </c>
       <c r="K8" s="268">
-        <v>0.497305</v>
+        <v>0.49431083300000001</v>
       </c>
       <c r="L8" s="260"/>
       <c r="M8" s="267">
@@ -42922,11 +42959,11 @@
       </c>
       <c r="N8" s="260"/>
       <c r="O8" s="458">
-        <v>0.497305</v>
+        <v>0.49431083300000001</v>
       </c>
       <c r="P8" s="265">
         <f>_xll.qlSimpleQuoteSetValue(D8,O8/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.99416699999994E-5</v>
       </c>
       <c r="Q8" s="160"/>
     </row>
@@ -42958,7 +42995,7 @@
         <v>GBP1MD=</v>
       </c>
       <c r="K9" s="268">
-        <v>0</v>
+        <v>0.50319000000000003</v>
       </c>
       <c r="L9" s="260"/>
       <c r="M9" s="267">
@@ -42966,11 +43003,11 @@
       </c>
       <c r="N9" s="260"/>
       <c r="O9" s="458">
-        <v>0</v>
+        <v>0.50319000000000003</v>
       </c>
       <c r="P9" s="265">
         <f>_xll.qlSimpleQuoteSetValue(D9,O9/100,Trigger)</f>
-        <v>0</v>
+        <v>5.0319000000000006E-3</v>
       </c>
       <c r="Q9" s="160"/>
     </row>
@@ -43002,7 +43039,7 @@
         <v>GBP2MD=</v>
       </c>
       <c r="K10" s="268">
-        <v>0</v>
+        <v>0.53337999999999997</v>
       </c>
       <c r="L10" s="260"/>
       <c r="M10" s="267">
@@ -43010,11 +43047,11 @@
       </c>
       <c r="N10" s="260"/>
       <c r="O10" s="458">
-        <v>0</v>
+        <v>0.53337999999999997</v>
       </c>
       <c r="P10" s="265">
         <f>_xll.qlSimpleQuoteSetValue(D10,O10/100,Trigger)</f>
-        <v>0</v>
+        <v>5.3337999999999997E-3</v>
       </c>
       <c r="Q10" s="160"/>
     </row>
@@ -43046,7 +43083,7 @@
         <v>GBP3MD=</v>
       </c>
       <c r="K11" s="268">
-        <v>0</v>
+        <v>0.56274999999999997</v>
       </c>
       <c r="L11" s="260"/>
       <c r="M11" s="267">
@@ -43054,11 +43091,11 @@
       </c>
       <c r="N11" s="260"/>
       <c r="O11" s="458">
-        <v>0</v>
+        <v>0.56274999999999997</v>
       </c>
       <c r="P11" s="265">
         <f>_xll.qlSimpleQuoteSetValue(D11,O11/100,Trigger)</f>
-        <v>0</v>
+        <v>5.6274999999999997E-3</v>
       </c>
       <c r="Q11" s="160"/>
     </row>
@@ -43090,7 +43127,7 @@
         <v>GBP4MD=</v>
       </c>
       <c r="K12" s="268">
-        <v>0.61506824199999999</v>
+        <v>0.61276219799999998</v>
       </c>
       <c r="L12" s="260"/>
       <c r="M12" s="267">
@@ -43098,11 +43135,11 @@
       </c>
       <c r="N12" s="260"/>
       <c r="O12" s="458">
-        <v>0.61506824199999999</v>
+        <v>0.61276219799999998</v>
       </c>
       <c r="P12" s="265">
         <f>_xll.qlSimpleQuoteSetValue(D12,O12/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.3060440000000071E-5</v>
       </c>
       <c r="Q12" s="160"/>
     </row>
@@ -43134,7 +43171,7 @@
         <v>GBP5MD=</v>
       </c>
       <c r="K13" s="268">
-        <v>0.66091439600000002</v>
+        <v>0.65793450499999995</v>
       </c>
       <c r="L13" s="260"/>
       <c r="M13" s="267">
@@ -43142,11 +43179,11 @@
       </c>
       <c r="N13" s="260"/>
       <c r="O13" s="458">
-        <v>0.66091439600000002</v>
+        <v>0.65793450499999995</v>
       </c>
       <c r="P13" s="265">
         <f>_xll.qlSimpleQuoteSetValue(D13,O13/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.9798910000000851E-5</v>
       </c>
       <c r="Q13" s="160"/>
     </row>
@@ -43178,7 +43215,7 @@
         <v>GBP6MD=</v>
       </c>
       <c r="K14" s="268">
-        <v>0</v>
+        <v>0.70955999999999997</v>
       </c>
       <c r="L14" s="260"/>
       <c r="M14" s="267">
@@ -43186,11 +43223,11 @@
       </c>
       <c r="N14" s="260"/>
       <c r="O14" s="458">
-        <v>0</v>
+        <v>0.70955999999999997</v>
       </c>
       <c r="P14" s="265">
         <f>_xll.qlSimpleQuoteSetValue(D14,O14/100,Trigger)</f>
-        <v>0</v>
+        <v>7.0955999999999997E-3</v>
       </c>
       <c r="Q14" s="160"/>
     </row>
@@ -43222,7 +43259,7 @@
         <v>GBP7MD=</v>
       </c>
       <c r="K15" s="268">
-        <v>0.76839247300000002</v>
+        <v>0.76319884599999999</v>
       </c>
       <c r="L15" s="260"/>
       <c r="M15" s="267">
@@ -43230,11 +43267,11 @@
       </c>
       <c r="N15" s="260"/>
       <c r="O15" s="458">
-        <v>0.76839247300000002</v>
+        <v>0.76319884599999999</v>
       </c>
       <c r="P15" s="265">
         <f>_xll.qlSimpleQuoteSetValue(D15,O15/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.1936270000000478E-5</v>
       </c>
       <c r="Q15" s="160"/>
     </row>
@@ -43266,7 +43303,7 @@
         <v>GBP8MD=</v>
       </c>
       <c r="K16" s="268">
-        <v>0.83107252700000001</v>
+        <v>0.82423615400000005</v>
       </c>
       <c r="L16" s="260"/>
       <c r="M16" s="267">
@@ -43274,11 +43311,11 @@
       </c>
       <c r="N16" s="260"/>
       <c r="O16" s="458">
-        <v>0.83107252700000001</v>
+        <v>0.82423615400000005</v>
       </c>
       <c r="P16" s="265">
         <f>_xll.qlSimpleQuoteSetValue(D16,O16/100,Trigger)</f>
-        <v>0</v>
+        <v>-6.8363729999999789E-5</v>
       </c>
       <c r="Q16" s="160"/>
     </row>
@@ -43310,7 +43347,7 @@
         <v>GBP9MD=</v>
       </c>
       <c r="K17" s="268">
-        <v>0.88425560400000003</v>
+        <v>0.87602538500000005</v>
       </c>
       <c r="L17" s="260"/>
       <c r="M17" s="267">
@@ -43318,11 +43355,11 @@
       </c>
       <c r="N17" s="260"/>
       <c r="O17" s="458">
-        <v>0.88425560400000003</v>
+        <v>0.87602538500000005</v>
       </c>
       <c r="P17" s="265">
         <f>_xll.qlSimpleQuoteSetValue(D17,O17/100,Trigger)</f>
-        <v>0</v>
+        <v>-8.2302189999999484E-5</v>
       </c>
       <c r="Q17" s="160"/>
     </row>
@@ -43354,7 +43391,7 @@
         <v>GBP10MD=</v>
       </c>
       <c r="K18" s="268">
-        <v>0.94313686799999996</v>
+        <v>0.93336346199999998</v>
       </c>
       <c r="L18" s="260"/>
       <c r="M18" s="267">
@@ -43362,11 +43399,11 @@
       </c>
       <c r="N18" s="260"/>
       <c r="O18" s="458">
-        <v>0.94313686799999996</v>
+        <v>0.93336346199999998</v>
       </c>
       <c r="P18" s="265">
         <f>_xll.qlSimpleQuoteSetValue(D18,O18/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.7734060000000123E-5</v>
       </c>
       <c r="Q18" s="160"/>
     </row>
@@ -43398,7 +43435,7 @@
         <v>GBP11MD=</v>
       </c>
       <c r="K19" s="268">
-        <v>1.003917527</v>
+        <v>0.99255115400000005</v>
       </c>
       <c r="L19" s="260"/>
       <c r="M19" s="267">
@@ -43406,11 +43443,11 @@
       </c>
       <c r="N19" s="260"/>
       <c r="O19" s="458">
-        <v>1.003917527</v>
+        <v>0.99255115400000005</v>
       </c>
       <c r="P19" s="265">
         <f>_xll.qlSimpleQuoteSetValue(D19,O19/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.1366372999999964E-4</v>
       </c>
       <c r="Q19" s="160"/>
     </row>
@@ -43442,7 +43479,7 @@
         <v>GBP1YD=</v>
       </c>
       <c r="K20" s="262">
-        <v>0</v>
+        <v>1.04619</v>
       </c>
       <c r="L20" s="260"/>
       <c r="M20" s="261">
@@ -43450,11 +43487,11 @@
       </c>
       <c r="N20" s="260"/>
       <c r="O20" s="459">
-        <v>0</v>
+        <v>1.04619</v>
       </c>
       <c r="P20" s="258">
         <f>_xll.qlSimpleQuoteSetValue(D20,O20/100,Trigger)</f>
-        <v>0</v>
+        <v>1.04619E-2</v>
       </c>
       <c r="Q20" s="160"/>
     </row>
@@ -43633,7 +43670,7 @@
       <c r="W5" s="569"/>
       <c r="X5" s="574">
         <f>MAX(Z7:Z22)</f>
-        <v>1.0899999999238151E-3</v>
+        <v>4.0000000038467598E-5</v>
       </c>
       <c r="Y5" s="569"/>
       <c r="Z5" s="569"/>
@@ -43664,7 +43701,7 @@
       </c>
       <c r="O6" s="516" t="str">
         <f>_xll.RData(O7:O21,P6:Q6,"RTFEED:IDN",,,P7)</f>
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:15:40</v>
       </c>
       <c r="P6" s="516" t="s">
         <v>210</v>
@@ -43749,7 +43786,7 @@
       </c>
       <c r="V7" s="581">
         <f>_xll.qlIndexFixing($U7,$P7,TRUE,$R7)</f>
-        <v>8.0656848328972443E-3</v>
+        <v>7.6218083845103358E-3</v>
       </c>
       <c r="W7" s="581">
         <f>IF($S7,_xll.qlIndexFixing($U7,$P7,FALSE,$R7),"-")</f>
@@ -43757,15 +43794,15 @@
       </c>
       <c r="X7" s="581">
         <f t="shared" ref="X7:X21" si="4">V7-W7</f>
-        <v>4.6568483289724429E-4</v>
+        <v>2.1808384510335795E-5</v>
       </c>
       <c r="Y7" s="584">
         <f>_xll.qlIndexFixing($U7,$P7,TRUE,$W7)</f>
-        <v>8.0656848328972443E-3</v>
+        <v>7.6218083845103358E-3</v>
       </c>
       <c r="Z7" s="585">
         <f t="shared" ref="Z7:Z21" si="5">IF(ISERROR(X7),0,ABS(X7))</f>
-        <v>4.6568483289724429E-4</v>
+        <v>2.1808384510335795E-5</v>
       </c>
       <c r="AA7" s="518"/>
       <c r="AB7" s="502"/>
@@ -43821,7 +43858,7 @@
       </c>
       <c r="V8" s="588">
         <f>_xll.qlIndexFixing($U8,$P8,TRUE,$R8)</f>
-        <v>1.2619999999996889E-2</v>
+        <v>1.1949999999999015E-2</v>
       </c>
       <c r="W8" s="588">
         <f>IF($S8,_xll.qlIndexFixing($U8,$P8,FALSE,$R8),"-")</f>
@@ -43829,15 +43866,15 @@
       </c>
       <c r="X8" s="588">
         <f t="shared" si="4"/>
-        <v>6.7999999999688969E-4</v>
+        <v>9.9999999990160043E-6</v>
       </c>
       <c r="Y8" s="462">
         <f>_xll.qlIndexFixing($U8,$P8,TRUE,$W8)</f>
-        <v>1.2619999999996889E-2</v>
+        <v>1.1949999999999015E-2</v>
       </c>
       <c r="Z8" s="585">
         <f t="shared" si="5"/>
-        <v>6.7999999999688969E-4</v>
+        <v>9.9999999990160043E-6</v>
       </c>
       <c r="AA8" s="518"/>
       <c r="AB8" s="502"/>
@@ -43893,7 +43930,7 @@
       </c>
       <c r="V9" s="588">
         <f>_xll.qlIndexFixing($U9,$P9,TRUE,$R9)</f>
-        <v>1.5989999999853299E-2</v>
+        <v>1.4990000000123915E-2</v>
       </c>
       <c r="W9" s="588">
         <f>IF($S9,_xll.qlIndexFixing($U9,$P9,FALSE,$R9),"-")</f>
@@ -43901,15 +43938,15 @@
       </c>
       <c r="X9" s="588">
         <f t="shared" si="4"/>
-        <v>9.9999999985329706E-4</v>
+        <v>1.2391303261249931E-13</v>
       </c>
       <c r="Y9" s="462">
         <f>_xll.qlIndexFixing($U9,$P9,TRUE,$W9)</f>
-        <v>1.5989999999853299E-2</v>
+        <v>1.4990000000123915E-2</v>
       </c>
       <c r="Z9" s="585">
         <f t="shared" si="5"/>
-        <v>9.9999999985329706E-4</v>
+        <v>1.2391303261249931E-13</v>
       </c>
       <c r="AA9" s="518"/>
       <c r="AB9" s="502"/>
@@ -43965,7 +44002,7 @@
       </c>
       <c r="V10" s="588">
         <f>_xll.qlIndexFixing($U10,$P10,TRUE,$R10)</f>
-        <v>1.8429999999923816E-2</v>
+        <v>1.7340000000000699E-2</v>
       </c>
       <c r="W10" s="588">
         <f>IF($S10,_xll.qlIndexFixing($U10,$P10,FALSE,$R10),"-")</f>
@@ -43973,15 +44010,15 @@
       </c>
       <c r="X10" s="588">
         <f t="shared" si="4"/>
-        <v>1.0899999999238151E-3</v>
+        <v>6.9735883734267645E-16</v>
       </c>
       <c r="Y10" s="462">
         <f>_xll.qlIndexFixing($U10,$P10,TRUE,$W10)</f>
-        <v>1.8429999999923816E-2</v>
+        <v>1.7340000000000699E-2</v>
       </c>
       <c r="Z10" s="585">
         <f t="shared" si="5"/>
-        <v>1.0899999999238151E-3</v>
+        <v>6.9735883734267645E-16</v>
       </c>
       <c r="AA10" s="518"/>
       <c r="AB10" s="502"/>
@@ -44037,7 +44074,7 @@
       </c>
       <c r="V11" s="588">
         <f>_xll.qlIndexFixing($U11,$P11,TRUE,$R11)</f>
-        <v>2.020999999994463E-2</v>
+        <v>1.9119999999999797E-2</v>
       </c>
       <c r="W11" s="588">
         <f>IF($S11,_xll.qlIndexFixing($U11,$P11,FALSE,$R11),"-")</f>
@@ -44045,15 +44082,15 @@
       </c>
       <c r="X11" s="588">
         <f t="shared" si="4"/>
-        <v>1.0799999999446287E-3</v>
+        <v>-1.000000000020429E-5</v>
       </c>
       <c r="Y11" s="462">
         <f>_xll.qlIndexFixing($U11,$P11,TRUE,$W11)</f>
-        <v>2.020999999994463E-2</v>
+        <v>1.9119999999999797E-2</v>
       </c>
       <c r="Z11" s="585">
         <f t="shared" si="5"/>
-        <v>1.0799999999446287E-3</v>
+        <v>1.000000000020429E-5</v>
       </c>
       <c r="AA11" s="518"/>
       <c r="AB11" s="502"/>
@@ -44109,7 +44146,7 @@
       </c>
       <c r="V12" s="588">
         <f>_xll.qlIndexFixing($U12,$P12,TRUE,$R12)</f>
-        <v>2.1609999999925519E-2</v>
+        <v>2.0539999999999808E-2</v>
       </c>
       <c r="W12" s="588">
         <f>IF($S12,_xll.qlIndexFixing($U12,$P12,FALSE,$R12),"-")</f>
@@ -44117,15 +44154,15 @@
       </c>
       <c r="X12" s="588">
         <f t="shared" si="4"/>
-        <v>1.0599999999255164E-3</v>
+        <v>-1.0000000000193882E-5</v>
       </c>
       <c r="Y12" s="462">
         <f>_xll.qlIndexFixing($U12,$P12,TRUE,$W12)</f>
-        <v>2.1609999999925519E-2</v>
+        <v>2.0539999999999808E-2</v>
       </c>
       <c r="Z12" s="585">
         <f t="shared" si="5"/>
-        <v>1.0599999999255164E-3</v>
+        <v>1.0000000000193882E-5</v>
       </c>
       <c r="AA12" s="518"/>
       <c r="AB12" s="502"/>
@@ -44181,7 +44218,7 @@
       </c>
       <c r="V13" s="588">
         <f>_xll.qlIndexFixing($U13,$P13,TRUE,$R13)</f>
-        <v>2.2749999999984352E-2</v>
+        <v>2.169999999999956E-2</v>
       </c>
       <c r="W13" s="588">
         <f>IF($S13,_xll.qlIndexFixing($U13,$P13,FALSE,$R13),"-")</f>
@@ -44189,15 +44226,15 @@
       </c>
       <c r="X13" s="588">
         <f t="shared" si="4"/>
-        <v>1.029999999984349E-3</v>
+        <v>-2.0000000000443274E-5</v>
       </c>
       <c r="Y13" s="462">
         <f>_xll.qlIndexFixing($U13,$P13,TRUE,$W13)</f>
-        <v>2.2749999999984352E-2</v>
+        <v>2.169999999999956E-2</v>
       </c>
       <c r="Z13" s="585">
         <f t="shared" si="5"/>
-        <v>1.029999999984349E-3</v>
+        <v>2.0000000000443274E-5</v>
       </c>
       <c r="AA13" s="518"/>
       <c r="AB13" s="502"/>
@@ -44253,7 +44290,7 @@
       </c>
       <c r="V14" s="588">
         <f>_xll.qlIndexFixing($U14,$P14,TRUE,$R14)</f>
-        <v>2.3700000000130096E-2</v>
+        <v>2.268999999999971E-2</v>
       </c>
       <c r="W14" s="588">
         <f>IF($S14,_xll.qlIndexFixing($U14,$P14,FALSE,$R14),"-")</f>
@@ -44261,15 +44298,15 @@
       </c>
       <c r="X14" s="588">
         <f t="shared" si="4"/>
-        <v>9.9000000013009862E-4</v>
+        <v>-2.0000000000287149E-5</v>
       </c>
       <c r="Y14" s="462">
         <f>_xll.qlIndexFixing($U14,$P14,TRUE,$W14)</f>
-        <v>2.3700000000130096E-2</v>
+        <v>2.268999999999971E-2</v>
       </c>
       <c r="Z14" s="585">
         <f t="shared" si="5"/>
-        <v>9.9000000013009862E-4</v>
+        <v>2.0000000000287149E-5</v>
       </c>
       <c r="AA14" s="518"/>
       <c r="AB14" s="502"/>
@@ -44325,7 +44362,7 @@
       </c>
       <c r="V15" s="588">
         <f>_xll.qlIndexFixing($U15,$P15,TRUE,$R15)</f>
-        <v>2.4510000000182344E-2</v>
+        <v>2.3549999999998975E-2</v>
       </c>
       <c r="W15" s="588">
         <f>IF($S15,_xll.qlIndexFixing($U15,$P15,FALSE,$R15),"-")</f>
@@ -44333,15 +44370,15 @@
       </c>
       <c r="X15" s="588">
         <f t="shared" si="4"/>
-        <v>9.4000000018234359E-4</v>
+        <v>-2.0000000001026141E-5</v>
       </c>
       <c r="Y15" s="462">
         <f>_xll.qlIndexFixing($U15,$P15,TRUE,$W15)</f>
-        <v>2.4510000000182344E-2</v>
+        <v>2.3549999999998975E-2</v>
       </c>
       <c r="Z15" s="585">
         <f t="shared" si="5"/>
-        <v>9.4000000018234359E-4</v>
+        <v>2.0000000001026141E-5</v>
       </c>
       <c r="AA15" s="518"/>
       <c r="AB15" s="502"/>
@@ -44397,7 +44434,7 @@
       </c>
       <c r="V16" s="588">
         <f>_xll.qlIndexFixing($U16,$P16,TRUE,$R16)</f>
-        <v>2.520000000007366E-2</v>
+        <v>2.428000000000043E-2</v>
       </c>
       <c r="W16" s="588">
         <f>IF($S16,_xll.qlIndexFixing($U16,$P16,FALSE,$R16),"-")</f>
@@ -44405,15 +44442,15 @@
       </c>
       <c r="X16" s="588">
         <f t="shared" si="4"/>
-        <v>8.9000000007365826E-4</v>
+        <v>-2.9999999999572036E-5</v>
       </c>
       <c r="Y16" s="462">
         <f>_xll.qlIndexFixing($U16,$P16,TRUE,$W16)</f>
-        <v>2.520000000007366E-2</v>
+        <v>2.428000000000043E-2</v>
       </c>
       <c r="Z16" s="585">
         <f t="shared" si="5"/>
-        <v>8.9000000007365826E-4</v>
+        <v>2.9999999999572036E-5</v>
       </c>
       <c r="AA16" s="518"/>
       <c r="AB16" s="502"/>
@@ -44469,7 +44506,7 @@
       </c>
       <c r="V17" s="588">
         <f>_xll.qlIndexFixing($U17,$P17,TRUE,$R17)</f>
-        <v>2.6359999999954361E-2</v>
+        <v>2.5479999999958078E-2</v>
       </c>
       <c r="W17" s="588">
         <f>IF($S17,_xll.qlIndexFixing($U17,$P17,FALSE,$R17),"-")</f>
@@ -44477,15 +44514,15 @@
       </c>
       <c r="X17" s="588">
         <f t="shared" si="4"/>
-        <v>8.4999999995435949E-4</v>
+        <v>-3.0000000041923575E-5</v>
       </c>
       <c r="Y17" s="462">
         <f>_xll.qlIndexFixing($U17,$P17,TRUE,$W17)</f>
-        <v>2.6359999999954361E-2</v>
+        <v>2.5479999999958078E-2</v>
       </c>
       <c r="Z17" s="585">
         <f t="shared" si="5"/>
-        <v>8.4999999995435949E-4</v>
+        <v>3.0000000041923575E-5</v>
       </c>
       <c r="AA17" s="518"/>
       <c r="AB17" s="502"/>
@@ -44541,7 +44578,7 @@
       </c>
       <c r="V18" s="588">
         <f>_xll.qlIndexFixing($U18,$P18,TRUE,$R18)</f>
-        <v>2.7549999999935706E-2</v>
+        <v>2.6759999999882281E-2</v>
       </c>
       <c r="W18" s="588">
         <f>IF($S18,_xll.qlIndexFixing($U18,$P18,FALSE,$R18),"-")</f>
@@ -44549,15 +44586,15 @@
       </c>
       <c r="X18" s="588">
         <f t="shared" si="4"/>
-        <v>7.6999999993570753E-4</v>
+        <v>-2.000000011771752E-5</v>
       </c>
       <c r="Y18" s="462">
         <f>_xll.qlIndexFixing($U18,$P18,TRUE,$W18)</f>
-        <v>2.7549999999935706E-2</v>
+        <v>2.6759999999882281E-2</v>
       </c>
       <c r="Z18" s="585">
         <f t="shared" si="5"/>
-        <v>7.6999999993570753E-4</v>
+        <v>2.000000011771752E-5</v>
       </c>
       <c r="AA18" s="518"/>
       <c r="AB18" s="502"/>
@@ -44613,7 +44650,7 @@
       </c>
       <c r="V19" s="588">
         <f>_xll.qlIndexFixing($U19,$P19,TRUE,$R19)</f>
-        <v>2.8570000000172735E-2</v>
+        <v>2.7910000000162034E-2</v>
       </c>
       <c r="W19" s="588">
         <f>IF($S19,_xll.qlIndexFixing($U19,$P19,FALSE,$R19),"-")</f>
@@ -44621,15 +44658,15 @@
       </c>
       <c r="X19" s="588">
         <f t="shared" si="4"/>
-        <v>6.3000000017273544E-4</v>
+        <v>-2.9999999837965197E-5</v>
       </c>
       <c r="Y19" s="462">
         <f>_xll.qlIndexFixing($U19,$P19,TRUE,$W19)</f>
-        <v>2.8570000000172735E-2</v>
+        <v>2.7910000000162034E-2</v>
       </c>
       <c r="Z19" s="585">
         <f t="shared" si="5"/>
-        <v>6.3000000017273544E-4</v>
+        <v>2.9999999837965197E-5</v>
       </c>
       <c r="AA19" s="518"/>
       <c r="AB19" s="502"/>
@@ -44685,7 +44722,7 @@
       </c>
       <c r="V20" s="588">
         <f>_xll.qlIndexFixing($U20,$P20,TRUE,$R20)</f>
-        <v>2.8829999999952526E-2</v>
+        <v>2.8289999999961533E-2</v>
       </c>
       <c r="W20" s="588">
         <f>IF($S20,_xll.qlIndexFixing($U20,$P20,FALSE,$R20),"-")</f>
@@ -44693,15 +44730,15 @@
       </c>
       <c r="X20" s="588">
         <f t="shared" si="4"/>
-        <v>4.9999999995252453E-4</v>
+        <v>-4.0000000038467598E-5</v>
       </c>
       <c r="Y20" s="462">
         <f>_xll.qlIndexFixing($U20,$P20,TRUE,$W20)</f>
-        <v>2.8829999999952526E-2</v>
+        <v>2.8289999999961533E-2</v>
       </c>
       <c r="Z20" s="585">
         <f t="shared" si="5"/>
-        <v>4.9999999995252453E-4</v>
+        <v>4.0000000038467598E-5</v>
       </c>
       <c r="AA20" s="518"/>
       <c r="AB20" s="502"/>
@@ -44757,7 +44794,7 @@
       </c>
       <c r="V21" s="590">
         <f>_xll.qlIndexFixing($U21,$P21,TRUE,$R21)</f>
-        <v>2.8889999999990149E-2</v>
+        <v>2.8449999999933497E-2</v>
       </c>
       <c r="W21" s="590">
         <f>IF($S21,_xll.qlIndexFixing($U21,$P21,FALSE,$R21),"-")</f>
@@ -44765,15 +44802,15 @@
       </c>
       <c r="X21" s="590">
         <f t="shared" si="4"/>
-        <v>4.0999999999015088E-4</v>
+        <v>-3.0000000066501137E-5</v>
       </c>
       <c r="Y21" s="460">
         <f>_xll.qlIndexFixing($U21,$P21,TRUE,$W21)</f>
-        <v>2.8889999999990149E-2</v>
+        <v>2.8449999999933497E-2</v>
       </c>
       <c r="Z21" s="591">
         <f t="shared" si="5"/>
-        <v>4.0999999999015088E-4</v>
+        <v>3.0000000066501137E-5</v>
       </c>
       <c r="AA21" s="518"/>
       <c r="AB21" s="502"/>
@@ -46139,7 +46176,7 @@
       <c r="R3" s="86"/>
       <c r="S3" s="260" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,_xll.ohFilter(N5:N42,W5:W42),_xll.ohFilter(V5:V42,W5:W42))</f>
-        <v>obj_0063c#0006</v>
+        <v>obj_0063e#0013</v>
       </c>
       <c r="T3" s="86"/>
       <c r="U3" s="86"/>
@@ -46152,7 +46189,7 @@
       <c r="AB3" s="86"/>
       <c r="AC3" s="289">
         <f>_xll.ohTrigger(AC5:AC42)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AD3" s="160"/>
       <c r="AE3" s="17"/>
@@ -46187,7 +46224,7 @@
       <c r="R4" s="141"/>
       <c r="S4" s="288" t="str">
         <f>_xll.RData(S5:S42,T4:U4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:16:24</v>
       </c>
       <c r="T4" s="319" t="s">
         <v>254</v>
@@ -46288,7 +46325,7 @@
       </c>
       <c r="X5" s="397">
         <f t="array" ref="X5:X42">_xll.qlInterpolationInterpolate(S3,N5:N42,TRUE)</f>
-        <v>13.858973558078842</v>
+        <v>13.910116929987334</v>
       </c>
       <c r="Y5" s="260"/>
       <c r="Z5" s="395">
@@ -46297,11 +46334,11 @@
       <c r="AA5" s="260"/>
       <c r="AB5" s="467">
         <f t="array" ref="AB5:AB42">QuoteLive</f>
-        <v>13.858973558078842</v>
+        <v>13.910116929987334</v>
       </c>
       <c r="AC5" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F5,AB5/10000,Trigger)</f>
-        <v>-5.410655311639985E-7</v>
+        <v>-1.0407620531669923E-8</v>
       </c>
       <c r="AD5" s="160"/>
       <c r="AE5" s="17"/>
@@ -46366,21 +46403,21 @@
         <v>GBP1L6L1Y=ICAP</v>
       </c>
       <c r="T6" s="396">
-        <v>12.5</v>
+        <v>12.625</v>
       </c>
       <c r="U6" s="396">
-        <v>16.5</v>
+        <v>16.625</v>
       </c>
       <c r="V6" s="396">
         <f t="shared" ref="V6:V41" si="5">IF(ISERROR(AVERAGE(T6,U6)),#NUM!,AVERAGE(T6,U6))</f>
-        <v>14.5</v>
+        <v>14.625</v>
       </c>
       <c r="W6" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X6" s="397">
-        <v>14.5</v>
+        <v>14.625</v>
       </c>
       <c r="Y6" s="260"/>
       <c r="Z6" s="395">
@@ -46388,7 +46425,7 @@
       </c>
       <c r="AA6" s="260"/>
       <c r="AB6" s="467">
-        <v>14.5</v>
+        <v>14.625</v>
       </c>
       <c r="AC6" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F6,AB6/10000,Trigger)</f>
@@ -46466,7 +46503,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="397">
-        <v>14.830329026200722</v>
+        <v>14.993676918757917</v>
       </c>
       <c r="Y7" s="260"/>
       <c r="Z7" s="395">
@@ -46474,11 +46511,11 @@
       </c>
       <c r="AA7" s="260"/>
       <c r="AB7" s="467">
-        <v>14.830329026200722</v>
+        <v>14.993676918757917</v>
       </c>
       <c r="AC7" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F7,AB7/10000,Trigger)</f>
-        <v>3.3816595697744485E-7</v>
+        <v>6.5047628321039663E-9</v>
       </c>
       <c r="AD7" s="160"/>
       <c r="AE7" s="17"/>
@@ -46557,7 +46594,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="397">
-        <v>15.141026441921158</v>
+        <v>15.339883070012666</v>
       </c>
       <c r="Y8" s="260"/>
       <c r="Z8" s="395">
@@ -46565,11 +46602,11 @@
       </c>
       <c r="AA8" s="260"/>
       <c r="AB8" s="467">
-        <v>15.141026441921158</v>
+        <v>15.339883070012666</v>
       </c>
       <c r="AC8" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F8,AB8/10000,Trigger)</f>
-        <v>5.410655311639985E-7</v>
+        <v>1.0407620531669923E-8</v>
       </c>
       <c r="AD8" s="160"/>
       <c r="AE8" s="17"/>
@@ -46648,7 +46685,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="397">
-        <v>15.412460636681011</v>
+        <v>15.641147686261082</v>
       </c>
       <c r="Y9" s="260"/>
       <c r="Z9" s="395">
@@ -46656,11 +46693,11 @@
       </c>
       <c r="AA9" s="260"/>
       <c r="AB9" s="467">
-        <v>15.412460636681011</v>
+        <v>15.641147686261082</v>
       </c>
       <c r="AC9" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F9,AB9/10000,Trigger)</f>
-        <v>4.734323397685529E-7</v>
+        <v>9.1066679650756571E-9</v>
       </c>
       <c r="AD9" s="160"/>
       <c r="AE9" s="17"/>
@@ -46729,21 +46766,21 @@
         <v>GBP1L6L2Y=ICAP</v>
       </c>
       <c r="T10" s="396">
-        <v>13.625</v>
+        <v>13.875</v>
       </c>
       <c r="U10" s="396">
-        <v>17.625</v>
+        <v>17.875</v>
       </c>
       <c r="V10" s="396">
         <f t="shared" si="5"/>
-        <v>15.625</v>
+        <v>15.875</v>
       </c>
       <c r="W10" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X10" s="397">
-        <v>15.625</v>
+        <v>15.875</v>
       </c>
       <c r="Y10" s="260"/>
       <c r="Z10" s="395">
@@ -46751,7 +46788,7 @@
       </c>
       <c r="AA10" s="260"/>
       <c r="AB10" s="467">
-        <v>15.625</v>
+        <v>15.875</v>
       </c>
       <c r="AC10" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F10,AB10/10000,Trigger)</f>
@@ -46818,21 +46855,21 @@
         <v>GBP1L6L3Y=ICAP</v>
       </c>
       <c r="T11" s="396">
-        <v>14.125</v>
+        <v>14.375</v>
       </c>
       <c r="U11" s="396">
-        <v>18.125</v>
+        <v>18.375</v>
       </c>
       <c r="V11" s="396">
         <f t="shared" si="5"/>
-        <v>16.125</v>
+        <v>16.375</v>
       </c>
       <c r="W11" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X11" s="397">
-        <v>16.125</v>
+        <v>16.375</v>
       </c>
       <c r="Y11" s="260"/>
       <c r="Z11" s="395">
@@ -46840,7 +46877,7 @@
       </c>
       <c r="AA11" s="260"/>
       <c r="AB11" s="467">
-        <v>16.125</v>
+        <v>16.375</v>
       </c>
       <c r="AC11" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F11,AB11/10000,Trigger)</f>
@@ -46907,21 +46944,21 @@
         <v>GBP1L6L4Y=ICAP</v>
       </c>
       <c r="T12" s="396">
-        <v>15.125</v>
+        <v>15.375</v>
       </c>
       <c r="U12" s="396">
-        <v>19.125</v>
+        <v>19.375</v>
       </c>
       <c r="V12" s="396">
         <f t="shared" si="5"/>
-        <v>17.125</v>
+        <v>17.375</v>
       </c>
       <c r="W12" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X12" s="397">
-        <v>17.125</v>
+        <v>17.375</v>
       </c>
       <c r="Y12" s="260"/>
       <c r="Z12" s="395">
@@ -46929,11 +46966,11 @@
       </c>
       <c r="AA12" s="260"/>
       <c r="AB12" s="467">
-        <v>17.125</v>
+        <v>17.375</v>
       </c>
       <c r="AC12" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F12,AB12/10000,Trigger)</f>
-        <v>1.2500000000000141E-5</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="160"/>
       <c r="AE12" s="17"/>
@@ -46996,21 +47033,21 @@
         <v>GBP1L6L5Y=ICAP</v>
       </c>
       <c r="T13" s="396">
-        <v>15.875</v>
+        <v>16.25</v>
       </c>
       <c r="U13" s="396">
-        <v>19.875</v>
+        <v>20.25</v>
       </c>
       <c r="V13" s="396">
         <f t="shared" si="5"/>
-        <v>17.875</v>
+        <v>18.25</v>
       </c>
       <c r="W13" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X13" s="397">
-        <v>17.875</v>
+        <v>18.25</v>
       </c>
       <c r="Y13" s="260"/>
       <c r="Z13" s="395">
@@ -47018,7 +47055,7 @@
       </c>
       <c r="AA13" s="260"/>
       <c r="AB13" s="467">
-        <v>17.875</v>
+        <v>18.25</v>
       </c>
       <c r="AC13" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F13,AB13/10000,Trigger)</f>
@@ -47085,21 +47122,21 @@
         <v>GBP1L6L6Y=ICAP</v>
       </c>
       <c r="T14" s="396">
-        <v>16.75</v>
+        <v>17.125</v>
       </c>
       <c r="U14" s="396">
-        <v>20.75</v>
+        <v>21.125</v>
       </c>
       <c r="V14" s="396">
         <f t="shared" si="5"/>
-        <v>18.75</v>
+        <v>19.125</v>
       </c>
       <c r="W14" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X14" s="397">
-        <v>18.75</v>
+        <v>19.125</v>
       </c>
       <c r="Y14" s="260"/>
       <c r="Z14" s="395">
@@ -47107,7 +47144,7 @@
       </c>
       <c r="AA14" s="260"/>
       <c r="AB14" s="467">
-        <v>18.75</v>
+        <v>19.125</v>
       </c>
       <c r="AC14" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F14,AB14/10000,Trigger)</f>
@@ -47165,21 +47202,21 @@
         <v>GBP1L6L7Y=ICAP</v>
       </c>
       <c r="T15" s="396">
-        <v>17.25</v>
+        <v>17.75</v>
       </c>
       <c r="U15" s="396">
-        <v>21.25</v>
+        <v>21.75</v>
       </c>
       <c r="V15" s="396">
         <f t="shared" si="5"/>
-        <v>19.25</v>
+        <v>19.75</v>
       </c>
       <c r="W15" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X15" s="397">
-        <v>19.25</v>
+        <v>19.75</v>
       </c>
       <c r="Y15" s="260"/>
       <c r="Z15" s="395">
@@ -47187,11 +47224,11 @@
       </c>
       <c r="AA15" s="260"/>
       <c r="AB15" s="467">
-        <v>19.25</v>
+        <v>19.75</v>
       </c>
       <c r="AC15" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F15,AB15/10000,Trigger)</f>
-        <v>0</v>
+        <v>-1.2499999999999924E-5</v>
       </c>
       <c r="AD15" s="160"/>
       <c r="AE15" s="17"/>
@@ -47245,21 +47282,21 @@
         <v>GBP1L6L8Y=ICAP</v>
       </c>
       <c r="T16" s="396">
-        <v>17.875</v>
+        <v>18.5</v>
       </c>
       <c r="U16" s="396">
-        <v>21.875</v>
+        <v>22.5</v>
       </c>
       <c r="V16" s="396">
         <f t="shared" si="5"/>
-        <v>19.875</v>
+        <v>20.5</v>
       </c>
       <c r="W16" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X16" s="397">
-        <v>19.875</v>
+        <v>20.5</v>
       </c>
       <c r="Y16" s="260"/>
       <c r="Z16" s="395">
@@ -47267,7 +47304,7 @@
       </c>
       <c r="AA16" s="260"/>
       <c r="AB16" s="467">
-        <v>19.875</v>
+        <v>20.5</v>
       </c>
       <c r="AC16" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F16,AB16/10000,Trigger)</f>
@@ -47325,21 +47362,21 @@
         <v>GBP1L6L9Y=ICAP</v>
       </c>
       <c r="T17" s="396">
-        <v>18.25</v>
+        <v>18.875</v>
       </c>
       <c r="U17" s="396">
-        <v>22.25</v>
+        <v>22.875</v>
       </c>
       <c r="V17" s="396">
         <f t="shared" si="5"/>
-        <v>20.25</v>
+        <v>20.875</v>
       </c>
       <c r="W17" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X17" s="397">
-        <v>20.25</v>
+        <v>20.875</v>
       </c>
       <c r="Y17" s="260"/>
       <c r="Z17" s="395">
@@ -47347,7 +47384,7 @@
       </c>
       <c r="AA17" s="260"/>
       <c r="AB17" s="467">
-        <v>20.25</v>
+        <v>20.875</v>
       </c>
       <c r="AC17" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F17,AB17/10000,Trigger)</f>
@@ -47405,21 +47442,21 @@
         <v>GBP1L6L10Y=ICAP</v>
       </c>
       <c r="T18" s="396">
-        <v>18.375</v>
+        <v>19</v>
       </c>
       <c r="U18" s="396">
-        <v>22.375</v>
+        <v>23</v>
       </c>
       <c r="V18" s="396">
         <f t="shared" si="5"/>
-        <v>20.375</v>
+        <v>21</v>
       </c>
       <c r="W18" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X18" s="397">
-        <v>20.375</v>
+        <v>21</v>
       </c>
       <c r="Y18" s="260"/>
       <c r="Z18" s="395">
@@ -47427,7 +47464,7 @@
       </c>
       <c r="AA18" s="260"/>
       <c r="AB18" s="467">
-        <v>20.375</v>
+        <v>21</v>
       </c>
       <c r="AC18" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F18,AB18/10000,Trigger)</f>
@@ -47499,7 +47536,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="397">
-        <v>20.323328516477766</v>
+        <v>20.944255927023075</v>
       </c>
       <c r="Y19" s="260"/>
       <c r="Z19" s="395">
@@ -47507,11 +47544,11 @@
       </c>
       <c r="AA19" s="260"/>
       <c r="AB19" s="467">
-        <v>20.323328516477766</v>
+        <v>20.944255927023075</v>
       </c>
       <c r="AC19" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F19,AB19/10000,Trigger)</f>
-        <v>6.1727557570598335E-9</v>
+        <v>3.2098329937405023E-7</v>
       </c>
       <c r="AD19" s="160"/>
       <c r="AE19" s="17"/>
@@ -47565,21 +47602,21 @@
         <v>GBP1L6L12Y=ICAP</v>
       </c>
       <c r="T20" s="396">
-        <v>18.125</v>
+        <v>18.75</v>
       </c>
       <c r="U20" s="396">
-        <v>22.125</v>
+        <v>22.75</v>
       </c>
       <c r="V20" s="396">
         <f t="shared" si="5"/>
-        <v>20.125</v>
+        <v>20.75</v>
       </c>
       <c r="W20" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X20" s="397">
-        <v>20.125</v>
+        <v>20.75</v>
       </c>
       <c r="Y20" s="260"/>
       <c r="Z20" s="395">
@@ -47587,7 +47624,7 @@
       </c>
       <c r="AA20" s="260"/>
       <c r="AB20" s="467">
-        <v>20.125</v>
+        <v>20.75</v>
       </c>
       <c r="AC20" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F20,AB20/10000,Trigger)</f>
@@ -47659,7 +47696,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="397">
-        <v>19.809814849274144</v>
+        <v>20.468238658353719</v>
       </c>
       <c r="Y21" s="260"/>
       <c r="Z21" s="395">
@@ -47667,11 +47704,11 @@
       </c>
       <c r="AA21" s="260"/>
       <c r="AB21" s="467">
-        <v>19.809814849274144</v>
+        <v>20.468238658353719</v>
       </c>
       <c r="AC21" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F21,AB21/10000,Trigger)</f>
-        <v>-3.1063242173813566E-9</v>
+        <v>-1.6152885928908539E-7</v>
       </c>
       <c r="AD21" s="160"/>
       <c r="AE21" s="17"/>
@@ -47739,7 +47776,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="397">
-        <v>19.41979081832342</v>
+        <v>20.12733705000522</v>
       </c>
       <c r="Y22" s="260"/>
       <c r="Z22" s="395">
@@ -47747,11 +47784,11 @@
       </c>
       <c r="AA22" s="260"/>
       <c r="AB22" s="467">
-        <v>19.41979081832342</v>
+        <v>20.12733705000522</v>
       </c>
       <c r="AC22" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F22,AB22/10000,Trigger)</f>
-        <v>-2.2114724717268996E-9</v>
+        <v>-1.1499656853543663E-7</v>
       </c>
       <c r="AD22" s="160"/>
       <c r="AE22" s="17"/>
@@ -47805,21 +47842,21 @@
         <v>GBP1L6L15Y=ICAP</v>
       </c>
       <c r="T23" s="396">
-        <v>17</v>
+        <v>17.75</v>
       </c>
       <c r="U23" s="396">
-        <v>21</v>
+        <v>21.75</v>
       </c>
       <c r="V23" s="396">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>19.75</v>
       </c>
       <c r="W23" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X23" s="397">
-        <v>19</v>
+        <v>19.75</v>
       </c>
       <c r="Y23" s="260"/>
       <c r="Z23" s="395">
@@ -47827,7 +47864,7 @@
       </c>
       <c r="AA23" s="260"/>
       <c r="AB23" s="467">
-        <v>19</v>
+        <v>19.75</v>
       </c>
       <c r="AC23" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F23,AB23/10000,Trigger)</f>
@@ -47899,7 +47936,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="397">
-        <v>18.588257948375109</v>
+        <v>19.357040717369834</v>
       </c>
       <c r="Y24" s="260"/>
       <c r="Z24" s="395">
@@ -47907,11 +47944,11 @@
       </c>
       <c r="AA24" s="260"/>
       <c r="AB24" s="467">
-        <v>18.588257948375109</v>
+        <v>19.357040717369834</v>
       </c>
       <c r="AC24" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F24,AB24/10000,Trigger)</f>
-        <v>1.3487600426711349E-9</v>
+        <v>7.0135522214562207E-8</v>
       </c>
       <c r="AD24" s="160"/>
       <c r="AE24" s="17"/>
@@ -47979,7 +48016,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="397">
-        <v>18.193354062396178</v>
+        <v>18.961705947091598</v>
       </c>
       <c r="Y25" s="260"/>
       <c r="Z25" s="395">
@@ -47987,11 +48024,11 @@
       </c>
       <c r="AA25" s="260"/>
       <c r="AB25" s="467">
-        <v>18.193354062396178</v>
+        <v>18.961705947091598</v>
       </c>
       <c r="AC25" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F25,AB25/10000,Trigger)</f>
-        <v>1.6763628198253333E-9</v>
+        <v>8.7170866635687821E-8</v>
       </c>
       <c r="AD25" s="160"/>
       <c r="AE25" s="17"/>
@@ -48059,7 +48096,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="397">
-        <v>17.816821202229693</v>
+        <v>18.575350818128445</v>
       </c>
       <c r="Y26" s="260"/>
       <c r="Z26" s="395">
@@ -48067,11 +48104,11 @@
       </c>
       <c r="AA26" s="260"/>
       <c r="AB26" s="467">
-        <v>17.816821202229693</v>
+        <v>18.575350818128445</v>
       </c>
       <c r="AC26" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F26,AB26/10000,Trigger)</f>
-        <v>1.3295855761860653E-9</v>
+        <v>6.9138449949749173E-8</v>
       </c>
       <c r="AD26" s="160"/>
       <c r="AE26" s="17"/>
@@ -48139,7 +48176,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="397">
-        <v>17.460192228042139</v>
+        <v>18.209330459443528</v>
       </c>
       <c r="Y27" s="260"/>
       <c r="Z27" s="395">
@@ -48147,11 +48184,11 @@
       </c>
       <c r="AA27" s="260"/>
       <c r="AB27" s="467">
-        <v>17.460192228042139</v>
+        <v>18.209330459443528</v>
       </c>
       <c r="AC27" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F27,AB27/10000,Trigger)</f>
-        <v>6.5520555495891808E-10</v>
+        <v>3.407068884268491E-8</v>
       </c>
       <c r="AD27" s="160"/>
       <c r="AE27" s="17"/>
@@ -48205,21 +48242,21 @@
         <v>GBP1L6L20Y=ICAP</v>
       </c>
       <c r="T28" s="396">
-        <v>15.125</v>
+        <v>15.875</v>
       </c>
       <c r="U28" s="396">
-        <v>19.125</v>
+        <v>19.875</v>
       </c>
       <c r="V28" s="396">
         <f t="shared" si="5"/>
-        <v>17.125</v>
+        <v>17.875</v>
       </c>
       <c r="W28" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X28" s="397">
-        <v>17.125</v>
+        <v>17.875</v>
       </c>
       <c r="Y28" s="260"/>
       <c r="Z28" s="395">
@@ -48227,7 +48264,7 @@
       </c>
       <c r="AA28" s="260"/>
       <c r="AB28" s="467">
-        <v>17.125</v>
+        <v>17.875</v>
       </c>
       <c r="AC28" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F28,AB28/10000,Trigger)</f>
@@ -48299,7 +48336,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="397">
-        <v>16.812183457007382</v>
+        <v>17.580105563120103</v>
       </c>
       <c r="Y29" s="260"/>
       <c r="Z29" s="395">
@@ -48307,11 +48344,11 @@
       </c>
       <c r="AA29" s="260"/>
       <c r="AB29" s="467">
-        <v>16.812183457007382</v>
+        <v>17.580105563120103</v>
       </c>
       <c r="AC29" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F29,AB29/10000,Trigger)</f>
-        <v>-3.6244418642576715E-10</v>
+        <v>-1.8847097682430508E-8</v>
       </c>
       <c r="AD29" s="160"/>
       <c r="AE29" s="17"/>
@@ -48379,7 +48416,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="397">
-        <v>16.52030585291887</v>
+        <v>17.317957249562451</v>
       </c>
       <c r="Y30" s="260"/>
       <c r="Z30" s="395">
@@ -48387,11 +48424,11 @@
       </c>
       <c r="AA30" s="260"/>
       <c r="AB30" s="467">
-        <v>16.52030585291887</v>
+        <v>17.317957249562451</v>
       </c>
       <c r="AC30" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F30,AB30/10000,Trigger)</f>
-        <v>-4.5130147036977208E-10</v>
+        <v>-2.3467676468985968E-8</v>
       </c>
       <c r="AD30" s="160"/>
       <c r="AE30" s="17"/>
@@ -48459,7 +48496,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="397">
-        <v>16.247336520326666</v>
+        <v>17.078256154444748</v>
       </c>
       <c r="Y31" s="260"/>
       <c r="Z31" s="395">
@@ -48467,11 +48504,11 @@
       </c>
       <c r="AA31" s="260"/>
       <c r="AB31" s="467">
-        <v>16.247336520326666</v>
+        <v>17.078256154444748</v>
       </c>
       <c r="AC31" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F31,AB31/10000,Trigger)</f>
-        <v>-3.5893666185983497E-10</v>
+        <v>-1.8664706414543014E-8</v>
       </c>
       <c r="AD31" s="160"/>
       <c r="AE31" s="17"/>
@@ -48539,7 +48576,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="397">
-        <v>15.991244791822975</v>
+        <v>16.850703372884695</v>
       </c>
       <c r="Y32" s="260"/>
       <c r="Z32" s="395">
@@ -48547,11 +48584,11 @@
       </c>
       <c r="AA32" s="260"/>
       <c r="AB32" s="467">
-        <v>15.991244791822975</v>
+        <v>16.850703372884695</v>
       </c>
       <c r="AC32" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F32,AB32/10000,Trigger)</f>
-        <v>-1.7771456875537162E-10</v>
+        <v>-9.241157573761441E-9</v>
       </c>
       <c r="AD32" s="160"/>
       <c r="AE32" s="17"/>
@@ -48605,21 +48642,21 @@
         <v>GBP1L6L25Y=ICAP</v>
       </c>
       <c r="T33" s="396">
-        <v>13.75</v>
+        <v>14.625</v>
       </c>
       <c r="U33" s="396">
-        <v>17.75</v>
+        <v>18.625</v>
       </c>
       <c r="V33" s="396">
         <f t="shared" si="5"/>
-        <v>15.75</v>
+        <v>16.625</v>
       </c>
       <c r="W33" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X33" s="397">
-        <v>15.75</v>
+        <v>16.625</v>
       </c>
       <c r="Y33" s="260"/>
       <c r="Z33" s="395">
@@ -48627,7 +48664,7 @@
       </c>
       <c r="AA33" s="260"/>
       <c r="AB33" s="467">
-        <v>15.75</v>
+        <v>16.625</v>
       </c>
       <c r="AC33" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F33,AB33/10000,Trigger)</f>
@@ -48699,7 +48736,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="397">
-        <v>15.522008223595362</v>
+        <v>16.393537030149751</v>
       </c>
       <c r="Y34" s="260"/>
       <c r="Z34" s="395">
@@ -48707,11 +48744,11 @@
       </c>
       <c r="AA34" s="260"/>
       <c r="AB34" s="467">
-        <v>15.522008223595362</v>
+        <v>16.393537030149751</v>
       </c>
       <c r="AC34" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F34,AB34/10000,Trigger)</f>
-        <v>1.0101670216457193E-10</v>
+        <v>5.2528685151598253E-9</v>
       </c>
       <c r="AD34" s="160"/>
       <c r="AE34" s="17"/>
@@ -48779,7 +48816,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="397">
-        <v>15.307422525928343</v>
+        <v>16.159465054658597</v>
       </c>
       <c r="Y35" s="260"/>
       <c r="Z35" s="395">
@@ -48787,11 +48824,11 @@
       </c>
       <c r="AA35" s="260"/>
       <c r="AB35" s="467">
-        <v>15.307422525928343</v>
+        <v>16.159465054658597</v>
       </c>
       <c r="AC35" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F35,AB35/10000,Trigger)</f>
-        <v>1.2884306230427633E-10</v>
+        <v>6.6998392409065716E-9</v>
       </c>
       <c r="AD35" s="160"/>
       <c r="AE35" s="17"/>
@@ -48859,7 +48896,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="397">
-        <v>15.106832716463645</v>
+        <v>15.928624564092564</v>
       </c>
       <c r="Y36" s="260"/>
       <c r="Z36" s="395">
@@ -48867,11 +48904,11 @@
       </c>
       <c r="AA36" s="260"/>
       <c r="AB36" s="467">
-        <v>15.106832716463645</v>
+        <v>15.928624564092564</v>
       </c>
       <c r="AC36" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F36,AB36/10000,Trigger)</f>
-        <v>1.06161071470115E-10</v>
+        <v>5.5203757082060434E-9</v>
       </c>
       <c r="AD36" s="160"/>
       <c r="AE36" s="17"/>
@@ -48939,7 +48976,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="397">
-        <v>14.920828604665964</v>
+        <v>15.706856049017688</v>
       </c>
       <c r="Y37" s="260"/>
       <c r="Z37" s="395">
@@ -48947,11 +48984,11 @@
       </c>
       <c r="AA37" s="260"/>
       <c r="AB37" s="467">
-        <v>14.920828604665964</v>
+        <v>15.706856049017688</v>
       </c>
       <c r="AC37" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F37,AB37/10000,Trigger)</f>
-        <v>5.5652720279408818E-11</v>
+        <v>2.8939414506261307E-9</v>
       </c>
       <c r="AD37" s="160"/>
       <c r="AE37" s="17"/>
@@ -49005,21 +49042,21 @@
         <v>GBP1L6L30Y=ICAP</v>
       </c>
       <c r="T38" s="396">
-        <v>12.75</v>
+        <v>13.5</v>
       </c>
       <c r="U38" s="396">
-        <v>16.75</v>
+        <v>17.5</v>
       </c>
       <c r="V38" s="396">
         <f t="shared" si="5"/>
-        <v>14.75</v>
+        <v>15.5</v>
       </c>
       <c r="W38" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X38" s="397">
-        <v>14.75</v>
+        <v>15.5</v>
       </c>
       <c r="Y38" s="260"/>
       <c r="Z38" s="395">
@@ -49027,7 +49064,7 @@
       </c>
       <c r="AA38" s="260"/>
       <c r="AB38" s="467">
-        <v>14.75</v>
+        <v>15.5</v>
       </c>
       <c r="AC38" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F38,AB38/10000,Trigger)</f>
@@ -49099,7 +49136,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="663">
-        <v>14.096492298933089</v>
+        <v>14.733007282143571</v>
       </c>
       <c r="Y39" s="260"/>
       <c r="Z39" s="395">
@@ -49107,11 +49144,11 @@
       </c>
       <c r="AA39" s="260"/>
       <c r="AB39" s="467">
-        <v>14.096492298933089</v>
+        <v>14.733007282143571</v>
       </c>
       <c r="AC39" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F39,AB39/10000,Trigger)</f>
-        <v>-8.0380766929663561E-11</v>
+        <v>-4.179799889232963E-9</v>
       </c>
       <c r="AD39" s="160"/>
       <c r="AE39" s="17"/>
@@ -49165,21 +49202,21 @@
         <v>GBP1L6L40Y=ICAP</v>
       </c>
       <c r="T40" s="396">
-        <v>11.625</v>
+        <v>12.25</v>
       </c>
       <c r="U40" s="396">
-        <v>15.625</v>
+        <v>16.25</v>
       </c>
       <c r="V40" s="396">
         <f t="shared" si="5"/>
-        <v>13.625</v>
+        <v>14.25</v>
       </c>
       <c r="W40" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X40" s="663">
-        <v>13.625</v>
+        <v>14.25</v>
       </c>
       <c r="Y40" s="260"/>
       <c r="Z40" s="395">
@@ -49187,7 +49224,7 @@
       </c>
       <c r="AA40" s="260"/>
       <c r="AB40" s="467">
-        <v>13.625</v>
+        <v>14.25</v>
       </c>
       <c r="AC40" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F40,AB40/10000,Trigger)</f>
@@ -49245,21 +49282,21 @@
         <v>GBP1L6L50Y=ICAP</v>
       </c>
       <c r="T41" s="396">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="U41" s="396">
-        <v>15.25</v>
+        <v>16</v>
       </c>
       <c r="V41" s="396">
         <f t="shared" si="5"/>
-        <v>12.75</v>
+        <v>13.5</v>
       </c>
       <c r="W41" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X41" s="663">
-        <v>12.75</v>
+        <v>13.5</v>
       </c>
       <c r="Y41" s="260"/>
       <c r="Z41" s="395">
@@ -49267,7 +49304,7 @@
       </c>
       <c r="AA41" s="260"/>
       <c r="AB41" s="467">
-        <v>12.75</v>
+        <v>13.5</v>
       </c>
       <c r="AC41" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F41,AB41/10000,Trigger)</f>
@@ -49325,21 +49362,21 @@
         <v>GBP1L6L60Y=ICAP</v>
       </c>
       <c r="T42" s="394">
-        <v>9.125</v>
+        <v>9.875</v>
       </c>
       <c r="U42" s="394">
-        <v>15.125</v>
+        <v>15.875</v>
       </c>
       <c r="V42" s="394">
         <f>IF(ISERROR(AVERAGE(T42,U42)),#NUM!,AVERAGE(T42,U42))</f>
-        <v>12.125</v>
+        <v>12.875</v>
       </c>
       <c r="W42" s="259" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X42" s="664">
-        <v>12.125</v>
+        <v>12.875</v>
       </c>
       <c r="Y42" s="260"/>
       <c r="Z42" s="393">
@@ -49347,7 +49384,7 @@
       </c>
       <c r="AA42" s="260"/>
       <c r="AB42" s="468">
-        <v>12.125</v>
+        <v>12.875</v>
       </c>
       <c r="AC42" s="258">
         <f>_xll.qlSimpleQuoteSetValue(F42,AB42/10000,Trigger)</f>
@@ -49510,7 +49547,7 @@
       <c r="R3" s="86"/>
       <c r="S3" s="260" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,_xll.ohFilter(N5:N42,W5:W42),_xll.ohFilter(V5:V42,W5:W42))</f>
-        <v>obj_0063b#0010</v>
+        <v>obj_0063d#0000</v>
       </c>
       <c r="T3" s="86"/>
       <c r="U3" s="86"/>
@@ -49523,7 +49560,7 @@
       <c r="AB3" s="86"/>
       <c r="AC3" s="289">
         <f>_xll.ohTrigger(AC5:AC42)</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AD3" s="160"/>
       <c r="AE3" s="17"/>
@@ -49560,7 +49597,7 @@
       <c r="R4" s="141"/>
       <c r="S4" s="288" t="str">
         <f>_xll.RData(S5:S42,T4:U4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:15:40</v>
       </c>
       <c r="T4" s="319" t="s">
         <v>254</v>
@@ -49660,7 +49697,7 @@
       </c>
       <c r="X5" s="397">
         <f t="array" ref="X5:X42">_xll.qlInterpolationInterpolate(S3,N5:N42,TRUE)</f>
-        <v>9.0139679761512248</v>
+        <v>9.2109100875873171</v>
       </c>
       <c r="Y5" s="260"/>
       <c r="Z5" s="395">
@@ -49669,11 +49706,11 @@
       <c r="AA5" s="260"/>
       <c r="AB5" s="467">
         <f t="array" ref="AB5:AB42">QuoteLive</f>
-        <v>9.0139679761512248</v>
+        <v>9.2109100875873171</v>
       </c>
       <c r="AC5" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F5,AB5/10000,Trigger)</f>
-        <v>2.01928414164383E-6</v>
+        <v>1.9694211143609221E-5</v>
       </c>
       <c r="AD5" s="160"/>
       <c r="AE5" s="17"/>
@@ -49741,21 +49778,21 @@
         <v>GBP3L6L1Y=ICAP</v>
       </c>
       <c r="T6" s="396">
-        <v>6.625</v>
+        <v>6.75</v>
       </c>
       <c r="U6" s="396">
-        <v>11.625</v>
+        <v>11.75</v>
       </c>
       <c r="V6" s="396">
         <f t="shared" ref="V6:V41" si="6">IF(ISERROR(AVERAGE(T6,U6)),#NUM!,AVERAGE(T6,U6))</f>
-        <v>9.125</v>
+        <v>9.25</v>
       </c>
       <c r="W6" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X6" s="397">
-        <v>9.125</v>
+        <v>9.25</v>
       </c>
       <c r="Y6" s="260"/>
       <c r="Z6" s="395">
@@ -49763,11 +49800,11 @@
       </c>
       <c r="AA6" s="260"/>
       <c r="AB6" s="467">
-        <v>9.125</v>
+        <v>9.25</v>
       </c>
       <c r="AC6" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F6,AB6/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.2500000000000033E-5</v>
       </c>
       <c r="AD6" s="160"/>
       <c r="AE6" s="17"/>
@@ -49849,7 +49886,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="397">
-        <v>9.1787700149054849</v>
+        <v>9.266618695257927</v>
       </c>
       <c r="Y7" s="260"/>
       <c r="Z7" s="395">
@@ -49857,11 +49894,11 @@
       </c>
       <c r="AA7" s="260"/>
       <c r="AB7" s="467">
-        <v>9.1787700149054849</v>
+        <v>9.266618695257927</v>
       </c>
       <c r="AC7" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F7,AB7/10000,Trigger)</f>
-        <v>-1.2620525885273124E-6</v>
+        <v>8.7848680352442315E-6</v>
       </c>
       <c r="AD7" s="160"/>
       <c r="AE7" s="17"/>
@@ -49943,7 +49980,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="397">
-        <v>9.2360320238487752</v>
+        <v>9.2890899124126829</v>
       </c>
       <c r="Y8" s="260"/>
       <c r="Z8" s="395">
@@ -49951,11 +49988,11 @@
       </c>
       <c r="AA8" s="260"/>
       <c r="AB8" s="467">
-        <v>9.2360320238487752</v>
+        <v>9.2890899124126829</v>
       </c>
       <c r="AC8" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F8,AB8/10000,Trigger)</f>
-        <v>-2.0192841416439384E-6</v>
+        <v>5.305788856390845E-6</v>
       </c>
       <c r="AD8" s="160"/>
       <c r="AE8" s="17"/>
@@ -49974,7 +50011,7 @@
       </c>
       <c r="AJ8" s="392">
         <f>((Swap6M!AB9-Swap3MAnnual!AB9)*100-AB8)/10000</f>
-        <v>-2.3603202384876809E-5</v>
+        <v>-2.890899124126758E-5</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -50037,7 +50074,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="397">
-        <v>9.3002780208676796</v>
+        <v>9.3232661733610982</v>
       </c>
       <c r="Y9" s="260"/>
       <c r="Z9" s="395">
@@ -50045,11 +50082,11 @@
       </c>
       <c r="AA9" s="260"/>
       <c r="AB9" s="467">
-        <v>9.3002780208676796</v>
+        <v>9.3232661733610982</v>
       </c>
       <c r="AC9" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F9,AB9/10000,Trigger)</f>
-        <v>-1.7668736239383242E-6</v>
+        <v>2.2988152493418545E-6</v>
       </c>
       <c r="AD9" s="160"/>
       <c r="AE9" s="17"/>
@@ -50249,7 +50286,7 @@
       </c>
       <c r="AC11" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F11,AB11/10000,Trigger)</f>
-        <v>1.2500000000000141E-5</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="160"/>
       <c r="AE11" s="17"/>
@@ -50320,21 +50357,21 @@
         <v>GBP3L6L4Y=ICAP</v>
       </c>
       <c r="T12" s="396">
-        <v>8.75</v>
+        <v>8.875</v>
       </c>
       <c r="U12" s="396">
-        <v>12.75</v>
+        <v>12.875</v>
       </c>
       <c r="V12" s="396">
         <f t="shared" si="6"/>
-        <v>10.75</v>
+        <v>10.875</v>
       </c>
       <c r="W12" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X12" s="397">
-        <v>10.75</v>
+        <v>10.875</v>
       </c>
       <c r="Y12" s="260"/>
       <c r="Z12" s="395">
@@ -50342,11 +50379,11 @@
       </c>
       <c r="AA12" s="260"/>
       <c r="AB12" s="467">
-        <v>10.75</v>
+        <v>10.875</v>
       </c>
       <c r="AC12" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F12,AB12/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.2499999999999924E-5</v>
       </c>
       <c r="AD12" s="160"/>
       <c r="AE12" s="17"/>
@@ -50417,21 +50454,21 @@
         <v>GBP3L6L5Y=ICAP</v>
       </c>
       <c r="T13" s="396">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="U13" s="396">
-        <v>13.5</v>
+        <v>13.75</v>
       </c>
       <c r="V13" s="396">
         <f t="shared" si="6"/>
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="W13" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X13" s="397">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y13" s="260"/>
       <c r="Z13" s="395">
@@ -50439,11 +50476,11 @@
       </c>
       <c r="AA13" s="260"/>
       <c r="AB13" s="467">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC13" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F13,AB13/10000,Trigger)</f>
-        <v>0</v>
+        <v>2.5000000000000066E-5</v>
       </c>
       <c r="AD13" s="160"/>
       <c r="AE13" s="17"/>
@@ -50514,21 +50551,21 @@
         <v>GBP3L6L6Y=ICAP</v>
       </c>
       <c r="T14" s="396">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="U14" s="396">
-        <v>13.75</v>
+        <v>14</v>
       </c>
       <c r="V14" s="396">
         <f t="shared" si="6"/>
-        <v>12.25</v>
+        <v>12.5</v>
       </c>
       <c r="W14" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X14" s="397">
-        <v>12.25</v>
+        <v>12.5</v>
       </c>
       <c r="Y14" s="260"/>
       <c r="Z14" s="395">
@@ -50536,11 +50573,11 @@
       </c>
       <c r="AA14" s="260"/>
       <c r="AB14" s="467">
-        <v>12.25</v>
+        <v>12.5</v>
       </c>
       <c r="AC14" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F14,AB14/10000,Trigger)</f>
-        <v>0</v>
+        <v>2.5000000000000066E-5</v>
       </c>
       <c r="AD14" s="160"/>
       <c r="AE14" s="17"/>
@@ -50602,21 +50639,21 @@
         <v>GBP3L6L7Y=ICAP</v>
       </c>
       <c r="T15" s="396">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="U15" s="396">
-        <v>14.25</v>
+        <v>14.5</v>
       </c>
       <c r="V15" s="396">
         <f t="shared" si="6"/>
-        <v>12.75</v>
+        <v>13</v>
       </c>
       <c r="W15" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X15" s="397">
-        <v>12.75</v>
+        <v>13</v>
       </c>
       <c r="Y15" s="260"/>
       <c r="Z15" s="395">
@@ -50624,11 +50661,11 @@
       </c>
       <c r="AA15" s="260"/>
       <c r="AB15" s="467">
-        <v>12.75</v>
+        <v>13</v>
       </c>
       <c r="AC15" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F15,AB15/10000,Trigger)</f>
-        <v>0</v>
+        <v>2.4999999999999849E-5</v>
       </c>
       <c r="AD15" s="160"/>
       <c r="AE15" s="17"/>
@@ -50690,21 +50727,21 @@
         <v>GBP3L6L8Y=ICAP</v>
       </c>
       <c r="T16" s="396">
-        <v>11.875</v>
+        <v>12.125</v>
       </c>
       <c r="U16" s="396">
-        <v>14.875</v>
+        <v>15.125</v>
       </c>
       <c r="V16" s="396">
         <f t="shared" si="6"/>
-        <v>13.375</v>
+        <v>13.625</v>
       </c>
       <c r="W16" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X16" s="397">
-        <v>13.375</v>
+        <v>13.625</v>
       </c>
       <c r="Y16" s="260"/>
       <c r="Z16" s="395">
@@ -50712,11 +50749,11 @@
       </c>
       <c r="AA16" s="260"/>
       <c r="AB16" s="467">
-        <v>13.375</v>
+        <v>13.625</v>
       </c>
       <c r="AC16" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F16,AB16/10000,Trigger)</f>
-        <v>0</v>
+        <v>2.5000000000000066E-5</v>
       </c>
       <c r="AD16" s="160"/>
       <c r="AE16" s="17"/>
@@ -50778,21 +50815,21 @@
         <v>GBP3L6L9Y=ICAP</v>
       </c>
       <c r="T17" s="396">
-        <v>12.25</v>
+        <v>12.625</v>
       </c>
       <c r="U17" s="396">
-        <v>15.25</v>
+        <v>15.625</v>
       </c>
       <c r="V17" s="396">
         <f t="shared" si="6"/>
-        <v>13.75</v>
+        <v>14.125</v>
       </c>
       <c r="W17" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X17" s="397">
-        <v>13.75</v>
+        <v>14.125</v>
       </c>
       <c r="Y17" s="260"/>
       <c r="Z17" s="395">
@@ -50800,11 +50837,11 @@
       </c>
       <c r="AA17" s="260"/>
       <c r="AB17" s="467">
-        <v>13.75</v>
+        <v>14.125</v>
       </c>
       <c r="AC17" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F17,AB17/10000,Trigger)</f>
-        <v>0</v>
+        <v>3.749999999999999E-5</v>
       </c>
       <c r="AD17" s="160"/>
       <c r="AE17" s="17"/>
@@ -50866,21 +50903,21 @@
         <v>GBP3L6L10Y=ICAP</v>
       </c>
       <c r="T18" s="396">
-        <v>12.375</v>
+        <v>12.75</v>
       </c>
       <c r="U18" s="396">
-        <v>15.375</v>
+        <v>15.75</v>
       </c>
       <c r="V18" s="396">
         <f t="shared" si="6"/>
-        <v>13.875</v>
+        <v>14.25</v>
       </c>
       <c r="W18" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X18" s="397">
-        <v>13.875</v>
+        <v>14.25</v>
       </c>
       <c r="Y18" s="260"/>
       <c r="Z18" s="395">
@@ -50888,11 +50925,11 @@
       </c>
       <c r="AA18" s="260"/>
       <c r="AB18" s="467">
-        <v>13.875</v>
+        <v>14.25</v>
       </c>
       <c r="AC18" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F18,AB18/10000,Trigger)</f>
-        <v>0</v>
+        <v>3.749999999999999E-5</v>
       </c>
       <c r="AD18" s="160"/>
       <c r="AE18" s="17"/>
@@ -50968,7 +51005,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="397">
-        <v>13.812808597288944</v>
+        <v>14.175002786865248</v>
       </c>
       <c r="Y19" s="260"/>
       <c r="Z19" s="395">
@@ -50976,11 +51013,11 @@
       </c>
       <c r="AA19" s="260"/>
       <c r="AB19" s="467">
-        <v>13.812808597288944</v>
+        <v>14.175002786865248</v>
       </c>
       <c r="AC19" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F19,AB19/10000,Trigger)</f>
-        <v>-1.6460682020994627E-9</v>
+        <v>3.6219418957630402E-5</v>
       </c>
       <c r="AD19" s="160"/>
       <c r="AE19" s="17"/>
@@ -51042,21 +51079,21 @@
         <v>GBP3L6L12Y=ICAP</v>
       </c>
       <c r="T20" s="396">
-        <v>12.125</v>
+        <v>12.5</v>
       </c>
       <c r="U20" s="396">
-        <v>15.125</v>
+        <v>15.5</v>
       </c>
       <c r="V20" s="396">
         <f t="shared" si="6"/>
-        <v>13.625</v>
+        <v>14</v>
       </c>
       <c r="W20" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X20" s="397">
-        <v>13.625</v>
+        <v>14</v>
       </c>
       <c r="Y20" s="260"/>
       <c r="Z20" s="395">
@@ -51064,11 +51101,11 @@
       </c>
       <c r="AA20" s="260"/>
       <c r="AB20" s="467">
-        <v>13.625</v>
+        <v>14</v>
       </c>
       <c r="AC20" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F20,AB20/10000,Trigger)</f>
-        <v>0</v>
+        <v>3.749999999999999E-5</v>
       </c>
       <c r="AD20" s="160"/>
       <c r="AE20" s="17"/>
@@ -51144,7 +51181,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="397">
-        <v>13.371327047929061</v>
+        <v>13.783259021189654</v>
       </c>
       <c r="Y21" s="260"/>
       <c r="Z21" s="395">
@@ -51152,11 +51189,11 @@
       </c>
       <c r="AA21" s="260"/>
       <c r="AB21" s="467">
-        <v>13.371327047929061</v>
+        <v>13.783259021189654</v>
       </c>
       <c r="AC21" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F21,AB21/10000,Trigger)</f>
-        <v>8.2835312459166033E-10</v>
+        <v>4.1193197326059271E-5</v>
       </c>
       <c r="AD21" s="160"/>
       <c r="AE21" s="17"/>
@@ -51232,7 +51269,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="397">
-        <v>13.074978007077956</v>
+        <v>13.533192140686632</v>
       </c>
       <c r="Y22" s="260"/>
       <c r="Z22" s="395">
@@ -51240,11 +51277,11 @@
       </c>
       <c r="AA22" s="260"/>
       <c r="AB22" s="467">
-        <v>13.074978007077956</v>
+        <v>13.533192140686632</v>
       </c>
       <c r="AC22" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F22,AB22/10000,Trigger)</f>
-        <v>5.8972599243159451E-10</v>
+        <v>4.5821413360867596E-5</v>
       </c>
       <c r="AD22" s="160"/>
       <c r="AE22" s="17"/>
@@ -51306,21 +51343,21 @@
         <v>GBP3L6L15Y=ICAP</v>
       </c>
       <c r="T23" s="396">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="U23" s="396">
-        <v>14.25</v>
+        <v>14.75</v>
       </c>
       <c r="V23" s="396">
         <f t="shared" si="6"/>
-        <v>12.75</v>
+        <v>13.25</v>
       </c>
       <c r="W23" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X23" s="397">
-        <v>12.75</v>
+        <v>13.25</v>
       </c>
       <c r="Y23" s="260"/>
       <c r="Z23" s="395">
@@ -51328,11 +51365,11 @@
       </c>
       <c r="AA23" s="260"/>
       <c r="AB23" s="467">
-        <v>12.75</v>
+        <v>13.25</v>
       </c>
       <c r="AC23" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F23,AB23/10000,Trigger)</f>
-        <v>0</v>
+        <v>4.9999999999999914E-5</v>
       </c>
       <c r="AD23" s="160"/>
       <c r="AE23" s="17"/>
@@ -51408,7 +51445,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="397">
-        <v>12.409941551163922</v>
+        <v>12.936129777865778</v>
       </c>
       <c r="Y24" s="260"/>
       <c r="Z24" s="395">
@@ -51416,11 +51453,11 @@
       </c>
       <c r="AA24" s="260"/>
       <c r="AB24" s="467">
-        <v>12.409941551163922</v>
+        <v>12.936129777865778</v>
       </c>
       <c r="AC24" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F24,AB24/10000,Trigger)</f>
-        <v>-3.5966934465447853E-10</v>
+        <v>5.2618822670185599E-5</v>
       </c>
       <c r="AD24" s="160"/>
       <c r="AE24" s="17"/>
@@ -51496,7 +51533,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="397">
-        <v>12.066356792700097</v>
+        <v>12.603014801927838</v>
       </c>
       <c r="Y25" s="260"/>
       <c r="Z25" s="395">
@@ -51504,11 +51541,11 @@
       </c>
       <c r="AA25" s="260"/>
       <c r="AB25" s="467">
-        <v>12.066356792700097</v>
+        <v>12.603014801927838</v>
       </c>
       <c r="AC25" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F25,AB25/10000,Trigger)</f>
-        <v>-4.4703008547468392E-10</v>
+        <v>5.3665800922774332E-5</v>
       </c>
       <c r="AD25" s="160"/>
       <c r="AE25" s="17"/>
@@ -51584,7 +51621,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="397">
-        <v>11.730301258654311</v>
+        <v>12.264334937057008</v>
       </c>
       <c r="Y26" s="260"/>
       <c r="Z26" s="395">
@@ -51592,11 +51629,11 @@
       </c>
       <c r="AA26" s="260"/>
       <c r="AB26" s="467">
-        <v>11.730301258654311</v>
+        <v>12.264334937057008</v>
       </c>
       <c r="AC26" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F26,AB26/10000,Trigger)</f>
-        <v>-3.5455615353396919E-10</v>
+        <v>5.3403367840269573E-5</v>
       </c>
       <c r="AD26" s="160"/>
       <c r="AE26" s="17"/>
@@ -51672,7 +51709,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="397">
-        <v>11.41283048307235</v>
+        <v>11.933770048124117</v>
       </c>
       <c r="Y27" s="260"/>
       <c r="Z27" s="395">
@@ -51680,11 +51717,11 @@
       </c>
       <c r="AA27" s="260"/>
       <c r="AB27" s="467">
-        <v>11.41283048307235</v>
+        <v>11.933770048124117</v>
       </c>
       <c r="AC27" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F27,AB27/10000,Trigger)</f>
-        <v>-1.7472148120672992E-10</v>
+        <v>5.2093956505176731E-5</v>
       </c>
       <c r="AD27" s="160"/>
       <c r="AE27" s="17"/>
@@ -51746,21 +51783,21 @@
         <v>GBP3L6L20Y=ICAP</v>
       </c>
       <c r="T28" s="396">
-        <v>9.625</v>
+        <v>10.125</v>
       </c>
       <c r="U28" s="396">
-        <v>12.625</v>
+        <v>13.125</v>
       </c>
       <c r="V28" s="396">
         <f t="shared" si="6"/>
-        <v>11.125</v>
+        <v>11.625</v>
       </c>
       <c r="W28" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X28" s="397">
-        <v>11.125</v>
+        <v>11.625</v>
       </c>
       <c r="Y28" s="260"/>
       <c r="Z28" s="395">
@@ -51768,11 +51805,11 @@
       </c>
       <c r="AA28" s="260"/>
       <c r="AB28" s="467">
-        <v>11.125</v>
+        <v>11.625</v>
       </c>
       <c r="AC28" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F28,AB28/10000,Trigger)</f>
-        <v>0</v>
+        <v>4.9999999999999914E-5</v>
       </c>
       <c r="AD28" s="160"/>
       <c r="AE28" s="17"/>
@@ -51848,7 +51885,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="397">
-        <v>10.874726178171969</v>
+        <v>11.348609716419563</v>
       </c>
       <c r="Y29" s="260"/>
       <c r="Z29" s="395">
@@ -51856,11 +51893,11 @@
       </c>
       <c r="AA29" s="260"/>
       <c r="AB29" s="467">
-        <v>10.874726178171969</v>
+        <v>11.348609716419563</v>
       </c>
       <c r="AC29" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F29,AB29/10000,Trigger)</f>
-        <v>9.6651782931223007E-11</v>
+        <v>4.7388353824759409E-5</v>
       </c>
       <c r="AD29" s="160"/>
       <c r="AE29" s="17"/>
@@ -51936,7 +51973,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="397">
-        <v>10.657368725078646</v>
+        <v>11.102804356574037</v>
       </c>
       <c r="Y30" s="260"/>
       <c r="Z30" s="395">
@@ -51944,11 +51981,11 @@
       </c>
       <c r="AA30" s="260"/>
       <c r="AB30" s="467">
-        <v>10.657368725078646</v>
+        <v>11.102804356574037</v>
       </c>
       <c r="AC30" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F30,AB30/10000,Trigger)</f>
-        <v>1.2034705892428887E-10</v>
+        <v>4.4543563149539124E-5</v>
       </c>
       <c r="AD30" s="160"/>
       <c r="AE30" s="17"/>
@@ -52024,7 +52061,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="397">
-        <v>10.465148182899338</v>
+        <v>10.88269413851873</v>
       </c>
       <c r="Y31" s="260"/>
       <c r="Z31" s="395">
@@ -52032,11 +52069,11 @@
       </c>
       <c r="AA31" s="260"/>
       <c r="AB31" s="467">
-        <v>10.465148182899338</v>
+        <v>10.88269413851873</v>
       </c>
       <c r="AC31" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F31,AB31/10000,Trigger)</f>
-        <v>9.5716443234902804E-11</v>
+        <v>4.1754595561939141E-5</v>
       </c>
       <c r="AD31" s="160"/>
       <c r="AE31" s="17"/>
@@ -52112,7 +52149,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="397">
-        <v>10.290285093813353</v>
+        <v>10.683389280308948</v>
       </c>
       <c r="Y32" s="260"/>
       <c r="Z32" s="395">
@@ -52120,11 +52157,11 @@
       </c>
       <c r="AA32" s="260"/>
       <c r="AB32" s="467">
-        <v>10.290285093813353</v>
+        <v>10.683389280308948</v>
       </c>
       <c r="AC32" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F32,AB32/10000,Trigger)</f>
-        <v>4.7390551552450866E-11</v>
+        <v>3.9310418649559547E-5</v>
       </c>
       <c r="AD32" s="160"/>
       <c r="AE32" s="17"/>
@@ -52186,21 +52223,21 @@
         <v>GBP3L6L25Y=ICAP</v>
       </c>
       <c r="T33" s="396">
-        <v>8.625</v>
+        <v>9</v>
       </c>
       <c r="U33" s="396">
-        <v>11.625</v>
+        <v>12</v>
       </c>
       <c r="V33" s="396">
         <f t="shared" si="6"/>
-        <v>10.125</v>
+        <v>10.5</v>
       </c>
       <c r="W33" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X33" s="397">
-        <v>10.125</v>
+        <v>10.5</v>
       </c>
       <c r="Y33" s="260"/>
       <c r="Z33" s="395">
@@ -52208,11 +52245,11 @@
       </c>
       <c r="AA33" s="260"/>
       <c r="AB33" s="467">
-        <v>10.125</v>
+        <v>10.5</v>
       </c>
       <c r="AC33" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F33,AB33/10000,Trigger)</f>
-        <v>0</v>
+        <v>3.749999999999999E-5</v>
       </c>
       <c r="AD33" s="160"/>
       <c r="AE33" s="17"/>
@@ -52288,7 +52325,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="397">
-        <v>9.9631537361482003</v>
+        <v>10.328431356455967</v>
       </c>
       <c r="Y34" s="260"/>
       <c r="Z34" s="395">
@@ -52296,11 +52333,11 @@
       </c>
       <c r="AA34" s="260"/>
       <c r="AB34" s="467">
-        <v>9.9631537361482003</v>
+        <v>10.328431356455967</v>
       </c>
       <c r="AC34" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F34,AB34/10000,Trigger)</f>
-        <v>-2.6937787070413499E-11</v>
+        <v>3.6527762030776545E-5</v>
       </c>
       <c r="AD34" s="160"/>
       <c r="AE34" s="17"/>
@@ -52376,7 +52413,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="397">
-        <v>9.805168306985319</v>
+        <v>10.167767771776013</v>
       </c>
       <c r="Y35" s="260"/>
       <c r="Z35" s="395">
@@ -52384,11 +52421,11 @@
       </c>
       <c r="AA35" s="260"/>
       <c r="AB35" s="467">
-        <v>9.805168306985319</v>
+        <v>10.167767771776013</v>
       </c>
       <c r="AC35" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F35,AB35/10000,Trigger)</f>
-        <v>-3.4358149788790704E-11</v>
+        <v>3.6259946479069455E-5</v>
       </c>
       <c r="AD35" s="160"/>
       <c r="AE35" s="17"/>
@@ -52464,7 +52501,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="397">
-        <v>9.6531060097483401</v>
+        <v>10.017888508868076</v>
       </c>
       <c r="Y36" s="260"/>
       <c r="Z36" s="395">
@@ -52472,11 +52509,11 @@
       </c>
       <c r="AA36" s="260"/>
       <c r="AB36" s="467">
-        <v>9.6531060097483401</v>
+        <v>10.017888508868076</v>
       </c>
       <c r="AC36" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F36,AB36/10000,Trigger)</f>
-        <v>-2.8309619080381376E-11</v>
+        <v>3.6478249911973655E-5</v>
       </c>
       <c r="AD36" s="160"/>
       <c r="AE36" s="17"/>
@@ -52552,7 +52589,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="397">
-        <v>9.5090291416742403</v>
+        <v>9.8786728306400935</v>
       </c>
       <c r="Y37" s="260"/>
       <c r="Z37" s="395">
@@ -52560,11 +52597,11 @@
       </c>
       <c r="AA37" s="260"/>
       <c r="AB37" s="467">
-        <v>9.5090291416742403</v>
+        <v>9.8786728306400935</v>
       </c>
       <c r="AC37" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F37,AB37/10000,Trigger)</f>
-        <v>-1.4840725219913975E-11</v>
+        <v>3.6964368896585378E-5</v>
       </c>
       <c r="AD37" s="160"/>
       <c r="AE37" s="17"/>
@@ -52626,21 +52663,21 @@
         <v>GBP3L6L30Y=ICAP</v>
       </c>
       <c r="T38" s="396">
-        <v>7.875</v>
+        <v>8.25</v>
       </c>
       <c r="U38" s="396">
-        <v>10.875</v>
+        <v>11.25</v>
       </c>
       <c r="V38" s="396">
         <f t="shared" si="6"/>
-        <v>9.375</v>
+        <v>9.75</v>
       </c>
       <c r="W38" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X38" s="663">
-        <v>9.375</v>
+        <v>9.75</v>
       </c>
       <c r="Y38" s="260"/>
       <c r="Z38" s="395">
@@ -52648,11 +52685,11 @@
       </c>
       <c r="AA38" s="260"/>
       <c r="AB38" s="467">
-        <v>9.375</v>
+        <v>9.75</v>
       </c>
       <c r="AC38" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F38,AB38/10000,Trigger)</f>
-        <v>0</v>
+        <v>3.749999999999999E-5</v>
       </c>
       <c r="AD38" s="160"/>
       <c r="AE38" s="17"/>
@@ -52728,7 +52765,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="663">
-        <v>8.8601207249978167</v>
+        <v>9.2428569935607907</v>
       </c>
       <c r="Y39" s="260"/>
       <c r="Z39" s="395">
@@ -52736,11 +52773,11 @@
       </c>
       <c r="AA39" s="260"/>
       <c r="AB39" s="467">
-        <v>8.8601207249978167</v>
+        <v>9.2428569935607907</v>
       </c>
       <c r="AC39" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F39,AB39/10000,Trigger)</f>
-        <v>2.1434871347487949E-11</v>
+        <v>3.8273626856297357E-5</v>
       </c>
       <c r="AD39" s="160"/>
       <c r="AE39" s="17"/>
@@ -52802,21 +52839,21 @@
         <v>GBP3L6L40Y=ICAP</v>
       </c>
       <c r="T40" s="396">
-        <v>7</v>
+        <v>7.375</v>
       </c>
       <c r="U40" s="396">
-        <v>10</v>
+        <v>10.375</v>
       </c>
       <c r="V40" s="396">
         <f t="shared" si="6"/>
-        <v>8.5</v>
+        <v>8.875</v>
       </c>
       <c r="W40" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X40" s="663">
-        <v>8.5</v>
+        <v>8.875</v>
       </c>
       <c r="Y40" s="260"/>
       <c r="Z40" s="395">
@@ -52824,11 +52861,11 @@
       </c>
       <c r="AA40" s="260"/>
       <c r="AB40" s="467">
-        <v>8.5</v>
+        <v>8.875</v>
       </c>
       <c r="AC40" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F40,AB40/10000,Trigger)</f>
-        <v>0</v>
+        <v>3.7500000000000098E-5</v>
       </c>
       <c r="AD40" s="160"/>
       <c r="AE40" s="17"/>
@@ -52890,21 +52927,21 @@
         <v>GBP3L6L50Y=ICAP</v>
       </c>
       <c r="T41" s="396">
-        <v>5.875</v>
+        <v>6.25</v>
       </c>
       <c r="U41" s="396">
-        <v>9.875</v>
+        <v>10.25</v>
       </c>
       <c r="V41" s="396">
         <f t="shared" si="6"/>
-        <v>7.875</v>
+        <v>8.25</v>
       </c>
       <c r="W41" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X41" s="663">
-        <v>7.875</v>
+        <v>8.25</v>
       </c>
       <c r="Y41" s="260"/>
       <c r="Z41" s="395">
@@ -52912,11 +52949,11 @@
       </c>
       <c r="AA41" s="260"/>
       <c r="AB41" s="467">
-        <v>7.875</v>
+        <v>8.25</v>
       </c>
       <c r="AC41" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F41,AB41/10000,Trigger)</f>
-        <v>0</v>
+        <v>3.749999999999999E-5</v>
       </c>
       <c r="AD41" s="160"/>
       <c r="AE41" s="17"/>
@@ -52978,21 +53015,21 @@
         <v>GBP3L6L60Y=ICAP</v>
       </c>
       <c r="T42" s="394">
-        <v>4.875</v>
+        <v>5.25</v>
       </c>
       <c r="U42" s="394">
-        <v>9.875</v>
+        <v>10.25</v>
       </c>
       <c r="V42" s="394">
         <f>IF(ISERROR(AVERAGE(T42,U42)),#NUM!,AVERAGE(T42,U42))</f>
-        <v>7.375</v>
+        <v>7.75</v>
       </c>
       <c r="W42" s="259" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X42" s="664">
-        <v>7.375</v>
+        <v>7.75</v>
       </c>
       <c r="Y42" s="260"/>
       <c r="Z42" s="393">
@@ -53000,11 +53037,11 @@
       </c>
       <c r="AA42" s="260"/>
       <c r="AB42" s="468">
-        <v>7.375</v>
+        <v>7.75</v>
       </c>
       <c r="AC42" s="258">
         <f>_xll.qlSimpleQuoteSetValue(F42,AB42/10000,Trigger)</f>
-        <v>0</v>
+        <v>3.749999999999999E-5</v>
       </c>
       <c r="AD42" s="160"/>
       <c r="AE42" s="17"/>
@@ -53174,7 +53211,7 @@
       <c r="R3" s="86"/>
       <c r="S3" s="260" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,_xll.ohFilter(N5:N42,W5:W42),_xll.ohFilter(V5:V42,W5:W42))</f>
-        <v>obj_0063a#0004</v>
+        <v>obj_0063c#0001</v>
       </c>
       <c r="T3" s="86"/>
       <c r="U3" s="86"/>
@@ -53187,7 +53224,7 @@
       <c r="AB3" s="86"/>
       <c r="AC3" s="289">
         <f>_xll.ohTrigger(AC5:AC42)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AD3" s="160"/>
       <c r="AE3" s="17"/>
@@ -53222,7 +53259,7 @@
       <c r="R4" s="141"/>
       <c r="S4" s="288" t="str">
         <f>_xll.RData(S5:S42,T4:U4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:15:40</v>
       </c>
       <c r="T4" s="319" t="s">
         <v>254</v>
@@ -53318,7 +53355,7 @@
       </c>
       <c r="X5" s="663">
         <f t="array" ref="X5:X42">_xll.qlInterpolationInterpolate(S3,N5:N42,TRUE)</f>
-        <v>21.467577269113935</v>
+        <v>18.614691586281062</v>
       </c>
       <c r="Y5" s="260"/>
       <c r="Z5" s="395">
@@ -53327,11 +53364,11 @@
       <c r="AA5" s="260"/>
       <c r="AB5" s="467">
         <f t="array" ref="AB5:AB42">QuoteLive</f>
-        <v>21.467577269113935</v>
+        <v>18.614691586281062</v>
       </c>
       <c r="AC5" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F5,AB5/10000,Trigger)</f>
-        <v>-1.783053551770563E-5</v>
+        <v>1.783053551770563E-5</v>
       </c>
       <c r="AD5" s="160"/>
       <c r="AE5" s="17"/>
@@ -53391,21 +53428,21 @@
         <v>GBP6L12L1Y=ICAP</v>
       </c>
       <c r="T6" s="396">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="U6" s="396">
-        <v>26.5</v>
+        <v>24.5</v>
       </c>
       <c r="V6" s="396">
         <f t="shared" ref="V6:V41" si="5">IF(ISERROR(AVERAGE(T6,U6)),#NUM!,AVERAGE(T6,U6))</f>
-        <v>20.5</v>
+        <v>18.5</v>
       </c>
       <c r="W6" s="266" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X6" s="663">
-        <v>20.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y6" s="260"/>
       <c r="Z6" s="395">
@@ -53413,11 +53450,11 @@
       </c>
       <c r="AA6" s="260"/>
       <c r="AB6" s="467">
-        <v>20.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC6" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F6,AB6/10000,Trigger)</f>
-        <v>-1.2499999999999924E-5</v>
+        <v>1.2500000000000141E-5</v>
       </c>
       <c r="AD6" s="160"/>
       <c r="AE6" s="17"/>
@@ -53491,7 +53528,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="663">
-        <v>19.746240341360757</v>
+        <v>18.415351051714868</v>
       </c>
       <c r="Y7" s="260"/>
       <c r="Z7" s="395">
@@ -53499,11 +53536,11 @@
       </c>
       <c r="AA7" s="260"/>
       <c r="AB7" s="467">
-        <v>19.746240341360757</v>
+        <v>18.415351051714868</v>
       </c>
       <c r="AC7" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F7,AB7/10000,Trigger)</f>
-        <v>-8.3180580602868273E-6</v>
+        <v>8.3180580602868273E-6</v>
       </c>
       <c r="AD7" s="160"/>
       <c r="AE7" s="17"/>
@@ -53577,7 +53614,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="663">
-        <v>19.017491414542896</v>
+        <v>18.334478712635438</v>
       </c>
       <c r="Y8" s="260"/>
       <c r="Z8" s="395">
@@ -53585,11 +53622,11 @@
       </c>
       <c r="AA8" s="260"/>
       <c r="AB8" s="467">
-        <v>19.017491414542896</v>
+        <v>18.334478712635438</v>
       </c>
       <c r="AC8" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F8,AB8/10000,Trigger)</f>
-        <v>-4.2688293869215348E-6</v>
+        <v>4.2688293869215348E-6</v>
       </c>
       <c r="AD8" s="160"/>
       <c r="AE8" s="17"/>
@@ -53663,7 +53700,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="663">
-        <v>18.467496780453587</v>
+        <v>18.273867017238288</v>
       </c>
       <c r="Y9" s="260"/>
       <c r="Z9" s="395">
@@ -53671,11 +53708,11 @@
       </c>
       <c r="AA9" s="260"/>
       <c r="AB9" s="467">
-        <v>18.467496780453587</v>
+        <v>18.273867017238288</v>
       </c>
       <c r="AC9" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F9,AB9/10000,Trigger)</f>
-        <v>-1.2101860200955643E-6</v>
+        <v>1.2101860200953475E-6</v>
       </c>
       <c r="AD9" s="160"/>
       <c r="AE9" s="17"/>
@@ -54514,7 +54551,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="663">
-        <v>16.14595216296517</v>
+        <v>16.145963136753185</v>
       </c>
       <c r="Y19" s="260"/>
       <c r="Z19" s="395">
@@ -54522,11 +54559,11 @@
       </c>
       <c r="AA19" s="260"/>
       <c r="AB19" s="467">
-        <v>16.14595216296517</v>
+        <v>16.145963136753185</v>
       </c>
       <c r="AC19" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F19,AB19/10000,Trigger)</f>
-        <v>6.8586175150722739E-11</v>
+        <v>-6.8586175150722739E-11</v>
       </c>
       <c r="AD19" s="160"/>
       <c r="AE19" s="17"/>
@@ -54674,7 +54711,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="663">
-        <v>15.354901457148474</v>
+        <v>15.35489593479431</v>
       </c>
       <c r="Y21" s="260"/>
       <c r="Z21" s="395">
@@ -54682,11 +54719,11 @@
       </c>
       <c r="AA21" s="260"/>
       <c r="AB21" s="467">
-        <v>15.354901457148474</v>
+        <v>15.35489593479431</v>
       </c>
       <c r="AC21" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F21,AB21/10000,Trigger)</f>
-        <v>-3.4514713569827604E-11</v>
+        <v>3.4514713569827604E-11</v>
       </c>
       <c r="AD21" s="160"/>
       <c r="AE21" s="17"/>
@@ -54754,7 +54791,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="663">
-        <v>14.976756359051684</v>
+        <v>14.976752427545067</v>
       </c>
       <c r="Y22" s="260"/>
       <c r="Z22" s="395">
@@ -54762,11 +54799,11 @@
       </c>
       <c r="AA22" s="260"/>
       <c r="AB22" s="467">
-        <v>14.976756359051684</v>
+        <v>14.976752427545067</v>
       </c>
       <c r="AC22" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F22,AB22/10000,Trigger)</f>
-        <v>-2.4571916550086836E-11</v>
+        <v>2.4571916333246402E-11</v>
       </c>
       <c r="AD22" s="160"/>
       <c r="AE22" s="17"/>
@@ -54914,7 +54951,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="663">
-        <v>14.306329397559143</v>
+        <v>14.306331795354772</v>
       </c>
       <c r="Y24" s="260"/>
       <c r="Z24" s="395">
@@ -54922,11 +54959,11 @@
       </c>
       <c r="AA24" s="260"/>
       <c r="AB24" s="467">
-        <v>14.306329397559143</v>
+        <v>14.306331795354772</v>
       </c>
       <c r="AC24" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F24,AB24/10000,Trigger)</f>
-        <v>1.498622276621675E-11</v>
+        <v>-1.498622276621675E-11</v>
       </c>
       <c r="AD24" s="160"/>
       <c r="AE24" s="17"/>
@@ -54994,7 +55031,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="663">
-        <v>14.016488462396236</v>
+        <v>14.016491442596804</v>
       </c>
       <c r="Y25" s="260"/>
       <c r="Z25" s="395">
@@ -55002,11 +55039,11 @@
       </c>
       <c r="AA25" s="260"/>
       <c r="AB25" s="467">
-        <v>14.016488462396236</v>
+        <v>14.016491442596804</v>
       </c>
       <c r="AC25" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F25,AB25/10000,Trigger)</f>
-        <v>1.8626253751180544E-11</v>
+        <v>-1.8626253534340109E-11</v>
       </c>
       <c r="AD25" s="160"/>
       <c r="AE25" s="17"/>
@@ -55074,7 +55111,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="663">
-        <v>13.74848282845376</v>
+        <v>13.74848519216145</v>
       </c>
       <c r="Y26" s="260"/>
       <c r="Z26" s="395">
@@ -55082,11 +55119,11 @@
       </c>
       <c r="AA26" s="260"/>
       <c r="AB26" s="467">
-        <v>13.74848282845376</v>
+        <v>13.74848519216145</v>
       </c>
       <c r="AC26" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F26,AB26/10000,Trigger)</f>
-        <v>1.4773173136195528E-11</v>
+        <v>-1.4773173136195528E-11</v>
       </c>
       <c r="AD26" s="160"/>
       <c r="AE26" s="17"/>
@@ -55154,7 +55191,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="663">
-        <v>13.495318129674189</v>
+        <v>13.495319294484062</v>
       </c>
       <c r="Y27" s="260"/>
       <c r="Z27" s="395">
@@ -55162,11 +55199,11 @@
       </c>
       <c r="AA27" s="260"/>
       <c r="AB27" s="467">
-        <v>13.495318129674189</v>
+        <v>13.495319294484062</v>
       </c>
       <c r="AC27" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F27,AB27/10000,Trigger)</f>
-        <v>7.2800617530871525E-12</v>
+        <v>-7.2800617530871525E-12</v>
       </c>
       <c r="AD27" s="160"/>
       <c r="AE27" s="17"/>
@@ -55314,7 +55351,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="663">
-        <v>13.0073636327641</v>
+        <v>13.00736298841888</v>
       </c>
       <c r="Y29" s="260"/>
       <c r="Z29" s="395">
@@ -55322,11 +55359,11 @@
       </c>
       <c r="AA29" s="260"/>
       <c r="AB29" s="467">
-        <v>13.0073636327641</v>
+        <v>13.00736298841888</v>
       </c>
       <c r="AC29" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F29,AB29/10000,Trigger)</f>
-        <v>-4.0271575137140747E-12</v>
+        <v>4.0271575137140747E-12</v>
       </c>
       <c r="AD29" s="160"/>
       <c r="AE29" s="17"/>
@@ -55394,7 +55431,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="663">
-        <v>12.769562458861106</v>
+        <v>12.76956165654738</v>
       </c>
       <c r="Y30" s="260"/>
       <c r="Z30" s="395">
@@ -55402,11 +55439,11 @@
       </c>
       <c r="AA30" s="260"/>
       <c r="AB30" s="467">
-        <v>12.769562458861106</v>
+        <v>12.76956165654738</v>
       </c>
       <c r="AC30" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F30,AB30/10000,Trigger)</f>
-        <v>-5.0144606349167287E-12</v>
+        <v>5.0144606349167287E-12</v>
       </c>
       <c r="AD30" s="160"/>
       <c r="AE30" s="17"/>
@@ -55474,7 +55511,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="663">
-        <v>12.540579468576061</v>
+        <v>12.540578830466439</v>
       </c>
       <c r="Y31" s="260"/>
       <c r="Z31" s="395">
@@ -55482,11 +55519,11 @@
       </c>
       <c r="AA31" s="260"/>
       <c r="AB31" s="467">
-        <v>12.540579468576061</v>
+        <v>12.540578830466439</v>
       </c>
       <c r="AC31" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F31,AB31/10000,Trigger)</f>
-        <v>-3.9881852161027798E-12</v>
+        <v>3.9881849992623453E-12</v>
       </c>
       <c r="AD31" s="160"/>
       <c r="AE31" s="17"/>
@@ -55554,7 +55591,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="663">
-        <v>12.32439765219401</v>
+        <v>12.324397336256999</v>
       </c>
       <c r="Y32" s="260"/>
       <c r="Z32" s="395">
@@ -55562,11 +55599,11 @@
       </c>
       <c r="AA32" s="260"/>
       <c r="AB32" s="467">
-        <v>12.32439765219401</v>
+        <v>12.324397336256999</v>
       </c>
       <c r="AC32" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F32,AB32/10000,Trigger)</f>
-        <v>-1.9746062424053079E-12</v>
+        <v>1.9746062424053079E-12</v>
       </c>
       <c r="AD32" s="160"/>
       <c r="AE32" s="17"/>
@@ -55714,7 +55751,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="663">
-        <v>11.945216071384458</v>
+        <v>11.945216250969706</v>
       </c>
       <c r="Y34" s="260"/>
       <c r="Z34" s="395">
@@ -55722,11 +55759,11 @@
       </c>
       <c r="AA34" s="260"/>
       <c r="AB34" s="467">
-        <v>11.945216071384458</v>
+        <v>11.945216250969706</v>
       </c>
       <c r="AC34" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F34,AB34/10000,Trigger)</f>
-        <v>1.1224077223204176E-12</v>
+        <v>-1.1224077223204176E-12</v>
       </c>
       <c r="AD34" s="160"/>
       <c r="AE34" s="17"/>
@@ -55794,7 +55831,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="663">
-        <v>11.783261702159342</v>
+        <v>11.783261931213676</v>
       </c>
       <c r="Y35" s="260"/>
       <c r="Z35" s="395">
@@ -55802,11 +55839,11 @@
       </c>
       <c r="AA35" s="260"/>
       <c r="AB35" s="467">
-        <v>11.783261702159342</v>
+        <v>11.783261931213676</v>
       </c>
       <c r="AC35" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F35,AB35/10000,Trigger)</f>
-        <v>1.4315894390076744E-12</v>
+        <v>-1.4315894390076744E-12</v>
       </c>
       <c r="AD35" s="160"/>
       <c r="AE35" s="17"/>
@@ -55874,7 +55911,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="663">
-        <v>11.636199297241999</v>
+        <v>11.636199485972792</v>
       </c>
       <c r="Y36" s="260"/>
       <c r="Z36" s="395">
@@ -55882,11 +55919,11 @@
       </c>
       <c r="AA36" s="260"/>
       <c r="AB36" s="467">
-        <v>11.636199297241999</v>
+        <v>11.636199485972792</v>
       </c>
       <c r="AC36" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F36,AB36/10000,Trigger)</f>
-        <v>1.1795677282155914E-12</v>
+        <v>-1.1795677282155914E-12</v>
       </c>
       <c r="AD36" s="160"/>
       <c r="AE36" s="17"/>
@@ -55954,7 +55991,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="663">
-        <v>11.501091261549771</v>
+        <v>11.501091360487941</v>
       </c>
       <c r="Y37" s="260"/>
       <c r="Z37" s="395">
@@ -55962,11 +55999,11 @@
       </c>
       <c r="AA37" s="260"/>
       <c r="AB37" s="467">
-        <v>11.501091261549771</v>
+        <v>11.501091360487941</v>
       </c>
       <c r="AC37" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F37,AB37/10000,Trigger)</f>
-        <v>6.183636502149481E-13</v>
+        <v>-6.183634333745136E-13</v>
       </c>
       <c r="AD37" s="160"/>
       <c r="AE37" s="17"/>
@@ -56114,7 +56151,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="663">
-        <v>10.828387095975909</v>
+        <v>10.828386953076768</v>
       </c>
       <c r="Y39" s="260"/>
       <c r="Z39" s="395">
@@ -56122,11 +56159,11 @@
       </c>
       <c r="AA39" s="260"/>
       <c r="AB39" s="467">
-        <v>10.828387095975909</v>
+        <v>10.828386953076768</v>
       </c>
       <c r="AC39" s="265">
         <f>_xll.qlSimpleQuoteSetValue(F39,AB39/10000,Trigger)</f>
-        <v>-8.9311956268101067E-13</v>
+        <v>8.9311956268101067E-13</v>
       </c>
       <c r="AD39" s="160"/>
       <c r="AE39" s="17"/>
@@ -56510,7 +56547,7 @@
       <c r="O3" s="290"/>
       <c r="P3" s="604">
         <f>_xll.ohTrigger(P5:P22)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="160"/>
       <c r="R3" s="17"/>
@@ -56540,7 +56577,7 @@
       <c r="I4" s="285"/>
       <c r="J4" s="288" t="str">
         <f>_xll.RData(J5:J22,K4:K4,"RTFEED:IDN",ReutersRtMode,,K5)</f>
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:15:40</v>
       </c>
       <c r="K4" s="287" t="str">
         <f>VLOOKUP(Contributor,ContributorTable,5,FALSE)</f>
@@ -56602,7 +56639,7 @@
         <v>GBPONFSR=</v>
       </c>
       <c r="K5" s="279">
-        <v>0.47688000000000003</v>
+        <v>0.47563</v>
       </c>
       <c r="L5" s="260"/>
       <c r="M5" s="278">
@@ -56611,11 +56648,11 @@
       <c r="N5" s="260"/>
       <c r="O5" s="457">
         <f t="array" ref="O5:O22">QuoteLive</f>
-        <v>0.47688000000000003</v>
+        <v>0.47563</v>
       </c>
       <c r="P5" s="276">
         <f>_xll.qlSimpleQuoteSetValue(D5,O5/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.2500000000000358E-5</v>
       </c>
       <c r="Q5" s="160"/>
       <c r="R5" s="17"/>
@@ -56773,7 +56810,7 @@
         <v>GBPSWFSR=</v>
       </c>
       <c r="K8" s="268">
-        <v>0.48249999999999998</v>
+        <v>0.48187999999999998</v>
       </c>
       <c r="L8" s="260"/>
       <c r="M8" s="267">
@@ -56781,11 +56818,11 @@
       </c>
       <c r="N8" s="260"/>
       <c r="O8" s="458">
-        <v>0.48249999999999998</v>
+        <v>0.48187999999999998</v>
       </c>
       <c r="P8" s="265">
         <f>_xll.qlSimpleQuoteSetValue(D8,O8/100,Trigger)</f>
-        <v>0</v>
+        <v>-6.1999999999996086E-6</v>
       </c>
       <c r="Q8" s="160"/>
       <c r="R8" s="17"/>
@@ -56944,7 +56981,7 @@
         <v>GBP1MFSR=</v>
       </c>
       <c r="K11" s="268">
-        <v>0.50788</v>
+        <v>0.50319000000000003</v>
       </c>
       <c r="L11" s="260"/>
       <c r="M11" s="267">
@@ -56952,11 +56989,11 @@
       </c>
       <c r="N11" s="260"/>
       <c r="O11" s="458">
-        <v>0.50788</v>
+        <v>0.50319000000000003</v>
       </c>
       <c r="P11" s="265">
         <f>_xll.qlSimpleQuoteSetValue(D11,O11/100,Trigger)</f>
-        <v>0</v>
+        <v>-4.6899999999999026E-5</v>
       </c>
       <c r="Q11" s="160"/>
       <c r="R11" s="17"/>
@@ -57001,7 +57038,7 @@
         <v>GBP2MFSR=</v>
       </c>
       <c r="K12" s="268">
-        <v>0.53244000000000002</v>
+        <v>0.53337999999999997</v>
       </c>
       <c r="L12" s="260"/>
       <c r="M12" s="267">
@@ -57009,11 +57046,11 @@
       </c>
       <c r="N12" s="260"/>
       <c r="O12" s="458">
-        <v>0.53244000000000002</v>
+        <v>0.53337999999999997</v>
       </c>
       <c r="P12" s="265">
         <f>_xll.qlSimpleQuoteSetValue(D12,O12/100,Trigger)</f>
-        <v>0</v>
+        <v>9.3999999999996864E-6</v>
       </c>
       <c r="Q12" s="160"/>
       <c r="R12" s="17"/>
@@ -57058,7 +57095,7 @@
         <v>GBP3MFSR=</v>
       </c>
       <c r="K13" s="268">
-        <v>0.56430999999999998</v>
+        <v>0.56274999999999997</v>
       </c>
       <c r="L13" s="260"/>
       <c r="M13" s="267">
@@ -57066,11 +57103,11 @@
       </c>
       <c r="N13" s="260"/>
       <c r="O13" s="458">
-        <v>0.56430999999999998</v>
+        <v>0.56274999999999997</v>
       </c>
       <c r="P13" s="265">
         <f>_xll.qlSimpleQuoteSetValue(D13,O13/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.5600000000000162E-5</v>
       </c>
       <c r="Q13" s="160"/>
       <c r="R13" s="17"/>
@@ -57213,7 +57250,7 @@
         <v>GBP6MFSR=</v>
       </c>
       <c r="K16" s="268">
-        <v>0.71331</v>
+        <v>0.70955999999999997</v>
       </c>
       <c r="L16" s="260"/>
       <c r="M16" s="267">
@@ -57221,11 +57258,11 @@
       </c>
       <c r="N16" s="260"/>
       <c r="O16" s="458">
-        <v>0.71331</v>
+        <v>0.70955999999999997</v>
       </c>
       <c r="P16" s="265">
         <f>_xll.qlSimpleQuoteSetValue(D16,O16/100,Trigger)</f>
-        <v>0</v>
+        <v>-3.7500000000000207E-5</v>
       </c>
       <c r="Q16" s="160"/>
       <c r="R16" s="17"/>
@@ -57507,7 +57544,7 @@
         <v>GBP1YFSR=</v>
       </c>
       <c r="K22" s="262">
-        <v>1.0589999999999999</v>
+        <v>1.04619</v>
       </c>
       <c r="L22" s="260"/>
       <c r="M22" s="261">
@@ -57515,11 +57552,11 @@
       </c>
       <c r="N22" s="260"/>
       <c r="O22" s="459">
-        <v>1.0589999999999999</v>
+        <v>1.04619</v>
       </c>
       <c r="P22" s="258">
         <f>_xll.qlSimpleQuoteSetValue(D22,O22/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.2809999999999905E-4</v>
       </c>
       <c r="Q22" s="160"/>
       <c r="R22" s="17"/>
@@ -57684,7 +57721,7 @@
       <c r="V3" s="86"/>
       <c r="W3" s="289">
         <f>_xll.ohTrigger(W5:W20)</f>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="X3" s="160"/>
       <c r="Y3" s="17"/>
@@ -57712,7 +57749,7 @@
       <c r="L4" s="141"/>
       <c r="M4" s="288" t="str">
         <f>_xll.RData(M5:M20,N4:Q4,"RTFEED:IDN",ReutersRtMode,,N5)</f>
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:15:41</v>
       </c>
       <c r="N4" s="319" t="s">
         <v>254</v>
@@ -57780,10 +57817,10 @@
         <v>GBP1X4F=ICAP</v>
       </c>
       <c r="N5" s="311">
-        <v>0.55000000000000004</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="O5" s="311">
-        <v>0.6</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="P5" s="310">
         <v>0</v>
@@ -57793,7 +57830,7 @@
       </c>
       <c r="R5" s="279">
         <f>_xll.qlMidSafe($N5,$O5)</f>
-        <v>0.57499999999999996</v>
+        <v>0.58000000000000007</v>
       </c>
       <c r="S5" s="260"/>
       <c r="T5" s="302">
@@ -57802,7 +57839,7 @@
       <c r="U5" s="260"/>
       <c r="V5" s="457">
         <f t="array" ref="V5:V20">QuoteLive</f>
-        <v>0.57499999999999996</v>
+        <v>0.58000000000000007</v>
       </c>
       <c r="W5" s="276">
         <f>_xll.qlSimpleQuoteSetValue(E5,V5/100,Trigger)</f>
@@ -57847,10 +57884,10 @@
         <v>GBP2X5F=ICAP</v>
       </c>
       <c r="N6" s="308">
-        <v>0.59499999999999997</v>
+        <v>0.6</v>
       </c>
       <c r="O6" s="308">
-        <v>0.64500000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="P6" s="307">
         <v>0</v>
@@ -57860,7 +57897,7 @@
       </c>
       <c r="R6" s="268">
         <f>_xll.qlMidSafe($N6,$O6)</f>
-        <v>0.62</v>
+        <v>0.625</v>
       </c>
       <c r="S6" s="260"/>
       <c r="T6" s="302">
@@ -57868,7 +57905,7 @@
       </c>
       <c r="U6" s="260"/>
       <c r="V6" s="458">
-        <v>0.62</v>
+        <v>0.625</v>
       </c>
       <c r="W6" s="265">
         <f>_xll.qlSimpleQuoteSetValue(E6,V6/100,Trigger)</f>
@@ -57913,10 +57950,10 @@
         <v>GBP3X6F=ICAP</v>
       </c>
       <c r="N7" s="308">
-        <v>0.64500000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="O7" s="308">
-        <v>0.69499999999999995</v>
+        <v>0.7</v>
       </c>
       <c r="P7" s="307">
         <v>0</v>
@@ -57926,7 +57963,7 @@
       </c>
       <c r="R7" s="268">
         <f>_xll.qlMidSafe($N7,$O7)</f>
-        <v>0.66999999999999993</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="S7" s="260"/>
       <c r="T7" s="302">
@@ -57934,7 +57971,7 @@
       </c>
       <c r="U7" s="260"/>
       <c r="V7" s="458">
-        <v>0.66999999999999993</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="W7" s="265">
         <f>_xll.qlSimpleQuoteSetValue(E7,V7/100,Trigger)</f>
@@ -57979,10 +58016,10 @@
         <v>GBP4X7F=ICAP</v>
       </c>
       <c r="N8" s="308">
-        <v>0.7</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="O8" s="308">
-        <v>0.75</v>
+        <v>0.755</v>
       </c>
       <c r="P8" s="307">
         <v>0</v>
@@ -57992,7 +58029,7 @@
       </c>
       <c r="R8" s="268">
         <f>_xll.qlMidSafe($N8,$O8)</f>
-        <v>0.72499999999999998</v>
+        <v>0.73</v>
       </c>
       <c r="S8" s="260"/>
       <c r="T8" s="302">
@@ -58000,7 +58037,7 @@
       </c>
       <c r="U8" s="260"/>
       <c r="V8" s="458">
-        <v>0.72499999999999998</v>
+        <v>0.73</v>
       </c>
       <c r="W8" s="265">
         <f>_xll.qlSimpleQuoteSetValue(E8,V8/100,Trigger)</f>
@@ -58045,10 +58082,10 @@
         <v>GBP5X8F=ICAP</v>
       </c>
       <c r="N9" s="308">
-        <v>0.74</v>
+        <v>0.745</v>
       </c>
       <c r="O9" s="308">
-        <v>0.79</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="P9" s="307">
         <v>0</v>
@@ -58058,7 +58095,7 @@
       </c>
       <c r="R9" s="268">
         <f>_xll.qlMidSafe($N9,$O9)</f>
-        <v>0.76500000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="S9" s="260"/>
       <c r="T9" s="302">
@@ -58066,7 +58103,7 @@
       </c>
       <c r="U9" s="260"/>
       <c r="V9" s="458">
-        <v>0.76500000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="W9" s="265">
         <f>_xll.qlSimpleQuoteSetValue(E9,V9/100,Trigger)</f>
@@ -58111,10 +58148,10 @@
         <v>GBP6X9F=ICAP</v>
       </c>
       <c r="N10" s="304">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="O10" s="304">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="P10" s="303">
         <v>0</v>
@@ -58124,7 +58161,7 @@
       </c>
       <c r="R10" s="262">
         <f>_xll.qlMidSafe($N10,$O10)</f>
-        <v>0.81499999999999995</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="S10" s="260"/>
       <c r="T10" s="315">
@@ -58132,7 +58169,7 @@
       </c>
       <c r="U10" s="260"/>
       <c r="V10" s="458">
-        <v>0.81499999999999995</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="W10" s="265">
         <f>_xll.qlSimpleQuoteSetValue(E10,V10/100,Trigger)</f>
@@ -58178,10 +58215,10 @@
         <v>GBP1X7F=ICAP</v>
       </c>
       <c r="N11" s="311">
-        <v>0.70499999999999996</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="O11" s="311">
-        <v>0.755</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="P11" s="310">
         <v>0</v>
@@ -58191,7 +58228,7 @@
       </c>
       <c r="R11" s="279">
         <f>_xll.qlMidSafe($N11,$O11)</f>
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="S11" s="260"/>
       <c r="T11" s="302">
@@ -58199,7 +58236,7 @@
       </c>
       <c r="U11" s="260"/>
       <c r="V11" s="458">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="W11" s="265">
         <f>_xll.qlSimpleQuoteSetValue(E11,V11/100,Trigger)</f>
@@ -58245,10 +58282,10 @@
         <v>GBP2X8F=ICAP</v>
       </c>
       <c r="N12" s="308">
-        <v>0.755</v>
+        <v>0.76</v>
       </c>
       <c r="O12" s="308">
-        <v>0.80500000000000005</v>
+        <v>0.81</v>
       </c>
       <c r="P12" s="307">
         <v>0</v>
@@ -58258,7 +58295,7 @@
       </c>
       <c r="R12" s="268">
         <f>_xll.qlMidSafe($N12,$O12)</f>
-        <v>0.78</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="S12" s="260"/>
       <c r="T12" s="302">
@@ -58266,7 +58303,7 @@
       </c>
       <c r="U12" s="260"/>
       <c r="V12" s="458">
-        <v>0.78</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="W12" s="265">
         <f>_xll.qlSimpleQuoteSetValue(E12,V12/100,Trigger)</f>
@@ -58312,10 +58349,10 @@
         <v>GBP3X9F=ICAP</v>
       </c>
       <c r="N13" s="308">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="O13" s="308">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="P13" s="307">
         <v>0</v>
@@ -58325,7 +58362,7 @@
       </c>
       <c r="R13" s="268">
         <f>_xll.qlMidSafe($N13,$O13)</f>
-        <v>0.84499999999999997</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="S13" s="260"/>
       <c r="T13" s="302">
@@ -58333,7 +58370,7 @@
       </c>
       <c r="U13" s="260"/>
       <c r="V13" s="458">
-        <v>0.84499999999999997</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="W13" s="265">
         <f>_xll.qlSimpleQuoteSetValue(E13,V13/100,Trigger)</f>
@@ -58379,10 +58416,10 @@
         <v>GBP4X10F=ICAP</v>
       </c>
       <c r="N14" s="308">
-        <v>0.875</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="O14" s="308">
-        <v>0.92500000000000004</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="P14" s="307">
         <v>0</v>
@@ -58392,7 +58429,7 @@
       </c>
       <c r="R14" s="268">
         <f>_xll.qlMidSafe($N14,$O14)</f>
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="S14" s="260"/>
       <c r="T14" s="302">
@@ -58400,7 +58437,7 @@
       </c>
       <c r="U14" s="260"/>
       <c r="V14" s="458">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="W14" s="265">
         <f>_xll.qlSimpleQuoteSetValue(E14,V14/100,Trigger)</f>
@@ -58446,10 +58483,10 @@
         <v>GBP5X11F=ICAP</v>
       </c>
       <c r="N15" s="308">
-        <v>0.91500000000000004</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="O15" s="308">
-        <v>0.96499999999999997</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="P15" s="307">
         <v>0</v>
@@ -58459,7 +58496,7 @@
       </c>
       <c r="R15" s="268">
         <f>_xll.qlMidSafe($N15,$O15)</f>
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="S15" s="260"/>
       <c r="T15" s="302">
@@ -58467,7 +58504,7 @@
       </c>
       <c r="U15" s="260"/>
       <c r="V15" s="458">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="W15" s="265">
         <f>_xll.qlSimpleQuoteSetValue(E15,V15/100,Trigger)</f>
@@ -58513,10 +58550,10 @@
         <v>GBP6X12F=ICAP</v>
       </c>
       <c r="N16" s="308">
-        <v>0.96499999999999997</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="O16" s="308">
-        <v>1.0149999999999999</v>
+        <v>1.0349999999999999</v>
       </c>
       <c r="P16" s="307">
         <v>0</v>
@@ -58526,7 +58563,7 @@
       </c>
       <c r="R16" s="268">
         <f>_xll.qlMidSafe($N16,$O16)</f>
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="S16" s="260"/>
       <c r="T16" s="302">
@@ -58534,7 +58571,7 @@
       </c>
       <c r="U16" s="260"/>
       <c r="V16" s="458">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="W16" s="265">
         <f>_xll.qlSimpleQuoteSetValue(E16,V16/100,Trigger)</f>
@@ -58580,10 +58617,10 @@
         <v>GBP9X15F=ICAP</v>
       </c>
       <c r="N17" s="308">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="O17" s="308">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P17" s="307">
         <v>0</v>
@@ -58593,7 +58630,7 @@
       </c>
       <c r="R17" s="268">
         <f>_xll.qlMidSafe($N17,$O17)</f>
-        <v>1.1749999999999998</v>
+        <v>1.1850000000000001</v>
       </c>
       <c r="S17" s="260"/>
       <c r="T17" s="302">
@@ -58601,7 +58638,7 @@
       </c>
       <c r="U17" s="260"/>
       <c r="V17" s="458">
-        <v>1.1749999999999998</v>
+        <v>1.1850000000000001</v>
       </c>
       <c r="W17" s="265">
         <f>_xll.qlSimpleQuoteSetValue(E17,V17/100,Trigger)</f>
@@ -58647,10 +58684,10 @@
         <v>GBP12X18F=ICAP</v>
       </c>
       <c r="N18" s="308">
-        <v>1.345</v>
+        <v>1.355</v>
       </c>
       <c r="O18" s="308">
-        <v>1.395</v>
+        <v>1.405</v>
       </c>
       <c r="P18" s="307">
         <v>0</v>
@@ -58660,7 +58697,7 @@
       </c>
       <c r="R18" s="268">
         <f>_xll.qlMidSafe($N18,$O18)</f>
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S18" s="260"/>
       <c r="T18" s="302">
@@ -58668,11 +58705,11 @@
       </c>
       <c r="U18" s="260"/>
       <c r="V18" s="458">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W18" s="265">
         <f>_xll.qlSimpleQuoteSetValue(E18,V18/100,Trigger)</f>
-        <v>0</v>
+        <v>4.9999999999999697E-5</v>
       </c>
       <c r="X18" s="160"/>
       <c r="Y18" s="17"/>
@@ -58780,10 +58817,10 @@
         <v>GBP12X24F=ICAP</v>
       </c>
       <c r="N20" s="298">
-        <v>1.72</v>
+        <v>1.7250000000000001</v>
       </c>
       <c r="O20" s="298">
-        <v>1.82</v>
+        <v>1.825</v>
       </c>
       <c r="P20" s="297">
         <v>0</v>
@@ -58793,7 +58830,7 @@
       </c>
       <c r="R20" s="296">
         <f>_xll.qlMidSafe($N20,$O20)</f>
-        <v>1.77</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="S20" s="260"/>
       <c r="T20" s="295">
@@ -58801,11 +58838,11 @@
       </c>
       <c r="U20" s="260"/>
       <c r="V20" s="494">
-        <v>1.77</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="W20" s="648">
         <f>_xll.qlSimpleQuoteSetValue(E20,V20/100,Trigger)</f>
-        <v>4.9999999999997963E-5</v>
+        <v>0</v>
       </c>
       <c r="X20" s="160"/>
       <c r="Y20" s="17"/>
@@ -58938,7 +58975,7 @@
       <c r="Y2" s="162"/>
       <c r="Z2" s="607">
         <f>_xll.ohTrigger(Z4:Z15)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA2" s="103"/>
       <c r="AL2" s="181" t="s">
@@ -58988,7 +59025,7 @@
       </c>
       <c r="O3" s="358" t="str">
         <f>_xll.RData(O4:O15,P3:T3,"RTFEED:IDN",ReutersRtMode,,P4)</f>
-        <v>Paused at 12:28:41</v>
+        <v>Updated at 16:15:39</v>
       </c>
       <c r="P3" s="355" t="s">
         <v>258</v>
